--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>6.972750189097953e-006</v>
+        <v>5.76009798229831e-006</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0002094856687246385</v>
+        <v>0.0002049382229491399</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.002126688807674876</v>
+        <v>0.002090612404522586</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.009901608431570794</v>
+        <v>0.00991646342110409</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.0289423702196871</v>
+        <v>0.02874319209472026</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.0596161046276324</v>
+        <v>0.05919016053999403</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.09440558062545569</v>
+        <v>0.0943801149291129</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1230663123701136</v>
+        <v>0.1228489444620447</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1365867781498262</v>
+        <v>0.1367159256098504</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1338631612933542</v>
+        <v>0.1337776693127749</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1173013637789881</v>
+        <v>0.1176133185591873</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.0943910287989741</v>
+        <v>0.09474360742810109</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.07020195206688989</v>
+        <v>0.07069216672148865</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.04926278324902874</v>
+        <v>0.049085736026836</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.03251181199040186</v>
+        <v>0.03226170247274943</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.02021642810260857</v>
+        <v>0.02039711328142171</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.01214895613382223</v>
+        <v>0.0122587011585376</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.007098866018605116</v>
+        <v>0.006953347753789159</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.003913531834394152</v>
+        <v>0.003888369301103059</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.002076363741092691</v>
+        <v>0.002060296099352595</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.001070165572500686</v>
+        <v>0.001103816671239376</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0005644896022652344</v>
+        <v>0.0005350827862503429</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.0002667834854959217</v>
+        <v>0.0002883080621666154</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.0001318759274894613</v>
+        <v>0.0001264189925588629</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>6.032944728828229e-005</v>
+        <v>6.245158865018167e-005</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>3.365109873869012e-005</v>
+        <v>3.061946822169101e-005</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.333917427479609e-005</v>
+        <v>1.394550037819591e-005</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>5.456934930598399e-006</v>
+        <v>6.972750189097953e-006</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>3.637956620398932e-006</v>
+        <v>2.728467465299199e-006</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1.515815258499555e-006</v>
+        <v>9.09489155099733e-007</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>3.03163051699911e-007</v>
+        <v>6.063261033998221e-007</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,14 +939,14 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>3.03163051699911e-007</v>
+        <v>8.953487705786961e-008</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>3.760464836430524e-006</v>
+        <v>4.208139221719872e-006</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>9.598138820603622e-005</v>
+        <v>9.633952771426771e-005</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.0009268650473030662</v>
+        <v>0.0008909615616028606</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.004812410106983434</v>
+        <v>0.004885739171293829</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0165834708589045</v>
+        <v>0.01656780225541937</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.04047450977864113</v>
+        <v>0.04061257255906437</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.07511206185212563</v>
+        <v>0.07491687582013948</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.1114531940313902</v>
+        <v>0.1114943800748368</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1376034665039281</v>
+        <v>0.1375617432512191</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1458302891475134</v>
+        <v>0.1458144414742741</v>
       </c>
       <c r="B43">
         <v>13</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1350775085523715</v>
+        <v>0.1348603864755061</v>
       </c>
       <c r="B44">
         <v>14</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1114052033372872</v>
+        <v>0.1114221254290511</v>
       </c>
       <c r="B45">
         <v>15</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.08310099032736816</v>
+        <v>0.08329966821955957</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.05686207832654301</v>
+        <v>0.05695098645946147</v>
       </c>
       <c r="B47">
         <v>17</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.03593043569820013</v>
+        <v>0.0358907717476635</v>
       </c>
       <c r="B48">
         <v>18</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0211912937718107</v>
+        <v>0.02122173563001037</v>
       </c>
       <c r="B49">
         <v>19</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.01178189447204506</v>
+        <v>0.0117123258725711</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.006135108845759342</v>
+        <v>0.006141734426661624</v>
       </c>
       <c r="B51">
         <v>21</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.003032188146441813</v>
+        <v>0.003052602098411007</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.001463537100387937</v>
+        <v>0.001457448728748002</v>
       </c>
       <c r="B53">
         <v>23</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.000644830184570777</v>
+        <v>0.0006530673932601009</v>
       </c>
       <c r="B54">
         <v>24</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0002806918395764213</v>
+        <v>0.0002867802112163564</v>
       </c>
       <c r="B55">
         <v>25</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0001172011540687513</v>
+        <v>0.0001258860371433647</v>
       </c>
       <c r="B56">
         <v>26</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>5.040813578358059e-005</v>
+        <v>5.094534504592781e-005</v>
       </c>
       <c r="B57">
         <v>27</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.933953344449984e-005</v>
+        <v>1.835464979686327e-005</v>
       </c>
       <c r="B58">
         <v>28</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>7.520929672861047e-006</v>
+        <v>6.356976271108742e-006</v>
       </c>
       <c r="B59">
         <v>29</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>2.238371926446741e-006</v>
+        <v>2.775581188793958e-006</v>
       </c>
       <c r="B60">
         <v>30</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.074418524694435e-006</v>
+        <v>6.267441394050873e-007</v>
       </c>
       <c r="B61">
         <v>31</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>2.686046311736089e-007</v>
+        <v>1.790697541157392e-007</v>
       </c>
       <c r="B62">
         <v>32</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.790697541157392e-007</v>
+        <v>8.953487705786961e-008</v>
       </c>
       <c r="B63">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>9.886249798444082e-008</v>
+        <v>2.965874939533225e-007</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.0001421642721016259</v>
+        <v>0.0001474039844948013</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.001032223341455547</v>
+        <v>0.001041318691270115</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.004506053795632828</v>
+        <v>0.004535020507542269</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.01360931261004014</v>
+        <v>0.01364302472185283</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.03101099064276343</v>
+        <v>0.03098756023074112</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.05610021651875684</v>
+        <v>0.05605711246963562</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.08438813851703683</v>
+        <v>0.08436006156760925</v>
       </c>
       <c r="B72">
         <v>11</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.108843556918452</v>
+        <v>0.1088147879315385</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.1231789157136899</v>
+        <v>0.1233106994235031</v>
       </c>
       <c r="B74">
         <v>13</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.1251951174975846</v>
+        <v>0.1251313511863846</v>
       </c>
       <c r="B75">
         <v>14</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.1152105983761439</v>
+        <v>0.1151857838891498</v>
       </c>
       <c r="B76">
         <v>15</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.09787337869210649</v>
+        <v>0.09758984104788712</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.07689653614477186</v>
+        <v>0.07706084561642201</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.05678128026737165</v>
+        <v>0.05701469462511291</v>
       </c>
       <c r="B79">
         <v>18</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.03965355021656324</v>
+        <v>0.0396748056536299</v>
       </c>
       <c r="B80">
         <v>19</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.02623800810257261</v>
+        <v>0.02619332225348364</v>
       </c>
       <c r="B81">
         <v>20</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.01660336336149893</v>
+        <v>0.0164980748011455</v>
       </c>
       <c r="B82">
         <v>21</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.01001734147077145</v>
+        <v>0.009992724708773325</v>
       </c>
       <c r="B83">
         <v>22</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.005792057169414435</v>
+        <v>0.005828636293668678</v>
       </c>
       <c r="B84">
         <v>23</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.003257618171085309</v>
+        <v>0.003260485183526858</v>
       </c>
       <c r="B85">
         <v>24</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.001780019276209857</v>
+        <v>0.001792673675951866</v>
       </c>
       <c r="B86">
         <v>25</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0009368210309005612</v>
+        <v>0.0009433459557675343</v>
       </c>
       <c r="B87">
         <v>26</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.0004836353401398845</v>
+        <v>0.000476121790293067</v>
       </c>
       <c r="B88">
         <v>27</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.0002410267700860667</v>
+        <v>0.0002325245952594048</v>
       </c>
       <c r="B89">
         <v>28</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.0001133952851881536</v>
+        <v>0.0001138895976780758</v>
       </c>
       <c r="B90">
         <v>29</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>5.476982388338022e-005</v>
+        <v>5.743911132896012e-005</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>2.708832444773679e-005</v>
+        <v>2.392472451223468e-005</v>
       </c>
       <c r="B92">
         <v>31</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.384074971782172e-005</v>
+        <v>1.057828728433517e-005</v>
       </c>
       <c r="B93">
         <v>32</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>5.140849895190923e-006</v>
+        <v>5.338574891159804e-006</v>
       </c>
       <c r="B94">
         <v>33</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.878387461704376e-006</v>
+        <v>3.262462433486547e-006</v>
       </c>
       <c r="B95">
         <v>34</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>8.897624818599675e-007</v>
+        <v>1.680662465735494e-006</v>
       </c>
       <c r="B96">
         <v>35</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>3.954499919377633e-007</v>
+        <v>4.943124899222041e-007</v>
       </c>
       <c r="B97">
         <v>36</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>9.886249798444082e-008</v>
+        <v>1.977249959688816e-007</v>
       </c>
       <c r="B99">
         <v>38</v>
@@ -2138,6 +2138,42 @@
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>9.886249798444082e-008</v>
+      </c>
+      <c r="B100">
+        <v>39</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>9.886249798444082e-008</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,10 +381,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5.76009798229831e-006</v>
+        <v>0.03220971889174588</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -399,10 +399,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0002049382229491399</v>
+        <v>0.05415274286796547</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -417,10 +417,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.002090612404522586</v>
+        <v>0.07296511907857356</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -435,10 +435,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.00991646342110409</v>
+        <v>0.07448871169149678</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -453,10 +453,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.02874319209472026</v>
+        <v>0.1740266181299897</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -471,10 +471,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.05919016053999403</v>
+        <v>0.229409229672859</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -489,10 +489,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0943801149291129</v>
+        <v>0.0948656092604898</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1228489444620447</v>
+        <v>0.06609952265847449</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1367159256098504</v>
+        <v>0.03871859320679128</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1337776693127749</v>
+        <v>0.03606865756924983</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1176133185591873</v>
+        <v>0.0283186792374092</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -579,10 +579,10 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.09474360742810109</v>
+        <v>0.03204159002558448</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -597,10 +597,10 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.07069216672148865</v>
+        <v>0.02596447384893922</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.049085736026836</v>
+        <v>0.02482569169579831</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.03226170247274943</v>
+        <v>0.008245537161695831</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.02039711328142171</v>
+        <v>0.003138673009819689</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -669,10 +669,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.0122587011585376</v>
+        <v>0.004087658137437123</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -687,10 +687,10 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.006953347753789159</v>
+        <v>0.0003049592799108877</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.003888369301103059</v>
+        <v>3.611359893681565e-006</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.002060296099352595</v>
+        <v>6.46032158758591e-005</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -741,14 +741,14 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.001103816671239376</v>
+        <v>0.006248807139752599</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -759,14 +759,14 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0005350827862503429</v>
+        <v>0.001433641088647649</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -777,14 +777,14 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.0002883080621666154</v>
+        <v>0.02792318489381166</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -795,14 +795,14 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.0001264189925588629</v>
+        <v>0.07346170951286946</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -813,14 +813,14 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>6.245158865018167e-005</v>
+        <v>0.1557731010093097</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -831,14 +831,14 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>3.061946822169101e-005</v>
+        <v>0.1669709540276506</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -849,14 +849,14 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.394550037819591e-005</v>
+        <v>0.1230557561248669</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -867,14 +867,14 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>6.972750189097953e-006</v>
+        <v>0.1121692976682281</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -885,14 +885,14 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>2.728467465299199e-006</v>
+        <v>0.1035121862647952</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -903,14 +903,14 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>9.09489155099733e-007</v>
+        <v>0.07377346469363562</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -921,14 +921,14 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>6.063261033998221e-007</v>
+        <v>0.07330339774380486</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>8.953487705786961e-008</v>
+        <v>0.03382606819649087</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>4.208139221719872e-006</v>
+        <v>0.02064670357662889</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>9.633952771426771e-005</v>
+        <v>0.01203602187767675</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.0008909615616028606</v>
+        <v>0.005441471210382728</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.004885739171293829</v>
+        <v>0.002759457077180684</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.01656780225541937</v>
+        <v>0.001004504402572765</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.04061257255906437</v>
+        <v>0.004915057531813137</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.07491687582013948</v>
+        <v>0.0004447334605897907</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.1114943800748368</v>
+        <v>0.0009518540192392074</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1375617432512191</v>
+        <v>0.0003486284800528523</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1119,14 +1119,14 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1458144414742741</v>
+        <v>0.002254149725674043</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1137,14 +1137,14 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1348603864755061</v>
+        <v>0.01939381611391715</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1155,14 +1155,14 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1114221254290511</v>
+        <v>0.03082453149162687</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1173,14 +1173,14 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.08329966821955957</v>
+        <v>0.01205826954016867</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1191,14 +1191,14 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.05695098645946147</v>
+        <v>0.01358636242419098</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1209,14 +1209,14 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.0358907717476635</v>
+        <v>0.07255743386906512</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1227,14 +1227,14 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02122173563001037</v>
+        <v>0.09554029119954641</v>
       </c>
       <c r="B49">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1245,14 +1245,14 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.0117123258725711</v>
+        <v>0.139610630120838</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1263,14 +1263,14 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.006141734426661624</v>
+        <v>0.1706877248844195</v>
       </c>
       <c r="B51">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1281,14 +1281,14 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.003052602098411007</v>
+        <v>0.1480543318355053</v>
       </c>
       <c r="B52">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1299,14 +1299,14 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.001457448728748002</v>
+        <v>0.1156416448505923</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1317,14 +1317,14 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0006530673932601009</v>
+        <v>0.07452578567899178</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1335,14 +1335,14 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0002867802112163564</v>
+        <v>0.02362953142355592</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1353,14 +1353,14 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0001258860371433647</v>
+        <v>0.01517321656094313</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1371,14 +1371,14 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>5.094534504592781e-005</v>
+        <v>0.01881681464758865</v>
       </c>
       <c r="B57">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1389,14 +1389,14 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.835464979686327e-005</v>
+        <v>0.01491044264541358</v>
       </c>
       <c r="B58">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1407,14 +1407,14 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>6.356976271108742e-006</v>
+        <v>0.009156344573583504</v>
       </c>
       <c r="B59">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1425,14 +1425,14 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>2.775581188793958e-006</v>
+        <v>0.007934270683760751</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1443,14 +1443,14 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>6.267441394050873e-007</v>
+        <v>0.00592587713432482</v>
       </c>
       <c r="B61">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1461,14 +1461,14 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.790697541157392e-007</v>
+        <v>0.004986297716739929</v>
       </c>
       <c r="B62">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1479,14 +1479,14 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>8.953487705786961e-008</v>
+        <v>0.002011096366852807</v>
       </c>
       <c r="B63">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1497,10 +1497,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>2.965874939533225e-007</v>
+        <v>0.002519326145574147</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.028169979038185e-005</v>
+        <v>0.0001991075497098175</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.0001474039844948013</v>
+        <v>2.702817416875351e-006</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1544,636 +1544,6 @@
         </is>
       </c>
       <c r="D66" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>0.001041318691270115</v>
-      </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>0.004535020507542269</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>0.01364302472185283</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>0.03098756023074112</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>0.05605711246963562</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>0.08436006156760925</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>0.1088147879315385</v>
-      </c>
-      <c r="B73">
-        <v>12</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>0.1233106994235031</v>
-      </c>
-      <c r="B74">
-        <v>13</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>0.1251313511863846</v>
-      </c>
-      <c r="B75">
-        <v>14</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>0.1151857838891498</v>
-      </c>
-      <c r="B76">
-        <v>15</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>0.09758984104788712</v>
-      </c>
-      <c r="B77">
-        <v>16</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>0.07706084561642201</v>
-      </c>
-      <c r="B78">
-        <v>17</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>0.05701469462511291</v>
-      </c>
-      <c r="B79">
-        <v>18</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>0.0396748056536299</v>
-      </c>
-      <c r="B80">
-        <v>19</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>0.02619332225348364</v>
-      </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>0.0164980748011455</v>
-      </c>
-      <c r="B82">
-        <v>21</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>0.009992724708773325</v>
-      </c>
-      <c r="B83">
-        <v>22</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>0.005828636293668678</v>
-      </c>
-      <c r="B84">
-        <v>23</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>0.003260485183526858</v>
-      </c>
-      <c r="B85">
-        <v>24</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>0.001792673675951866</v>
-      </c>
-      <c r="B86">
-        <v>25</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>0.0009433459557675343</v>
-      </c>
-      <c r="B87">
-        <v>26</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>0.000476121790293067</v>
-      </c>
-      <c r="B88">
-        <v>27</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>0.0002325245952594048</v>
-      </c>
-      <c r="B89">
-        <v>28</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>0.0001138895976780758</v>
-      </c>
-      <c r="B90">
-        <v>29</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>5.743911132896012e-005</v>
-      </c>
-      <c r="B91">
-        <v>30</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>2.392472451223468e-005</v>
-      </c>
-      <c r="B92">
-        <v>31</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>1.057828728433517e-005</v>
-      </c>
-      <c r="B93">
-        <v>32</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>5.338574891159804e-006</v>
-      </c>
-      <c r="B94">
-        <v>33</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>3.262462433486547e-006</v>
-      </c>
-      <c r="B95">
-        <v>34</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>1.680662465735494e-006</v>
-      </c>
-      <c r="B96">
-        <v>35</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>4.943124899222041e-007</v>
-      </c>
-      <c r="B97">
-        <v>36</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>1.977249959688816e-007</v>
-      </c>
-      <c r="B98">
-        <v>37</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>1.977249959688816e-007</v>
-      </c>
-      <c r="B99">
-        <v>38</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>9.886249798444082e-008</v>
-      </c>
-      <c r="B100">
-        <v>39</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>9.886249798444082e-008</v>
-      </c>
-      <c r="B101">
-        <v>40</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.03220971889174588</v>
+        <v>0.02930710897650201</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.05415274286796547</v>
+        <v>0.04937368494802683</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.07296511907857356</v>
+        <v>0.06650204726077501</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.07448871169149678</v>
+        <v>0.06805997354173356</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1740266181299897</v>
+        <v>0.1597337843816787</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.229409229672859</v>
+        <v>0.217340278536329</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0948656092604898</v>
+        <v>0.09597134827927484</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06609952265847449</v>
+        <v>0.0766642429805969</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.03871859320679128</v>
+        <v>0.04464731322078456</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.03606865756924983</v>
+        <v>0.04337625721818949</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0283186792374092</v>
+        <v>0.03566974463764054</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.03204159002558448</v>
+        <v>0.03888342732012774</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.02596447384893922</v>
+        <v>0.03164068835626641</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02482569169579831</v>
+        <v>0.02800001029790743</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.008245537161695831</v>
+        <v>0.008149690382379692</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.003138673009819689</v>
+        <v>0.002784480612166463</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.004087658137437123</v>
+        <v>0.003554249192441777</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0003049592799108877</v>
+        <v>0.0002769401533431972</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.611359893681565e-006</v>
+        <v>2.942259265266372e-006</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>6.46032158758591e-005</v>
+        <v>6.178744457059381e-005</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.006248807139752599</v>
+        <v>0.005249470126945691</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.001433641088647649</v>
+        <v>0.001203948934231482</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.02792318489381166</v>
+        <v>0.02350757308471771</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.07346170951286946</v>
+        <v>0.06212766320310869</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.1557731010093097</v>
+        <v>0.1359764883916725</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1669709540276506</v>
+        <v>0.1556382467311869</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.1230557561248669</v>
+        <v>0.1315036882880049</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.1121692976682281</v>
+        <v>0.1191769353442953</v>
       </c>
       <c r="B29">
         <v>14</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.1035121862647952</v>
+        <v>0.1146983488548057</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.07377346469363562</v>
+        <v>0.08561856236026069</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.07330339774380486</v>
+        <v>0.08196301311727984</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.03382606819649087</v>
+        <v>0.03798046607510516</v>
       </c>
       <c r="B33">
         <v>18</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.02064670357662889</v>
+        <v>0.02145614703754557</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.01203602187767675</v>
+        <v>0.01096101361643175</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.005441471210382728</v>
+        <v>0.004447522734024665</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.002759457077180684</v>
+        <v>0.002210551657274195</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.001004504402572765</v>
+        <v>0.000839939584041087</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.004915057531813137</v>
+        <v>0.003931696892665132</v>
       </c>
       <c r="B39">
         <v>24</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0004447334605897907</v>
+        <v>0.0003911901362221814</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0009518540192392074</v>
+        <v>0.0008348384281191551</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0003486284800528523</v>
+        <v>0.0002826954020616892</v>
       </c>
       <c r="B42">
         <v>29</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.002254149725674043</v>
+        <v>0.001836544650709417</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.01939381611391715</v>
+        <v>0.015832485439294</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.03082453149162687</v>
+        <v>0.02515511634393293</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01205826954016867</v>
+        <v>0.009864927090697209</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.01358636242419098</v>
+        <v>0.0111659943075742</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.07255743386906512</v>
+        <v>0.06154917942889254</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.09554029119954641</v>
+        <v>0.08654278171407821</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.139610630120838</v>
+        <v>0.1449850747372213</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.1706877248844195</v>
+        <v>0.1762338552691086</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.1480543318355053</v>
+        <v>0.1594246451886925</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1156416448505923</v>
+        <v>0.1304221095165546</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.07452578567899178</v>
+        <v>0.08097826912957806</v>
       </c>
       <c r="B54">
         <v>17</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.02362953142355592</v>
+        <v>0.02578301662420008</v>
       </c>
       <c r="B55">
         <v>18</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.01517321656094313</v>
+        <v>0.01532313286338712</v>
       </c>
       <c r="B56">
         <v>19</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01881681464758865</v>
+        <v>0.01665262524014536</v>
       </c>
       <c r="B57">
         <v>20</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.01491044264541358</v>
+        <v>0.01184302246532398</v>
       </c>
       <c r="B58">
         <v>21</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.009156344573583504</v>
+        <v>0.007128060685251738</v>
       </c>
       <c r="B59">
         <v>22</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.007934270683760751</v>
+        <v>0.006447089152720744</v>
       </c>
       <c r="B60">
         <v>23</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.00592587713432482</v>
+        <v>0.004606518973588837</v>
       </c>
       <c r="B61">
         <v>24</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.004986297716739929</v>
+        <v>0.004262130909362763</v>
       </c>
       <c r="B62">
         <v>25</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.002011096366852807</v>
+        <v>0.001714135725209215</v>
       </c>
       <c r="B63">
         <v>26</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.002519326145574147</v>
+        <v>0.002087934793011847</v>
       </c>
       <c r="B64">
         <v>27</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.0001991075497098175</v>
+        <v>0.0001592959104328141</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>2.702817416875351e-006</v>
+        <v>2.053841031882596e-006</v>
       </c>
       <c r="B66">
         <v>30</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.02930710897650201</v>
+        <v>0.0263113321630071</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.04937368494802683</v>
+        <v>0.04627854639704521</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.06650204726077501</v>
+        <v>0.06187213682575488</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.06805997354173356</v>
+        <v>0.06659731805344198</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1597337843816787</v>
+        <v>0.1703333460257271</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.217340278536329</v>
+        <v>0.2508751186629395</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.09597134827927484</v>
+        <v>0.1095555999059888</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.0766642429805969</v>
+        <v>0.07353688431495868</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.04464731322078456</v>
+        <v>0.04256109746314063</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.04337625721818949</v>
+        <v>0.03766653842972331</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.03566974463764054</v>
+        <v>0.02788168763318807</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.03888342732012774</v>
+        <v>0.02962995544969807</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.03164068835626641</v>
+        <v>0.02337249593296316</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02800001029790743</v>
+        <v>0.02118962304903685</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.008149690382379692</v>
+        <v>0.006335911639931672</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.002784480612166463</v>
+        <v>0.00239754940514252</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.003554249192441777</v>
+        <v>0.003283500369611258</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0002769401533431972</v>
+        <v>0.000260959991386679</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>2.942259265266372e-006</v>
+        <v>2.954264053434102e-006</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>6.178744457059381e-005</v>
+        <v>5.744402326121866e-005</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.005249470126945691</v>
+        <v>0.005107669630668816</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.001203948934231482</v>
+        <v>0.001162783479614749</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.02350757308471771</v>
+        <v>0.02387811568693952</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.06212766320310869</v>
+        <v>0.06877239296381969</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.1359764883916725</v>
+        <v>0.1629326014465805</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1556382467311869</v>
+        <v>0.1844321039975937</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.1315036882880049</v>
+        <v>0.1309415950308148</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.1191769353442953</v>
+        <v>0.1179334309984927</v>
       </c>
       <c r="B29">
         <v>14</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.1146983488548057</v>
+        <v>0.1033923594318642</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.08561856236026069</v>
+        <v>0.06947271536042338</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.08196301311727984</v>
+        <v>0.0648352662269101</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.03798046607510516</v>
+        <v>0.02912383234925151</v>
       </c>
       <c r="B33">
         <v>18</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.02145614703754557</v>
+        <v>0.01685535210528425</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.01096101361643175</v>
+        <v>0.00884601428522252</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.004447522734024665</v>
+        <v>0.003975712187246232</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.002210551657274195</v>
+        <v>0.002120013024529342</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.000839939584041087</v>
+        <v>0.0008219335782862812</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.003931696892665132</v>
+        <v>0.00398241349946192</v>
       </c>
       <c r="B39">
         <v>24</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0003911901362221814</v>
+        <v>0.0003773191478075281</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0008348384281191551</v>
+        <v>0.0007704392844183628</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0002826954020616892</v>
+        <v>0.0002659362847699348</v>
       </c>
       <c r="B42">
         <v>29</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.001836544650709417</v>
+        <v>0.001794433966849018</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.015832485439294</v>
+        <v>0.01615118253804913</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.02515511634393293</v>
+        <v>0.02547176910711867</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.009864927090697209</v>
+        <v>0.010505889767042</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0111659943075742</v>
+        <v>0.01295901171585187</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.06154917942889254</v>
+        <v>0.07732369662335026</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.08654278171407821</v>
+        <v>0.1075219151013916</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.1449850747372213</v>
+        <v>0.1513592202870791</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.1762338552691086</v>
+        <v>0.1828437716438734</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.1594246451886925</v>
+        <v>0.1506722024973164</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1304221095165546</v>
+        <v>0.110954131168287</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.08097826912957806</v>
+        <v>0.06715960000226638</v>
       </c>
       <c r="B54">
         <v>17</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.02578301662420008</v>
+        <v>0.02072848145606594</v>
       </c>
       <c r="B55">
         <v>18</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.01532313286338712</v>
+        <v>0.01262065006774016</v>
       </c>
       <c r="B56">
         <v>19</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01665262524014536</v>
+        <v>0.01409052818013864</v>
       </c>
       <c r="B57">
         <v>20</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.01184302246532398</v>
+        <v>0.01109945909219645</v>
       </c>
       <c r="B58">
         <v>21</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.007128060685251738</v>
+        <v>0.007167201967030328</v>
       </c>
       <c r="B59">
         <v>22</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.006447089152720744</v>
+        <v>0.006614810616032868</v>
       </c>
       <c r="B60">
         <v>23</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.004606518973588837</v>
+        <v>0.004891959290305596</v>
       </c>
       <c r="B61">
         <v>24</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.004262130909362763</v>
+        <v>0.004310599713302345</v>
       </c>
       <c r="B62">
         <v>25</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.001714135725209215</v>
+        <v>0.001658530691675849</v>
       </c>
       <c r="B63">
         <v>26</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.002087934793011847</v>
+        <v>0.001947973544907254</v>
       </c>
       <c r="B64">
         <v>27</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.0001592959104328141</v>
+        <v>0.0001509859052422993</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>2.053841031882596e-006</v>
+        <v>1.9950568874511e-006</v>
       </c>
       <c r="B66">
         <v>30</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.0263113321630071</v>
+        <v>0.03220971889174588</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.04627854639704521</v>
+        <v>0.05415274286796547</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.06187213682575488</v>
+        <v>0.07296511907857356</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.06659731805344198</v>
+        <v>0.07448871169149678</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1703333460257271</v>
+        <v>0.1740266181299897</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.2508751186629395</v>
+        <v>0.229409229672859</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1095555999059888</v>
+        <v>0.0948656092604898</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.07353688431495868</v>
+        <v>0.06609952265847449</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.04256109746314063</v>
+        <v>0.03871859320679128</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.03766653842972331</v>
+        <v>0.03606865756924983</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.02788168763318807</v>
+        <v>0.0283186792374092</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.02962995544969807</v>
+        <v>0.03204159002558448</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.02337249593296316</v>
+        <v>0.02596447384893922</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02118962304903685</v>
+        <v>0.02482569169579831</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.006335911639931672</v>
+        <v>0.008245537161695831</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.00239754940514252</v>
+        <v>0.003138673009819689</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.003283500369611258</v>
+        <v>0.004087658137437123</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.000260959991386679</v>
+        <v>0.0003049592799108877</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>2.954264053434102e-006</v>
+        <v>3.611359893681565e-006</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>5.744402326121866e-005</v>
+        <v>6.46032158758591e-005</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.005107669630668816</v>
+        <v>0.006248807139752599</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.001162783479614749</v>
+        <v>0.001433641088647649</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.02387811568693952</v>
+        <v>0.02792318489381166</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.06877239296381969</v>
+        <v>0.07346170951286946</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.1629326014465805</v>
+        <v>0.1557731010093097</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1844321039975937</v>
+        <v>0.1669709540276506</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.1309415950308148</v>
+        <v>0.1230557561248669</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.1179334309984927</v>
+        <v>0.1121692976682281</v>
       </c>
       <c r="B29">
         <v>14</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.1033923594318642</v>
+        <v>0.1035121862647952</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.06947271536042338</v>
+        <v>0.07377346469363562</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0648352662269101</v>
+        <v>0.07330339774380486</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.02912383234925151</v>
+        <v>0.03382606819649087</v>
       </c>
       <c r="B33">
         <v>18</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.01685535210528425</v>
+        <v>0.02064670357662889</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.00884601428522252</v>
+        <v>0.01203602187767675</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.003975712187246232</v>
+        <v>0.005441471210382728</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.002120013024529342</v>
+        <v>0.002759457077180684</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0008219335782862812</v>
+        <v>0.001004504402572765</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.00398241349946192</v>
+        <v>0.004915057531813137</v>
       </c>
       <c r="B39">
         <v>24</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0003773191478075281</v>
+        <v>0.0004447334605897907</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0007704392844183628</v>
+        <v>0.0009518540192392074</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0002659362847699348</v>
+        <v>0.0003486284800528523</v>
       </c>
       <c r="B42">
         <v>29</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.001794433966849018</v>
+        <v>0.002254149725674043</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.01615118253804913</v>
+        <v>0.01939381611391715</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.02547176910711867</v>
+        <v>0.03082453149162687</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.010505889767042</v>
+        <v>0.01205826954016867</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.01295901171585187</v>
+        <v>0.01358636242419098</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.07732369662335026</v>
+        <v>0.07255743386906512</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.1075219151013916</v>
+        <v>0.09554029119954641</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.1513592202870791</v>
+        <v>0.139610630120838</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.1828437716438734</v>
+        <v>0.1706877248844195</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.1506722024973164</v>
+        <v>0.1480543318355053</v>
       </c>
       <c r="B52">
         <v>15</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.110954131168287</v>
+        <v>0.1156416448505923</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.06715960000226638</v>
+        <v>0.07452578567899178</v>
       </c>
       <c r="B54">
         <v>17</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.02072848145606594</v>
+        <v>0.02362953142355592</v>
       </c>
       <c r="B55">
         <v>18</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.01262065006774016</v>
+        <v>0.01517321656094313</v>
       </c>
       <c r="B56">
         <v>19</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01409052818013864</v>
+        <v>0.01881681464758865</v>
       </c>
       <c r="B57">
         <v>20</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.01109945909219645</v>
+        <v>0.01491044264541358</v>
       </c>
       <c r="B58">
         <v>21</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.007167201967030328</v>
+        <v>0.009156344573583504</v>
       </c>
       <c r="B59">
         <v>22</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.006614810616032868</v>
+        <v>0.007934270683760751</v>
       </c>
       <c r="B60">
         <v>23</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.004891959290305596</v>
+        <v>0.00592587713432482</v>
       </c>
       <c r="B61">
         <v>24</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.004310599713302345</v>
+        <v>0.004986297716739929</v>
       </c>
       <c r="B62">
         <v>25</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.001658530691675849</v>
+        <v>0.002011096366852807</v>
       </c>
       <c r="B63">
         <v>26</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.001947973544907254</v>
+        <v>0.002519326145574147</v>
       </c>
       <c r="B64">
         <v>27</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.0001509859052422993</v>
+        <v>0.0001991075497098175</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.9950568874511e-006</v>
+        <v>2.702817416875351e-006</v>
       </c>
       <c r="B66">
         <v>30</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.03220971889174588</v>
+        <v>0.0006712362733792203</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.05415274286796547</v>
+        <v>0.009356388306476022</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.07296511907857356</v>
+        <v>0.01949694816163523</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.07448871169149678</v>
+        <v>0.01550309884051708</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1740266181299897</v>
+        <v>0.01610196155757391</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.229409229672859</v>
+        <v>0.07184827067697054</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0948656092604898</v>
+        <v>0.07565716896831382</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06609952265847449</v>
+        <v>0.1554469167937975</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.03871859320679128</v>
+        <v>0.09928142654166978</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.03606865756924983</v>
+        <v>0.1905568089643546</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0283186792374092</v>
+        <v>0.1012691784638545</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.03204159002558448</v>
+        <v>0.1329798229355736</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.02596447384893922</v>
+        <v>0.03913161750864978</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02482569169579831</v>
+        <v>0.03041575957120766</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.008245537161695831</v>
+        <v>0.01486972450851281</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.003138673009819689</v>
+        <v>0.005903828131767232</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.004087658137437123</v>
+        <v>0.00793331276081112</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0003049592799108877</v>
+        <v>0.004738662666138377</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.611359893681565e-006</v>
+        <v>0.003799595443204762</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>6.46032158758591e-005</v>
+        <v>0.001591177360979099</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,14 +741,14 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.006248807139752599</v>
+        <v>0.002130254641397486</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -759,14 +759,14 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.001433641088647649</v>
+        <v>0.0003594282235336491</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -777,14 +777,14 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.02792318489381166</v>
+        <v>0.0005003696255763009</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -795,14 +795,14 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.07346170951286946</v>
+        <v>0.0002992524576026762</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -813,14 +813,14 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.1557731010093097</v>
+        <v>0.0001364526151786116</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -831,14 +831,14 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1669709540276506</v>
+        <v>2.133800132471257e-005</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -849,10 +849,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.1230557561248669</v>
+        <v>0.0006712362733792203</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.1121692976682281</v>
+        <v>0.009356388306476022</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.1035121862647952</v>
+        <v>0.01949694816163523</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.07377346469363562</v>
+        <v>0.01550309884051708</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.07330339774380486</v>
+        <v>0.01610196155757391</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.03382606819649087</v>
+        <v>0.07184827067697054</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.02064670357662889</v>
+        <v>0.07565716896831382</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.01203602187767675</v>
+        <v>0.1554469167937975</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.005441471210382728</v>
+        <v>0.09928142654166978</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.002759457077180684</v>
+        <v>0.1905568089643546</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.001004504402572765</v>
+        <v>0.1012691784638545</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.004915057531813137</v>
+        <v>0.1329798229355736</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0004447334605897907</v>
+        <v>0.03913161750864978</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0009518540192392074</v>
+        <v>0.03041575957120766</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0003486284800528523</v>
+        <v>0.01486972450851281</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1119,14 +1119,14 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.002254149725674043</v>
+        <v>0.005903828131767232</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1137,14 +1137,14 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.01939381611391715</v>
+        <v>0.00793331276081112</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1155,14 +1155,14 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.03082453149162687</v>
+        <v>0.004738662666138377</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1173,14 +1173,14 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01205826954016867</v>
+        <v>0.003799595443204762</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1191,14 +1191,14 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.01358636242419098</v>
+        <v>0.001591177360979099</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1209,14 +1209,14 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.07255743386906512</v>
+        <v>0.002130254641397486</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1227,14 +1227,14 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.09554029119954641</v>
+        <v>0.0003594282235336491</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1245,14 +1245,14 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.139610630120838</v>
+        <v>0.0005003696255763009</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1263,14 +1263,14 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.1706877248844195</v>
+        <v>0.0002992524576026762</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1281,14 +1281,14 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.1480543318355053</v>
+        <v>0.0001364526151786116</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1299,14 +1299,14 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1156416448505923</v>
+        <v>2.133800132471257e-005</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.07452578567899178</v>
+        <v>0.0006712362733792203</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.02362953142355592</v>
+        <v>0.009356388306476022</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.01517321656094313</v>
+        <v>0.01949694816163523</v>
       </c>
       <c r="B56">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01881681464758865</v>
+        <v>0.01550309884051708</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.01491044264541358</v>
+        <v>0.01610196155757391</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.009156344573583504</v>
+        <v>0.07184827067697054</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.007934270683760751</v>
+        <v>0.07565716896831382</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.00592587713432482</v>
+        <v>0.1554469167937975</v>
       </c>
       <c r="B61">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.004986297716739929</v>
+        <v>0.09928142654166978</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.002011096366852807</v>
+        <v>0.1905568089643546</v>
       </c>
       <c r="B63">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.002519326145574147</v>
+        <v>0.1012691784638545</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.0001991075497098175</v>
+        <v>0.1329798229355736</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,17 +1533,251 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>2.702817416875351e-006</v>
+        <v>0.03913161750864978</v>
       </c>
       <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.03041575957120766</v>
+      </c>
+      <c r="B67">
+        <v>19</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.01486972450851281</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.005903828131767232</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.00793331276081112</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.004738662666138377</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.003799595443204762</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.001591177360979099</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.002130254641397486</v>
+      </c>
+      <c r="B74">
+        <v>26</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.0003594282235336491</v>
+      </c>
+      <c r="B75">
+        <v>27</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.0005003696255763009</v>
+      </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.0002992524576026762</v>
+      </c>
+      <c r="B77">
+        <v>29</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.0001364526151786116</v>
+      </c>
+      <c r="B78">
         <v>30</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2.133800132471257e-005</v>
+      </c>
+      <c r="B79">
+        <v>31</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.0006712362733792203</v>
+        <v>0.03353308888332491</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.009356388306476022</v>
+        <v>0.03848975910428052</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.01949694816163523</v>
+        <v>0.04267853534938532</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01550309884051708</v>
+        <v>0.05714381465108193</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.01610196155757391</v>
+        <v>0.1432781242377049</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.07184827067697054</v>
+        <v>0.2408293383834527</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.07565716896831382</v>
+        <v>0.1158495185598008</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1554469167937975</v>
+        <v>0.07481504324599708</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.09928142654166978</v>
+        <v>0.07859908812993166</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1905568089643546</v>
+        <v>0.06025599258594016</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1012691784638545</v>
+        <v>0.02958244677508698</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.1329798229355736</v>
+        <v>0.02908716643900528</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.03913161750864978</v>
+        <v>0.02294433687054365</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.03041575957120766</v>
+        <v>0.02080145187708669</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01486972450851281</v>
+        <v>0.006219844532888129</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.005903828131767232</v>
+        <v>0.002353628871008957</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.00793331276081112</v>
+        <v>0.003223350163842086</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.004738662666138377</v>
+        <v>0.0002561794841801918</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.003799595443204762</v>
+        <v>2.9001451039267e-006</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.001591177360979099</v>
+        <v>5.639171035413028e-005</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,14 +741,14 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.002130254641397486</v>
+        <v>0.0005244640910357912</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -759,14 +759,14 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0003594282235336491</v>
+        <v>0.0005244640910357912</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -777,14 +777,14 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.0005003696255763009</v>
+        <v>0.001048857632691567</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -795,14 +795,14 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.0002992524576026762</v>
+        <v>0.005244288163457834</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -813,14 +813,14 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.0001364526151786116</v>
+        <v>0.03303919180323439</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -831,14 +831,14 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>2.133800132471257e-005</v>
+        <v>0.06729239733777681</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -849,10 +849,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.0006712362733792203</v>
+        <v>0.1185216179879472</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.009356388306476022</v>
+        <v>0.1054107917552326</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.01949694816163523</v>
+        <v>0.1463422721514295</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.01550309884051708</v>
+        <v>0.1582713257195031</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.01610196155757391</v>
+        <v>0.1481601885756708</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.07184827067697054</v>
+        <v>0.13099023321438</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.07565716896831382</v>
+        <v>0.04056476471887589</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1554469167937975</v>
+        <v>0.01778937891782754</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.09928142654166978</v>
+        <v>0.01042049617520064</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.1905568089643546</v>
+        <v>0.005549484781405215</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.1012691784638545</v>
+        <v>0.002644755158023909</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.1329798229355736</v>
+        <v>0.001346505466977282</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.03913161750864978</v>
+        <v>0.004507329339815128</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.03041575957120766</v>
+        <v>0.0003773686337033155</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01486972450851281</v>
+        <v>0.0007705403285301199</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.005903828131767232</v>
+        <v>0.0002659711626587211</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.00793331276081112</v>
+        <v>0.0003933127935868356</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1155,14 +1155,14 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.004738662666138377</v>
+        <v>0.0004568679907671967</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1173,14 +1173,14 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.003799595443204762</v>
+        <v>0.002284499558374243</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1191,14 +1191,14 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.001591177360979099</v>
+        <v>0.005939603089050075</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1209,14 +1209,14 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.002130254641397486</v>
+        <v>0.006396550882086401</v>
       </c>
       <c r="B48">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1227,14 +1227,14 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0003594282235336491</v>
+        <v>0.01050860220579856</v>
       </c>
       <c r="B49">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1245,14 +1245,14 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.0005003696255763009</v>
+        <v>0.03426709436426799</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1263,14 +1263,14 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.0002992524576026762</v>
+        <v>0.06206725224507724</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1281,14 +1281,14 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.0001364526151786116</v>
+        <v>0.1275375924549189</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1299,14 +1299,14 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>2.133800132471257e-005</v>
+        <v>0.1350645424792267</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0006712362733792203</v>
+        <v>0.1618689276458362</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.009356388306476022</v>
+        <v>0.1509717681916455</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.01949694816163523</v>
+        <v>0.1386292300389786</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01550309884051708</v>
+        <v>0.06568644475464473</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.01610196155757391</v>
+        <v>0.0313532741115374</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.07184827067697054</v>
+        <v>0.01865944637016187</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.07565716896831382</v>
+        <v>0.01384082575557587</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1554469167937975</v>
+        <v>0.009908568944212787</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.09928142654166978</v>
+        <v>0.00885549820077804</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.1905568089643546</v>
+        <v>0.00534890669295247</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1012691784638545</v>
+        <v>0.00522441515311023</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.1329798229355736</v>
+        <v>0.002572266540855729</v>
       </c>
       <c r="B65">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.03913161750864978</v>
+        <v>0.001947973389454545</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.03041575957120766</v>
+        <v>0.0001509858931932814</v>
       </c>
       <c r="B67">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.01486972450851281</v>
+        <v>0.0004568679907671967</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.005903828131767232</v>
+        <v>1.995056728241033e-006</v>
       </c>
       <c r="B69">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1598,186 +1598,6 @@
         </is>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>0.00793331276081112</v>
-      </c>
-      <c r="B70">
-        <v>22</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>0.004738662666138377</v>
-      </c>
-      <c r="B71">
-        <v>23</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>0.003799595443204762</v>
-      </c>
-      <c r="B72">
-        <v>24</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>0.001591177360979099</v>
-      </c>
-      <c r="B73">
-        <v>25</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>0.002130254641397486</v>
-      </c>
-      <c r="B74">
-        <v>26</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>0.0003594282235336491</v>
-      </c>
-      <c r="B75">
-        <v>27</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>0.0005003696255763009</v>
-      </c>
-      <c r="B76">
-        <v>28</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>0.0002992524576026762</v>
-      </c>
-      <c r="B77">
-        <v>29</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>0.0001364526151786116</v>
-      </c>
-      <c r="B78">
-        <v>30</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>2.133800132471257e-005</v>
-      </c>
-      <c r="B79">
-        <v>31</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.03353308888332491</v>
+        <v>0.001548979741762911</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.03848975910428052</v>
+        <v>0.003268938991143751</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.04267853534938532</v>
+        <v>0.008410903641960793</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.05714381465108193</v>
+        <v>0.01891156800318276</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1432781242377049</v>
+        <v>0.03715914378078394</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.2408293383834527</v>
+        <v>0.0638062178574795</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1158495185598008</v>
+        <v>0.09574688055486322</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.07481504324599708</v>
+        <v>0.125560748713796</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.07859908812993166</v>
+        <v>0.1438975880718899</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.06025599258594016</v>
+        <v>0.1441201264382892</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.02958244677508698</v>
+        <v>0.1261442326367911</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.02908716643900528</v>
+        <v>0.09648956964622303</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.02294433687054365</v>
+        <v>0.06450023297090061</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02080145187708669</v>
+        <v>0.03767962995700521</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.006219844532888129</v>
+        <v>0.01923584873697569</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.002353628871008957</v>
+        <v>0.008581614788570103</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.003223350163842086</v>
+        <v>0.003345589604231248</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0002561794841801918</v>
+        <v>0.001139762748741303</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>2.9001451039267e-006</v>
+        <v>0.0003393089502757242</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>5.639171035413028e-005</v>
+        <v>8.825722671037373e-005</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,14 +741,14 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.0005244640910357912</v>
+        <v>2.005998539445211e-005</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -759,14 +759,14 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0005244640910357912</v>
+        <v>3.991870003243814e-006</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -777,14 +777,14 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.001048857632691567</v>
+        <v>7.044476476312613e-007</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -795,14 +795,14 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.005244288163457834</v>
+        <v>1.006353782330373e-007</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -813,10 +813,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.03303919180323439</v>
+        <v>0.001548979741762911</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.06729239733777681</v>
+        <v>0.003268938991143751</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.1185216179879472</v>
+        <v>0.008410903641960793</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.1054107917552326</v>
+        <v>0.01891156800318276</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.1463422721514295</v>
+        <v>0.03715914378078394</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.1582713257195031</v>
+        <v>0.0638062178574795</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.1481601885756708</v>
+        <v>0.09574688055486322</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.13099023321438</v>
+        <v>0.125560748713796</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.04056476471887589</v>
+        <v>0.1438975880718899</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.01778937891782754</v>
+        <v>0.1441201264382892</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.01042049617520064</v>
+        <v>0.1261442326367911</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.005549484781405215</v>
+        <v>0.09648956964622303</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.002644755158023909</v>
+        <v>0.06450023297090061</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.001346505466977282</v>
+        <v>0.03767962995700521</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.004507329339815128</v>
+        <v>0.01923584873697569</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0003773686337033155</v>
+        <v>0.008581614788570103</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0007705403285301199</v>
+        <v>0.003345589604231248</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.0002659711626587211</v>
+        <v>0.001139762748741303</v>
       </c>
       <c r="B43">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.0003933127935868356</v>
+        <v>0.0003393089502757242</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1155,14 +1155,14 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.0004568679907671967</v>
+        <v>8.825722671037373e-005</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1173,14 +1173,14 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.002284499558374243</v>
+        <v>2.005998539445211e-005</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1191,14 +1191,14 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.005939603089050075</v>
+        <v>3.991870003243814e-006</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1209,14 +1209,14 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.006396550882086401</v>
+        <v>7.044476476312613e-007</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1227,14 +1227,14 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.01050860220579856</v>
+        <v>1.006353782330373e-007</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.03426709436426799</v>
+        <v>0.001548979741762911</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.06206725224507724</v>
+        <v>0.003268938991143751</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.1275375924549189</v>
+        <v>0.008410903641960793</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1350645424792267</v>
+        <v>0.01891156800318276</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.1618689276458362</v>
+        <v>0.03715914378078394</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.1509717681916455</v>
+        <v>0.0638062178574795</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.1386292300389786</v>
+        <v>0.09574688055486322</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.06568644475464473</v>
+        <v>0.125560748713796</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.0313532741115374</v>
+        <v>0.1438975880718899</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.01865944637016187</v>
+        <v>0.1441201264382892</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.01384082575557587</v>
+        <v>0.1261442326367911</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.009908568944212787</v>
+        <v>0.09648956964622303</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.00885549820077804</v>
+        <v>0.06450023297090061</v>
       </c>
       <c r="B62">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.00534890669295247</v>
+        <v>0.03767962995700521</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.00522441515311023</v>
+        <v>0.01923584873697569</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.002572266540855729</v>
+        <v>0.008581614788570103</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.001947973389454545</v>
+        <v>0.003345589604231248</v>
       </c>
       <c r="B66">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.0001509858931932814</v>
+        <v>0.001139762748741303</v>
       </c>
       <c r="B67">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.0004568679907671967</v>
+        <v>0.0003393089502757242</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.995056728241033e-006</v>
+        <v>8.825722671037373e-005</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1598,6 +1598,78 @@
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>2.005998539445211e-005</v>
+      </c>
+      <c r="B70">
+        <v>26</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>3.991870003243814e-006</v>
+      </c>
+      <c r="B71">
+        <v>27</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>7.044476476312613e-007</v>
+      </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1.006353782330373e-007</v>
+      </c>
+      <c r="B73">
+        <v>29</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.001548979741762911</v>
+        <v>0.02263050589229685</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.003268938991143751</v>
+        <v>0.03995631731366302</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.008410903641960793</v>
+        <v>0.07143614403943686</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01891156800318276</v>
+        <v>0.1030648450724377</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.03715914378078394</v>
+        <v>0.1258680709402186</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.0638062178574795</v>
+        <v>0.1334980403049797</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.09574688055486322</v>
+        <v>0.1269037463156026</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.125560748713796</v>
+        <v>0.1090433407910124</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1438975880718899</v>
+        <v>0.08670059411160223</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1441201264382892</v>
+        <v>0.06398050584396103</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1261442326367911</v>
+        <v>0.04428591729613323</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.09648956964622303</v>
+        <v>0.02923640047704226</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.06450023297090061</v>
+        <v>0.01839177724021192</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.03767962995700521</v>
+        <v>0.01107631290543678</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01923584873697569</v>
+        <v>0.006385483272747076</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.008581614788570103</v>
+        <v>0.003541403974944003</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.003345589604231248</v>
+        <v>0.001944710917997003</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.001139762748741303</v>
+        <v>0.001021174631173571</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.0003393089502757242</v>
+        <v>0.0005262158954580124</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>8.825722671037373e-005</v>
+        <v>0.0002671359322318997</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>2.005998539445211e-005</v>
+        <v>0.0001321178916949082</v>
       </c>
       <c r="B22">
         <v>26</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3.991870003243814e-006</v>
+        <v>5.800297684166702e-005</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7.044476476312613e-007</v>
+        <v>2.835701090037054e-005</v>
       </c>
       <c r="B24">
         <v>28</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>1.006353782330373e-007</v>
+        <v>1.256731164902786e-005</v>
       </c>
       <c r="B25">
         <v>29</v>
@@ -813,14 +813,14 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.001548979741762911</v>
+        <v>4.833581403472252e-006</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -831,14 +831,14 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.003268938991143751</v>
+        <v>5.478058923935219e-006</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -849,10 +849,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.008410903641960793</v>
+        <v>2.412472567823809e-005</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.01891156800318276</v>
+        <v>0.0003088952448684346</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.03715914378078394</v>
+        <v>0.002194009774181987</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.0638062178574795</v>
+        <v>0.00961299778144226</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.09574688055486322</v>
+        <v>0.02869565579292859</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.125560748713796</v>
+        <v>0.06257460060000027</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1438975880718899</v>
+        <v>0.1051874015039298</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1441201264382892</v>
+        <v>0.1419049518256739</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1261442326367911</v>
+        <v>0.158448588269726</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.09648956964622303</v>
+        <v>0.1504822088260238</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.06450023297090061</v>
+        <v>0.1237568095036183</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.03767962995700521</v>
+        <v>0.08976189671697048</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.01923584873697569</v>
+        <v>0.05819822017367404</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.008581614788570103</v>
+        <v>0.03420103105691622</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.003345589604231248</v>
+        <v>0.01839242280458119</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.001139762748741303</v>
+        <v>0.00912859868427132</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.0003393089502757242</v>
+        <v>0.004167934331650222</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>8.825722671037373e-005</v>
+        <v>0.001800184208504784</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>2.005998539445211e-005</v>
+        <v>0.0007287501198300519</v>
       </c>
       <c r="B46">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>3.991870003243814e-006</v>
+        <v>0.000281596213179902</v>
       </c>
       <c r="B47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>7.044476476312613e-007</v>
+        <v>9.720430404857337e-005</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.006353782330373e-007</v>
+        <v>3.505844638036355e-005</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1245,14 +1245,14 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.001548979741762911</v>
+        <v>1.213290297268115e-005</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1263,14 +1263,14 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.003268938991143751</v>
+        <v>3.244846143856586e-006</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1281,14 +1281,14 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.008410903641960793</v>
+        <v>9.17021736307296e-007</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1299,14 +1299,14 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.01891156800318276</v>
+        <v>5.643210684967976e-007</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.03715914378078394</v>
+        <v>2.505797449688734e-005</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0638062178574795</v>
+        <v>0.0002817027069236061</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.09574688055486322</v>
+        <v>0.001737140091873388</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.125560748713796</v>
+        <v>0.007065790190856377</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.1438975880718899</v>
+        <v>0.02047970699087962</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.1441201264382892</v>
+        <v>0.04501976347985359</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1261442326367911</v>
+        <v>0.07847567074172641</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.09648956964622303</v>
+        <v>0.1123432789285338</v>
       </c>
       <c r="B61">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.06450023297090061</v>
+        <v>0.1360655995427638</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.03767962995700521</v>
+        <v>0.1424746952363753</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.01923584873697569</v>
+        <v>0.1318092551868212</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.008581614788570103</v>
+        <v>0.1086542503072994</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.003345589604231248</v>
+        <v>0.0813547043274723</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.001139762748741303</v>
+        <v>0.05559598437180416</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.0003393089502757242</v>
+        <v>0.03517445337903993</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>8.825722671037373e-005</v>
+        <v>0.02078806372163112</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>2.005998539445211e-005</v>
+        <v>0.01146633760385593</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>3.991870003243814e-006</v>
+        <v>0.005882399414377579</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>7.044476476312613e-007</v>
+        <v>0.002909996942767507</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1659,17 +1659,125 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.006353782330373e-007</v>
+        <v>0.001359435017689414</v>
       </c>
       <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.000603625856988713</v>
+      </c>
+      <c r="B74">
+        <v>26</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.000260555053287698</v>
+      </c>
+      <c r="B75">
+        <v>27</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.0001058978731126417</v>
+      </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>4.397115906937875e-005</v>
+      </c>
+      <c r="B77">
         <v>29</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1.532207357771456e-005</v>
+      </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>7.341826922654891e-006</v>
+      </c>
+      <c r="B79">
+        <v>31</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.02263050589229685</v>
+        <v>0.000681276329892724</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.03995631731366302</v>
+        <v>0.009495232239784579</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.07143614403943686</v>
+        <v>0.019786298821505</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.1030648450724377</v>
+        <v>0.01573319274622023</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1258680709402186</v>
+        <v>0.01634090371142465</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.1334980403049797</v>
+        <v>0.07291458125239179</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1269037463156026</v>
+        <v>0.07678003358847622</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1090433407910124</v>
+        <v>0.1577540309660203</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.08670059411160223</v>
+        <v>0.1007548953674417</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.06398050584396103</v>
+        <v>0.1933850279018366</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.04428591729613323</v>
+        <v>0.1027722233821524</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.02923640047704226</v>
+        <v>0.134953497833495</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.01839177724021192</v>
+        <v>0.02366027172422455</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.01107631290543678</v>
+        <v>0.001542591561874879</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.006385483272747076</v>
+        <v>0.0258286217507121</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.003541403974944003</v>
+        <v>0.01025493803736597</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.001944710917997003</v>
+        <v>0.01378020507326614</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.001021174631173571</v>
+        <v>0.008231001551682403</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.0005262158954580124</v>
+        <v>0.006599950406276719</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.0002671359322318997</v>
+        <v>0.002763917506960028</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.0001321178916949082</v>
+        <v>0.003700173470685762</v>
       </c>
       <c r="B22">
         <v>26</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>5.800297684166702e-005</v>
+        <v>0.0006242824609436011</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>2.835701090037054e-005</v>
+        <v>0.000869198433396542</v>
       </c>
       <c r="B24">
         <v>28</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>1.256731164902786e-005</v>
+        <v>0.0005197210192046862</v>
       </c>
       <c r="B25">
         <v>29</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4.833581403472252e-006</v>
+        <v>0.0002369321344247531</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5.478058923935219e-006</v>
+        <v>3.700072834071962e-005</v>
       </c>
       <c r="B27">
         <v>31</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>2.412472567823809e-005</v>
+        <v>0.000681276329892724</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.0003088952448684346</v>
+        <v>0.009495232239784579</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.002194009774181987</v>
+        <v>0.019786298821505</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.00961299778144226</v>
+        <v>0.01573319274622023</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.02869565579292859</v>
+        <v>0.01634090371142465</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.06257460060000027</v>
+        <v>0.07291458125239179</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1051874015039298</v>
+        <v>0.07678003358847622</v>
       </c>
       <c r="B34">
         <v>12</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1419049518256739</v>
+        <v>0.1577540309660203</v>
       </c>
       <c r="B35">
         <v>13</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.158448588269726</v>
+        <v>0.1007548953674417</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.1504822088260238</v>
+        <v>0.1933850279018366</v>
       </c>
       <c r="B37">
         <v>15</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.1237568095036183</v>
+        <v>0.1027722233821524</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.08976189671697048</v>
+        <v>0.134953497833495</v>
       </c>
       <c r="B39">
         <v>17</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.05819822017367404</v>
+        <v>0.02366027172422455</v>
       </c>
       <c r="B40">
         <v>18</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.03420103105691622</v>
+        <v>0.001542591561874879</v>
       </c>
       <c r="B41">
         <v>19</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01839242280458119</v>
+        <v>0.0258286217507121</v>
       </c>
       <c r="B42">
         <v>20</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.00912859868427132</v>
+        <v>0.01025493803736597</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.004167934331650222</v>
+        <v>0.01378020507326614</v>
       </c>
       <c r="B44">
         <v>22</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.001800184208504784</v>
+        <v>0.008231001551682403</v>
       </c>
       <c r="B45">
         <v>23</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.0007287501198300519</v>
+        <v>0.006599950406276719</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.000281596213179902</v>
+        <v>0.002763917506960028</v>
       </c>
       <c r="B47">
         <v>25</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>9.720430404857337e-005</v>
+        <v>0.003700173470685762</v>
       </c>
       <c r="B48">
         <v>26</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>3.505844638036355e-005</v>
+        <v>0.0006242824609436011</v>
       </c>
       <c r="B49">
         <v>27</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>1.213290297268115e-005</v>
+        <v>0.000869198433396542</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>3.244846143856586e-006</v>
+        <v>0.0005197210192046862</v>
       </c>
       <c r="B51">
         <v>29</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>9.17021736307296e-007</v>
+        <v>0.0002369321344247531</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>5.643210684967976e-007</v>
+        <v>3.700072834071962e-005</v>
       </c>
       <c r="B53">
         <v>31</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>2.505797449688734e-005</v>
+        <v>0.000681276329892724</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0002817027069236061</v>
+        <v>0.009495232239784579</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.001737140091873388</v>
+        <v>0.019786298821505</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.007065790190856377</v>
+        <v>0.01573319274622023</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.02047970699087962</v>
+        <v>0.01634090371142465</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.04501976347985359</v>
+        <v>0.07291458125239179</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.07847567074172641</v>
+        <v>0.07678003358847622</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1123432789285338</v>
+        <v>0.1577540309660203</v>
       </c>
       <c r="B61">
         <v>13</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.1360655995427638</v>
+        <v>0.1007548953674417</v>
       </c>
       <c r="B62">
         <v>14</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.1424746952363753</v>
+        <v>0.1933850279018366</v>
       </c>
       <c r="B63">
         <v>15</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1318092551868212</v>
+        <v>0.1027722233821524</v>
       </c>
       <c r="B64">
         <v>16</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.1086542503072994</v>
+        <v>0.134953497833495</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.0813547043274723</v>
+        <v>0.02366027172422455</v>
       </c>
       <c r="B66">
         <v>18</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.05559598437180416</v>
+        <v>0.001542591561874879</v>
       </c>
       <c r="B67">
         <v>19</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.03517445337903993</v>
+        <v>0.0258286217507121</v>
       </c>
       <c r="B68">
         <v>20</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.02078806372163112</v>
+        <v>0.01025493803736597</v>
       </c>
       <c r="B69">
         <v>21</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.01146633760385593</v>
+        <v>0.01378020507326614</v>
       </c>
       <c r="B70">
         <v>22</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.005882399414377579</v>
+        <v>0.008231001551682403</v>
       </c>
       <c r="B71">
         <v>23</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.002909996942767507</v>
+        <v>0.006599950406276719</v>
       </c>
       <c r="B72">
         <v>24</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.001359435017689414</v>
+        <v>0.002763917506960028</v>
       </c>
       <c r="B73">
         <v>25</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.000603625856988713</v>
+        <v>0.003700173470685762</v>
       </c>
       <c r="B74">
         <v>26</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.000260555053287698</v>
+        <v>0.0006242824609436011</v>
       </c>
       <c r="B75">
         <v>27</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0001058978731126417</v>
+        <v>0.000869198433396542</v>
       </c>
       <c r="B76">
         <v>28</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>4.397115906937875e-005</v>
+        <v>0.0005197210192046862</v>
       </c>
       <c r="B77">
         <v>29</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.532207357771456e-005</v>
+        <v>0.0002369321344247531</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>7.341826922654891e-006</v>
+        <v>3.700072834071962e-005</v>
       </c>
       <c r="B79">
         <v>31</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.000681276329892724</v>
+        <v>3.371354609611225e-005</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.009495232239784579</v>
+        <v>0.0005483399248627372</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.019786298821505</v>
+        <v>0.003876957163601876</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01573319274622023</v>
+        <v>0.01923456764943387</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.01634090371142465</v>
+        <v>0.04902244805564419</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.07291458125239179</v>
+        <v>0.0777857385728858</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.07678003358847622</v>
+        <v>0.1195326356519039</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1577540309660203</v>
+        <v>0.1541765749828178</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1007548953674417</v>
+        <v>0.1255480044666926</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1933850279018366</v>
+        <v>0.157927131507922</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.1027722233821524</v>
+        <v>0.09819950878189235</v>
       </c>
       <c r="B12">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.134953497833495</v>
+        <v>0.07492391137785552</v>
       </c>
       <c r="B13">
         <v>17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.02366027172422455</v>
+        <v>0.03690512867236123</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001542591561874879</v>
+        <v>0.03829325458027876</v>
       </c>
       <c r="B15">
         <v>19</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.0258286217507121</v>
+        <v>0.0163742835619861</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01025493803736597</v>
+        <v>0.01485982410720492</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.01378020507326614</v>
+        <v>0.005509095344457842</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.008231001551682403</v>
+        <v>0.003297654449637933</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.006599950406276719</v>
+        <v>0.001888428222820441</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.002763917506960028</v>
+        <v>0.001034586542438008</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.003700173470685762</v>
+        <v>0.0005422681319837359</v>
       </c>
       <c r="B22">
         <v>26</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0006242824609436011</v>
+        <v>0.0002719223926916278</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.000869198433396542</v>
+        <v>7.745729147853055e-005</v>
       </c>
       <c r="B24">
         <v>28</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.0005197210192046862</v>
+        <v>8.886286926228991e-005</v>
       </c>
       <c r="B25">
         <v>29</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.0002369321344247531</v>
+        <v>3.988597642614674e-005</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>3.700072834071962e-005</v>
+        <v>7.816175363576273e-006</v>
       </c>
       <c r="B27">
         <v>31</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.000681276329892724</v>
+        <v>3.371354609611225e-005</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.009495232239784579</v>
+        <v>0.0005483399248627372</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.019786298821505</v>
+        <v>0.003876957163601876</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.01573319274622023</v>
+        <v>0.01923456764943387</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.01634090371142465</v>
+        <v>0.04902244805564419</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.07291458125239179</v>
+        <v>0.0777857385728858</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.07678003358847622</v>
+        <v>0.1195326356519039</v>
       </c>
       <c r="B34">
         <v>12</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1577540309660203</v>
+        <v>0.1541765749828178</v>
       </c>
       <c r="B35">
         <v>13</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1007548953674417</v>
+        <v>0.1255480044666926</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.1933850279018366</v>
+        <v>0.157927131507922</v>
       </c>
       <c r="B37">
         <v>15</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.1027722233821524</v>
+        <v>0.09819950878189235</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.134953497833495</v>
+        <v>0.07492391137785552</v>
       </c>
       <c r="B39">
         <v>17</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.02366027172422455</v>
+        <v>0.03690512867236123</v>
       </c>
       <c r="B40">
         <v>18</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.001542591561874879</v>
+        <v>0.03829325458027876</v>
       </c>
       <c r="B41">
         <v>19</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0258286217507121</v>
+        <v>0.0163742835619861</v>
       </c>
       <c r="B42">
         <v>20</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01025493803736597</v>
+        <v>0.01485982410720492</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.01378020507326614</v>
+        <v>0.005509095344457842</v>
       </c>
       <c r="B44">
         <v>22</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.008231001551682403</v>
+        <v>0.003297654449637933</v>
       </c>
       <c r="B45">
         <v>23</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.006599950406276719</v>
+        <v>0.001888428222820441</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.002763917506960028</v>
+        <v>0.001034586542438008</v>
       </c>
       <c r="B47">
         <v>25</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.003700173470685762</v>
+        <v>0.0005422681319837359</v>
       </c>
       <c r="B48">
         <v>26</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0006242824609436011</v>
+        <v>0.0002719223926916278</v>
       </c>
       <c r="B49">
         <v>27</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.000869198433396542</v>
+        <v>7.745729147853055e-005</v>
       </c>
       <c r="B50">
         <v>28</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.0005197210192046862</v>
+        <v>8.886286926228991e-005</v>
       </c>
       <c r="B51">
         <v>29</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.0002369321344247531</v>
+        <v>3.988597642614674e-005</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>3.700072834071962e-005</v>
+        <v>7.816175363576273e-006</v>
       </c>
       <c r="B53">
         <v>31</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.000681276329892724</v>
+        <v>3.371354609611225e-005</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.009495232239784579</v>
+        <v>0.0005483399248627372</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.019786298821505</v>
+        <v>0.003876957163601876</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01573319274622023</v>
+        <v>0.01923456764943387</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.01634090371142465</v>
+        <v>0.04902244805564419</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.07291458125239179</v>
+        <v>0.0777857385728858</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.07678003358847622</v>
+        <v>0.1195326356519039</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1577540309660203</v>
+        <v>0.1541765749828178</v>
       </c>
       <c r="B61">
         <v>13</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.1007548953674417</v>
+        <v>0.1255480044666926</v>
       </c>
       <c r="B62">
         <v>14</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.1933850279018366</v>
+        <v>0.157927131507922</v>
       </c>
       <c r="B63">
         <v>15</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1027722233821524</v>
+        <v>0.09819950878189235</v>
       </c>
       <c r="B64">
         <v>16</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.134953497833495</v>
+        <v>0.07492391137785552</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.02366027172422455</v>
+        <v>0.03690512867236123</v>
       </c>
       <c r="B66">
         <v>18</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.001542591561874879</v>
+        <v>0.03829325458027876</v>
       </c>
       <c r="B67">
         <v>19</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.0258286217507121</v>
+        <v>0.0163742835619861</v>
       </c>
       <c r="B68">
         <v>20</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.01025493803736597</v>
+        <v>0.01485982410720492</v>
       </c>
       <c r="B69">
         <v>21</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.01378020507326614</v>
+        <v>0.005509095344457842</v>
       </c>
       <c r="B70">
         <v>22</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.008231001551682403</v>
+        <v>0.003297654449637933</v>
       </c>
       <c r="B71">
         <v>23</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.006599950406276719</v>
+        <v>0.001888428222820441</v>
       </c>
       <c r="B72">
         <v>24</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.002763917506960028</v>
+        <v>0.001034586542438008</v>
       </c>
       <c r="B73">
         <v>25</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.003700173470685762</v>
+        <v>0.0005422681319837359</v>
       </c>
       <c r="B74">
         <v>26</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.0006242824609436011</v>
+        <v>0.0002719223926916278</v>
       </c>
       <c r="B75">
         <v>27</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.000869198433396542</v>
+        <v>7.745729147853055e-005</v>
       </c>
       <c r="B76">
         <v>28</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.0005197210192046862</v>
+        <v>8.886286926228991e-005</v>
       </c>
       <c r="B77">
         <v>29</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0002369321344247531</v>
+        <v>3.988597642614674e-005</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>3.700072834071962e-005</v>
+        <v>7.816175363576273e-006</v>
       </c>
       <c r="B79">
         <v>31</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,14 +381,14 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3.371354609611225e-005</v>
+        <v>0.001887865103457153</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -399,14 +399,14 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0005483399248627372</v>
+        <v>0.01058348618604768</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -417,14 +417,14 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.003876957163601876</v>
+        <v>0.04366045601953655</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -435,14 +435,14 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01923456764943387</v>
+        <v>0.1026955710255613</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -453,14 +453,14 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.04902244805564419</v>
+        <v>0.1582624490044015</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -471,14 +471,14 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.0777857385728858</v>
+        <v>0.2019193295218481</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -489,14 +489,14 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1195326356519039</v>
+        <v>0.1745238325091801</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -507,14 +507,14 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1541765749828178</v>
+        <v>0.1221105473736149</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -525,14 +525,14 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1255480044666926</v>
+        <v>0.09712851427161659</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -543,14 +543,14 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.157927131507922</v>
+        <v>0.04742545972018121</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -561,14 +561,14 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.09819950878189235</v>
+        <v>0.02125635992434238</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -579,14 +579,14 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.07492391137785552</v>
+        <v>0.01219603762858399</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -597,14 +597,14 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.03690512867236123</v>
+        <v>0.004204790457700023</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -615,14 +615,14 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.03829325458027876</v>
+        <v>0.001698363492693461</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -633,14 +633,14 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.0163742835619861</v>
+        <v>0.0004469377612351214</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -651,14 +651,14 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01485982410720492</v>
+        <v>3.262427729069732e-006</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -669,14 +669,14 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.005509095344457842</v>
+        <v>7.960323658930146e-005</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -687,14 +687,14 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.003297654449637933</v>
+        <v>0.0008919477411276647</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -705,14 +705,14 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.001888428222820441</v>
+        <v>0.005022181246129945</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -723,14 +723,14 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.001034586542438008</v>
+        <v>0.01619534373264796</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -741,14 +741,14 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.0005422681319837359</v>
+        <v>0.04351556602142371</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -759,14 +759,14 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.0002719223926916278</v>
+        <v>0.07208660310152479</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -777,14 +777,14 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7.745729147853055e-005</v>
+        <v>0.1129941843963302</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -795,14 +795,14 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>8.886286926228991e-005</v>
+        <v>0.1171270278435157</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -813,14 +813,14 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3.988597642614674e-005</v>
+        <v>0.130996260605337</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -831,14 +831,14 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>7.816175363576273e-006</v>
+        <v>0.1311267577144997</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -849,14 +849,14 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>3.371354609611225e-005</v>
+        <v>0.1174780650671636</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -867,14 +867,14 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.0005483399248627372</v>
+        <v>0.0731253600904606</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -885,14 +885,14 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.003876957163601876</v>
+        <v>0.07421892586524477</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -903,14 +903,14 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.01923456764943387</v>
+        <v>0.03888226616059888</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -921,14 +921,14 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.04902244805564419</v>
+        <v>0.02672058807217273</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -939,14 +939,14 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.0777857385728858</v>
+        <v>0.01724780291804586</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -957,14 +957,14 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1195326356519039</v>
+        <v>0.007574052215808289</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -975,14 +975,14 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1541765749828178</v>
+        <v>0.007234759731985037</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -993,14 +993,14 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1255480044666926</v>
+        <v>0.002904213164417875</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1011,14 +1011,14 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.157927131507922</v>
+        <v>0.002549913513040902</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1029,14 +1029,14 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.09819950878189235</v>
+        <v>0.0009350117871513851</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1047,14 +1047,14 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.07492391137785552</v>
+        <v>0.0005663574537665055</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1065,14 +1065,14 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.03690512867236123</v>
+        <v>0.0003334201139109266</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1083,14 +1083,14 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.03829325458027876</v>
+        <v>0.0001905257793776723</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1101,14 +1101,14 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.0163742835619861</v>
+        <v>8.656816940351934e-007</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1119,14 +1119,14 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01485982410720492</v>
+        <v>2.770181420912619e-005</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1137,14 +1137,14 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.005509095344457842</v>
+        <v>0.0004536172076744414</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1155,14 +1155,14 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.003297654449637933</v>
+        <v>0.003367501789796903</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1173,14 +1173,14 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.001888428222820441</v>
+        <v>0.01736644046404002</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1191,14 +1191,14 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.001034586542438008</v>
+        <v>0.04764538907630898</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1209,14 +1209,14 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.0005422681319837359</v>
+        <v>0.08259295906450974</v>
       </c>
       <c r="B48">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1227,14 +1227,14 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0002719223926916278</v>
+        <v>0.1308192205575163</v>
       </c>
       <c r="B49">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1245,14 +1245,14 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>7.745729147853055e-005</v>
+        <v>0.1691853675554621</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1263,14 +1263,14 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>8.886286926228991e-005</v>
+        <v>0.1438936111825299</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1281,14 +1281,14 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>3.988597642614674e-005</v>
+        <v>0.1319472038048442</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1299,14 +1299,14 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>7.816175363576273e-006</v>
+        <v>0.1061871136354389</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1317,14 +1317,14 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>3.371354609611225e-005</v>
+        <v>0.07499833356273898</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1335,14 +1335,14 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0005483399248627372</v>
+        <v>0.03717756603203542</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1353,14 +1353,14 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.003876957163601876</v>
+        <v>0.02408326472805908</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1371,14 +1371,14 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.01923456764943387</v>
+        <v>0.0144906458764551</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1389,14 +1389,14 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.04902244805564419</v>
+        <v>0.008099317929393269</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1407,14 +1407,14 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.0777857385728858</v>
+        <v>0.004204615987928934</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1425,14 +1425,14 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1195326356519039</v>
+        <v>0.002027426527430423</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1443,14 +1443,14 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1541765749828178</v>
+        <v>0.0006856199016758732</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1461,14 +1461,14 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.1255480044666926</v>
+        <v>0.0005107521994807641</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1479,14 +1479,14 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.157927131507922</v>
+        <v>0.0001549570232322996</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1497,14 +1497,14 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.09819950878189235</v>
+        <v>8.050839754527298e-005</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1515,14 +1515,14 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.07492391137785552</v>
+        <v>1.150283131735757e-006</v>
       </c>
       <c r="B65">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1533,14 +1533,14 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.03690512867236123</v>
+        <v>5.322673764122732e-005</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1551,14 +1551,14 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.03829325458027876</v>
+        <v>0.0008614574944762881</v>
       </c>
       <c r="B67">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1569,14 +1569,14 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.0163742835619861</v>
+        <v>0.006092108608060159</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1587,14 +1587,14 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.01485982410720492</v>
+        <v>0.02225860602624967</v>
       </c>
       <c r="B69">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1605,14 +1605,14 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.005509095344457842</v>
+        <v>0.06306835097397087</v>
       </c>
       <c r="B70">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1623,14 +1623,14 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.003297654449637933</v>
+        <v>0.1037920338291995</v>
       </c>
       <c r="B71">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1641,14 +1641,14 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.001888428222820441</v>
+        <v>0.1541547756147924</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1659,14 +1659,14 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.001034586542438008</v>
+        <v>0.184151545410616</v>
       </c>
       <c r="B73">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1677,14 +1677,14 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.0005422681319837359</v>
+        <v>0.1439578293655363</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1695,14 +1695,14 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.0002719223926916278</v>
+        <v>0.1211532571364873</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1713,14 +1713,14 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>7.745729147853055e-005</v>
+        <v>0.06965058476734426</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1731,14 +1731,14 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>8.886286926228991e-005</v>
+        <v>0.06392123363055603</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1749,14 +1749,14 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>3.988597642614674e-005</v>
+        <v>0.02951302345333192</v>
       </c>
       <c r="B78">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1767,17 +1767,1637 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>7.816175363576273e-006</v>
+        <v>0.01789673239070768</v>
       </c>
       <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.01216779953869464</v>
+      </c>
+      <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.003044381164929373</v>
+      </c>
+      <c r="B81">
+        <v>22</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.002479278433665734</v>
+      </c>
+      <c r="B82">
+        <v>23</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.001094651256637265</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.0003413203765441374</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.000234971472455477</v>
+      </c>
+      <c r="B85">
+        <v>26</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>6.525242492755569e-005</v>
+      </c>
+      <c r="B86">
+        <v>27</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>3.158050052583625e-005</v>
+      </c>
+      <c r="B87">
+        <v>28</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1.484910951877069e-005</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>9.029219258929651e-006</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.0002381456579542695</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.002560841771538462</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.009946884206893837</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.04110883609272387</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.06875581167813824</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.1145336711578097</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.1568163762949699</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.1411775569161774</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.1368445897835231</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.116913223136415</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.08803841481333712</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.04637625687790196</v>
+      </c>
+      <c r="B101">
+        <v>18</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0.03170843127332166</v>
+      </c>
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.02018686533582558</v>
+      </c>
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.01196681931220204</v>
+      </c>
+      <c r="B104">
+        <v>21</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.006605438214110723</v>
+      </c>
+      <c r="B105">
+        <v>22</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.003394986441357549</v>
+      </c>
+      <c r="B106">
+        <v>23</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0.001216405132038929</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.0009554042628354937</v>
+      </c>
+      <c r="B108">
+        <v>25</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.000308615892639197</v>
+      </c>
+      <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0.0001686629941257875</v>
+      </c>
+      <c r="B110">
+        <v>27</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>8.930462173285107e-005</v>
+      </c>
+      <c r="B111">
+        <v>28</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>4.578096327379175e-005</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>2.920388104060059e-005</v>
+      </c>
+      <c r="B113">
+        <v>30</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>4.444068854004438e-006</v>
+      </c>
+      <c r="B114">
         <v>31</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>4.134009557078458e-005</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0.0008812956737589985</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0.007664829537874104</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.03206112321039666</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.07542312527364324</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.1429070731024426</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0.1658639798110006</v>
+      </c>
+      <c r="B121">
+        <v>13</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.1806036029772385</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0.1601703211937516</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.09655918868183347</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0.07693579695248332</v>
+      </c>
+      <c r="B125">
+        <v>17</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0.02664932888113031</v>
+      </c>
+      <c r="B126">
+        <v>18</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.01991653058885208</v>
+      </c>
+      <c r="B127">
+        <v>19</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0.009032810882216431</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.002999036024135099</v>
+      </c>
+      <c r="B129">
+        <v>21</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0.001388651392127718</v>
+      </c>
+      <c r="B130">
+        <v>22</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0.0005956731952699414</v>
+      </c>
+      <c r="B131">
+        <v>23</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0.0002386450971586201</v>
+      </c>
+      <c r="B132">
+        <v>24</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>6.764742911582931e-005</v>
+      </c>
+      <c r="B133">
+        <v>25</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0.02444602106394263</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0.05741562762302963</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0.09676660706782558</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.1482859839073289</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0.1407700353952171</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.1450554446345791</v>
+      </c>
+      <c r="B139">
+        <v>11</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.1136071337549533</v>
+      </c>
+      <c r="B140">
+        <v>12</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.09424259450778803</v>
+      </c>
+      <c r="B141">
+        <v>13</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.0606983199818153</v>
+      </c>
+      <c r="B142">
+        <v>14</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0.04467748236389275</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.03071324757266745</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.01650300765863148</v>
+      </c>
+      <c r="B145">
+        <v>17</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.01107318258795421</v>
+      </c>
+      <c r="B146">
+        <v>18</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.00711053206971982</v>
+      </c>
+      <c r="B147">
+        <v>19</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.004371019022100116</v>
+      </c>
+      <c r="B148">
+        <v>20</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.002056602826697263</v>
+      </c>
+      <c r="B149">
+        <v>21</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.001678738958060063</v>
+      </c>
+      <c r="B150">
+        <v>22</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0.0005284190037973351</v>
+      </c>
+      <c r="B151">
+        <v>23</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.03080644862704858</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.06015240911122453</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0.09372247948440603</v>
+      </c>
+      <c r="B154">
+        <v>8</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.137988030476533</v>
+      </c>
+      <c r="B155">
+        <v>9</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.1296594794870506</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.1351510206888162</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.108800746839025</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.09394793283738004</v>
+      </c>
+      <c r="B159">
+        <v>13</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.06356594477516814</v>
+      </c>
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.0494318046582233</v>
+      </c>
+      <c r="B161">
+        <v>15</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.0362523702353971</v>
+      </c>
+      <c r="B162">
+        <v>16</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.02083757573513661</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.01493545819261783</v>
+      </c>
+      <c r="B164">
+        <v>18</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.010310028112248</v>
+      </c>
+      <c r="B165">
+        <v>19</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.006854839776054078</v>
+      </c>
+      <c r="B166">
+        <v>20</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.003477006402610763</v>
+      </c>
+      <c r="B167">
+        <v>21</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.003065768908329741</v>
+      </c>
+      <c r="B168">
+        <v>22</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.001040655652730432</v>
+      </c>
+      <c r="B169">
+        <v>23</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,10 +381,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.001887865103457153</v>
+        <v>0.06018412625800549</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -399,10 +399,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.01058348618604768</v>
+        <v>0.06018412625800549</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -417,10 +417,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.04366045601953655</v>
+        <v>0.0641690016010979</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -435,10 +435,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.1026955710255613</v>
+        <v>0.01334843892955169</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -453,10 +453,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1582624490044015</v>
+        <v>0.1203646786367795</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -471,10 +471,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.2019193295218481</v>
+        <v>0.3397651246569076</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -489,10 +489,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1745238325091801</v>
+        <v>0.1569862191216835</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1221105473736149</v>
+        <v>0.0822027962031107</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.09712851427161659</v>
+        <v>0.02655034881061299</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -543,10 +543,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.04742545972018121</v>
+        <v>0.05531292886550777</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.02125635992434238</v>
+        <v>0.008931124199451052</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -579,10 +579,10 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.01219603762858399</v>
+        <v>0.00784823879231473</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -597,10 +597,10 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.004204790457700023</v>
+        <v>0.004152847666971638</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -615,14 +615,14 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001698363492693461</v>
+        <v>0.001790019726748009</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -633,14 +633,14 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.0004469377612351214</v>
+        <v>0.001790019726748009</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -651,10 +651,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>3.262427729069732e-006</v>
+        <v>0.007159426567441472</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -669,10 +669,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>7.960323658930146e-005</v>
+        <v>0.02147762736277385</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -687,10 +687,10 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.0008919477411276647</v>
+        <v>0.06328802617708149</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -705,10 +705,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.005022181246129945</v>
+        <v>0.1056111638781325</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.01619534373264796</v>
+        <v>0.1038178824536317</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -741,10 +741,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.04351556602142371</v>
+        <v>0.1592960995313593</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -759,10 +759,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.07208660310152479</v>
+        <v>0.1467718325000783</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1129941843963302</v>
+        <v>0.1461201452890647</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.1171270278435157</v>
+        <v>0.05993434854763122</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -813,10 +813,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.130996260605337</v>
+        <v>0.02594419626548654</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1311267577144997</v>
+        <v>0.04216853322756735</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.1174780650671636</v>
+        <v>0.05982410316358588</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.0731253600904606</v>
+        <v>0.007803285703848282</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.07421892586524477</v>
+        <v>0.005972168585414731</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.03888226616059888</v>
+        <v>0.02091400599108643</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.02672058807217273</v>
+        <v>0.001566919600455072</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.01724780291804586</v>
+        <v>0.00344174346877642</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.007574052215808289</v>
+        <v>0.01528170631151562</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.007234759731985037</v>
+        <v>3.261697752820716e-006</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.002904213164417875</v>
+        <v>2.348422382030916e-005</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,14 +1011,14 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.002549913513040902</v>
+        <v>0.007787958398434964</v>
       </c>
       <c r="B37">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1029,14 +1029,14 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0009350117871513851</v>
+        <v>0.01246056031404594</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1047,14 +1047,14 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.0005663574537665055</v>
+        <v>0.01246056031404594</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1065,14 +1065,14 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0003334201139109266</v>
+        <v>0.0202485187124809</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1083,14 +1083,14 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0001905257793776723</v>
+        <v>0.05140035230622076</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1101,10 +1101,10 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>8.656816940351934e-007</v>
+        <v>0.1479712095702643</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>2.770181420912619e-005</v>
+        <v>0.1228380127159174</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.0004536172076744414</v>
+        <v>0.1390648736848028</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.003367501789796903</v>
+        <v>0.1531467351081372</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01736644046404002</v>
+        <v>0.1595323935615389</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.04764538907630898</v>
+        <v>0.09223930854494068</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.08259295906450974</v>
+        <v>0.00685136053391272</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.1308192205575163</v>
+        <v>0.02169842760626534</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.1691853675554621</v>
+        <v>0.02028660587148181</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.1438936111825299</v>
+        <v>0.01838571039043666</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.1319472038048442</v>
+        <v>0.009108890321966337</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1061871136354389</v>
+        <v>0.003374176040580137</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.07499833356273898</v>
+        <v>0.0004128994282598064</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.03717756603203542</v>
+        <v>0.0005955446680141442</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.02408326472805908</v>
+        <v>0.0001359019082532277</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1371,14 +1371,14 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.0144906458764551</v>
+        <v>0.001010041331280276</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1389,14 +1389,14 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.008099317929393269</v>
+        <v>0.005069656670649039</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1407,14 +1407,14 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.004204615987928934</v>
+        <v>0.007097582080890099</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1425,14 +1425,14 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.002027426527430423</v>
+        <v>0.005069656670649039</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1443,14 +1443,14 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.0006856199016758732</v>
+        <v>0.01115332833140315</v>
       </c>
       <c r="B61">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1461,14 +1461,14 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.0005107521994807641</v>
+        <v>0.04968296999626162</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1479,14 +1479,14 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.0001549570232322996</v>
+        <v>0.06903217879373312</v>
       </c>
       <c r="B63">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1497,14 +1497,14 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>8.050839754527298e-005</v>
+        <v>0.1257282383358735</v>
       </c>
       <c r="B64">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.150283131735757e-006</v>
+        <v>0.163243969580596</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>5.322673764122732e-005</v>
+        <v>0.1765428645374478</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.0008614574944762881</v>
+        <v>0.1460069695884388</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.006092108608060159</v>
+        <v>0.1186604586961693</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.02225860602624967</v>
+        <v>0.0450438278882879</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.06306835097397087</v>
+        <v>0.01665820521333581</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.1037920338291995</v>
+        <v>0.01416724398003759</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.1541547756147924</v>
+        <v>0.008792556709601353</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.184151545410616</v>
+        <v>0.01103788308554608</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.1439578293655363</v>
+        <v>0.008903505446788263</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.1211532571364873</v>
+        <v>0.004359208300764145</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.06965058476734426</v>
+        <v>0.007145579696694804</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.06392123363055603</v>
+        <v>0.003604945113837482</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.02951302345333192</v>
+        <v>0.0008441933603298137</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.01789673239070768</v>
+        <v>0.0001775598074866869</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.01216779953869464</v>
+        <v>0.0009673767838983162</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1803,14 +1803,14 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.003044381164929373</v>
+        <v>0.0005243953529006491</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1821,14 +1821,14 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.002479278433665734</v>
+        <v>0.0005049968161710717</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -1839,14 +1839,14 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.001094651256637265</v>
+        <v>0.001009993632342143</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -1857,14 +1857,14 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.0003413203765441374</v>
+        <v>0.005049968161710717</v>
       </c>
       <c r="B84">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -1875,14 +1875,14 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.000234971472455477</v>
+        <v>0.03181465833851039</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -1893,14 +1893,14 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>6.525242492755569e-005</v>
+        <v>0.0647983077704119</v>
       </c>
       <c r="B86">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -1911,14 +1911,14 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>3.158050052583625e-005</v>
+        <v>0.1141288572138608</v>
       </c>
       <c r="B87">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -1929,14 +1929,14 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.484910951877069e-005</v>
+        <v>0.101503936809584</v>
       </c>
       <c r="B88">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -1947,10 +1947,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>9.029219258929651e-006</v>
+        <v>0.1409184480578079</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.0002381456579542695</v>
+        <v>0.1524052739471938</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.002560841771538462</v>
+        <v>0.1426689014721514</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.009946884206893837</v>
+        <v>0.1261353522671987</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.04110883609272387</v>
+        <v>0.03853699198671137</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.06875581167813824</v>
+        <v>0.03220072448949576</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.1145336711578097</v>
+        <v>0.01886214955397121</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.1568163762949699</v>
+        <v>0.01004519717977724</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.1411775569161774</v>
+        <v>0.004787276704325457</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.1368445897835231</v>
+        <v>0.002437302694837668</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.116913223136415</v>
+        <v>0.008158812928059575</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.08803841481333712</v>
+        <v>0.0006831106534153734</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.04637625687790196</v>
+        <v>0.001394719520789835</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.03170843127332166</v>
+        <v>0.0004813658714277683</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.02018686533582558</v>
+        <v>0.0009492585773451755</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2217,14 +2217,14 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.01196681931220204</v>
+        <v>0.009718114550490228</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2235,14 +2235,14 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.006605438214110723</v>
+        <v>0.01943810808677908</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2253,14 +2253,14 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.003394986441357549</v>
+        <v>0.03887621617355816</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2271,14 +2271,14 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.001216405132038929</v>
+        <v>0.1069086549843856</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2289,14 +2289,14 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.0009554042628354937</v>
+        <v>0.174946730752609</v>
       </c>
       <c r="B108">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2307,14 +2307,14 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.000308615892639197</v>
+        <v>0.2150348927662805</v>
       </c>
       <c r="B109">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2325,14 +2325,14 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.0001686629941257875</v>
+        <v>0.1853769809207782</v>
       </c>
       <c r="B110">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2343,14 +2343,14 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>8.930462173285107e-005</v>
+        <v>0.07688434090815141</v>
       </c>
       <c r="B111">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2361,14 +2361,14 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>4.578096327379175e-005</v>
+        <v>0.05081529193802353</v>
       </c>
       <c r="B112">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2379,14 +2379,14 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>2.920388104060059e-005</v>
+        <v>0.05629441452681501</v>
       </c>
       <c r="B113">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2397,14 +2397,14 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>4.444068854004438e-006</v>
+        <v>0.03778640441035547</v>
       </c>
       <c r="B114">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2415,10 +2415,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>4.134009557078458e-005</v>
+        <v>0.01462226748490235</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.0008812956737589985</v>
+        <v>0.001001499430667303</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.007664829537874104</v>
+        <v>0.01180942574436023</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.03206112321039666</v>
+        <v>2.442681538212934e-005</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.07542312527364324</v>
+        <v>0.0004622305064618322</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2505,14 +2505,14 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.1429070731024426</v>
+        <v>0.03956020413478084</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2523,14 +2523,14 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.1658639798110006</v>
+        <v>0.04410242903879171</v>
       </c>
       <c r="B121">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2541,14 +2541,14 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.1806036029772385</v>
+        <v>0.04714499249677907</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2559,14 +2559,14 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.1601703211937516</v>
+        <v>0.06548194067590901</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2577,14 +2577,14 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.09655918868183347</v>
+        <v>0.160642633429085</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2595,14 +2595,14 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.07693579695248332</v>
+        <v>0.2689012867016588</v>
       </c>
       <c r="B125">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2613,14 +2613,14 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.02664932888113031</v>
+        <v>0.113505502853386</v>
       </c>
       <c r="B126">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2631,14 +2631,14 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.01991653058885208</v>
+        <v>0.05427772039667323</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2649,14 +2649,14 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.009032810882216431</v>
+        <v>0.05143465318609265</v>
       </c>
       <c r="B128">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2667,14 +2667,14 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.002999036024135099</v>
+        <v>0.03584348094417741</v>
       </c>
       <c r="B129">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2685,14 +2685,14 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.001388651392127718</v>
+        <v>0.01978452439799796</v>
       </c>
       <c r="B130">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2703,14 +2703,14 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0005956731952699414</v>
+        <v>0.02232097668645578</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2721,14 +2721,14 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.0002386450971586201</v>
+        <v>0.03021237997057676</v>
       </c>
       <c r="B132">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -2739,14 +2739,14 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>6.764742911582931e-005</v>
+        <v>0.03042563457987368</v>
       </c>
       <c r="B133">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -2757,10 +2757,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.02444602106394263</v>
+        <v>0.008336584565279987</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.05741562762302963</v>
+        <v>0.004193352156082719</v>
       </c>
       <c r="B135">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.09676660706782558</v>
+        <v>0.003350161120245135</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.1482859839073289</v>
+        <v>0.0004815426661543315</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2829,14 +2829,14 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.1407700353952171</v>
+        <v>0.03956060180626247</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2847,14 +2847,14 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.1450554446345791</v>
+        <v>0.04276460189590328</v>
       </c>
       <c r="B139">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2865,14 +2865,14 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.1136071337549533</v>
+        <v>0.04571483937815638</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -2883,14 +2883,14 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.09424259450778803</v>
+        <v>0.06349535911034125</v>
       </c>
       <c r="B141">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -2901,14 +2901,14 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.0606983199818153</v>
+        <v>0.1557687161457612</v>
       </c>
       <c r="B142">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -2919,14 +2919,14 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.04467748236389275</v>
+        <v>0.2607427269000228</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -2937,14 +2937,14 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.03071324757266745</v>
+        <v>0.1100624453751271</v>
       </c>
       <c r="B144">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -2955,14 +2955,14 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.01650300765863148</v>
+        <v>0.05263102389586901</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -2973,14 +2973,14 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.01107318258795421</v>
+        <v>0.04987456876834836</v>
       </c>
       <c r="B146">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -2991,14 +2991,14 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.00711053206971982</v>
+        <v>0.03475624948094012</v>
       </c>
       <c r="B147">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3009,14 +3009,14 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.004371019022100116</v>
+        <v>0.01918445311851175</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3027,14 +3027,14 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.002056602826697263</v>
+        <v>0.02044403842427263</v>
       </c>
       <c r="B149">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3045,14 +3045,14 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.001678738958060063</v>
+        <v>0.04119918321396604</v>
       </c>
       <c r="B150">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3063,14 +3063,14 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.0005284190037973351</v>
+        <v>0.0414898567460647</v>
       </c>
       <c r="B151">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3081,10 +3081,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.03080644862704858</v>
+        <v>0.01136790568731438</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.06015240911122453</v>
+        <v>0.005717897711918142</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.09372247948440603</v>
+        <v>0.004569045180290094</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.137988030476533</v>
+        <v>0.0006564871609303135</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3146,258 +3146,6 @@
         </is>
       </c>
       <c r="D155" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>0.1296594794870506</v>
-      </c>
-      <c r="B156">
-        <v>10</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>0.1351510206888162</v>
-      </c>
-      <c r="B157">
-        <v>11</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>0.108800746839025</v>
-      </c>
-      <c r="B158">
-        <v>12</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>0.09394793283738004</v>
-      </c>
-      <c r="B159">
-        <v>13</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>0.06356594477516814</v>
-      </c>
-      <c r="B160">
-        <v>14</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>0.0494318046582233</v>
-      </c>
-      <c r="B161">
-        <v>15</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>0.0362523702353971</v>
-      </c>
-      <c r="B162">
-        <v>16</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>0.02083757573513661</v>
-      </c>
-      <c r="B163">
-        <v>17</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>0.01493545819261783</v>
-      </c>
-      <c r="B164">
-        <v>18</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>0.010310028112248</v>
-      </c>
-      <c r="B165">
-        <v>19</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>0.006854839776054078</v>
-      </c>
-      <c r="B166">
-        <v>20</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>0.003477006402610763</v>
-      </c>
-      <c r="B167">
-        <v>21</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>0.003065768908329741</v>
-      </c>
-      <c r="B168">
-        <v>22</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169">
-        <v>0.001040655652730432</v>
-      </c>
-      <c r="B169">
-        <v>23</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.06018412625800549</v>
+        <v>0.05981287034588251</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.06018412625800549</v>
+        <v>0.05981287034588251</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.0641690016010979</v>
+        <v>0.06377633074344367</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01334843892955169</v>
+        <v>0.01326633453178274</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1203646786367795</v>
+        <v>0.1196293145965419</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.3397651246569076</v>
+        <v>0.3376803928436131</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1569862191216835</v>
+        <v>0.1560223869395224</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.0822027962031107</v>
+        <v>0.08442635254426281</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.02655034881061299</v>
+        <v>0.02726889344760298</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.05531292886550777</v>
+        <v>0.05680721642852548</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.008931124199451052</v>
+        <v>0.009174213562253848</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.00784823879231473</v>
+        <v>0.008059155271866937</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.004152847666971638</v>
+        <v>0.004263668398819182</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001790019726748009</v>
+        <v>0.001768491367922528</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.001790019726748009</v>
+        <v>0.001768491367922528</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.007159426567441472</v>
+        <v>0.00707461781081513</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.02147762736277385</v>
+        <v>0.02122320109332037</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.06328802617708149</v>
+        <v>0.06253714255893068</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.1056111638781325</v>
+        <v>0.1043586038638046</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.1038178824536317</v>
+        <v>0.102586198461132</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.1592960995313593</v>
+        <v>0.1574061691711053</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.1467718325000783</v>
+        <v>0.1450306436303977</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1461201452890647</v>
+        <v>0.1443867849140054</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.05993434854763122</v>
+        <v>0.05922325980384163</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.02594419626548654</v>
+        <v>0.02563627527406398</v>
       </c>
       <c r="B26">
         <v>19</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.04216853322756735</v>
+        <v>0.04485483823620547</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.05982410316358588</v>
+        <v>0.06363437696721018</v>
       </c>
       <c r="B28">
         <v>21</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.007803285703848282</v>
+        <v>0.008300363026723072</v>
       </c>
       <c r="B29">
         <v>22</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.005972168585414731</v>
+        <v>0.00635313073854574</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.02091400599108643</v>
+        <v>0.02224606884134786</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.001566919600455072</v>
+        <v>0.001666726464419793</v>
       </c>
       <c r="B32">
         <v>25</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.00344174346877642</v>
+        <v>0.003660927169598387</v>
       </c>
       <c r="B33">
         <v>26</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.01528170631151562</v>
+        <v>0.01625498631718685</v>
       </c>
       <c r="B34">
         <v>27</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.261697752820716e-006</v>
+        <v>3.261695625087658e-006</v>
       </c>
       <c r="B35">
         <v>28</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.348422382030916e-005</v>
+        <v>2.544122587568373e-005</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.007787958398434964</v>
+        <v>0.007737725806298036</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.01246056031404594</v>
+        <v>0.01238001504437571</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.01246056031404594</v>
+        <v>0.01238001504437571</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0202485187124809</v>
+        <v>0.02011774085067375</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.05140035230622076</v>
+        <v>0.05106691284736018</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1479712095702643</v>
+        <v>0.1470115966341455</v>
       </c>
       <c r="B42">
         <v>13</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1228380127159174</v>
+        <v>0.1220420878962025</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1390648736848028</v>
+        <v>0.1381632877414306</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1531467351081372</v>
+        <v>0.1521542109103752</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.1595323935615389</v>
+        <v>0.1584974321553189</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.09223930854494068</v>
+        <v>0.09844890582030368</v>
       </c>
       <c r="B47">
         <v>18</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.00685136053391272</v>
+        <v>0.02345728063820008</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02169842760626534</v>
+        <v>0.02193206832466421</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.02028660587148181</v>
+        <v>0.01987710008837922</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.01838571039043666</v>
+        <v>0.009848093354765943</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.009108890321966337</v>
+        <v>0.003647698461543788</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.003374176040580137</v>
+        <v>0.0004466569544747496</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0004128994282598064</v>
+        <v>0.0006440170041263831</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0005955446680141442</v>
+        <v>0.0001471544229858671</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,14 +1353,14 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0001359019082532277</v>
+        <v>0.001010041542520302</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1371,10 +1371,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.001010041331280276</v>
+        <v>0.005053449382320749</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.005069656670649039</v>
+        <v>0.007074787307252671</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.007097582080890099</v>
+        <v>0.005053449382320749</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.005069656670649039</v>
+        <v>0.01111756772710746</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.01115332833140315</v>
+        <v>0.04952382486074153</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.04968296999626162</v>
+        <v>0.06881102770027689</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.06903217879373312</v>
+        <v>0.1253255655955528</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1257282383358735</v>
+        <v>0.1627211537667209</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.163243969580596</v>
+        <v>0.1759773869485985</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.1765428645374478</v>
+        <v>0.1455393631248358</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.1460069695884388</v>
+        <v>0.118280476165728</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.1186604586961693</v>
+        <v>0.04489953072125164</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.0450438278882879</v>
+        <v>0.01761230529459824</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.01665820521333581</v>
+        <v>0.0146394850220742</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.01416724398003759</v>
+        <v>0.009085668233090274</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.008792556709601353</v>
+        <v>0.0114057626221469</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.01103788308554608</v>
+        <v>0.009200276943164014</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.008903505446788263</v>
+        <v>0.004504561499859928</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.004359208300764145</v>
+        <v>0.007383791630489807</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.007145579696694804</v>
+        <v>0.003725096787369367</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.003604945113837482</v>
+        <v>0.0008723228644481167</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0008441933603298137</v>
+        <v>0.0001834157641143607</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.0001775598074866869</v>
+        <v>0.0009996891134169258</v>
       </c>
       <c r="B79">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1785,14 +1785,14 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.0009673767838983162</v>
+        <v>0.00052439538989157</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1803,10 +1803,10 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0005243953529006491</v>
+        <v>0.0005047146912394651</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.0005049968161710717</v>
+        <v>0.00100942938247893</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.001009993632342143</v>
+        <v>0.00504714691239465</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.005049968161710717</v>
+        <v>0.03179723716850191</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.03181465833851039</v>
+        <v>0.06476276011147035</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.0647983077704119</v>
+        <v>0.1140662256215045</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1141288572138608</v>
+        <v>0.1014482878003793</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.101503936809584</v>
+        <v>0.1408411460063771</v>
       </c>
       <c r="B88">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.1409184480578079</v>
+        <v>0.1523216946337154</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.1524052739471938</v>
+        <v>0.1425906119822583</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.1426689014721514</v>
+        <v>0.1260661612888981</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.1261353522671987</v>
+        <v>0.03902026519424003</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.03853699198671137</v>
+        <v>0.03220072676093933</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.03220072448949576</v>
+        <v>0.01886215088450985</v>
       </c>
       <c r="B94">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.01886214955397121</v>
+        <v>0.01004519788836684</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.01004519717977724</v>
+        <v>0.004787277042020619</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.004787276704325457</v>
+        <v>0.002437302866765338</v>
       </c>
       <c r="B97">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.002437302694837668</v>
+        <v>0.008158813503583369</v>
       </c>
       <c r="B98">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.008158812928059575</v>
+        <v>0.0006831107016020935</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0006831106534153734</v>
+        <v>0.001394719619173543</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2163,10 +2163,10 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.001394719520789835</v>
+        <v>0.0004813659053833835</v>
       </c>
       <c r="B101">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0004813658714277683</v>
+        <v>0.0009492586443060071</v>
       </c>
       <c r="B102">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2199,14 +2199,14 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0009492585773451755</v>
+        <v>0.009686171791913598</v>
       </c>
       <c r="B103">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2217,10 +2217,10 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.009718114550490228</v>
+        <v>0.0193723435838272</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.01943810808677908</v>
+        <v>0.03874280818185576</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2253,10 +2253,10 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.03887621617355816</v>
+        <v>0.1065441317394523</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.1069086549843856</v>
+        <v>0.1743492132686461</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.174946730752609</v>
+        <v>0.214300209319018</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.2150348927662805</v>
+        <v>0.1847437627066415</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.1853769809207782</v>
+        <v>0.07662128289634387</v>
       </c>
       <c r="B110">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.07688434090815141</v>
+        <v>0.05064054625875138</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.05081529193802353</v>
+        <v>0.05767734807460325</v>
       </c>
       <c r="B112">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.05629441452681501</v>
+        <v>0.03871650238067501</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.03778640441035547</v>
+        <v>0.01498115377243979</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.01462226748490235</v>
+        <v>0.001025926246049432</v>
       </c>
       <c r="B115">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.001001499430667303</v>
+        <v>0.01210066854314715</v>
       </c>
       <c r="B116">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.01180942574436023</v>
+        <v>2.442681538212934e-005</v>
       </c>
       <c r="B117">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2.442681538212934e-005</v>
+        <v>0.0004735044212535842</v>
       </c>
       <c r="B118">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0004622305064618322</v>
+        <v>0.0395602430122194</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2505,10 +2505,10 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.03956020413478084</v>
+        <v>0.04395899217934632</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.04410242903879171</v>
+        <v>0.04699173121637797</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.04714499249677907</v>
+        <v>0.06526875020883248</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.06548194067590901</v>
+        <v>0.1601199730335842</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.160642633429085</v>
+        <v>0.268026911382304</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.2689012867016588</v>
+        <v>0.1131370864871133</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.113505502853386</v>
+        <v>0.05410186308057888</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.05427772039667323</v>
+        <v>0.05126763774590639</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.05143465318609265</v>
+        <v>0.03572755271914635</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.03584348094417741</v>
+        <v>0.01971968292841124</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.01978452439799796</v>
+        <v>0.02212051943763623</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.02232097668645578</v>
+        <v>0.03138973350026829</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03021237997057676</v>
+        <v>0.03161085024794558</v>
       </c>
       <c r="B132">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.03042563457987368</v>
+        <v>0.008660897321244308</v>
       </c>
       <c r="B133">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.008336584565279987</v>
+        <v>0.004356491299793035</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.004193352156082719</v>
+        <v>0.003480868978990961</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.003350161120245135</v>
+        <v>0.0005002152203010726</v>
       </c>
       <c r="B136">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2811,14 +2811,14 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.0004815426661543315</v>
+        <v>0.03956062788160813</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -2829,10 +2829,10 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.03956060180626247</v>
+        <v>0.04257348409698352</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2847,10 +2847,10 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04276460189590328</v>
+        <v>0.04551054104200927</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.04571483937815638</v>
+        <v>0.06321131847887343</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.06349535911034125</v>
+        <v>0.1550727837776379</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.1557687161457612</v>
+        <v>0.2595775673707211</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.2607427269000228</v>
+        <v>0.1095701522247086</v>
       </c>
       <c r="B143">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.1100624453751271</v>
+        <v>0.05239641041020588</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.05263102389586901</v>
+        <v>0.04965115857536919</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.04987456876834836</v>
+        <v>0.03460137822847218</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.03475624948094012</v>
+        <v>0.01909877963174737</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.01918445311851175</v>
+        <v>0.02017578839480215</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.02044403842427263</v>
+        <v>0.04276858482762257</v>
       </c>
       <c r="B149">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.04119918321396604</v>
+        <v>0.04307046366084111</v>
       </c>
       <c r="B150">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.0414898567460647</v>
+        <v>0.01180095770730277</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.01136790568731438</v>
+        <v>0.005935412430421214</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.005717897711918142</v>
+        <v>0.004743056951616996</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.004569045180290094</v>
+        <v>0.0006815343090566945</v>
       </c>
       <c r="B154">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3128,24 +3128,6 @@
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>0.0006564871609303135</v>
-      </c>
-      <c r="B155">
-        <v>23</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>VA</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>y2</t>
         </is>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.05981287034588251</v>
+        <v>0.04294727808785143</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.05981287034588251</v>
+        <v>0.04363641091820449</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.06377633074344367</v>
+        <v>0.05284218533122259</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01326633453178274</v>
+        <v>0.01118865661356226</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1196293145965419</v>
+        <v>0.1109698894461908</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.3376803928436131</v>
+        <v>0.3486654552665026</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1560223869395224</v>
+        <v>0.1702450647362279</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.08442635254426281</v>
+        <v>0.09773983935403549</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.02726889344760298</v>
+        <v>0.03167735581033244</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.05680721642852548</v>
+        <v>0.06825340584397642</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.009174213562253848</v>
+        <v>0.009657611504617514</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.008059155271866937</v>
+        <v>0.008068055117623922</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.004263668398819182</v>
+        <v>0.004108791969652151</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001768491367922528</v>
+        <v>0.001450665824644924</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.001768491367922528</v>
+        <v>0.00141119605545199</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.00707461781081513</v>
+        <v>0.005390963244536473</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.02122320109332037</v>
+        <v>0.01559541664895587</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.06253714255893068</v>
+        <v>0.04669152250080458</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.1043586038638046</v>
+        <v>0.08849304421221377</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.102586198461132</v>
+        <v>0.08854648020742882</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.1574061691711053</v>
+        <v>0.149433760618886</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.1450306436303977</v>
+        <v>0.1532550415039804</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1443867849140054</v>
+        <v>0.1612370432892284</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.05922325980384163</v>
+        <v>0.07016692676232519</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.02563627527406398</v>
+        <v>0.03047734131634717</v>
       </c>
       <c r="B26">
         <v>19</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.04485483823620547</v>
+        <v>0.05515444824298804</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.06363437696721018</v>
+        <v>0.07406775441302381</v>
       </c>
       <c r="B28">
         <v>21</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.008300363026723072</v>
+        <v>0.008942635244682208</v>
       </c>
       <c r="B29">
         <v>22</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.00635313073854574</v>
+        <v>0.00650826132630569</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.02224606884134786</v>
+        <v>0.02194822780736324</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.001666726464419793</v>
+        <v>0.001603687083669838</v>
       </c>
       <c r="B32">
         <v>25</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.003660927169598387</v>
+        <v>0.003577175543316554</v>
       </c>
       <c r="B33">
         <v>26</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.01625498631718685</v>
+        <v>0.01602047570180286</v>
       </c>
       <c r="B34">
         <v>27</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.261695625087658e-006</v>
+        <v>3.036136091764177e-006</v>
       </c>
       <c r="B35">
         <v>28</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.544122587568373e-005</v>
+        <v>2.489631595246625e-005</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.007737725806298036</v>
+        <v>0.006445468781448046</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.01238001504437571</v>
+        <v>0.01002983013350744</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.01238001504437571</v>
+        <v>0.009579023672657238</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.02011774085067375</v>
+        <v>0.01501079153760184</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.05106691284736018</v>
+        <v>0.03871535703708067</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1470115966341455</v>
+        <v>0.1265808907150232</v>
       </c>
       <c r="B42">
         <v>13</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1220420878962025</v>
+        <v>0.1069614008217605</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1381632877414306</v>
+        <v>0.1331850826423968</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1521542109103752</v>
+        <v>0.1632582098319989</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.1584974321553189</v>
+        <v>0.1797204181782183</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.09844890582030368</v>
+        <v>0.1184377388006094</v>
       </c>
       <c r="B47">
         <v>18</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.02345728063820008</v>
+        <v>0.02928851122598085</v>
       </c>
       <c r="B48">
         <v>20</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02193206832466421</v>
+        <v>0.02592014425806747</v>
       </c>
       <c r="B49">
         <v>21</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.01987710008837922</v>
+        <v>0.02174425283124457</v>
       </c>
       <c r="B50">
         <v>22</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.009848093354765943</v>
+        <v>0.01024418819656144</v>
       </c>
       <c r="B51">
         <v>23</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.003647698461543788</v>
+        <v>0.003654723159016047</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.0004466569544747496</v>
+        <v>0.0004368977315680701</v>
       </c>
       <c r="B53">
         <v>25</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0006440170041263831</v>
+        <v>0.0006389833864319528</v>
       </c>
       <c r="B54">
         <v>26</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0001471544229858671</v>
+        <v>0.0001480870588273796</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.001010041542520302</v>
+        <v>0.0008876993388403059</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.005053449382320749</v>
+        <v>0.004335366166522788</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.007074787307252671</v>
+        <v>0.00609471777498084</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.005053449382320749</v>
+        <v>0.0042338710089559</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.01111756772710746</v>
+        <v>0.008896004565953353</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.04952382486074153</v>
+        <v>0.03821359119304134</v>
       </c>
       <c r="B61">
         <v>11</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.06881102770027689</v>
+        <v>0.05394748703918081</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.1253255655955528</v>
+        <v>0.1115915237949418</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1627211537667209</v>
+        <v>0.1474811518484077</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.1759773869485985</v>
+        <v>0.1754264585303869</v>
       </c>
       <c r="B65">
         <v>15</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.1455393631248358</v>
+        <v>0.16149065212223</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.118280476165728</v>
+        <v>0.1386954325543725</v>
       </c>
       <c r="B67">
         <v>17</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.04489953072125164</v>
+        <v>0.05585933691056917</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.01761230529459824</v>
+        <v>0.02198642683691415</v>
       </c>
       <c r="B69">
         <v>19</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.0146394850220742</v>
+        <v>0.01890201659532705</v>
       </c>
       <c r="B70">
         <v>20</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.009085668233090274</v>
+        <v>0.01110457190201108</v>
       </c>
       <c r="B71">
         <v>21</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.0114057626221469</v>
+        <v>0.01290337681441759</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.009200276943164014</v>
+        <v>0.009897566548831437</v>
       </c>
       <c r="B73">
         <v>23</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.004504561499859928</v>
+        <v>0.004666630824805049</v>
       </c>
       <c r="B74">
         <v>24</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.007383791630489807</v>
+        <v>0.007460354029010239</v>
       </c>
       <c r="B75">
         <v>25</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.003725096787369367</v>
+        <v>0.00382196216203288</v>
       </c>
       <c r="B76">
         <v>26</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.0008723228644481167</v>
+        <v>0.0009027243017429571</v>
       </c>
       <c r="B77">
         <v>27</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0001834157641143607</v>
+        <v>0.0001912360924548316</v>
       </c>
       <c r="B78">
         <v>28</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.0009996891134169258</v>
+        <v>0.00100984104406934</v>
       </c>
       <c r="B79">
         <v>29</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.00052439538989157</v>
+        <v>0.0004644981699786716</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0005047146912394651</v>
+        <v>0.0004364225774186203</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.00100942938247893</v>
+        <v>0.0008764588449687322</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.00504714691239465</v>
+        <v>0.00426206953393057</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.03179723716850191</v>
+        <v>0.02564469100621325</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.06476276011147035</v>
+        <v>0.05036754355869116</v>
       </c>
       <c r="B85">
         <v>11</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1140662256215045</v>
+        <v>0.09013481357493818</v>
       </c>
       <c r="B86">
         <v>12</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1014482878003793</v>
+        <v>0.09104553298211508</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.1408411460063771</v>
+        <v>0.1286602250786899</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.1523216946337154</v>
+        <v>0.1530461010264061</v>
       </c>
       <c r="B89">
         <v>15</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.1425906119822583</v>
+        <v>0.1594704081517066</v>
       </c>
       <c r="B90">
         <v>16</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.1260661612888981</v>
+        <v>0.148994389954553</v>
       </c>
       <c r="B91">
         <v>17</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.03902026519424003</v>
+        <v>0.04892901691019348</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.03220072676093933</v>
+        <v>0.04051592931983472</v>
       </c>
       <c r="B93">
         <v>19</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.01886215088450985</v>
+        <v>0.02454696313473164</v>
       </c>
       <c r="B94">
         <v>20</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.01004519788836684</v>
+        <v>0.01237445640892462</v>
       </c>
       <c r="B95">
         <v>21</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.004787277042020619</v>
+        <v>0.005458617931700284</v>
       </c>
       <c r="B96">
         <v>22</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.002437302866765338</v>
+        <v>0.00264278888481731</v>
       </c>
       <c r="B97">
         <v>23</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.008158813503583369</v>
+        <v>0.008519274484991823</v>
       </c>
       <c r="B98">
         <v>24</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0006831107016020935</v>
+        <v>0.000695704844353154</v>
       </c>
       <c r="B99">
         <v>25</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.001394719619173543</v>
+        <v>0.001442279326711153</v>
       </c>
       <c r="B100">
         <v>26</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0004813659053833835</v>
+        <v>0.0004901414711040651</v>
       </c>
       <c r="B101">
         <v>29</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0009492586443060071</v>
+        <v>0.0009816728230279345</v>
       </c>
       <c r="B102">
         <v>31</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.009686171791913598</v>
+        <v>0.008600013251176042</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.0193723435838272</v>
+        <v>0.01597713225620202</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.03874280818185576</v>
+        <v>0.03081277034765407</v>
       </c>
       <c r="B105">
         <v>11</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.1065441317394523</v>
+        <v>0.08609667679435121</v>
       </c>
       <c r="B106">
         <v>12</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.1743492132686461</v>
+        <v>0.1600117367559228</v>
       </c>
       <c r="B107">
         <v>13</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.214300209319018</v>
+        <v>0.2001987676406281</v>
       </c>
       <c r="B108">
         <v>14</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1847437627066415</v>
+        <v>0.1898249898249898</v>
       </c>
       <c r="B109">
         <v>15</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.07662128289634387</v>
+        <v>0.08763192019005972</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.05064054625875138</v>
+        <v>0.06120528911226586</v>
       </c>
       <c r="B111">
         <v>17</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.05767734807460325</v>
+        <v>0.07396238559029257</v>
       </c>
       <c r="B112">
         <v>18</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.03871650238067501</v>
+        <v>0.04981684981684982</v>
       </c>
       <c r="B113">
         <v>19</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.01498115377243979</v>
+        <v>0.01993923389272227</v>
       </c>
       <c r="B114">
         <v>20</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.001025926246049432</v>
+        <v>0.001292936176657107</v>
       </c>
       <c r="B115">
         <v>21</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.01210066854314715</v>
+        <v>0.01411060945944667</v>
       </c>
       <c r="B116">
         <v>22</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>2.442681538212934e-005</v>
+        <v>2.650235208374743e-005</v>
       </c>
       <c r="B117">
         <v>24</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0004735044212535842</v>
+        <v>0.0004921865386981666</v>
       </c>
       <c r="B118">
         <v>25</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0395602430122194</v>
+        <v>0.04001768884221</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.04395899217934632</v>
+        <v>0.04340510212542495</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.04699173121637797</v>
+        <v>0.04659130482850115</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.06526875020883248</v>
+        <v>0.06293690058317902</v>
       </c>
       <c r="B122">
         <v>9</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.1601199730335842</v>
+        <v>0.1474630330836627</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.268026911382304</v>
+        <v>0.2380310107514994</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.1131370864871133</v>
+        <v>0.1020867306044609</v>
       </c>
       <c r="B125">
         <v>12</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.05410186308057888</v>
+        <v>0.05544346480196789</v>
       </c>
       <c r="B126">
         <v>13</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.05126763774590639</v>
+        <v>0.05348000331665791</v>
       </c>
       <c r="B127">
         <v>14</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.03572755271914635</v>
+        <v>0.04099168071639811</v>
       </c>
       <c r="B128">
         <v>15</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.01971968292841124</v>
+        <v>0.02518448909648711</v>
       </c>
       <c r="B129">
         <v>16</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.02212051943763623</v>
+        <v>0.02985323788728891</v>
       </c>
       <c r="B130">
         <v>17</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.03138973350026829</v>
+        <v>0.04494624250297118</v>
       </c>
       <c r="B131">
         <v>18</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03161085024794558</v>
+        <v>0.04541831347945054</v>
       </c>
       <c r="B132">
         <v>19</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.008660897321244308</v>
+        <v>0.01287084381305105</v>
       </c>
       <c r="B133">
         <v>20</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.004356491299793035</v>
+        <v>0.006128078273126779</v>
       </c>
       <c r="B134">
         <v>21</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.003480868978990961</v>
+        <v>0.004532765816312429</v>
       </c>
       <c r="B135">
         <v>22</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.0005002152203010726</v>
+        <v>0.0006191094773499903</v>
       </c>
       <c r="B136">
         <v>23</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.03956062788160813</v>
+        <v>0.03949730568787841</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.04257348409698352</v>
+        <v>0.04149013793209441</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04551054104200927</v>
+        <v>0.04453610480702168</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.06321131847887343</v>
+        <v>0.06016040726084732</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.1550727837776379</v>
+        <v>0.1409575694326027</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.2595775673707211</v>
+        <v>0.2275297735577581</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.1095701522247086</v>
+        <v>0.09758291331143146</v>
       </c>
       <c r="B143">
         <v>12</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.05239641041020588</v>
+        <v>0.05299777443890758</v>
       </c>
       <c r="B144">
         <v>13</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.04965115857536919</v>
+        <v>0.05111984291534598</v>
       </c>
       <c r="B145">
         <v>14</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.03460137822847218</v>
+        <v>0.03918260944659568</v>
       </c>
       <c r="B146">
         <v>15</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.01909877963174737</v>
+        <v>0.02407279875468111</v>
       </c>
       <c r="B147">
         <v>16</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.02017578839480215</v>
+        <v>0.02687505900554524</v>
       </c>
       <c r="B148">
         <v>17</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.04276858482762257</v>
+        <v>0.06044290202627787</v>
       </c>
       <c r="B149">
         <v>18</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.04307046366084111</v>
+        <v>0.06107741747091072</v>
       </c>
       <c r="B150">
         <v>19</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.01180095770730277</v>
+        <v>0.01730829327055021</v>
       </c>
       <c r="B151">
         <v>20</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.005935412430421214</v>
+        <v>0.008240650411264077</v>
       </c>
       <c r="B152">
         <v>21</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.004743056951616996</v>
+        <v>0.006095593008474111</v>
       </c>
       <c r="B153">
         <v>22</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.0006815343090566945</v>
+        <v>0.0008328472618133676</v>
       </c>
       <c r="B154">
         <v>23</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.04294727808785143</v>
+        <v>0.05981287034588251</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.04363641091820449</v>
+        <v>0.05981287034588251</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.05284218533122259</v>
+        <v>0.06377633074344367</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01118865661356226</v>
+        <v>0.01326633453178274</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1109698894461908</v>
+        <v>0.1196293145965419</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.3486654552665026</v>
+        <v>0.3376803928436131</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1702450647362279</v>
+        <v>0.1560223869395224</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.09773983935403549</v>
+        <v>0.08442635254426281</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.03167735581033244</v>
+        <v>0.02726889344760298</v>
       </c>
       <c r="B10">
         <v>19</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.06825340584397642</v>
+        <v>0.05680721642852548</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.009657611504617514</v>
+        <v>0.009174213562253848</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.008068055117623922</v>
+        <v>0.008059155271866937</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.004108791969652151</v>
+        <v>0.004263668398819182</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001450665824644924</v>
+        <v>0.001768491367922528</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.00141119605545199</v>
+        <v>0.001768491367922528</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.005390963244536473</v>
+        <v>0.00707461781081513</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.01559541664895587</v>
+        <v>0.02122320109332037</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.04669152250080458</v>
+        <v>0.06253714255893068</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.08849304421221377</v>
+        <v>0.1043586038638046</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.08854648020742882</v>
+        <v>0.102586198461132</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.149433760618886</v>
+        <v>0.1574061691711053</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.1532550415039804</v>
+        <v>0.1450306436303977</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1612370432892284</v>
+        <v>0.1443867849140054</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.07016692676232519</v>
+        <v>0.05922325980384163</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.03047734131634717</v>
+        <v>0.02563627527406398</v>
       </c>
       <c r="B26">
         <v>19</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.05515444824298804</v>
+        <v>0.04485483823620547</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.07406775441302381</v>
+        <v>0.06363437696721018</v>
       </c>
       <c r="B28">
         <v>21</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.008942635244682208</v>
+        <v>0.008300363026723072</v>
       </c>
       <c r="B29">
         <v>22</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.00650826132630569</v>
+        <v>0.00635313073854574</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.02194822780736324</v>
+        <v>0.02224606884134786</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.001603687083669838</v>
+        <v>0.001666726464419793</v>
       </c>
       <c r="B32">
         <v>25</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.003577175543316554</v>
+        <v>0.003660927169598387</v>
       </c>
       <c r="B33">
         <v>26</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.01602047570180286</v>
+        <v>0.01625498631718685</v>
       </c>
       <c r="B34">
         <v>27</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.036136091764177e-006</v>
+        <v>3.261695625087658e-006</v>
       </c>
       <c r="B35">
         <v>28</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.489631595246625e-005</v>
+        <v>2.544122587568373e-005</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.006445468781448046</v>
+        <v>0.007737725806298036</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.01002983013350744</v>
+        <v>0.01238001504437571</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.009579023672657238</v>
+        <v>0.01238001504437571</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.01501079153760184</v>
+        <v>0.02011774085067375</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.03871535703708067</v>
+        <v>0.05106691284736018</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1265808907150232</v>
+        <v>0.1470115966341455</v>
       </c>
       <c r="B42">
         <v>13</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1069614008217605</v>
+        <v>0.1220420878962025</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1331850826423968</v>
+        <v>0.1381632877414306</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1632582098319989</v>
+        <v>0.1521542109103752</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.1797204181782183</v>
+        <v>0.1584974321553189</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.1184377388006094</v>
+        <v>0.09844890582030368</v>
       </c>
       <c r="B47">
         <v>18</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.02928851122598085</v>
+        <v>0.02345728063820008</v>
       </c>
       <c r="B48">
         <v>20</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02592014425806747</v>
+        <v>0.02193206832466421</v>
       </c>
       <c r="B49">
         <v>21</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.02174425283124457</v>
+        <v>0.01987710008837922</v>
       </c>
       <c r="B50">
         <v>22</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.01024418819656144</v>
+        <v>0.009848093354765943</v>
       </c>
       <c r="B51">
         <v>23</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.003654723159016047</v>
+        <v>0.003647698461543788</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.0004368977315680701</v>
+        <v>0.0004466569544747496</v>
       </c>
       <c r="B53">
         <v>25</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0006389833864319528</v>
+        <v>0.0006440170041263831</v>
       </c>
       <c r="B54">
         <v>26</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0001480870588273796</v>
+        <v>0.0001471544229858671</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0008876993388403059</v>
+        <v>0.001010041542520302</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.004335366166522788</v>
+        <v>0.005053449382320749</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.00609471777498084</v>
+        <v>0.007074787307252671</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.0042338710089559</v>
+        <v>0.005053449382320749</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.008896004565953353</v>
+        <v>0.01111756772710746</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.03821359119304134</v>
+        <v>0.04952382486074153</v>
       </c>
       <c r="B61">
         <v>11</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.05394748703918081</v>
+        <v>0.06881102770027689</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.1115915237949418</v>
+        <v>0.1253255655955528</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1474811518484077</v>
+        <v>0.1627211537667209</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.1754264585303869</v>
+        <v>0.1759773869485985</v>
       </c>
       <c r="B65">
         <v>15</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.16149065212223</v>
+        <v>0.1455393631248358</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.1386954325543725</v>
+        <v>0.118280476165728</v>
       </c>
       <c r="B67">
         <v>17</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.05585933691056917</v>
+        <v>0.04489953072125164</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.02198642683691415</v>
+        <v>0.01761230529459824</v>
       </c>
       <c r="B69">
         <v>19</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.01890201659532705</v>
+        <v>0.0146394850220742</v>
       </c>
       <c r="B70">
         <v>20</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.01110457190201108</v>
+        <v>0.009085668233090274</v>
       </c>
       <c r="B71">
         <v>21</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.01290337681441759</v>
+        <v>0.0114057626221469</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.009897566548831437</v>
+        <v>0.009200276943164014</v>
       </c>
       <c r="B73">
         <v>23</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.004666630824805049</v>
+        <v>0.004504561499859928</v>
       </c>
       <c r="B74">
         <v>24</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.007460354029010239</v>
+        <v>0.007383791630489807</v>
       </c>
       <c r="B75">
         <v>25</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.00382196216203288</v>
+        <v>0.003725096787369367</v>
       </c>
       <c r="B76">
         <v>26</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.0009027243017429571</v>
+        <v>0.0008723228644481167</v>
       </c>
       <c r="B77">
         <v>27</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0001912360924548316</v>
+        <v>0.0001834157641143607</v>
       </c>
       <c r="B78">
         <v>28</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.00100984104406934</v>
+        <v>0.0009996891134169258</v>
       </c>
       <c r="B79">
         <v>29</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.0004644981699786716</v>
+        <v>0.00052439538989157</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0004364225774186203</v>
+        <v>0.0005047146912394651</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.0008764588449687322</v>
+        <v>0.00100942938247893</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.00426206953393057</v>
+        <v>0.00504714691239465</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.02564469100621325</v>
+        <v>0.03179723716850191</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.05036754355869116</v>
+        <v>0.06476276011147035</v>
       </c>
       <c r="B85">
         <v>11</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.09013481357493818</v>
+        <v>0.1140662256215045</v>
       </c>
       <c r="B86">
         <v>12</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.09104553298211508</v>
+        <v>0.1014482878003793</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.1286602250786899</v>
+        <v>0.1408411460063771</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.1530461010264061</v>
+        <v>0.1523216946337154</v>
       </c>
       <c r="B89">
         <v>15</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.1594704081517066</v>
+        <v>0.1425906119822583</v>
       </c>
       <c r="B90">
         <v>16</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.148994389954553</v>
+        <v>0.1260661612888981</v>
       </c>
       <c r="B91">
         <v>17</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.04892901691019348</v>
+        <v>0.03902026519424003</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.04051592931983472</v>
+        <v>0.03220072676093933</v>
       </c>
       <c r="B93">
         <v>19</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.02454696313473164</v>
+        <v>0.01886215088450985</v>
       </c>
       <c r="B94">
         <v>20</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.01237445640892462</v>
+        <v>0.01004519788836684</v>
       </c>
       <c r="B95">
         <v>21</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.005458617931700284</v>
+        <v>0.004787277042020619</v>
       </c>
       <c r="B96">
         <v>22</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.00264278888481731</v>
+        <v>0.002437302866765338</v>
       </c>
       <c r="B97">
         <v>23</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.008519274484991823</v>
+        <v>0.008158813503583369</v>
       </c>
       <c r="B98">
         <v>24</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.000695704844353154</v>
+        <v>0.0006831107016020935</v>
       </c>
       <c r="B99">
         <v>25</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.001442279326711153</v>
+        <v>0.001394719619173543</v>
       </c>
       <c r="B100">
         <v>26</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0004901414711040651</v>
+        <v>0.0004813659053833835</v>
       </c>
       <c r="B101">
         <v>29</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0009816728230279345</v>
+        <v>0.0009492586443060071</v>
       </c>
       <c r="B102">
         <v>31</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.008600013251176042</v>
+        <v>0.009686171791913598</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.01597713225620202</v>
+        <v>0.0193723435838272</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.03081277034765407</v>
+        <v>0.03874280818185576</v>
       </c>
       <c r="B105">
         <v>11</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.08609667679435121</v>
+        <v>0.1065441317394523</v>
       </c>
       <c r="B106">
         <v>12</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.1600117367559228</v>
+        <v>0.1743492132686461</v>
       </c>
       <c r="B107">
         <v>13</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.2001987676406281</v>
+        <v>0.214300209319018</v>
       </c>
       <c r="B108">
         <v>14</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1898249898249898</v>
+        <v>0.1847437627066415</v>
       </c>
       <c r="B109">
         <v>15</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.08763192019005972</v>
+        <v>0.07662128289634387</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.06120528911226586</v>
+        <v>0.05064054625875138</v>
       </c>
       <c r="B111">
         <v>17</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.07396238559029257</v>
+        <v>0.05767734807460325</v>
       </c>
       <c r="B112">
         <v>18</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.04981684981684982</v>
+        <v>0.03871650238067501</v>
       </c>
       <c r="B113">
         <v>19</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.01993923389272227</v>
+        <v>0.01498115377243979</v>
       </c>
       <c r="B114">
         <v>20</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.001292936176657107</v>
+        <v>0.001025926246049432</v>
       </c>
       <c r="B115">
         <v>21</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.01411060945944667</v>
+        <v>0.01210066854314715</v>
       </c>
       <c r="B116">
         <v>22</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>2.650235208374743e-005</v>
+        <v>2.442681538212934e-005</v>
       </c>
       <c r="B117">
         <v>24</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0004921865386981666</v>
+        <v>0.0004735044212535842</v>
       </c>
       <c r="B118">
         <v>25</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.04001768884221</v>
+        <v>0.0395602430122194</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.04340510212542495</v>
+        <v>0.04395899217934632</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.04659130482850115</v>
+        <v>0.04699173121637797</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.06293690058317902</v>
+        <v>0.06526875020883248</v>
       </c>
       <c r="B122">
         <v>9</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.1474630330836627</v>
+        <v>0.1601199730335842</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.2380310107514994</v>
+        <v>0.268026911382304</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.1020867306044609</v>
+        <v>0.1131370864871133</v>
       </c>
       <c r="B125">
         <v>12</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.05544346480196789</v>
+        <v>0.05410186308057888</v>
       </c>
       <c r="B126">
         <v>13</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.05348000331665791</v>
+        <v>0.05126763774590639</v>
       </c>
       <c r="B127">
         <v>14</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.04099168071639811</v>
+        <v>0.03572755271914635</v>
       </c>
       <c r="B128">
         <v>15</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.02518448909648711</v>
+        <v>0.01971968292841124</v>
       </c>
       <c r="B129">
         <v>16</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.02985323788728891</v>
+        <v>0.02212051943763623</v>
       </c>
       <c r="B130">
         <v>17</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.04494624250297118</v>
+        <v>0.03138973350026829</v>
       </c>
       <c r="B131">
         <v>18</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.04541831347945054</v>
+        <v>0.03161085024794558</v>
       </c>
       <c r="B132">
         <v>19</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.01287084381305105</v>
+        <v>0.008660897321244308</v>
       </c>
       <c r="B133">
         <v>20</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.006128078273126779</v>
+        <v>0.004356491299793035</v>
       </c>
       <c r="B134">
         <v>21</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.004532765816312429</v>
+        <v>0.003480868978990961</v>
       </c>
       <c r="B135">
         <v>22</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.0006191094773499903</v>
+        <v>0.0005002152203010726</v>
       </c>
       <c r="B136">
         <v>23</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.03949730568787841</v>
+        <v>0.03956062788160813</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.04149013793209441</v>
+        <v>0.04257348409698352</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04453610480702168</v>
+        <v>0.04551054104200927</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.06016040726084732</v>
+        <v>0.06321131847887343</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.1409575694326027</v>
+        <v>0.1550727837776379</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.2275297735577581</v>
+        <v>0.2595775673707211</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.09758291331143146</v>
+        <v>0.1095701522247086</v>
       </c>
       <c r="B143">
         <v>12</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.05299777443890758</v>
+        <v>0.05239641041020588</v>
       </c>
       <c r="B144">
         <v>13</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.05111984291534598</v>
+        <v>0.04965115857536919</v>
       </c>
       <c r="B145">
         <v>14</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.03918260944659568</v>
+        <v>0.03460137822847218</v>
       </c>
       <c r="B146">
         <v>15</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.02407279875468111</v>
+        <v>0.01909877963174737</v>
       </c>
       <c r="B147">
         <v>16</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.02687505900554524</v>
+        <v>0.02017578839480215</v>
       </c>
       <c r="B148">
         <v>17</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.06044290202627787</v>
+        <v>0.04276858482762257</v>
       </c>
       <c r="B149">
         <v>18</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.06107741747091072</v>
+        <v>0.04307046366084111</v>
       </c>
       <c r="B150">
         <v>19</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.01730829327055021</v>
+        <v>0.01180095770730277</v>
       </c>
       <c r="B151">
         <v>20</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.008240650411264077</v>
+        <v>0.005935412430421214</v>
       </c>
       <c r="B152">
         <v>21</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.006095593008474111</v>
+        <v>0.004743056951616996</v>
       </c>
       <c r="B153">
         <v>22</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.0008328472618133676</v>
+        <v>0.0006815343090566945</v>
       </c>
       <c r="B154">
         <v>23</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>year</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cdf</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -396,6 +401,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E2">
+        <v>0.05981287034588251</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -414,6 +422,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E3">
+        <v>0.119625740691765</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -432,6 +443,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E4">
+        <v>0.1834020714352087</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -450,6 +464,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E5">
+        <v>0.1966684059669914</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -468,6 +485,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E6">
+        <v>0.3162977205635333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -486,6 +506,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E7">
+        <v>0.6539781134071464</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -504,6 +527,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E8">
+        <v>0.8100005003466688</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -522,6 +548,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E9">
+        <v>0.8944268528909316</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -540,6 +569,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E10">
+        <v>0.9216957463385346</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -558,6 +590,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E11">
+        <v>0.9785029627670601</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -576,6 +611,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E12">
+        <v>0.9876771763293138</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -594,6 +632,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E13">
+        <v>0.9957363316011808</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -612,6 +653,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -630,6 +674,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E15">
+        <v>0.001768491367922528</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -648,6 +695,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E16">
+        <v>0.003536982735845057</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -666,6 +716,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E17">
+        <v>0.01061160054666019</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -684,6 +737,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E18">
+        <v>0.03183480163998056</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -702,6 +758,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E19">
+        <v>0.09437194419891125</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -720,6 +779,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E20">
+        <v>0.1987305480627159</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -738,6 +800,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E21">
+        <v>0.3013167465238479</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -756,6 +821,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E22">
+        <v>0.4587229156949532</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -774,6 +842,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E23">
+        <v>0.6037535593253509</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -792,6 +863,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E24">
+        <v>0.7481403442393563</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -810,6 +884,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E25">
+        <v>0.8073636040431979</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -828,6 +905,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E26">
+        <v>0.8329998793172618</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -846,6 +926,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E27">
+        <v>0.8778547175534673</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -864,6 +947,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E28">
+        <v>0.9414890945206775</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -882,6 +968,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E29">
+        <v>0.9497894575474006</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -900,6 +989,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E30">
+        <v>0.9561425882859463</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -918,6 +1010,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E31">
+        <v>0.9783886571272942</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -936,6 +1031,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E32">
+        <v>0.980055383591714</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -954,6 +1052,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E33">
+        <v>0.9837163107613124</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -972,6 +1073,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E34">
+        <v>0.9999712970784992</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -990,6 +1094,9 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E35">
+        <v>0.9999745587741243</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1008,10 +1115,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.007737725806298036</v>
+        <v>0.007202782432862901</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1026,10 +1136,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E37">
+        <v>0.007202782432862901</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.01238001504437571</v>
+        <v>0.01152393252357935</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1044,10 +1157,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E38">
+        <v>0.01872671495644225</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.01238001504437571</v>
+        <v>0.01152393252357935</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -1062,10 +1178,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E39">
+        <v>0.0302506474800216</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.02011774085067375</v>
+        <v>0.01872671495644225</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1080,10 +1199,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E40">
+        <v>0.04897736243646386</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.05106691284736018</v>
+        <v>0.04753611345788956</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -1098,10 +1220,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E41">
+        <v>0.09651347589435343</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1470115966341455</v>
+        <v>0.1368468069193801</v>
       </c>
       <c r="B42">
         <v>13</v>
@@ -1116,10 +1241,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E42">
+        <v>0.2333602828137335</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1220420878962025</v>
+        <v>0.1136033128817362</v>
       </c>
       <c r="B43">
         <v>14</v>
@@ -1134,10 +1262,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E43">
+        <v>0.3469635956954697</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1381632877414306</v>
+        <v>0.1286096145589518</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -1152,10 +1283,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E44">
+        <v>0.4755732102544216</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1521542109103752</v>
+        <v>0.1416336578812515</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -1170,10 +1304,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E45">
+        <v>0.6172068681356731</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.1584974321553189</v>
+        <v>0.1475388834258964</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -1188,10 +1325,13 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E46">
+        <v>0.7647457515615694</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.09844890582030368</v>
+        <v>0.09164179466227165</v>
       </c>
       <c r="B47">
         <v>18</v>
@@ -1206,13 +1346,16 @@
           <t>y2</t>
         </is>
       </c>
+      <c r="E47">
+        <v>0.8563875462238412</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.02345728063820008</v>
+        <v>0.06361231527775854</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1223,14 +1366,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E48">
+        <v>0.9199998615015996</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02193206832466421</v>
+        <v>0.02345730094317411</v>
       </c>
       <c r="B49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1241,14 +1387,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E49">
+        <v>0.9434571624447737</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.01987710008837922</v>
+        <v>0.02193208730939158</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1259,14 +1408,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E50">
+        <v>0.9653892497541654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.009848093354765943</v>
+        <v>0.01987711729429525</v>
       </c>
       <c r="B51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1277,14 +1429,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E51">
+        <v>0.9852663670484606</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.003647698461543788</v>
+        <v>0.009848101879423293</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1295,14 +1450,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E52">
+        <v>0.9951144689278839</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.0004466569544747496</v>
+        <v>0.0036477016190463</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1313,14 +1471,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E53">
+        <v>0.9987621705469302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0006440170041263831</v>
+        <v>0.0004466573411077102</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1331,14 +1492,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E54">
+        <v>0.9992088278880379</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0001471544229858671</v>
+        <v>0.0006440175615971635</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1349,32 +1513,38 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E55">
+        <v>0.999852845449635</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.001010041542520302</v>
+        <v>0.0001471545503649433</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E56">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.005053449382320749</v>
+        <v>0.001010041542520302</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1385,14 +1555,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E57">
+        <v>0.001010041542520302</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.007074787307252671</v>
+        <v>0.005053449382320749</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1403,14 +1576,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E58">
+        <v>0.006063490924841051</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.005053449382320749</v>
+        <v>0.007074787307252671</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1421,14 +1597,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E59">
+        <v>0.01313827823209372</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.01111756772710746</v>
+        <v>0.005053449382320749</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1439,14 +1618,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E60">
+        <v>0.01819172761441447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.04952382486074153</v>
+        <v>0.01111756772710746</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1457,14 +1639,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E61">
+        <v>0.02930929534152193</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.06881102770027689</v>
+        <v>0.04952382486074153</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1475,14 +1660,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E62">
+        <v>0.07883312020226346</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.1253255655955528</v>
+        <v>0.06881102770027689</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1493,14 +1681,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E63">
+        <v>0.1476441479025404</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1627211537667209</v>
+        <v>0.1253255655955528</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1511,14 +1702,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E64">
+        <v>0.2729697134980931</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.1759773869485985</v>
+        <v>0.1627211537667209</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1529,14 +1723,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E65">
+        <v>0.435690867264814</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.1455393631248358</v>
+        <v>0.1759773869485985</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1547,14 +1744,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E66">
+        <v>0.6116682542134125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.118280476165728</v>
+        <v>0.1455393631248358</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1565,14 +1765,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E67">
+        <v>0.7572076173382483</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.04489953072125164</v>
+        <v>0.118280476165728</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1583,14 +1786,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E68">
+        <v>0.8754880935039762</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.01761230529459824</v>
+        <v>0.04489953072125164</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1601,14 +1807,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E69">
+        <v>0.9203876242252279</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.0146394850220742</v>
+        <v>0.01761230529459824</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1619,14 +1828,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E70">
+        <v>0.9379999295198261</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.009085668233090274</v>
+        <v>0.0146394850220742</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1637,14 +1849,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E71">
+        <v>0.9526394145419003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.0114057626221469</v>
+        <v>0.009085668233090274</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1655,14 +1870,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E72">
+        <v>0.9617250827749906</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.009200276943164014</v>
+        <v>0.0114057626221469</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1673,14 +1891,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E73">
+        <v>0.9731308453971375</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.004504561499859928</v>
+        <v>0.009200276943164014</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1691,14 +1912,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E74">
+        <v>0.9823311223403015</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.007383791630489807</v>
+        <v>0.004504561499859928</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1709,14 +1933,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E75">
+        <v>0.9868356838401614</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.003725096787369367</v>
+        <v>0.007383791630489807</v>
       </c>
       <c r="B76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1727,14 +1954,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E76">
+        <v>0.9942194754706513</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.0008723228644481167</v>
+        <v>0.003725096787369367</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1745,14 +1975,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E77">
+        <v>0.9979445722580206</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0001834157641143607</v>
+        <v>0.0008723228644481167</v>
       </c>
       <c r="B78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1763,14 +1996,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E78">
+        <v>0.9988168951224687</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.0009996891134169258</v>
+        <v>0.0001834157641143607</v>
       </c>
       <c r="B79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1781,32 +2017,38 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E79">
+        <v>0.999000310886583</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.00052439538989157</v>
+        <v>0.0009996891134169258</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0005047146912394651</v>
+        <v>0.00052439538989157</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1817,14 +2059,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E81">
+        <v>0.00052439538989157</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.00100942938247893</v>
+        <v>0.0005047146912394651</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1835,14 +2080,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E82">
+        <v>0.001029110081131035</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.00504714691239465</v>
+        <v>0.00100942938247893</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1853,14 +2101,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E83">
+        <v>0.002038539463609965</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.03179723716850191</v>
+        <v>0.00504714691239465</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1871,14 +2122,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E84">
+        <v>0.007085686376004615</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.06476276011147035</v>
+        <v>0.03179723716850191</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1889,14 +2143,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E85">
+        <v>0.03888292354450653</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1140662256215045</v>
+        <v>0.06476276011147035</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1907,14 +2164,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E86">
+        <v>0.1036456836559769</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1014482878003793</v>
+        <v>0.1140662256215045</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1925,14 +2185,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E87">
+        <v>0.2177119092774814</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.1408411460063771</v>
+        <v>0.1014482878003793</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1943,14 +2206,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E88">
+        <v>0.3191601970778606</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.1523216946337154</v>
+        <v>0.1408411460063771</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1961,14 +2227,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E89">
+        <v>0.4600013430842378</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.1425906119822583</v>
+        <v>0.1523216946337154</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1979,14 +2248,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E90">
+        <v>0.6123230377179532</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.1260661612888981</v>
+        <v>0.1425906119822583</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1997,14 +2269,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E91">
+        <v>0.7549136497002115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.03902026519424003</v>
+        <v>0.1260661612888981</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2015,14 +2290,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E92">
+        <v>0.8809798109891096</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.03220072676093933</v>
+        <v>0.03902026519424003</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2033,14 +2311,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E93">
+        <v>0.9200000761833497</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.01886215088450985</v>
+        <v>0.03220072676093933</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2051,14 +2332,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E94">
+        <v>0.952200802944289</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.01004519788836684</v>
+        <v>0.01886215088450985</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2069,14 +2353,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E95">
+        <v>0.9710629538287988</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.004787277042020619</v>
+        <v>0.01004519788836684</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2087,14 +2374,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E96">
+        <v>0.9811081517171657</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.002437302866765338</v>
+        <v>0.004787277042020619</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2105,14 +2395,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E97">
+        <v>0.9858954287591862</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.008158813503583369</v>
+        <v>0.002437302866765338</v>
       </c>
       <c r="B98">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2123,14 +2416,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E98">
+        <v>0.9883327316259516</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0006831107016020935</v>
+        <v>0.008158813503583369</v>
       </c>
       <c r="B99">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2141,14 +2437,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E99">
+        <v>0.996491545129535</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.001394719619173543</v>
+        <v>0.0006831107016020935</v>
       </c>
       <c r="B100">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2159,14 +2458,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E100">
+        <v>0.9971746558311371</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0004813659053833835</v>
+        <v>0.001394719619173543</v>
       </c>
       <c r="B101">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2177,14 +2479,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E101">
+        <v>0.9985693754503107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0009492586443060071</v>
+        <v>0.0004813659053833835</v>
       </c>
       <c r="B102">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2195,32 +2500,38 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E102">
+        <v>0.9990507413556941</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.009686171791913598</v>
+        <v>0.0009492586443060071</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E103">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.0193723435838272</v>
+        <v>0.009686171791913598</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2231,14 +2542,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E104">
+        <v>0.009686171791913598</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.03874280818185576</v>
+        <v>0.0193723435838272</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2249,14 +2563,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E105">
+        <v>0.02905851537574079</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.1065441317394523</v>
+        <v>0.03874280818185576</v>
       </c>
       <c r="B106">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2267,14 +2584,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E106">
+        <v>0.06780132355759655</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.1743492132686461</v>
+        <v>0.1065441317394523</v>
       </c>
       <c r="B107">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2285,14 +2605,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E107">
+        <v>0.1743454552970489</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.214300209319018</v>
+        <v>0.1743492132686461</v>
       </c>
       <c r="B108">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2303,14 +2626,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E108">
+        <v>0.348694668565695</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1847437627066415</v>
+        <v>0.214300209319018</v>
       </c>
       <c r="B109">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2321,14 +2647,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E109">
+        <v>0.5629948778847129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.07662128289634387</v>
+        <v>0.1847437627066415</v>
       </c>
       <c r="B110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2339,14 +2668,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E110">
+        <v>0.7477386405913544</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.05064054625875138</v>
+        <v>0.07662128289634387</v>
       </c>
       <c r="B111">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2357,14 +2689,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E111">
+        <v>0.8243599234876983</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.05767734807460325</v>
+        <v>0.05064054625875138</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2375,14 +2710,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E112">
+        <v>0.8750004697464496</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.03871650238067501</v>
+        <v>0.05767734807460325</v>
       </c>
       <c r="B113">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2393,14 +2731,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E113">
+        <v>0.932677817821053</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.01498115377243979</v>
+        <v>0.03871650238067501</v>
       </c>
       <c r="B114">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2411,14 +2752,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E114">
+        <v>0.9713943202017279</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.001025926246049432</v>
+        <v>0.01498115377243979</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2429,14 +2773,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E115">
+        <v>0.9863754739741677</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.01210066854314715</v>
+        <v>0.001025926246049432</v>
       </c>
       <c r="B116">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2447,14 +2794,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E116">
+        <v>0.9874014002202172</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2.442681538212934e-005</v>
+        <v>0.01210066854314715</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2465,14 +2815,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E117">
+        <v>0.9995020687633643</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0004735044212535842</v>
+        <v>2.442681538212934e-005</v>
       </c>
       <c r="B118">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2483,32 +2836,38 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E118">
+        <v>0.9995264955787464</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0395602430122194</v>
+        <v>0.0004735044212535842</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E119">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.04395899217934632</v>
+        <v>0.0395602430122194</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2519,14 +2878,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E120">
+        <v>0.0395602430122194</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.04699173121637797</v>
+        <v>0.04395899217934632</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2537,14 +2899,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E121">
+        <v>0.08351923519156572</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.06526875020883248</v>
+        <v>0.04699173121637797</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2555,14 +2920,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E122">
+        <v>0.1305109664079437</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.1601199730335842</v>
+        <v>0.06526875020883248</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2573,14 +2941,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E123">
+        <v>0.1957797166167762</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.268026911382304</v>
+        <v>0.1601199730335842</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2591,14 +2962,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E124">
+        <v>0.3558996896503603</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.1131370864871133</v>
+        <v>0.268026911382304</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2609,14 +2983,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E125">
+        <v>0.6239266010326644</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.05410186308057888</v>
+        <v>0.1131370864871133</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2627,14 +3004,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E126">
+        <v>0.7370636875197777</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.05126763774590639</v>
+        <v>0.05410186308057888</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2645,14 +3025,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E127">
+        <v>0.7911655506003565</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.03572755271914635</v>
+        <v>0.05126763774590639</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2663,14 +3046,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E128">
+        <v>0.8424331883462629</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.01971968292841124</v>
+        <v>0.03572755271914635</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2681,14 +3067,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E129">
+        <v>0.8781607410654093</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.02212051943763623</v>
+        <v>0.01971968292841124</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2699,14 +3088,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E130">
+        <v>0.8978804239938205</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.03138973350026829</v>
+        <v>0.02212051943763623</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2717,14 +3109,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E131">
+        <v>0.9200009434314568</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03161085024794558</v>
+        <v>0.03138973350026829</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2735,14 +3130,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E132">
+        <v>0.9513906769317251</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.008660897321244308</v>
+        <v>0.03161085024794558</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2753,14 +3151,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E133">
+        <v>0.9830015271796706</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.004356491299793035</v>
+        <v>0.008660897321244308</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2771,14 +3172,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E134">
+        <v>0.9916624245009149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.003480868978990961</v>
+        <v>0.004356491299793035</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2789,14 +3193,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E135">
+        <v>0.996018915800708</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.0005002152203010726</v>
+        <v>0.003480868978990961</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2807,32 +3214,38 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E136">
+        <v>0.9994997847796989</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.03956062788160813</v>
+        <v>0.0005002152203010726</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E137">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.04257348409698352</v>
+        <v>0.03956062788160813</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2843,14 +3256,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E138">
+        <v>0.03956062788160813</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04551054104200927</v>
+        <v>0.04257348409698352</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2861,14 +3277,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E139">
+        <v>0.08213411197859165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.06321131847887343</v>
+        <v>0.04551054104200927</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2879,14 +3298,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E140">
+        <v>0.1276446530206009</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.1550727837776379</v>
+        <v>0.06321131847887343</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2897,14 +3319,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E141">
+        <v>0.1908559714994744</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.2595775673707211</v>
+        <v>0.1550727837776379</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2915,14 +3340,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E142">
+        <v>0.3459287552771123</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.1095701522247086</v>
+        <v>0.2595775673707211</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2933,14 +3361,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E143">
+        <v>0.6055063226478333</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.05239641041020588</v>
+        <v>0.1095701522247086</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2951,14 +3382,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E144">
+        <v>0.7150764748725419</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.04965115857536919</v>
+        <v>0.05239641041020588</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2969,14 +3403,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E145">
+        <v>0.7674728852827478</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.03460137822847218</v>
+        <v>0.04965115857536919</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2987,14 +3424,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E146">
+        <v>0.817124043858117</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.01909877963174737</v>
+        <v>0.03460137822847218</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3005,14 +3445,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E147">
+        <v>0.8517254220865892</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.02017578839480215</v>
+        <v>0.01909877963174737</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3023,14 +3466,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E148">
+        <v>0.8708242017183365</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.04276858482762257</v>
+        <v>0.02017578839480215</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3041,14 +3487,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E149">
+        <v>0.8909999901131387</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.04307046366084111</v>
+        <v>0.04276858482762257</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3059,14 +3508,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E150">
+        <v>0.9337685749407613</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.01180095770730277</v>
+        <v>0.04307046366084111</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3077,14 +3529,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E151">
+        <v>0.9768390386016024</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.005935412430421214</v>
+        <v>0.01180095770730277</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3095,14 +3550,17 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E152">
+        <v>0.9886399963089051</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.004743056951616996</v>
+        <v>0.005935412430421214</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3113,24 +3571,51 @@
         <is>
           <t>y2</t>
         </is>
+      </c>
+      <c r="E153">
+        <v>0.9945754087393264</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
+        <v>0.004743056951616996</v>
+      </c>
+      <c r="B154">
+        <v>22</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>0.9993184656909433</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
         <v>0.0006815343090566945</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>23</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,10 +386,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.05981287034588251</v>
+        <v>0.0326619157559166</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -402,15 +402,15 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.05981287034588251</v>
+        <v>0.0326619157559166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.05981287034588251</v>
+        <v>0.0326619157559166</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -423,15 +423,15 @@
         </is>
       </c>
       <c r="E3">
-        <v>0.119625740691765</v>
+        <v>0.0653238315118332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.06377633074344367</v>
+        <v>0.0653238315118332</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -444,15 +444,15 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.1834020714352087</v>
+        <v>0.1306476630236664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01326633453178274</v>
+        <v>0.1216449968907029</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.1966684059669914</v>
+        <v>0.2522926599143692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.1196293145965419</v>
+        <v>0.06600287341944061</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.3162977205635333</v>
+        <v>0.3182955333338099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.3376803928436131</v>
+        <v>0.09896499717661522</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -507,15 +507,15 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.6539781134071464</v>
+        <v>0.4172605305104251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1560223869395224</v>
+        <v>0.2624675668141498</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -528,15 +528,15 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.8100005003466688</v>
+        <v>0.6797280973245748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.08442635254426281</v>
+        <v>0.1302759769268708</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -549,15 +549,15 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.8944268528909316</v>
+        <v>0.8100040742514456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.02726889344760298</v>
+        <v>0.06090648520760813</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.9216957463385346</v>
+        <v>0.8709105594590537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.05680721642852548</v>
+        <v>0.026186000300208</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -591,15 +591,15 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.9785029627670601</v>
+        <v>0.8970965597592617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.009174213562253848</v>
+        <v>0.06982695153070341</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.9876771763293138</v>
+        <v>0.9669235112899651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.008059155271866937</v>
+        <v>0.004356589923018091</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -633,15 +633,15 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.9957363316011808</v>
+        <v>0.9712801012129833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.004263668398819182</v>
+        <v>0.00921352651479954</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -654,19 +654,19 @@
         </is>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.9804936277277828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.001768491367922528</v>
+        <v>0.01660793549816659</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -675,19 +675,19 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.001768491367922528</v>
+        <v>0.9971015632259493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.001768491367922528</v>
+        <v>0.002616098296676983</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -696,19 +696,19 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.003536982735845057</v>
+        <v>0.9997176615226264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.00707461781081513</v>
+        <v>0.0002823384773736089</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -717,15 +717,15 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.01061160054666019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.02122320109332037</v>
+        <v>0.00235038093392905</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -738,15 +738,15 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.03183480163998056</v>
+        <v>0.00235038093392905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.06253714255893068</v>
+        <v>0.00705114280178715</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -759,15 +759,15 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.09437194419891125</v>
+        <v>0.0094015237357162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.1043586038638046</v>
+        <v>0.006267682490477467</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.1987305480627159</v>
+        <v>0.01566920622619367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.102586198461132</v>
+        <v>0.02193754105664725</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -801,15 +801,15 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.3013167465238479</v>
+        <v>0.03760674728284091</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.1574061691711053</v>
+        <v>0.0647832306876381</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.4587229156949532</v>
+        <v>0.102389977970479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.1450306436303977</v>
+        <v>0.08697648901492097</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -843,15 +843,15 @@
         </is>
       </c>
       <c r="E23">
-        <v>0.6037535593253509</v>
+        <v>0.1893664669854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1443867849140054</v>
+        <v>0.09265706552689826</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -864,15 +864,15 @@
         </is>
       </c>
       <c r="E24">
-        <v>0.7481403442393563</v>
+        <v>0.2820235325122982</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.05922325980384163</v>
+        <v>0.1478828632245295</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -885,15 +885,15 @@
         </is>
       </c>
       <c r="E25">
-        <v>0.8073636040431979</v>
+        <v>0.4299063957368278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.02563627527406398</v>
+        <v>0.1504693912298109</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E26">
-        <v>0.8329998793172618</v>
+        <v>0.5803757869666387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.04485483823620547</v>
+        <v>0.1560214567664943</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -927,15 +927,15 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.8778547175534673</v>
+        <v>0.736397243733133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.06363437696721018</v>
+        <v>0.06456208743573635</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.9414890945206775</v>
+        <v>0.8009593311688693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.008300363026723072</v>
+        <v>0.03204033026668311</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -969,15 +969,15 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.9497894575474006</v>
+        <v>0.8329996614355524</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.00635313073854574</v>
+        <v>0.05962452615654985</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -990,15 +990,15 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.9561425882859463</v>
+        <v>0.8926241875921023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.02224606884134786</v>
+        <v>0.05073704632200937</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1011,15 +1011,15 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.9783886571272942</v>
+        <v>0.9433612339141116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.001666726464419793</v>
+        <v>0.01533716517835301</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1032,15 +1032,15 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.980055383591714</v>
+        <v>0.9586983990924646</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.003660927169598387</v>
+        <v>0.01150727717860351</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1053,15 +1053,15 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.9837163107613124</v>
+        <v>0.9702056762710681</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.01625498631718685</v>
+        <v>0.01554591397070863</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.9999712970784992</v>
+        <v>0.9857515902417767</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3.261695625087658e-006</v>
+        <v>0.001487335145533787</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1095,15 +1095,15 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.9999745587741243</v>
+        <v>0.9872389253873105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2.544122587568373e-005</v>
+        <v>0.002431923430942964</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1116,19 +1116,19 @@
         </is>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.9896708488182535</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.007202782432862901</v>
+        <v>0.009798798781167989</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.007202782432862901</v>
+        <v>0.9994696475994215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.01152393252357935</v>
+        <v>0.0005055634814862654</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1158,19 +1158,19 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.01872671495644225</v>
+        <v>0.9999752110809078</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.01152393252357935</v>
+        <v>9.785099641669651e-006</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1179,19 +1179,19 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.0302506474800216</v>
+        <v>0.9999849961805495</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.01872671495644225</v>
+        <v>1.500381945056013e-005</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.04897736243646386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.04753611345788956</v>
+        <v>0.005962361295896029</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1221,15 +1221,15 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.09651347589435343</v>
+        <v>0.005962361295896029</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.1368468069193801</v>
+        <v>0.007665893094723466</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1242,15 +1242,15 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.2333602828137335</v>
+        <v>0.01362825439061949</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.1136033128817362</v>
+        <v>0.01703618360402581</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1263,15 +1263,15 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.3469635956954697</v>
+        <v>0.0306644379946453</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1286096145589518</v>
+        <v>0.01277735410695721</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1284,15 +1284,15 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.4755732102544216</v>
+        <v>0.04344179210160251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1416336578812515</v>
+        <v>0.04173826030277508</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1305,15 +1305,15 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.6172068681356731</v>
+        <v>0.08518005240437759</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.1475388834258964</v>
+        <v>0.1056509993101042</v>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1326,15 +1326,15 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.7647457515615694</v>
+        <v>0.1908310517144818</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.09164179466227165</v>
+        <v>0.1078323510037248</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1347,15 +1347,15 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.8563875462238412</v>
+        <v>0.2986634027182066</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.06361231527775854</v>
+        <v>0.1071623644121127</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1368,15 +1368,15 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.9199998615015996</v>
+        <v>0.4058257671303193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.02345730094317411</v>
+        <v>0.1510291738476707</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1389,15 +1389,15 @@
         </is>
       </c>
       <c r="E49">
-        <v>0.9434571624447737</v>
+        <v>0.5568549409779899</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.02193208730939158</v>
+        <v>0.1585591652694186</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1410,15 +1410,15 @@
         </is>
       </c>
       <c r="E50">
-        <v>0.9653892497541654</v>
+        <v>0.7154141062474085</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.01987711729429525</v>
+        <v>0.1282020208665333</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1431,15 +1431,15 @@
         </is>
       </c>
       <c r="E51">
-        <v>0.9852663670484606</v>
+        <v>0.8436161271139419</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.009848101879423293</v>
+        <v>0.07638366513827778</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1452,15 +1452,15 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.9951144689278839</v>
+        <v>0.9199997922522196</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.0036477016190463</v>
+        <v>0.02831948492400327</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1473,15 +1473,15 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.9987621705469302</v>
+        <v>0.9483192771762229</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0004466573411077102</v>
+        <v>0.02307731593330258</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1494,15 +1494,15 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.9992088278880379</v>
+        <v>0.9713965931095255</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0006440175615971635</v>
+        <v>0.01351399311142985</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1515,15 +1515,15 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.999852845449635</v>
+        <v>0.9849105862209554</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0001471545503649433</v>
+        <v>0.007758513980127194</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1536,19 +1536,19 @@
         </is>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.9926691002010826</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.001010041542520302</v>
+        <v>0.005017974511078583</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1557,19 +1557,19 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.001010041542520302</v>
+        <v>0.9976870747121611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.005053449382320749</v>
+        <v>0.0008534971309165919</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1578,19 +1578,19 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.006063490924841051</v>
+        <v>0.9985405718430778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.007074787307252671</v>
+        <v>0.0002042853173390626</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.01313827823209372</v>
+        <v>0.9987448571604167</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.005053449382320749</v>
+        <v>0.0004622388112672009</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1620,19 +1620,19 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.01819172761441447</v>
+        <v>0.999207095971684</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.01111756772710746</v>
+        <v>0.00073837023597551</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1641,19 +1641,19 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.02930929534152193</v>
+        <v>0.9999454662076595</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.04952382486074153</v>
+        <v>5.453379234051246e-005</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.07883312020226346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.06881102770027689</v>
+        <v>0.0006443602168112138</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1683,15 +1683,15 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.1476441479025404</v>
+        <v>0.0006443602168112138</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1253255655955528</v>
+        <v>0.002930782829692939</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1704,15 +1704,15 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.2729697134980931</v>
+        <v>0.003575143046504152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.1627211537667209</v>
+        <v>0.004233306500676463</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1725,15 +1725,15 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.435690867264814</v>
+        <v>0.007808449547180615</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.1759773869485985</v>
+        <v>0.004558937418422344</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.6116682542134125</v>
+        <v>0.01236738696560296</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.1455393631248358</v>
+        <v>0.01856158973139527</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1767,15 +1767,15 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.7572076173382483</v>
+        <v>0.03092897669699823</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.118280476165728</v>
+        <v>0.06157205906865375</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1788,15 +1788,15 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.8754880935039762</v>
+        <v>0.09250103576565198</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.04489953072125164</v>
+        <v>0.09964211970041956</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1809,15 +1809,15 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.9203876242252279</v>
+        <v>0.1921431554660716</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.01761230529459824</v>
+        <v>0.1276713708517873</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1830,15 +1830,15 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.9379999295198261</v>
+        <v>0.3198145263178588</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.0146394850220742</v>
+        <v>0.1583146623634029</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1851,15 +1851,15 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.9526394145419003</v>
+        <v>0.4781291886812617</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.009085668233090274</v>
+        <v>0.1658464197434815</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1872,15 +1872,15 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.9617250827749906</v>
+        <v>0.6439756084247432</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.0114057626221469</v>
+        <v>0.1315867846132385</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1893,15 +1893,15 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9731308453971375</v>
+        <v>0.7755623930379817</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.009200276943164014</v>
+        <v>0.08802753202089643</v>
       </c>
       <c r="B74">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1914,15 +1914,15 @@
         </is>
       </c>
       <c r="E74">
-        <v>0.9823311223403015</v>
+        <v>0.8635899250588781</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.004504561499859928</v>
+        <v>0.04514139638986784</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1935,15 +1935,15 @@
         </is>
       </c>
       <c r="E75">
-        <v>0.9868356838401614</v>
+        <v>0.908731321448746</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.007383791630489807</v>
+        <v>0.02926871912440628</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1956,15 +1956,15 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.9942194754706513</v>
+        <v>0.9380000405731522</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.003725096787369367</v>
+        <v>0.01341580558516629</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1977,15 +1977,15 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.9979445722580206</v>
+        <v>0.9514158461583185</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0008723228644481167</v>
+        <v>0.01453386781141515</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1998,15 +1998,15 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.9988168951224687</v>
+        <v>0.9659497139697337</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.0001834157641143607</v>
+        <v>0.01079036709709762</v>
       </c>
       <c r="B79">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2019,15 +2019,15 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.999000310886583</v>
+        <v>0.9767400810668313</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.0009996891134169258</v>
+        <v>0.008057744379520429</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2040,19 +2040,19 @@
         </is>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.9847978254463518</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.00052439538989157</v>
+        <v>0.004366946935127085</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2061,19 +2061,19 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.00052439538989157</v>
+        <v>0.9891647723814788</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.0005047146912394651</v>
+        <v>0.004144422017669399</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2082,19 +2082,19 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.001029110081131035</v>
+        <v>0.9933091943991482</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.00100942938247893</v>
+        <v>0.00314002735968957</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2103,19 +2103,19 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.002038539463609965</v>
+        <v>0.9964492217588378</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.00504714691239465</v>
+        <v>0.001578797558165483</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2124,19 +2124,19 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.007085686376004615</v>
+        <v>0.9980280193170033</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.03179723716850191</v>
+        <v>0.0009217843737732635</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2145,19 +2145,19 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.03888292354450653</v>
+        <v>0.9989498036907766</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.06476276011147035</v>
+        <v>0.0003082723010645015</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2166,19 +2166,19 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.1036456836559769</v>
+        <v>0.999258075991841</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1140662256215045</v>
+        <v>0.0004831133076383979</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2187,19 +2187,19 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.2177119092774814</v>
+        <v>0.9997411892994794</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.1014482878003793</v>
+        <v>0.0002588107005205703</v>
       </c>
       <c r="B88">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2208,15 +2208,15 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.3191601970778606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.1408411460063771</v>
+        <v>0.001192833321964618</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2229,15 +2229,15 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.4600013430842378</v>
+        <v>0.001192833321964618</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.1523216946337154</v>
+        <v>0.0007849703847913822</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2250,15 +2250,15 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.6123230377179532</v>
+        <v>0.001977803706756</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.1425906119822583</v>
+        <v>0.001569940769582764</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2271,15 +2271,15 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.7549136497002115</v>
+        <v>0.003547744476338765</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.1260661612888981</v>
+        <v>0.004709751768634635</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2292,15 +2292,15 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.8809798109891096</v>
+        <v>0.008257496244973401</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.03902026519424003</v>
+        <v>0.0298282397610496</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2313,15 +2313,15 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.9200000761833497</v>
+        <v>0.038085736006023</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.03220072676093933</v>
+        <v>0.06042113435415694</v>
       </c>
       <c r="B94">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2334,15 +2334,15 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.952200802944289</v>
+        <v>0.09850687036017994</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.01886215088450985</v>
+        <v>0.1155844907966667</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2355,15 +2355,15 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.9710629538287988</v>
+        <v>0.2140913611568466</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.01004519788836684</v>
+        <v>0.1026326910679498</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2376,15 +2376,15 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.9811081517171657</v>
+        <v>0.3167240522247964</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.004787277042020619</v>
+        <v>0.1424830585572529</v>
       </c>
       <c r="B97">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2397,15 +2397,15 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.9858954287591862</v>
+        <v>0.4592071107820493</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.002437302866765338</v>
+        <v>0.1486080566262173</v>
       </c>
       <c r="B98">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.9883327316259516</v>
+        <v>0.6078151674082667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.008158813503583369</v>
+        <v>0.1412471957659567</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2439,15 +2439,15 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.996491545129535</v>
+        <v>0.7490623631742233</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0006831107016020935</v>
+        <v>0.1234486553678805</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2460,15 +2460,15 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.9971746558311371</v>
+        <v>0.8725110185421038</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.001394719619173543</v>
+        <v>0.04748880369680984</v>
       </c>
       <c r="B101">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2481,15 +2481,15 @@
         </is>
       </c>
       <c r="E101">
-        <v>0.9985693754503107</v>
+        <v>0.9199998222389136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0004813659053833835</v>
+        <v>0.03030417390790325</v>
       </c>
       <c r="B102">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2502,15 +2502,15 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.9990507413556941</v>
+        <v>0.9503039961468168</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0009492586443060071</v>
+        <v>0.01863225400140558</v>
       </c>
       <c r="B103">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2523,19 +2523,19 @@
         </is>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0.9689362501482224</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.009686171791913598</v>
+        <v>0.01085443052930974</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2544,19 +2544,19 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.009686171791913598</v>
+        <v>0.9797906806775322</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.0193723435838272</v>
+        <v>0.007780786156869503</v>
       </c>
       <c r="B105">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2565,19 +2565,19 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.02905851537574079</v>
+        <v>0.9875714668344017</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.03874280818185576</v>
+        <v>0.002426156669169195</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2586,19 +2586,19 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.06780132355759655</v>
+        <v>0.9899976235035709</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.1065441317394523</v>
+        <v>0.004519575622211417</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2607,19 +2607,19 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.1743454552970489</v>
+        <v>0.9945171991257823</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.1743492132686461</v>
+        <v>0.003865457148256485</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2628,19 +2628,19 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.348694668565695</v>
+        <v>0.9983826562740388</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.214300209319018</v>
+        <v>0.0007880741497923546</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2649,19 +2649,19 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.5629948778847129</v>
+        <v>0.9991707304238311</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.1847437627066415</v>
+        <v>4.218298796776119e-005</v>
       </c>
       <c r="B110">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2670,19 +2670,19 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.7477386405913544</v>
+        <v>0.9992129134117989</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.07662128289634387</v>
+        <v>0.000210773859611489</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2691,19 +2691,19 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.8243599234876983</v>
+        <v>0.9994236872714104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.05064054625875138</v>
+        <v>0.0002881563642948236</v>
       </c>
       <c r="B112">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.8750004697464496</v>
+        <v>0.9997118436357052</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.05767734807460325</v>
+        <v>0.0002881563642948236</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2733,15 +2733,15 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.932677817821053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.03871650238067501</v>
+        <v>0.007502776196301035</v>
       </c>
       <c r="B114">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.9713943202017279</v>
+        <v>0.007502776196301035</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.01498115377243979</v>
+        <v>0.007545992788466055</v>
       </c>
       <c r="B115">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2775,15 +2775,15 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.9863754739741677</v>
+        <v>0.01504876898476709</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.001025926246049432</v>
+        <v>0.01131898918269908</v>
       </c>
       <c r="B116">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2796,15 +2796,15 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.9874014002202172</v>
+        <v>0.02636775816746617</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.01210066854314715</v>
+        <v>0.02263797836539817</v>
       </c>
       <c r="B117">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2817,15 +2817,15 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.9995020687633643</v>
+        <v>0.04900573653286434</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2.442681538212934e-005</v>
+        <v>0.04150483931883135</v>
       </c>
       <c r="B118">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2838,15 +2838,15 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.9995264955787464</v>
+        <v>0.09051057585169568</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.0004735044212535842</v>
+        <v>0.08677891706735963</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2859,19 +2859,19 @@
         </is>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0.1772894929190553</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.0395602430122194</v>
+        <v>0.1471524963218922</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2880,19 +2880,19 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.0395602430122194</v>
+        <v>0.3244419892409475</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.04395899217934632</v>
+        <v>0.2233189215393374</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2901,19 +2901,19 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.08351923519156572</v>
+        <v>0.547760910780285</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.04699173121637797</v>
+        <v>0.2243316929818133</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.1305109664079437</v>
+        <v>0.7720926037620983</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.06526875020883248</v>
+        <v>0.1029081008562522</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2943,19 +2943,19 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.1957797166167762</v>
+        <v>0.8750007046183506</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.1601199730335842</v>
+        <v>0.05126239423678559</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2964,19 +2964,19 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.3558996896503603</v>
+        <v>0.9262630988551361</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.268026911382304</v>
+        <v>0.03419559829613888</v>
       </c>
       <c r="B125">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2985,19 +2985,19 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.6239266010326644</v>
+        <v>0.960458697151275</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.1131370864871133</v>
+        <v>0.0209825949872511</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3006,19 +3006,19 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.7370636875197777</v>
+        <v>0.981441292138526</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.05410186308057888</v>
+        <v>0.007204018015681986</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3027,19 +3027,19 @@
         </is>
       </c>
       <c r="E127">
-        <v>0.7911655506003565</v>
+        <v>0.9886453101542081</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.05126763774590639</v>
+        <v>0.002598632476705317</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3048,19 +3048,19 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.8424331883462629</v>
+        <v>0.9912439426309134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.03572755271914635</v>
+        <v>0.006166819803721513</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3069,19 +3069,19 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.8781607410654093</v>
+        <v>0.9974107624346349</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.01971968292841124</v>
+        <v>4.885353896915275e-005</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.8978804239938205</v>
+        <v>0.997459615973604</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.02212051943763623</v>
+        <v>0.0004922933542276162</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3111,19 +3111,19 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.9200009434314568</v>
+        <v>0.9979519093278316</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03138973350026829</v>
+        <v>0.0003457327373201579</v>
       </c>
       <c r="B132">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3132,19 +3132,19 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.9513906769317251</v>
+        <v>0.9982976420651518</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.03161085024794558</v>
+        <v>0.001702357934848169</v>
       </c>
       <c r="B133">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3153,15 +3153,15 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.9830015271796706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.008660897321244308</v>
+        <v>0.02890730107128502</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3174,15 +3174,15 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.9916624245009149</v>
+        <v>0.02890730107128502</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.004356491299793035</v>
+        <v>0.04968635848591193</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3195,15 +3195,15 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.996018915800708</v>
+        <v>0.07859365955719695</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.003480868978990961</v>
+        <v>0.05501575823806486</v>
       </c>
       <c r="B136">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3216,15 +3216,15 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.9994997847796989</v>
+        <v>0.1336094177952618</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.0005002152203010726</v>
+        <v>0.0713842779267721</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0.2049936957220339</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.03956062788160813</v>
+        <v>0.1277493383702041</v>
       </c>
       <c r="B138">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.03956062788160813</v>
+        <v>0.332743034092238</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04257348409698352</v>
+        <v>0.2209976188206529</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3279,19 +3279,19 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.08213411197859165</v>
+        <v>0.5537406529128909</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.04551054104200927</v>
+        <v>0.1390203849786205</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3300,19 +3300,19 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.1276446530206009</v>
+        <v>0.6927610378915114</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.06321131847887343</v>
+        <v>0.0747196979449921</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.1908559714994744</v>
+        <v>0.7674807358365035</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.1550727837776379</v>
+        <v>0.06028815906238729</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.3459287552771123</v>
+        <v>0.8277688948988908</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.2595775673707211</v>
+        <v>0.06091023356784789</v>
       </c>
       <c r="B143">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3363,19 +3363,19 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.6055063226478333</v>
+        <v>0.8886791284667387</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.1095701522247086</v>
+        <v>0.03131992810273172</v>
       </c>
       <c r="B144">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3384,19 +3384,19 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.7150764748725419</v>
+        <v>0.9199990565694705</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.05239641041020588</v>
+        <v>0.03244418281718184</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3405,19 +3405,19 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.7674728852827478</v>
+        <v>0.9524432393866522</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.04965115857536919</v>
+        <v>0.01719205592184464</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.817124043858117</v>
+        <v>0.9696352953084969</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.03460137822847218</v>
+        <v>0.01730114007683063</v>
       </c>
       <c r="B147">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3447,19 +3447,19 @@
         </is>
       </c>
       <c r="E147">
-        <v>0.8517254220865892</v>
+        <v>0.9869364353853275</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.01909877963174737</v>
+        <v>0.008928194126555308</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3468,19 +3468,19 @@
         </is>
       </c>
       <c r="E148">
-        <v>0.8708242017183365</v>
+        <v>0.9958646295118828</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.02017578839480215</v>
+        <v>0.001930101625157361</v>
       </c>
       <c r="B149">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3489,19 +3489,19 @@
         </is>
       </c>
       <c r="E149">
-        <v>0.8909999901131387</v>
+        <v>0.9977947311370402</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.04276858482762257</v>
+        <v>0.00138074988968742</v>
       </c>
       <c r="B150">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3510,19 +3510,19 @@
         </is>
       </c>
       <c r="E150">
-        <v>0.9337685749407613</v>
+        <v>0.9991754810267276</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.04307046366084111</v>
+        <v>0.0002505987344272541</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3531,19 +3531,19 @@
         </is>
       </c>
       <c r="E151">
-        <v>0.9768390386016024</v>
+        <v>0.9994260797611548</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.01180095770730277</v>
+        <v>1.96548027001768e-006</v>
       </c>
       <c r="B152">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3552,19 +3552,19 @@
         </is>
       </c>
       <c r="E152">
-        <v>0.9886399963089051</v>
+        <v>0.9994280452414248</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.005935412430421214</v>
+        <v>0.0005719547585751447</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3573,15 +3573,15 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.9945754087393264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.004743056951616996</v>
+        <v>0.02808403327003528</v>
       </c>
       <c r="B154">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3594,27 +3594,405 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.9993184656909433</v>
+        <v>0.02808403327003528</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.0006815343090566945</v>
+        <v>0.04812079930870884</v>
       </c>
       <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>0.07620483257874412</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.05328241366605126</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>0.1294872462447954</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.06913438982415182</v>
+      </c>
+      <c r="B157">
+        <v>9</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>0.1986216360689472</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.1237225317550346</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>0.3223441678239818</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.2140313387966076</v>
+      </c>
+      <c r="B159">
+        <v>11</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>0.5363755066205894</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.1346383145888933</v>
+      </c>
+      <c r="B160">
+        <v>12</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>0.6710138212094827</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.0723641063802721</v>
+      </c>
+      <c r="B161">
+        <v>13</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>0.7433779275897549</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.05838800232803242</v>
+      </c>
+      <c r="B162">
+        <v>14</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>0.8017659299177873</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.05899044333462302</v>
+      </c>
+      <c r="B163">
+        <v>15</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>0.8607563732524103</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.03024464773349697</v>
+      </c>
+      <c r="B164">
+        <v>16</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>0.8910010209859073</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.04420493276586994</v>
+      </c>
+      <c r="B165">
+        <v>17</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>0.9352059537517772</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.02342335454180539</v>
+      </c>
+      <c r="B166">
+        <v>18</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>0.9586293082935825</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.02357297610471137</v>
+      </c>
+      <c r="B167">
+        <v>19</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>0.9822022843982939</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.0121648262775012</v>
+      </c>
+      <c r="B168">
+        <v>20</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>0.9943671106757951</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.00262925292701302</v>
+      </c>
+      <c r="B169">
+        <v>21</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>0.9969963636028082</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.001881145112483118</v>
+      </c>
+      <c r="B170">
+        <v>22</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>0.9988775087152912</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.0003407680529620785</v>
+      </c>
+      <c r="B171">
         <v>23</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-      <c r="E155">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>0.9992182767682534</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>1.977377483338947e-006</v>
+      </c>
+      <c r="B172">
+        <v>25</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>0.9992202541457367</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.0007797458542633248</v>
+      </c>
+      <c r="B173">
+        <v>26</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E173">
         <v>1</v>
       </c>
     </row>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,10 +386,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.0326619157559166</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -402,15 +402,15 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.0326619157559166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0326619157559166</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -423,15 +423,15 @@
         </is>
       </c>
       <c r="E3">
-        <v>0.0653238315118332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.0653238315118332</v>
+        <v>0.01640587016044423</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -444,15 +444,15 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.1306476630236664</v>
+        <v>0.01640587016044423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.1216449968907029</v>
+        <v>0.01626193096036234</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.2522926599143692</v>
+        <v>0.03266780112080657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.06600287341944061</v>
+        <v>0.03348665523682796</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.3182955333338099</v>
+        <v>0.06615445635763453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.09896499717661522</v>
+        <v>0.07667481255917501</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -507,15 +507,15 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.4172605305104251</v>
+        <v>0.1428292689168095</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.2624675668141498</v>
+        <v>0.0565425164410553</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -528,15 +528,15 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.6797280973245748</v>
+        <v>0.1993717853578648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1302759769268708</v>
+        <v>0.06444637784999616</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -549,15 +549,15 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.8100040742514456</v>
+        <v>0.263818163207861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.06090648520760813</v>
+        <v>0.2473195322295862</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.8709105594590537</v>
+        <v>0.5111376954374473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.026186000300208</v>
+        <v>0.2711430691675836</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -591,15 +591,15 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.8970965597592617</v>
+        <v>0.7822807646050308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.06982695153070341</v>
+        <v>0.06165075871951688</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.9669235112899651</v>
+        <v>0.8439315233245477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.004356589923018091</v>
+        <v>0.03453581207298037</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -633,15 +633,15 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.9712801012129833</v>
+        <v>0.8784673353975281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.00921352651479954</v>
+        <v>0.06640075232221909</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -654,15 +654,15 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.9804936277277828</v>
+        <v>0.9448680877197472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.01660793549816659</v>
+        <v>0.02232337060825507</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -675,15 +675,15 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.9971015632259493</v>
+        <v>0.9671914583280022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.002616098296676983</v>
+        <v>0.01748061618772231</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.9997176615226264</v>
+        <v>0.9846720745157246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.0002823384773736089</v>
+        <v>0.01262826582051741</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -717,19 +717,19 @@
         </is>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9973003403362419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.00235038093392905</v>
+        <v>0.002440569103610635</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.00235038093392905</v>
+        <v>0.9997409094398526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.00705114280178715</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.0094015237357162</v>
+        <v>0.9997409094398526</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.006267682490477467</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.01566920622619367</v>
+        <v>0.9997409094398526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.02193754105664725</v>
+        <v>0.0002590905601473938</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.03760674728284091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.0647832306876381</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -822,19 +822,19 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.102389977970479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.08697648901492097</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -843,19 +843,19 @@
         </is>
       </c>
       <c r="E23">
-        <v>0.1893664669854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.09265706552689826</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -864,19 +864,19 @@
         </is>
       </c>
       <c r="E24">
-        <v>0.2820235325122982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.1478828632245295</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -885,15 +885,15 @@
         </is>
       </c>
       <c r="E25">
-        <v>0.4299063957368278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.1504693912298109</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E26">
-        <v>0.5803757869666387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1560214567664943</v>
+        <v>0.001724331088166133</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -927,15 +927,15 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.736397243733133</v>
+        <v>0.001724331088166133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.06456208743573635</v>
+        <v>0.00509889859759542</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.8009593311688693</v>
+        <v>0.006823229685761554</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.03204033026668311</v>
+        <v>0.00442789729412204</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -969,15 +969,15 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.8329996614355524</v>
+        <v>0.0112511269798836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.05962452615654985</v>
+        <v>0.01536012082765521</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -990,15 +990,15 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.8926241875921023</v>
+        <v>0.0266112478075388</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.05073704632200937</v>
+        <v>0.04680174815993304</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1011,15 +1011,15 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.9433612339141116</v>
+        <v>0.07341299596747185</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.01533716517835301</v>
+        <v>0.07087599457271383</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1032,15 +1032,15 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.9586983990924646</v>
+        <v>0.1442889905401857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.01150727717860351</v>
+        <v>0.07755874077002735</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1053,15 +1053,15 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.9702056762710681</v>
+        <v>0.221847731310213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.01554591397070863</v>
+        <v>0.1377123479058773</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.9857515902417767</v>
+        <v>0.3595600792160903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.001487335145533787</v>
+        <v>0.1597036450426815</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1095,15 +1095,15 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.9872389253873105</v>
+        <v>0.5192637242587718</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.002431923430942964</v>
+        <v>0.176597821853896</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1116,15 +1116,15 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.9896708488182535</v>
+        <v>0.6958615461126678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.009798798781167989</v>
+        <v>0.07919178722856901</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1137,15 +1137,15 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.9994696475994215</v>
+        <v>0.7750533333412368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0005055634814862654</v>
+        <v>0.03783451519266688</v>
       </c>
       <c r="B38">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1158,15 +1158,15 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.9999752110809078</v>
+        <v>0.8128878485339037</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>9.785099641669651e-006</v>
+        <v>0.06993528868171361</v>
       </c>
       <c r="B39">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1179,15 +1179,15 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.9999849961805495</v>
+        <v>0.8828231372156173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.500381945056013e-005</v>
+        <v>0.0576017868077113</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1200,19 +1200,19 @@
         </is>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.9404249240233286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.005962361295896029</v>
+        <v>0.01567665324466474</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1221,19 +1221,19 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.005962361295896029</v>
+        <v>0.9561015772679933</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.007665893094723466</v>
+        <v>0.01104899672857227</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1242,19 +1242,19 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.01362825439061949</v>
+        <v>0.9671505739965656</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01703618360402581</v>
+        <v>0.01446031519278543</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1263,19 +1263,19 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.0306644379946453</v>
+        <v>0.981610889189351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.01277735410695721</v>
+        <v>0.002419042685048467</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.04344179210160251</v>
+        <v>0.9840299318743995</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.04173826030277508</v>
+        <v>0.003281504607799145</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1305,19 +1305,19 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.08518005240437759</v>
+        <v>0.9873114364821987</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.1056509993101042</v>
+        <v>0.008935816828499298</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1326,19 +1326,19 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.1908310517144818</v>
+        <v>0.996247253310698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.1078323510037248</v>
+        <v>0.0004682782948268289</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1347,19 +1347,19 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.2986634027182066</v>
+        <v>0.9967155316055247</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.1071623644121127</v>
+        <v>0.003270834975765117</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1368,19 +1368,19 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.4058257671303193</v>
+        <v>0.9999863665812899</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.1510291738476707</v>
+        <v>1.363341871014818e-005</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1389,19 +1389,19 @@
         </is>
       </c>
       <c r="E49">
-        <v>0.5568549409779899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.1585591652694186</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1410,15 +1410,15 @@
         </is>
       </c>
       <c r="E50">
-        <v>0.7154141062474085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.1282020208665333</v>
+        <v>0</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1431,15 +1431,15 @@
         </is>
       </c>
       <c r="E51">
-        <v>0.8436161271139419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.07638366513827778</v>
+        <v>0.00439909802890769</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1452,15 +1452,15 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.9199997922522196</v>
+        <v>0.00439909802890769</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.02831948492400327</v>
+        <v>0.005575310764296484</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1473,15 +1473,15 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.9483192771762229</v>
+        <v>0.009974408793204173</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.02307731593330258</v>
+        <v>0.01210297945293628</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1494,15 +1494,15 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.9713965931095255</v>
+        <v>0.02207738824614046</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.01351399311142985</v>
+        <v>0.008997091447420249</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1515,15 +1515,15 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.9849105862209554</v>
+        <v>0.0310744796935607</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.007758513980127194</v>
+        <v>0.03088026419547595</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1536,15 +1536,15 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.9926691002010826</v>
+        <v>0.06195474388903665</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.005017974511078583</v>
+        <v>0.08798118059623378</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1557,15 +1557,15 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.9976870747121611</v>
+        <v>0.1499359244852704</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.0008534971309165919</v>
+        <v>0.09289350672851403</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1578,15 +1578,15 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.9985405718430778</v>
+        <v>0.2428294312137845</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.0002042853173390626</v>
+        <v>0.1013999895482423</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1599,15 +1599,15 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.9987448571604167</v>
+        <v>0.3442294207620267</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.0004622388112672009</v>
+        <v>0.1566039899195137</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1620,15 +1620,15 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.999207095971684</v>
+        <v>0.5008334106815404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.00073837023597551</v>
+        <v>0.17197743356309</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1641,15 +1641,15 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.9999454662076595</v>
+        <v>0.6728108442446303</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>5.453379234051246e-005</v>
+        <v>0.148977326705567</v>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1662,19 +1662,19 @@
         </is>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.8217881709501973</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.0006443602168112138</v>
+        <v>0.08835245199016287</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.0006443602168112138</v>
+        <v>0.9101406229403602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.002930782829692939</v>
+        <v>0.03431842449892011</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1704,19 +1704,19 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.003575143046504152</v>
+        <v>0.9444590474392803</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.004233306500676463</v>
+        <v>0.02650768555184891</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1725,19 +1725,19 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.007808449547180615</v>
+        <v>0.9709667329911292</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.004558937418422344</v>
+        <v>0.01428770881090976</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1746,19 +1746,19 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.01236738696560296</v>
+        <v>0.985254441802039</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.01856158973139527</v>
+        <v>0.007733520736989317</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1767,19 +1767,19 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.03092897669699823</v>
+        <v>0.9929879625390283</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.06157205906865375</v>
+        <v>0.004826528121078154</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1788,19 +1788,19 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.09250103576565198</v>
+        <v>0.9978144906601064</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.09964211970041956</v>
+        <v>0.0007955815584194759</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1809,19 +1809,19 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.1921431554660716</v>
+        <v>0.9986100722185259</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.1276713708517873</v>
+        <v>0.000191095570404678</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1830,19 +1830,19 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.3198145263178588</v>
+        <v>0.9988011677889306</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.1583146623634029</v>
+        <v>0.0004375698571307117</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1851,19 +1851,19 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.4781291886812617</v>
+        <v>0.9992387376460613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.1658464197434815</v>
+        <v>0.0007097835472173755</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1872,19 +1872,19 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.6439756084247432</v>
+        <v>0.9999485211932787</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.1315867846132385</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1893,19 +1893,19 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.7755623930379817</v>
+        <v>0.9999485211932787</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.08802753202089643</v>
+        <v>5.14788067212602e-005</v>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="E74">
-        <v>0.8635899250588781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.04514139638986784</v>
+        <v>0</v>
       </c>
       <c r="B75">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1935,15 +1935,15 @@
         </is>
       </c>
       <c r="E75">
-        <v>0.908731321448746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.02926871912440628</v>
+        <v>0.0003659398832534713</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1956,15 +1956,15 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.9380000405731522</v>
+        <v>0.0003659398832534713</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.01341580558516629</v>
+        <v>0.001638026314691199</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1977,15 +1977,15 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.9514158461583185</v>
+        <v>0.00200396619794467</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.01453386781141515</v>
+        <v>0.002371127577331393</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1998,15 +1998,15 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.9659497139697337</v>
+        <v>0.004375093775276063</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.01079036709709762</v>
+        <v>0.003775644547882547</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2019,15 +2019,15 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.9767400810668313</v>
+        <v>0.00815073832315861</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.008057744379520429</v>
+        <v>0.01247066118974945</v>
       </c>
       <c r="B80">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2040,15 +2040,15 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.9847978254463518</v>
+        <v>0.02062139951290806</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.004366946935127085</v>
+        <v>0.04302089023045357</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2061,15 +2061,15 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.9891647723814788</v>
+        <v>0.06364228974336163</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.004144422017669399</v>
+        <v>0.07554139253409349</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.9933091943991482</v>
+        <v>0.1391836822774551</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.00314002735968957</v>
+        <v>0.1187490698815902</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2103,15 +2103,15 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.9964492217588378</v>
+        <v>0.2579327521590453</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.001578797558165483</v>
+        <v>0.1457403681467196</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2124,15 +2124,15 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.9980280193170033</v>
+        <v>0.4036731203057649</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.0009217843737732635</v>
+        <v>0.170801804312655</v>
       </c>
       <c r="B85">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2145,15 +2145,15 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.9989498036907766</v>
+        <v>0.5744749246184199</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.0003082723010645015</v>
+        <v>0.1532973575577732</v>
       </c>
       <c r="B86">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2166,15 +2166,15 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.999258075991841</v>
+        <v>0.7277722821761931</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0004831133076383979</v>
+        <v>0.1027817742190619</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2187,15 +2187,15 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.9997411892994794</v>
+        <v>0.8305540563952549</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.0002588107005205703</v>
+        <v>0.05979091243521745</v>
       </c>
       <c r="B88">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2208,19 +2208,19 @@
         </is>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.8903449688304724</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.001192833321964618</v>
+        <v>0.03742786301898063</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2229,19 +2229,19 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.001192833321964618</v>
+        <v>0.927772831849453</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.0007849703847913822</v>
+        <v>0.01825332567590979</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2250,19 +2250,19 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.001977803706756</v>
+        <v>0.9460261575253629</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.001569940769582764</v>
+        <v>0.01798378219583881</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2271,19 +2271,19 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.003547744476338765</v>
+        <v>0.9640099397212016</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.004709751768634635</v>
+        <v>0.01247666687907127</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.008257496244973401</v>
+        <v>0.976486606600273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.0298282397610496</v>
+        <v>0.008478302869559074</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2313,19 +2313,19 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.038085736006023</v>
+        <v>0.984964909469832</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.06042113435415694</v>
+        <v>0.004617662549071063</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2334,19 +2334,19 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.09850687036017994</v>
+        <v>0.9895825720189031</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.1155844907966667</v>
+        <v>0.004189426363021729</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.2140913611568466</v>
+        <v>0.9937719983819248</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.1026326910679498</v>
+        <v>0.002934339086105095</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2376,19 +2376,19 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.3167240522247964</v>
+        <v>0.9967063374680298</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.1424830585572529</v>
+        <v>0.00149429693634519</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2397,19 +2397,19 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.4592071107820493</v>
+        <v>0.9982006344043751</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.1486080566262173</v>
+        <v>0.0007828772300702217</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2418,19 +2418,19 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.6078151674082667</v>
+        <v>0.9989835116344453</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.1412471957659567</v>
+        <v>0.0002546819437830835</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2439,19 +2439,19 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.7490623631742233</v>
+        <v>0.9992381935782284</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.1234486553678805</v>
+        <v>0.0005571040281074403</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.8725110185421038</v>
+        <v>0.9997952976063358</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.04748880369680984</v>
+        <v>0.000204702393664181</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2481,15 +2481,15 @@
         </is>
       </c>
       <c r="E101">
-        <v>0.9199998222389136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.03030417390790325</v>
+        <v>0.0007515861709512184</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2502,15 +2502,15 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.9503039961468168</v>
+        <v>0.0007515861709512184</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.01863225400140558</v>
+        <v>0.0004878369341794188</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2523,15 +2523,15 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.9689362501482224</v>
+        <v>0.001239423105130637</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.01085443052930974</v>
+        <v>0.0009778620912203097</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.9797906806775322</v>
+        <v>0.002217285196350947</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.007780786156869503</v>
+        <v>0.003614533875365254</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2565,15 +2565,15 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.9875714668344017</v>
+        <v>0.005831819071716201</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.002426156669169195</v>
+        <v>0.02012727387981966</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2586,15 +2586,15 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.9899976235035709</v>
+        <v>0.02595909295153586</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.004519575622211417</v>
+        <v>0.04578528104200984</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2607,15 +2607,15 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.9945171991257823</v>
+        <v>0.0717443739935457</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.003865457148256485</v>
+        <v>0.08841083665401851</v>
       </c>
       <c r="B108">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2628,15 +2628,15 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.9983826562740388</v>
+        <v>0.1601552106475642</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.0007880741497923546</v>
+        <v>0.1029185490796848</v>
       </c>
       <c r="B109">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2649,15 +2649,15 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.9991707304238311</v>
+        <v>0.263073759727249</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4.218298796776119e-005</v>
+        <v>0.1326320854057912</v>
       </c>
       <c r="B110">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2670,15 +2670,15 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.9992129134117989</v>
+        <v>0.3957058451330402</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.000210773859611489</v>
+        <v>0.143493397960672</v>
       </c>
       <c r="B111">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2691,15 +2691,15 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.9994236872714104</v>
+        <v>0.5391992430937123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0002881563642948236</v>
+        <v>0.1580342756390825</v>
       </c>
       <c r="B112">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.9997118436357052</v>
+        <v>0.6972335187327947</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.0002881563642948236</v>
+        <v>0.1417840539960403</v>
       </c>
       <c r="B113">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2733,19 +2733,19 @@
         </is>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0.8390175727288349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.007502776196301035</v>
+        <v>0.06361129667316956</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2754,19 +2754,19 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.007502776196301035</v>
+        <v>0.9026288694020045</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.007545992788466055</v>
+        <v>0.0387671032695537</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2775,19 +2775,19 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.01504876898476709</v>
+        <v>0.9413959726715582</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.01131898918269908</v>
+        <v>0.02365824499466245</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2796,19 +2796,19 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.02636775816746617</v>
+        <v>0.9650542176662207</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.02263797836539817</v>
+        <v>0.01352896136890846</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2817,19 +2817,19 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.04900573653286434</v>
+        <v>0.9785831790351292</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.04150483931883135</v>
+        <v>0.008385885442840576</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2838,19 +2838,19 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.09051057585169568</v>
+        <v>0.9869690644779697</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.08677891706735963</v>
+        <v>0.002721602183955827</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2859,19 +2859,19 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.1772894929190553</v>
+        <v>0.9896906666619255</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.1471524963218922</v>
+        <v>0.004768821434791746</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2880,19 +2880,19 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.3244419892409475</v>
+        <v>0.9944594880967173</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.2233189215393374</v>
+        <v>0.003990908207538442</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2901,19 +2901,19 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.547760910780285</v>
+        <v>0.9984503963042557</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.2243316929818133</v>
+        <v>0.000817438002688642</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.7720926037620983</v>
+        <v>0.9992678343069443</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.1029081008562522</v>
+        <v>4.424313098038744e-005</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2943,19 +2943,19 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.8750007046183506</v>
+        <v>0.9993120774379247</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.05126239423678559</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2964,19 +2964,19 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.9262630988551361</v>
+        <v>0.9993120774379247</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.03419559829613888</v>
+        <v>0.0002181384665029922</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2985,19 +2985,19 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.960458697151275</v>
+        <v>0.9995302159044277</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.0209825949872511</v>
+        <v>0.0002348920477861373</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3006,19 +3006,19 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.981441292138526</v>
+        <v>0.9997651079522139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.007204018015681986</v>
+        <v>0.0002348920477861373</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3027,15 +3027,15 @@
         </is>
       </c>
       <c r="E127">
-        <v>0.9886453101542081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.002598632476705317</v>
+        <v>0.006163876632071368</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3048,15 +3048,15 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.9912439426309134</v>
+        <v>0.006163876632071368</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.006166819803721513</v>
+        <v>0.006239206624519536</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3069,15 +3069,15 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.9974107624346349</v>
+        <v>0.0124030832565909</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>4.885353896915275e-005</v>
+        <v>0.009224157575278204</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3090,15 +3090,15 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.997459615973604</v>
+        <v>0.02162724083186911</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0004922933542276162</v>
+        <v>0.01802270069322426</v>
       </c>
       <c r="B131">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3111,15 +3111,15 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.9979519093278316</v>
+        <v>0.03964994152509337</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.0003457327373201579</v>
+        <v>0.03572901541816621</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3132,15 +3132,15 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.9982976420651518</v>
+        <v>0.07537895694325957</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.001702357934848169</v>
+        <v>0.07050698968167428</v>
       </c>
       <c r="B133">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3153,19 +3153,19 @@
         </is>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0.1458859466249338</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.02890730107128502</v>
+        <v>0.1351420064520139</v>
       </c>
       <c r="B134">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3174,19 +3174,19 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.02890730107128502</v>
+        <v>0.2810279530769477</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.04968635848591193</v>
+        <v>0.2088957188082042</v>
       </c>
       <c r="B135">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3195,19 +3195,19 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.07859365955719695</v>
+        <v>0.4899236718851519</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.05501575823806486</v>
+        <v>0.2305380256385629</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3216,19 +3216,19 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.1336094177952618</v>
+        <v>0.7204616975237148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.0713842779267721</v>
+        <v>0.1223472072346925</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.2049936957220339</v>
+        <v>0.8428089047584073</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.1277493383702041</v>
+        <v>0.0607555221592589</v>
       </c>
       <c r="B138">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.332743034092238</v>
+        <v>0.9035644269176661</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.2209976188206529</v>
+        <v>0.04756335723177343</v>
       </c>
       <c r="B139">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3279,19 +3279,19 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.5537406529128909</v>
+        <v>0.9511277841494397</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.1390203849786205</v>
+        <v>0.02651050759232161</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3300,19 +3300,19 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.6927610378915114</v>
+        <v>0.9776382917417612</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.0747196979449921</v>
+        <v>0.009457680551867525</v>
       </c>
       <c r="B141">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.7674807358365035</v>
+        <v>0.9870959722936288</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.06028815906238729</v>
+        <v>0.00322789017640401</v>
       </c>
       <c r="B142">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.8277688948988908</v>
+        <v>0.9903238624700328</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.06091023356784789</v>
+        <v>0.007049004043337344</v>
       </c>
       <c r="B143">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3363,19 +3363,19 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.8886791284667387</v>
+        <v>0.9973728665133701</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.03131992810273172</v>
+        <v>5.273099471371778e-005</v>
       </c>
       <c r="B144">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3384,19 +3384,19 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9199990565694705</v>
+        <v>0.9974255975080838</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.03244418281718184</v>
+        <v>0.0005122439486475441</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3405,19 +3405,19 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.9524432393866522</v>
+        <v>0.9979378414567314</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.01719205592184464</v>
+        <v>0.000346517965261574</v>
       </c>
       <c r="B146">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3426,19 +3426,19 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9696352953084969</v>
+        <v>0.9982843594219929</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.01730114007683063</v>
+        <v>0.001715640578007032</v>
       </c>
       <c r="B147">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3447,19 +3447,19 @@
         </is>
       </c>
       <c r="E147">
-        <v>0.9869364353853275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.008928194126555308</v>
+        <v>0</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3468,19 +3468,19 @@
         </is>
       </c>
       <c r="E148">
-        <v>0.9958646295118828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.001930101625157361</v>
+        <v>0</v>
       </c>
       <c r="B149">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3489,19 +3489,19 @@
         </is>
       </c>
       <c r="E149">
-        <v>0.9977947311370402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.00138074988968742</v>
+        <v>0</v>
       </c>
       <c r="B150">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3510,19 +3510,19 @@
         </is>
       </c>
       <c r="E150">
-        <v>0.9991754810267276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.0002505987344272541</v>
+        <v>0</v>
       </c>
       <c r="B151">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3531,19 +3531,19 @@
         </is>
       </c>
       <c r="E151">
-        <v>0.9994260797611548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.96548027001768e-006</v>
+        <v>0</v>
       </c>
       <c r="B152">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3552,15 +3552,15 @@
         </is>
       </c>
       <c r="E152">
-        <v>0.9994280452414248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.0005719547585751447</v>
+        <v>0.02706270189239923</v>
       </c>
       <c r="B153">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3573,19 +3573,19 @@
         </is>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0.02706270189239923</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.02808403327003528</v>
+        <v>0.04594026306538163</v>
       </c>
       <c r="B154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3594,19 +3594,19 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.02808403327003528</v>
+        <v>0.07300296495778086</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.04812079930870884</v>
+        <v>0.05097361607665997</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3615,19 +3615,19 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.07620483257874412</v>
+        <v>0.1239765810344408</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.05328241366605126</v>
+        <v>0.06520032811315039</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3636,19 +3636,19 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.1294872462447954</v>
+        <v>0.1891769091475912</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.06913438982415182</v>
+        <v>0.1139806271736944</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3657,19 +3657,19 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.1986216360689472</v>
+        <v>0.3031575363212856</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.1237225317550346</v>
+        <v>0.1962620748513652</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3678,19 +3678,19 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.3223441678239818</v>
+        <v>0.4994196111726508</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.2140313387966076</v>
+        <v>0.1274368039479706</v>
       </c>
       <c r="B159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3699,19 +3699,19 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.5363755066205894</v>
+        <v>0.6268564151206214</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.1346383145888933</v>
+        <v>0.07786385957464685</v>
       </c>
       <c r="B160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3720,19 +3720,19 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.6710138212094827</v>
+        <v>0.7047202746952682</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.0723641063802721</v>
+        <v>0.06421753636550567</v>
       </c>
       <c r="B161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3741,19 +3741,19 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.7433779275897549</v>
+        <v>0.768937811060774</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.05838800232803242</v>
+        <v>0.074555090507492</v>
       </c>
       <c r="B162">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3762,19 +3762,19 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.8017659299177873</v>
+        <v>0.843492901568266</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.05899044333462302</v>
+        <v>0.04283822297101594</v>
       </c>
       <c r="B163">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3783,19 +3783,19 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.8607563732524103</v>
+        <v>0.8863311245392819</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.03024464773349697</v>
+        <v>0.04514540674754523</v>
       </c>
       <c r="B164">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3804,19 +3804,19 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.8910010209859073</v>
+        <v>0.9314765312868271</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.04420493276586994</v>
+        <v>0.02471019251221028</v>
       </c>
       <c r="B165">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3825,19 +3825,19 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9352059537517772</v>
+        <v>0.9561867237990374</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.02342335454180539</v>
+        <v>0.02493903153556512</v>
       </c>
       <c r="B166">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3846,19 +3846,19 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.9586293082935825</v>
+        <v>0.9811257553346025</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.02357297610471137</v>
+        <v>0.01337105307959839</v>
       </c>
       <c r="B167">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3867,19 +3867,19 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9822022843982939</v>
+        <v>0.9944968084142009</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.0121648262775012</v>
+        <v>0.002735013254975314</v>
       </c>
       <c r="B168">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3888,19 +3888,19 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9943671106757951</v>
+        <v>0.9972318216691762</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.00262925292701302</v>
+        <v>0.001800863618575096</v>
       </c>
       <c r="B169">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3909,19 +3909,19 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9969963636028082</v>
+        <v>0.9990326852877512</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.001881145112483118</v>
+        <v>0.0003073297028630304</v>
       </c>
       <c r="B170">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3930,19 +3930,19 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9988775087152912</v>
+        <v>0.9993400149906143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.0003407680529620785</v>
+        <v>0</v>
       </c>
       <c r="B171">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3951,19 +3951,19 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9992182767682534</v>
+        <v>0.9993400149906143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.977377483338947e-006</v>
+        <v>2.211005056568564e-006</v>
       </c>
       <c r="B172">
         <v>25</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3972,27 +3972,1224 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9992202541457367</v>
+        <v>0.9993422259956709</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0007797458542633248</v>
+        <v>0.0006577740043291479</v>
       </c>
       <c r="B173">
         <v>26</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>27</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>28</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>29</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>30</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>31</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.02594882242399761</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-      <c r="E173">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>0.02594882242399761</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.04391102759093064</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>0.06985985001492825</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.0487224632208738</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>0.1185823132358021</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.06232034867723939</v>
+      </c>
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>0.1809026619130414</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.1089455382075555</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>0.2898482001205969</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.1875933016034704</v>
+      </c>
+      <c r="B184">
+        <v>11</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>0.4774415017240673</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.1218072557181077</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>0.599248757442175</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.07442467670079676</v>
+      </c>
+      <c r="B186">
+        <v>13</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>0.6736734341429718</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.06138074664699649</v>
+      </c>
+      <c r="B187">
+        <v>14</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>0.7350541807899682</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.07126120351018926</v>
+      </c>
+      <c r="B188">
+        <v>15</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>0.8063153843001575</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>0.04083463589689551</v>
+      </c>
+      <c r="B189">
+        <v>16</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>0.847150020197053</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.06070677977016339</v>
+      </c>
+      <c r="B190">
+        <v>17</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>0.9078567999672164</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.03322707927196942</v>
+      </c>
+      <c r="B191">
+        <v>18</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E191">
+        <v>0.9410838792391858</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.03353515750774221</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E192">
+        <v>0.974619036746928</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.01798049959898605</v>
+      </c>
+      <c r="B193">
+        <v>20</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E193">
+        <v>0.992599536345914</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>0.003677912619938297</v>
+      </c>
+      <c r="B194">
+        <v>21</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E194">
+        <v>0.9962774489658524</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.002421451026537171</v>
+      </c>
+      <c r="B195">
+        <v>22</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E195">
+        <v>0.9986988999923895</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.0004141859416802777</v>
+      </c>
+      <c r="B196">
+        <v>23</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E196">
+        <v>0.9991130859340698</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>24</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E197">
+        <v>0.9991130859340698</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>2.195331846361896e-006</v>
+      </c>
+      <c r="B198">
+        <v>25</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E198">
+        <v>0.9991152812659162</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.0008847187340838441</v>
+      </c>
+      <c r="B199">
+        <v>26</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>27</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>28</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>29</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>30</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>31</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.003360691342218971</v>
+      </c>
+      <c r="B205">
+        <v>6</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E205">
+        <v>0.003360691342218971</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.002674835966255916</v>
+      </c>
+      <c r="B206">
+        <v>7</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E206">
+        <v>0.006035527308474887</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.002972039962506573</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E207">
+        <v>0.009007567270981459</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.003795066413662239</v>
+      </c>
+      <c r="B208">
+        <v>9</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E208">
+        <v>0.0128026336846437</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.006652797146841636</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E209">
+        <v>0.01945543083148534</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.01145378477858302</v>
+      </c>
+      <c r="B210">
+        <v>11</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E210">
+        <v>0.03090921561006836</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.007430099906266432</v>
+      </c>
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E211">
+        <v>0.03833931551633479</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.0045495073272216</v>
+      </c>
+      <c r="B212">
+        <v>13</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E212">
+        <v>0.04288882284355639</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>0.003749342721931369</v>
+      </c>
+      <c r="B213">
+        <v>14</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E213">
+        <v>0.04663816556548776</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>0.002149013511350907</v>
+      </c>
+      <c r="B214">
+        <v>15</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E214">
+        <v>0.04878717907683866</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.2584074438170138</v>
+      </c>
+      <c r="B215">
+        <v>16</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E215">
+        <v>0.3071946228938525</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.2751651768363778</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E216">
+        <v>0.5823597997302302</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.1506138405614869</v>
+      </c>
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E217">
+        <v>0.7329736402917172</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.1520084131592785</v>
+      </c>
+      <c r="B218">
+        <v>19</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E218">
+        <v>0.8849820534509957</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.08150248051027641</v>
+      </c>
+      <c r="B219">
+        <v>20</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E219">
+        <v>0.9664845339612721</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.01666628563590224</v>
+      </c>
+      <c r="B220">
+        <v>21</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E220">
+        <v>0.9831508195971743</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>0.01097368601540888</v>
+      </c>
+      <c r="B221">
+        <v>22</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E221">
+        <v>0.9941245056125831</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>0.001874671360965684</v>
+      </c>
+      <c r="B222">
+        <v>23</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E222">
+        <v>0.9959991769735489</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>24</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E223">
+        <v>0.9959991769735489</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>25</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E224">
+        <v>0.9959991769735489</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.004000823026451156</v>
+      </c>
+      <c r="B225">
+        <v>26</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>27</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>28</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>29</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>30</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>31</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E230">
         <v>1</v>
       </c>
     </row>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.01640587016044423</v>
+        <v>0.02249809641199954</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -444,12 +444,12 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.01640587016044423</v>
+        <v>0.02249809641199954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.01626193096036234</v>
+        <v>0.02013806797386721</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.03266780112080657</v>
+        <v>0.04263616438586675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.03348665523682796</v>
+        <v>0.03813486237374269</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -486,12 +486,12 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.06615445635763453</v>
+        <v>0.08077102675960944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.07667481255917501</v>
+        <v>0.08019889865339554</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.1428292689168095</v>
+        <v>0.160969925413005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0565425164410553</v>
+        <v>0.05876512879192626</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -528,12 +528,12 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.1993717853578648</v>
+        <v>0.2197350542049312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06444637784999616</v>
+        <v>0.06417931167940634</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.263818163207861</v>
+        <v>0.2839143658843376</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.2473195322295862</v>
+        <v>0.2349343104383932</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -570,12 +570,12 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.5111376954374473</v>
+        <v>0.5188486763227307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.2711430691675836</v>
+        <v>0.2592497549524839</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -591,12 +591,12 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.7822807646050308</v>
+        <v>0.7780984312752146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.06165075871951688</v>
+        <v>0.05701929670311179</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -612,12 +612,12 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.8439315233245477</v>
+        <v>0.8351177279783264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.03453581207298037</v>
+        <v>0.03359149211851466</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.8784673353975281</v>
+        <v>0.8687092200968412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.06640075232221909</v>
+        <v>0.06904240058222448</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -654,12 +654,12 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.9448680877197472</v>
+        <v>0.9377516206790656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02232337060825507</v>
+        <v>0.02467302458047445</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -675,12 +675,12 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.9671914583280022</v>
+        <v>0.9624246452595401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01748061618772231</v>
+        <v>0.01996979500145136</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -696,12 +696,12 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.9846720745157246</v>
+        <v>0.9823944402609914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01262826582051741</v>
+        <v>0.01436209819569305</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -717,12 +717,12 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.9973003403362419</v>
+        <v>0.9967565384566844</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.002440569103610635</v>
+        <v>0.002906915598483861</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.9997409094398526</v>
+        <v>0.9996634540551683</v>
       </c>
     </row>
     <row r="19">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.9997409094398526</v>
+        <v>0.9996634540551683</v>
       </c>
     </row>
     <row r="20">
@@ -780,12 +780,12 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.9997409094398526</v>
+        <v>0.9996634540551683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.0002590905601473938</v>
+        <v>0.000336545944831706</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.001724331088166133</v>
+        <v>0.002580450579893307</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -927,12 +927,12 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.001724331088166133</v>
+        <v>0.002580450579893307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.00509889859759542</v>
+        <v>0.00734329944020068</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.006823229685761554</v>
+        <v>0.009923750020093988</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.00442789729412204</v>
+        <v>0.005962364155084238</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.0112511269798836</v>
+        <v>0.01588611417517823</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.01536012082765521</v>
+        <v>0.01867707318268074</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -990,12 +990,12 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.0266112478075388</v>
+        <v>0.03456318735785897</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.04680174815993304</v>
+        <v>0.05233698801479836</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -1011,12 +1011,12 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.07341299596747185</v>
+        <v>0.08690017537265733</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.07087599457271383</v>
+        <v>0.07278998684130957</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -1032,12 +1032,12 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.1442889905401857</v>
+        <v>0.1596901622139669</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.07755874077002735</v>
+        <v>0.07914963781068174</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -1053,12 +1053,12 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.221847731310213</v>
+        <v>0.2388398000246486</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1377123479058773</v>
+        <v>0.1346587964582531</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -1074,12 +1074,12 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.3595600792160903</v>
+        <v>0.3734985964829017</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1597036450426815</v>
+        <v>0.1489603562874274</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1095,12 +1095,12 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.5192637242587718</v>
+        <v>0.5224589527703292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.176597821853896</v>
+        <v>0.165797203070208</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -1116,12 +1116,12 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.6958615461126678</v>
+        <v>0.6882561558405372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.07919178722856901</v>
+        <v>0.07191733372322046</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -1137,12 +1137,12 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.7750533333412368</v>
+        <v>0.7601734895637576</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.03783451519266688</v>
+        <v>0.03613319748522805</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -1158,12 +1158,12 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.8128878485339037</v>
+        <v>0.7963066870489857</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.06993528868171361</v>
+        <v>0.07140369315985398</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1179,12 +1179,12 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.8828231372156173</v>
+        <v>0.8677103802088397</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0576017868077113</v>
+        <v>0.06251717557397993</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.9404249240233286</v>
+        <v>0.9302275557828196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.01567665324466474</v>
+        <v>0.01758396032949545</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -1221,12 +1221,12 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.9561015772679933</v>
+        <v>0.9478115161123151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01104899672857227</v>
+        <v>0.01233885579866515</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1242,12 +1242,12 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.9671505739965656</v>
+        <v>0.9601503719109802</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01446031519278543</v>
+        <v>0.01689961656846768</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -1263,12 +1263,12 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.981610889189351</v>
+        <v>0.9770499884794479</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.002419042685048467</v>
+        <v>0.002799379344606889</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -1284,12 +1284,12 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.9840299318743995</v>
+        <v>0.9798493678240547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.003281504607799145</v>
+        <v>0.003962151350201055</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.9873114364821987</v>
+        <v>0.9838115191742558</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.008935816828499298</v>
+        <v>0.01137204800204538</v>
       </c>
       <c r="B46">
         <v>27</v>
@@ -1326,12 +1326,12 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.996247253310698</v>
+        <v>0.9951835671763012</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0004682782948268289</v>
+        <v>0.0005986094196014731</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -1347,12 +1347,12 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.9967155316055247</v>
+        <v>0.9957821765959026</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.003270834975765117</v>
+        <v>0.004199451759505987</v>
       </c>
       <c r="B48">
         <v>29</v>
@@ -1368,12 +1368,12 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.9999863665812899</v>
+        <v>0.9999816283554087</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.363341871014818e-005</v>
+        <v>1.837164459134956e-005</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.00439909802890769</v>
+        <v>0.006686900242741537</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1452,12 +1452,12 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.00439909802890769</v>
+        <v>0.006686900242741537</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.005575310764296484</v>
+        <v>0.008153783361617376</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -1473,12 +1473,12 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.009974408793204173</v>
+        <v>0.01484068360435891</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01210297945293628</v>
+        <v>0.01655102431200215</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -1494,12 +1494,12 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.02207738824614046</v>
+        <v>0.03139170791636106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.008997091447420249</v>
+        <v>0.01111005408236436</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -1515,12 +1515,12 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.0310744796935607</v>
+        <v>0.04250176199872543</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.03088026419547595</v>
+        <v>0.03506914502400308</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -1536,12 +1536,12 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.06195474388903665</v>
+        <v>0.07757090702272851</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.08798118059623378</v>
+        <v>0.09176202941335927</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -1557,12 +1557,12 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.1499359244852704</v>
+        <v>0.1693329364360878</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.09289350672851403</v>
+        <v>0.09627315532287284</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -1578,12 +1578,12 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.2428294312137845</v>
+        <v>0.2656060917589606</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.1013999895482423</v>
+        <v>0.10069324036936</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -1599,12 +1599,12 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.3442294207620267</v>
+        <v>0.3662993321283206</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1566039899195137</v>
+        <v>0.1483413684566937</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -1620,12 +1620,12 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.5008334106815404</v>
+        <v>0.5146407005850143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.17197743356309</v>
+        <v>0.1639697089658883</v>
       </c>
       <c r="B61">
         <v>17</v>
@@ -1641,12 +1641,12 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.6728108442446303</v>
+        <v>0.6786104095509026</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.148977326705567</v>
+        <v>0.1373960062726132</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.8217881709501973</v>
+        <v>0.8160064158235157</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.08835245199016287</v>
+        <v>0.08569093365985292</v>
       </c>
       <c r="B63">
         <v>19</v>
@@ -1683,12 +1683,12 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.9101406229403602</v>
+        <v>0.9016973494833687</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.03431842449892011</v>
+        <v>0.03558470227080463</v>
       </c>
       <c r="B64">
         <v>20</v>
@@ -1704,12 +1704,12 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.9444590474392803</v>
+        <v>0.9372820517541733</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.02650768555184891</v>
+        <v>0.02921695651417833</v>
       </c>
       <c r="B65">
         <v>21</v>
@@ -1725,12 +1725,12 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.9709667329911292</v>
+        <v>0.9664990082683517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.01428770881090976</v>
+        <v>0.01627483292978704</v>
       </c>
       <c r="B66">
         <v>22</v>
@@ -1746,12 +1746,12 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.985254441802039</v>
+        <v>0.9827738411981387</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.007733520736989317</v>
+        <v>0.008770610781897803</v>
       </c>
       <c r="B67">
         <v>23</v>
@@ -1767,12 +1767,12 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.9929879625390283</v>
+        <v>0.9915444519800365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.004826528121078154</v>
+        <v>0.005728413853350559</v>
       </c>
       <c r="B68">
         <v>24</v>
@@ -1788,12 +1788,12 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.9978144906601064</v>
+        <v>0.997272865833387</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.0007955815584194759</v>
+        <v>0.0009349589753504306</v>
       </c>
       <c r="B69">
         <v>25</v>
@@ -1809,12 +1809,12 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.9986100722185259</v>
+        <v>0.9982078248087375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.000191095570404678</v>
+        <v>0.0002342512093602282</v>
       </c>
       <c r="B70">
         <v>26</v>
@@ -1830,12 +1830,12 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.9988011677889306</v>
+        <v>0.9984420760180977</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.0004375698571307117</v>
+        <v>0.0005656808680183677</v>
       </c>
       <c r="B71">
         <v>27</v>
@@ -1851,12 +1851,12 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.9992387376460613</v>
+        <v>0.9990077568861161</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.0007097835472173755</v>
+        <v>0.0009216608717622954</v>
       </c>
       <c r="B72">
         <v>28</v>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.9999485211932787</v>
+        <v>0.9999294177578784</v>
       </c>
     </row>
     <row r="73">
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9999485211932787</v>
+        <v>0.9999294177578784</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>5.14788067212602e-005</v>
+        <v>7.058224212164082e-005</v>
       </c>
       <c r="B74">
         <v>30</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0003659398832534713</v>
+        <v>0.0005557041472667925</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -1956,12 +1956,12 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.0003659398832534713</v>
+        <v>0.0005557041472667925</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.001638026314691199</v>
+        <v>0.002407964746544377</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.00200396619794467</v>
+        <v>0.002963668893811169</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.002371127577331393</v>
+        <v>0.003505350599978707</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1998,12 +1998,12 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.004375093775276063</v>
+        <v>0.006469019493789877</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.003775644547882547</v>
+        <v>0.005370724778432447</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2019,12 +2019,12 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.00815073832315861</v>
+        <v>0.01183974427222232</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.01247066118974945</v>
+        <v>0.01658621074690273</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2040,12 +2040,12 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.02062139951290806</v>
+        <v>0.02842595501912505</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.04302089023045357</v>
+        <v>0.05166841081597624</v>
       </c>
       <c r="B81">
         <v>11</v>
@@ -2061,12 +2061,12 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.06364228974336163</v>
+        <v>0.08009436583510128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.07554139253409349</v>
+        <v>0.08343754950051545</v>
       </c>
       <c r="B82">
         <v>12</v>
@@ -2082,12 +2082,12 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.1391836822774551</v>
+        <v>0.1635319153356167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.1187490698815902</v>
+        <v>0.1204565343277148</v>
       </c>
       <c r="B83">
         <v>13</v>
@@ -2103,12 +2103,12 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.2579327521590453</v>
+        <v>0.2839884496633316</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.1457403681467196</v>
+        <v>0.1469023388912404</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.4036731203057649</v>
+        <v>0.430890788554572</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.170801804312655</v>
+        <v>0.1649616849780705</v>
       </c>
       <c r="B85">
         <v>15</v>
@@ -2145,12 +2145,12 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.5744749246184199</v>
+        <v>0.5958524735326424</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1532973575577732</v>
+        <v>0.1412277945556574</v>
       </c>
       <c r="B86">
         <v>16</v>
@@ -2166,12 +2166,12 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.7277722821761931</v>
+        <v>0.7370802680882999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1027817742190619</v>
+        <v>0.09530949345229903</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -2187,12 +2187,12 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.8305540563952549</v>
+        <v>0.8323897615405989</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.05979091243521745</v>
+        <v>0.05363103322020166</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -2208,12 +2208,12 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.8903449688304724</v>
+        <v>0.8860207947608005</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.03742786301898063</v>
+        <v>0.03530539058990332</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -2229,12 +2229,12 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.927772831849453</v>
+        <v>0.9213261853507038</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.01825332567590979</v>
+        <v>0.01840757004079492</v>
       </c>
       <c r="B90">
         <v>20</v>
@@ -2250,12 +2250,12 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.9460261575253629</v>
+        <v>0.9397337553914987</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.01798378219583881</v>
+        <v>0.01927851943795979</v>
       </c>
       <c r="B91">
         <v>21</v>
@@ -2271,12 +2271,12 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.9640099397212016</v>
+        <v>0.9590122748294585</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.01247666687907127</v>
+        <v>0.01382262131359112</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -2292,12 +2292,12 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.976486606600273</v>
+        <v>0.9728348961430496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.008478302869559074</v>
+        <v>0.009352059351280327</v>
       </c>
       <c r="B93">
         <v>23</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.984964909469832</v>
+        <v>0.98218695549433</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.004617662549071063</v>
+        <v>0.005330345341563294</v>
       </c>
       <c r="B94">
         <v>24</v>
@@ -2334,12 +2334,12 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.9895825720189031</v>
+        <v>0.9875173008358933</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.004189426363021729</v>
+        <v>0.004788663635395757</v>
       </c>
       <c r="B95">
         <v>25</v>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.9937719983819248</v>
+        <v>0.9923059644712891</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.002934339086105095</v>
+        <v>0.003499767591022522</v>
       </c>
       <c r="B96">
         <v>26</v>
@@ -2376,12 +2376,12 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.9967063374680298</v>
+        <v>0.9958057320623115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.00149429693634519</v>
+        <v>0.00187835792021231</v>
       </c>
       <c r="B97">
         <v>27</v>
@@ -2397,12 +2397,12 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.9982006344043751</v>
+        <v>0.9976840899825239</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.0007828772300702217</v>
+        <v>0.0009889716097502706</v>
       </c>
       <c r="B98">
         <v>28</v>
@@ -2418,12 +2418,12 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.9989835116344453</v>
+        <v>0.9986730615922741</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0002546819437830835</v>
+        <v>0.0003230354949532196</v>
       </c>
       <c r="B99">
         <v>29</v>
@@ -2439,12 +2439,12 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.9992381935782284</v>
+        <v>0.9989960970872274</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0005571040281074403</v>
+        <v>0.0007341007590295432</v>
       </c>
       <c r="B100">
         <v>30</v>
@@ -2460,12 +2460,12 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.9997952976063358</v>
+        <v>0.9997301978462568</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.000204702393664181</v>
+        <v>0.0002698021537430829</v>
       </c>
       <c r="B101">
         <v>31</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0007515861709512184</v>
+        <v>0.001143745616989356</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -2502,12 +2502,12 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.0007515861709512184</v>
+        <v>0.001143745616989356</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0004878369341794188</v>
+        <v>0.0007186760766439802</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -2523,12 +2523,12 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.001239423105130637</v>
+        <v>0.001862421693633336</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.0009778620912203097</v>
+        <v>0.001448627902970164</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2544,12 +2544,12 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.002217285196350947</v>
+        <v>0.0033110495966035</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.003614533875365254</v>
+        <v>0.005152405742380937</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -2565,12 +2565,12 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.005831819071716201</v>
+        <v>0.008463455338984436</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.02012727387981966</v>
+        <v>0.02682675667220635</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.02595909295153586</v>
+        <v>0.03529021201119079</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.04578528104200984</v>
+        <v>0.05510572501278574</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -2607,12 +2607,12 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.0717443739935457</v>
+        <v>0.09039593702397653</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.08841083665401851</v>
+        <v>0.09786057072250722</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -2628,12 +2628,12 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.1601552106475642</v>
+        <v>0.1882565077464838</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1029185490796848</v>
+        <v>0.1046210382238299</v>
       </c>
       <c r="B109">
         <v>13</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.263073759727249</v>
+        <v>0.2928775459703137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.1326320854057912</v>
+        <v>0.133974611731797</v>
       </c>
       <c r="B110">
         <v>14</v>
@@ -2670,12 +2670,12 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.3957058451330402</v>
+        <v>0.4268521577021106</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.143493397960672</v>
+        <v>0.1388825347465723</v>
       </c>
       <c r="B111">
         <v>15</v>
@@ -2691,12 +2691,12 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.5391992430937123</v>
+        <v>0.5657346924486829</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.1580342756390825</v>
+        <v>0.1459021696727611</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -2712,12 +2712,12 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.6972335187327947</v>
+        <v>0.7116368621214441</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.1417840539960403</v>
+        <v>0.1317567854008936</v>
       </c>
       <c r="B113">
         <v>17</v>
@@ -2733,12 +2733,12 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.8390175727288349</v>
+        <v>0.8433936475223376</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.06361129667316956</v>
+        <v>0.05717950145627618</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -2754,12 +2754,12 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.9026288694020045</v>
+        <v>0.9005731489786137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.0387671032695537</v>
+        <v>0.03664662351172123</v>
       </c>
       <c r="B115">
         <v>19</v>
@@ -2775,12 +2775,12 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.9413959726715582</v>
+        <v>0.937219772490335</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.02365824499466245</v>
+        <v>0.02390904718079598</v>
       </c>
       <c r="B116">
         <v>20</v>
@@ -2796,12 +2796,12 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.9650542176662207</v>
+        <v>0.961128819671131</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.01352896136890846</v>
+        <v>0.01453391688688614</v>
       </c>
       <c r="B117">
         <v>21</v>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.9785831790351292</v>
+        <v>0.9756627365580172</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.008385885442840576</v>
+        <v>0.009310360289921377</v>
       </c>
       <c r="B118">
         <v>22</v>
@@ -2838,12 +2838,12 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.9869690644779697</v>
+        <v>0.9849730968479384</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.002721602183955827</v>
+        <v>0.003008439942341585</v>
       </c>
       <c r="B119">
         <v>23</v>
@@ -2859,12 +2859,12 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.9896906666619255</v>
+        <v>0.9879815367902801</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.004768821434791746</v>
+        <v>0.005516551270877509</v>
       </c>
       <c r="B120">
         <v>24</v>
@@ -2880,12 +2880,12 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.9944594880967173</v>
+        <v>0.9934980880611576</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.003990908207538442</v>
+        <v>0.004571486111466817</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -2901,12 +2901,12 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.9984503963042557</v>
+        <v>0.9980695741726244</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.000817438002688642</v>
+        <v>0.0009769694123874686</v>
       </c>
       <c r="B122">
         <v>26</v>
@@ -2922,12 +2922,12 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.9992678343069443</v>
+        <v>0.9990465435850119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>4.424313098038744e-005</v>
+        <v>5.576688602515926e-005</v>
       </c>
       <c r="B123">
         <v>27</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.9993120774379247</v>
+        <v>0.999102310471037</v>
       </c>
     </row>
     <row r="124">
@@ -2964,12 +2964,12 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.9993120774379247</v>
+        <v>0.999102310471037</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0002181384665029922</v>
+        <v>0.0002772610697050238</v>
       </c>
       <c r="B125">
         <v>29</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.9995302159044277</v>
+        <v>0.9993795715407421</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.0002348920477861373</v>
+        <v>0.0003102142296289815</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -3006,12 +3006,12 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.9997651079522139</v>
+        <v>0.999689785770371</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.0002348920477861373</v>
+        <v>0.0003102142296289815</v>
       </c>
       <c r="B127">
         <v>31</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.006163876632071368</v>
+        <v>0.008997061405182612</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.006163876632071368</v>
+        <v>0.008997061405182612</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.006239206624519536</v>
+        <v>0.009156871350608709</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3069,12 +3069,12 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.0124030832565909</v>
+        <v>0.01815393275579132</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.009224157575278204</v>
+        <v>0.01302808838682594</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -3090,12 +3090,12 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.02162724083186911</v>
+        <v>0.03118202114261726</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.01802270069322426</v>
+        <v>0.0238021409762241</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -3111,12 +3111,12 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.03964994152509337</v>
+        <v>0.05498416211884136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03572901541816621</v>
+        <v>0.04260723962905011</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -3132,12 +3132,12 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.07537895694325957</v>
+        <v>0.09759140174789147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.07050698968167428</v>
+        <v>0.0773289318017021</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -3153,12 +3153,12 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.1458859466249338</v>
+        <v>0.1749203335495936</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.1351420064520139</v>
+        <v>0.136119909933977</v>
       </c>
       <c r="B134">
         <v>13</v>
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.2810279530769477</v>
+        <v>0.3110402434835706</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.2088957188082042</v>
+        <v>0.2090791130786551</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -3195,12 +3195,12 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.4899236718851519</v>
+        <v>0.5201193565622257</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.2305380256385629</v>
+        <v>0.2210887112162729</v>
       </c>
       <c r="B136">
         <v>15</v>
@@ -3216,12 +3216,12 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.7204616975237148</v>
+        <v>0.7412080677784987</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.1223472072346925</v>
+        <v>0.1119218219287868</v>
       </c>
       <c r="B137">
         <v>16</v>
@@ -3237,12 +3237,12 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.8428089047584073</v>
+        <v>0.8531298897072854</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.0607555221592589</v>
+        <v>0.05594302179139793</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -3258,12 +3258,12 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.9035644269176661</v>
+        <v>0.9090729114986833</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04756335723177343</v>
+        <v>0.04236394687631187</v>
       </c>
       <c r="B139">
         <v>18</v>
@@ -3279,12 +3279,12 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9511277841494397</v>
+        <v>0.9514368583749953</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.02651050759232161</v>
+        <v>0.02483017211769645</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -3300,12 +3300,12 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.9776382917417612</v>
+        <v>0.9762670304926917</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.009457680551867525</v>
+        <v>0.009469335572262719</v>
       </c>
       <c r="B141">
         <v>20</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.9870959722936288</v>
+        <v>0.9857363660649544</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.00322789017640401</v>
+        <v>0.0034371064381941</v>
       </c>
       <c r="B142">
         <v>21</v>
@@ -3342,12 +3342,12 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.9903238624700328</v>
+        <v>0.9891734725031485</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.007049004043337344</v>
+        <v>0.00775436018776476</v>
       </c>
       <c r="B143">
         <v>22</v>
@@ -3363,12 +3363,12 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.9973728665133701</v>
+        <v>0.9969278326909132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>5.273099471371778e-005</v>
+        <v>5.963057665152845e-005</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -3384,12 +3384,12 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9974255975080838</v>
+        <v>0.9969874632675647</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0005122439486475441</v>
+        <v>0.00058676487425104</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -3405,12 +3405,12 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.9979378414567314</v>
+        <v>0.9975742281418158</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.000346517965261574</v>
+        <v>0.0003935618059000878</v>
       </c>
       <c r="B146">
         <v>25</v>
@@ -3426,12 +3426,12 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9982843594219929</v>
+        <v>0.9979677899477158</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.001715640578007032</v>
+        <v>0.00203221005228409</v>
       </c>
       <c r="B147">
         <v>26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.02706270189239923</v>
+        <v>0.03521394784058575</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -3573,12 +3573,12 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.02706270189239923</v>
+        <v>0.03521394784058575</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.04594026306538163</v>
+        <v>0.05786589823054292</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -3594,12 +3594,12 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.07300296495778086</v>
+        <v>0.09307984607112867</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.05097361607665997</v>
+        <v>0.06456917435404849</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3615,12 +3615,12 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.1239765810344408</v>
+        <v>0.1576490204251771</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.06520032811315039</v>
+        <v>0.07946789423129202</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.1891769091475912</v>
+        <v>0.2371169146564692</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.1139806271736944</v>
+        <v>0.1298947025028545</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.3031575363212856</v>
+        <v>0.3670116171593236</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.1962620748513652</v>
+        <v>0.201969419625327</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -3678,12 +3678,12 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.4994196111726508</v>
+        <v>0.5689810367846506</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.1274368039479706</v>
+        <v>0.1206070162084443</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -3699,12 +3699,12 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.6268564151206214</v>
+        <v>0.6895880529930949</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.07786385957464685</v>
+        <v>0.06767674937020861</v>
       </c>
       <c r="B160">
         <v>13</v>
@@ -3720,12 +3720,12 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.7047202746952682</v>
+        <v>0.7572648023633035</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.06421753636550567</v>
+        <v>0.05546272299448442</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -3741,12 +3741,12 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.768937811060774</v>
+        <v>0.8127275253577879</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.074555090507492</v>
+        <v>0.06169720475318823</v>
       </c>
       <c r="B162">
         <v>15</v>
@@ -3762,12 +3762,12 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.843492901568266</v>
+        <v>0.8744247301109762</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.04283822297101594</v>
+        <v>0.03381602237647329</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3783,12 +3783,12 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.8863311245392819</v>
+        <v>0.9082407524874495</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.04514540674754523</v>
+        <v>0.03587001830472842</v>
       </c>
       <c r="B164">
         <v>17</v>
@@ -3804,12 +3804,12 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9314765312868271</v>
+        <v>0.9441107707921779</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.02471019251221028</v>
+        <v>0.01899100470606714</v>
       </c>
       <c r="B165">
         <v>18</v>
@@ -3825,12 +3825,12 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9561867237990374</v>
+        <v>0.9631017754982451</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.02493903153556512</v>
+        <v>0.02015694945357667</v>
       </c>
       <c r="B166">
         <v>19</v>
@@ -3846,12 +3846,12 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.9811257553346025</v>
+        <v>0.9832587249518218</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.01337105307959839</v>
+        <v>0.0115543312128846</v>
       </c>
       <c r="B167">
         <v>20</v>
@@ -3867,12 +3867,12 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9944968084142009</v>
+        <v>0.9948130561647063</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.002735013254975314</v>
+        <v>0.002511916196966127</v>
       </c>
       <c r="B168">
         <v>21</v>
@@ -3888,12 +3888,12 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9972318216691762</v>
+        <v>0.9973249723616725</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001800863618575096</v>
+        <v>0.001709649552047653</v>
       </c>
       <c r="B169">
         <v>22</v>
@@ -3909,12 +3909,12 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9990326852877512</v>
+        <v>0.9990346219137201</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0003073297028630304</v>
+        <v>0.0002911841286526391</v>
       </c>
       <c r="B170">
         <v>23</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9993400149906143</v>
+        <v>0.9993258060423728</v>
       </c>
     </row>
     <row r="171">
@@ -3951,12 +3951,12 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9993400149906143</v>
+        <v>0.9993258060423728</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.211005056568564e-006</v>
+        <v>1.208232898973606e-006</v>
       </c>
       <c r="B172">
         <v>25</v>
@@ -3972,12 +3972,12 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9993422259956709</v>
+        <v>0.9993270142752717</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0006577740043291479</v>
+        <v>0.0006729857247282986</v>
       </c>
       <c r="B173">
         <v>26</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.02594882242399761</v>
+        <v>0.03405347503863664</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -4119,12 +4119,12 @@
         </is>
       </c>
       <c r="E179">
-        <v>0.02594882242399761</v>
+        <v>0.03405347503863664</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.04391102759093064</v>
+        <v>0.05578275079935084</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -4140,12 +4140,12 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.06985985001492825</v>
+        <v>0.08983622583798748</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.0487224632208738</v>
+        <v>0.06224450617702193</v>
       </c>
       <c r="B181">
         <v>8</v>
@@ -4161,12 +4161,12 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.1185823132358021</v>
+        <v>0.1520807320150094</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.06232034867723939</v>
+        <v>0.0766062031561049</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -4182,12 +4182,12 @@
         </is>
       </c>
       <c r="E182">
-        <v>0.1809026619130414</v>
+        <v>0.2286869351711143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1089455382075555</v>
+        <v>0.1252173814847438</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -4203,12 +4203,12 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.2898482001205969</v>
+        <v>0.3539043166558581</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.1875933016034704</v>
+        <v>0.1946971823487848</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -4224,12 +4224,12 @@
         </is>
       </c>
       <c r="E184">
-        <v>0.4774415017240673</v>
+        <v>0.5486014990046428</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.1218072557181077</v>
+        <v>0.1162640067884326</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -4245,12 +4245,12 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.599248757442175</v>
+        <v>0.6648655057930754</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.07442467670079676</v>
+        <v>0.06523945034345469</v>
       </c>
       <c r="B186">
         <v>13</v>
@@ -4266,12 +4266,12 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.6736734341429718</v>
+        <v>0.73010495613653</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.06138074664699649</v>
+        <v>0.05346616592297194</v>
       </c>
       <c r="B187">
         <v>14</v>
@@ -4287,12 +4287,12 @@
         </is>
       </c>
       <c r="E187">
-        <v>0.7350541807899682</v>
+        <v>0.783571122059502</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.07126120351018926</v>
+        <v>0.05947621951416247</v>
       </c>
       <c r="B188">
         <v>15</v>
@@ -4308,12 +4308,12 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.8063153843001575</v>
+        <v>0.8430473415736645</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.04083463589689551</v>
+        <v>0.0325096228612727</v>
       </c>
       <c r="B189">
         <v>16</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.847150020197053</v>
+        <v>0.8755569644349371</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.06070677977016339</v>
+        <v>0.04864666918329091</v>
       </c>
       <c r="B190">
         <v>17</v>
@@ -4350,12 +4350,12 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.9078567999672164</v>
+        <v>0.9242036336182281</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.03322707927196942</v>
+        <v>0.02575587454305525</v>
       </c>
       <c r="B191">
         <v>18</v>
@@ -4371,12 +4371,12 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9410838792391858</v>
+        <v>0.9499595081612833</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.03353515750774221</v>
+        <v>0.02733683079573723</v>
       </c>
       <c r="B192">
         <v>19</v>
@@ -4392,12 +4392,12 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.974619036746928</v>
+        <v>0.9772963389570205</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.01798049959898605</v>
+        <v>0.01566921232887762</v>
       </c>
       <c r="B193">
         <v>20</v>
@@ -4413,12 +4413,12 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.992599536345914</v>
+        <v>0.9929655512858981</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.003677912619938297</v>
+        <v>0.003407122046596266</v>
       </c>
       <c r="B194">
         <v>21</v>
@@ -4434,12 +4434,12 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.9962774489658524</v>
+        <v>0.9963726733324945</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.002421451026537171</v>
+        <v>0.002318198097044903</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -4455,12 +4455,12 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.9986988999923895</v>
+        <v>0.9986908714295394</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0004141859416802777</v>
+        <v>0.0003944324528374939</v>
       </c>
       <c r="B196">
         <v>23</v>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.9991130859340698</v>
+        <v>0.9990853038823768</v>
       </c>
     </row>
     <row r="197">
@@ -4497,12 +4497,12 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.9991130859340698</v>
+        <v>0.9990853038823768</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2.195331846361896e-006</v>
+        <v>2.419830999003029e-006</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -4518,12 +4518,12 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.9991152812659162</v>
+        <v>0.9990877237133758</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.0008847187340838441</v>
+        <v>0.0009122762866241421</v>
       </c>
       <c r="B199">
         <v>26</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.003360691342218971</v>
+        <v>0.005366781157998038</v>
       </c>
       <c r="B205">
         <v>6</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="E205">
-        <v>0.003360691342218971</v>
+        <v>0.005366781157998038</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.002674835966255916</v>
+        <v>0.0041400883218842</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -4686,12 +4686,12 @@
         </is>
       </c>
       <c r="E206">
-        <v>0.006035527308474887</v>
+        <v>0.009506869479882238</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.002972039962506573</v>
+        <v>0.004630765456329735</v>
       </c>
       <c r="B207">
         <v>8</v>
@@ -4707,12 +4707,12 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.009007567270981459</v>
+        <v>0.01413763493621197</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.003795066413662239</v>
+        <v>0.005704121687929342</v>
       </c>
       <c r="B208">
         <v>9</v>
@@ -4728,12 +4728,12 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.0128026336846437</v>
+        <v>0.01984175662414131</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.006652797146841636</v>
+        <v>0.009292198233562317</v>
       </c>
       <c r="B209">
         <v>10</v>
@@ -4749,12 +4749,12 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.01945543083148534</v>
+        <v>0.02913395485770363</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.01145378477858302</v>
+        <v>0.01444430814524043</v>
       </c>
       <c r="B210">
         <v>11</v>
@@ -4770,12 +4770,12 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.03090921561006836</v>
+        <v>0.04357826300294406</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.007430099906266432</v>
+        <v>0.008648184494602551</v>
       </c>
       <c r="B211">
         <v>12</v>
@@ -4791,12 +4791,12 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.03833931551633479</v>
+        <v>0.05222644749754662</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.0045495073272216</v>
+        <v>0.004845436702649656</v>
       </c>
       <c r="B212">
         <v>13</v>
@@ -4812,12 +4812,12 @@
         </is>
       </c>
       <c r="E212">
-        <v>0.04288882284355639</v>
+        <v>0.05707188420019627</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.003749342721931369</v>
+        <v>0.003956084396467124</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -4833,12 +4833,12 @@
         </is>
       </c>
       <c r="E213">
-        <v>0.04663816556548776</v>
+        <v>0.06102796859666339</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.002149013511350907</v>
+        <v>0.002177379784102061</v>
       </c>
       <c r="B214">
         <v>15</v>
@@ -4854,12 +4854,12 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.04878717907683866</v>
+        <v>0.06320534838076546</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.2584074438170138</v>
+        <v>0.2503680078508341</v>
       </c>
       <c r="B215">
         <v>16</v>
@@ -4875,12 +4875,12 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.3071946228938525</v>
+        <v>0.3135733562315996</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.2751651768363778</v>
+        <v>0.2683390578999019</v>
       </c>
       <c r="B216">
         <v>17</v>
@@ -4896,12 +4896,12 @@
         </is>
       </c>
       <c r="E216">
-        <v>0.5823597997302302</v>
+        <v>0.5819124141315014</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.1506138405614869</v>
+        <v>0.1420816977428852</v>
       </c>
       <c r="B217">
         <v>18</v>
@@ -4917,12 +4917,12 @@
         </is>
       </c>
       <c r="E217">
-        <v>0.7329736402917172</v>
+        <v>0.7239941118743867</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.1520084131592785</v>
+        <v>0.1507912168792934</v>
       </c>
       <c r="B218">
         <v>19</v>
@@ -4938,12 +4938,12 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.8849820534509957</v>
+        <v>0.8747853287536801</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.08150248051027641</v>
+        <v>0.08642051030421982</v>
       </c>
       <c r="B219">
         <v>20</v>
@@ -4959,12 +4959,12 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.9664845339612721</v>
+        <v>0.9612058390578999</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.01666628563590224</v>
+        <v>0.01879906771344455</v>
       </c>
       <c r="B220">
         <v>21</v>
@@ -4980,12 +4980,12 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.9831508195971743</v>
+        <v>0.9800049067713444</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.01097368601540888</v>
+        <v>0.01278827281648675</v>
       </c>
       <c r="B221">
         <v>22</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.9941245056125831</v>
+        <v>0.9927931795878312</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.001874671360965684</v>
+        <v>0.002177379784102061</v>
       </c>
       <c r="B222">
         <v>23</v>
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.9959991769735489</v>
+        <v>0.9949705593719332</v>
       </c>
     </row>
     <row r="223">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="E223">
-        <v>0.9959991769735489</v>
+        <v>0.9949705593719332</v>
       </c>
     </row>
     <row r="224">
@@ -5064,12 +5064,12 @@
         </is>
       </c>
       <c r="E224">
-        <v>0.9959991769735489</v>
+        <v>0.9949705593719332</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.004000823026451156</v>
+        <v>0.005029440628066732</v>
       </c>
       <c r="B225">
         <v>26</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.02249809641199954</v>
+        <v>0.01594778589195606</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -444,12 +444,12 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.02249809641199954</v>
+        <v>0.01594778589195606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.02013806797386721</v>
+        <v>0.0146852178873588</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.04263616438586675</v>
+        <v>0.03063300377931486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.03813486237374269</v>
+        <v>0.02986539598914443</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -486,12 +486,12 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.08077102675960944</v>
+        <v>0.06049839976845929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.08019889865339554</v>
+        <v>0.07372390448106778</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.160969925413005</v>
+        <v>0.1342223042495271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.05876512879192626</v>
+        <v>0.05407650071517556</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -528,12 +528,12 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.2197350542049312</v>
+        <v>0.1882988049647026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06417931167940634</v>
+        <v>0.06328779419722068</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.2839143658843376</v>
+        <v>0.2515865991619233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.2349343104383932</v>
+        <v>0.2494641426492116</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -570,12 +570,12 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.5188486763227307</v>
+        <v>0.501050741811135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.2592497549524839</v>
+        <v>0.2752733816269091</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -591,12 +591,12 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.7780984312752146</v>
+        <v>0.776324123438044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.05701929670311179</v>
+        <v>0.06226012256557174</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -612,12 +612,12 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.8351177279783264</v>
+        <v>0.8385842460036157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.03359149211851466</v>
+        <v>0.03553646556461118</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.8687092200968412</v>
+        <v>0.8741207115682269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.06904240058222448</v>
+        <v>0.06762079336249964</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -654,12 +654,12 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.9377516206790656</v>
+        <v>0.9417415049307266</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02467302458047445</v>
+        <v>0.02235710121097469</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -675,12 +675,12 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.9624246452595401</v>
+        <v>0.9640986061417013</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01996979500145136</v>
+        <v>0.01827158215290915</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -696,12 +696,12 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.9823944402609914</v>
+        <v>0.9823701882946104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01436209819569305</v>
+        <v>0.01426995465661086</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -717,12 +717,12 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.9967565384566844</v>
+        <v>0.9966401429512213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.002906915598483861</v>
+        <v>0.00294039923994245</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.9996634540551683</v>
+        <v>0.9995805421911638</v>
       </c>
     </row>
     <row r="19">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.9996634540551683</v>
+        <v>0.9995805421911638</v>
       </c>
     </row>
     <row r="20">
@@ -780,12 +780,12 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.9996634540551683</v>
+        <v>0.9995805421911638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.000336545944831706</v>
+        <v>0.0004194578088362982</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.002580450579893307</v>
+        <v>0.00185181041473609</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -927,12 +927,12 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.002580450579893307</v>
+        <v>0.00185181041473609</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.00734329944020068</v>
+        <v>0.005266085866905756</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.009923750020093988</v>
+        <v>0.007117896281641846</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.005962364155084238</v>
+        <v>0.004273052532003527</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.01588611417517823</v>
+        <v>0.01139094881364537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.01867707318268074</v>
+        <v>0.01377052519658125</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -990,12 +990,12 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.03456318735785897</v>
+        <v>0.02516147401022663</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.05233698801479836</v>
+        <v>0.04143580120506563</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -1011,12 +1011,12 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.08690017537265733</v>
+        <v>0.06659727521529225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.07278998684130957</v>
+        <v>0.06764431968729096</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -1032,12 +1032,12 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.1596901622139669</v>
+        <v>0.1342415949025832</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.07914963781068174</v>
+        <v>0.07362798208990694</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -1053,12 +1053,12 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.2388398000246486</v>
+        <v>0.2078695769924902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1346587964582531</v>
+        <v>0.1342354222012007</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -1074,12 +1074,12 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.3734985964829017</v>
+        <v>0.3421049991936909</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1489603562874274</v>
+        <v>0.1599022861371158</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1095,12 +1095,12 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.5224589527703292</v>
+        <v>0.5020072853308066</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.165797203070208</v>
+        <v>0.1779659251451935</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -1116,12 +1116,12 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.6882561558405372</v>
+        <v>0.6799732104760001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.07191733372322046</v>
+        <v>0.07938634089206337</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -1137,12 +1137,12 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.7601734895637576</v>
+        <v>0.7593595513680636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.03613319748522805</v>
+        <v>0.03864265382950536</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -1158,12 +1158,12 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.7963066870489857</v>
+        <v>0.7980022051975689</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.07140369315985398</v>
+        <v>0.07069594893324147</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1179,12 +1179,12 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.8677103802088397</v>
+        <v>0.8686981541308104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.06251717557397993</v>
+        <v>0.05726492231269516</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.9302275557828196</v>
+        <v>0.9259630764435055</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.01758396032949545</v>
+        <v>0.01626506814276532</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -1221,12 +1221,12 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.9478115161123151</v>
+        <v>0.9422281445862708</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01233885579866515</v>
+        <v>0.01239401278829409</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1242,12 +1242,12 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.9601503719109802</v>
+        <v>0.9546221573745649</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01689961656846768</v>
+        <v>0.01728433545854298</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -1263,12 +1263,12 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.9770499884794479</v>
+        <v>0.9719064928331079</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.002799379344606889</v>
+        <v>0.003149620880396966</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -1284,12 +1284,12 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.9798493678240547</v>
+        <v>0.9750561137135049</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.003962151350201055</v>
+        <v>0.004793874211148053</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.9838115191742558</v>
+        <v>0.9798499879246529</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01137204800204538</v>
+        <v>0.01432066720729243</v>
       </c>
       <c r="B46">
         <v>27</v>
@@ -1326,12 +1326,12 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.9951835671763012</v>
+        <v>0.9941706551319454</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0005986094196014731</v>
+        <v>0.0007276071754567221</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -1347,12 +1347,12 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.9957821765959026</v>
+        <v>0.9948982623074021</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.004199451759505987</v>
+        <v>0.005079361650086533</v>
       </c>
       <c r="B48">
         <v>29</v>
@@ -1368,12 +1368,12 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.9999816283554087</v>
+        <v>0.9999776239574887</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.837164459134956e-005</v>
+        <v>2.237604251139442e-005</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.006686900242741537</v>
+        <v>0.004762353249497353</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1452,12 +1452,12 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.006686900242741537</v>
+        <v>0.004762353249497353</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.008153783361617376</v>
+        <v>0.005805525640133166</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -1473,12 +1473,12 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.01484068360435891</v>
+        <v>0.01056787888963052</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01655102431200215</v>
+        <v>0.01177689419222217</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -1494,12 +1494,12 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.03139170791636106</v>
+        <v>0.02234477308185269</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.01111005408236436</v>
+        <v>0.008133468737587375</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -1515,12 +1515,12 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.04250176199872543</v>
+        <v>0.03047824181944006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.03506914502400308</v>
+        <v>0.02756677736510419</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -1536,12 +1536,12 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.07757090702272851</v>
+        <v>0.05804501918454426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.09176202941335927</v>
+        <v>0.08466587771849292</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -1557,12 +1557,12 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.1693329364360878</v>
+        <v>0.1427108969030372</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.09627315532287284</v>
+        <v>0.08891739385029913</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -1578,12 +1578,12 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.2656060917589606</v>
+        <v>0.2316282907533363</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.10069324036936</v>
+        <v>0.09966032914699415</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -1599,12 +1599,12 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.3662993321283206</v>
+        <v>0.3312886199003305</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1483413684566937</v>
+        <v>0.1580994811778532</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -1620,12 +1620,12 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.5146407005850143</v>
+        <v>0.4893881010781837</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1639697089658883</v>
+        <v>0.1747482668391979</v>
       </c>
       <c r="B61">
         <v>17</v>
@@ -1641,12 +1641,12 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.6786104095509026</v>
+        <v>0.6641363679173816</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.1373960062726132</v>
+        <v>0.1505812691691884</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.8160064158235157</v>
+        <v>0.81471763708657</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.08569093365985292</v>
+        <v>0.09098838280638966</v>
       </c>
       <c r="B63">
         <v>19</v>
@@ -1683,12 +1683,12 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.9016973494833687</v>
+        <v>0.9057060198929596</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.03558470227080463</v>
+        <v>0.03497954604085878</v>
       </c>
       <c r="B64">
         <v>20</v>
@@ -1704,12 +1704,12 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.9372820517541733</v>
+        <v>0.9406855659338185</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.02921695651417833</v>
+        <v>0.02657171989336915</v>
       </c>
       <c r="B65">
         <v>21</v>
@@ -1725,12 +1725,12 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.9664990082683517</v>
+        <v>0.9672572858271876</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.01627483292978704</v>
+        <v>0.01494633650960046</v>
       </c>
       <c r="B66">
         <v>22</v>
@@ -1746,12 +1746,12 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.9827738411981387</v>
+        <v>0.982203622336788</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.008770610781897803</v>
+        <v>0.008746678023152489</v>
       </c>
       <c r="B67">
         <v>23</v>
@@ -1767,12 +1767,12 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.9915444519800365</v>
+        <v>0.9909503003599406</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.005728413853350559</v>
+        <v>0.005816786578599303</v>
       </c>
       <c r="B68">
         <v>24</v>
@@ -1788,12 +1788,12 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.997272865833387</v>
+        <v>0.9967670869385399</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.0009349589753504306</v>
+        <v>0.001044196112314553</v>
       </c>
       <c r="B69">
         <v>25</v>
@@ -1809,12 +1809,12 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.9982078248087375</v>
+        <v>0.9978112830508544</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.0002342512093602282</v>
+        <v>0.0002815234616534334</v>
       </c>
       <c r="B70">
         <v>26</v>
@@ -1830,12 +1830,12 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.9984420760180977</v>
+        <v>0.9980928065125079</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.0005656808680183677</v>
+        <v>0.0007073916800091726</v>
       </c>
       <c r="B71">
         <v>27</v>
@@ -1851,12 +1851,12 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.9990077568861161</v>
+        <v>0.998800198192517</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.0009216608717622954</v>
+        <v>0.001112785464790117</v>
       </c>
       <c r="B72">
         <v>28</v>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.9999294177578784</v>
+        <v>0.9999129836573071</v>
       </c>
     </row>
     <row r="73">
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9999294177578784</v>
+        <v>0.9999129836573071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>7.058224212164082e-005</v>
+        <v>8.70163426928794e-005</v>
       </c>
       <c r="B74">
         <v>30</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0005557041472667925</v>
+        <v>0.0004124716704926674</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -1956,12 +1956,12 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.0005557041472667925</v>
+        <v>0.0004124716704926674</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.002407964746544377</v>
+        <v>0.001786745513236862</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.002963668893811169</v>
+        <v>0.002199217183729529</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.003505350599978707</v>
+        <v>0.002601265382404692</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1998,12 +1998,12 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.006469019493789877</v>
+        <v>0.004800482566134221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.005370724778432447</v>
+        <v>0.003983796780744572</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2019,12 +2019,12 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.01183974427222232</v>
+        <v>0.008784279346878794</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.01658621074690273</v>
+        <v>0.01229468806339204</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2040,12 +2040,12 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.02842595501912505</v>
+        <v>0.02107896741027083</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.05166841081597624</v>
+        <v>0.03940397234449872</v>
       </c>
       <c r="B81">
         <v>11</v>
@@ -2061,12 +2061,12 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.08009436583510128</v>
+        <v>0.06048293975476955</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.08343754950051545</v>
+        <v>0.06832802367996205</v>
       </c>
       <c r="B82">
         <v>12</v>
@@ -2082,12 +2082,12 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.1635319153356167</v>
+        <v>0.1288109634347316</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.1204565343277148</v>
+        <v>0.1157883921510445</v>
       </c>
       <c r="B83">
         <v>13</v>
@@ -2103,12 +2103,12 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.2839884496633316</v>
+        <v>0.2445993555857761</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.1469023388912404</v>
+        <v>0.141349587812606</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.430890788554572</v>
+        <v>0.3859489433983821</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.1649616849780705</v>
+        <v>0.1700942742109499</v>
       </c>
       <c r="B85">
         <v>15</v>
@@ -2145,12 +2145,12 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.5958524735326424</v>
+        <v>0.5560432176093321</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1412277945556574</v>
+        <v>0.1568107100225337</v>
       </c>
       <c r="B86">
         <v>16</v>
@@ -2166,12 +2166,12 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.7370802680882999</v>
+        <v>0.7128539276318657</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.09530949345229903</v>
+        <v>0.1058204395889416</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -2187,12 +2187,12 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.8323897615405989</v>
+        <v>0.8186743672208073</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.05363103322020166</v>
+        <v>0.06123518953256008</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -2208,12 +2208,12 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.8860207947608005</v>
+        <v>0.8799095567533674</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.03530539058990332</v>
+        <v>0.03905485372349427</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -2229,12 +2229,12 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.9213261853507038</v>
+        <v>0.9189644104768616</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.01840757004079492</v>
+        <v>0.01885145794589379</v>
       </c>
       <c r="B90">
         <v>20</v>
@@ -2250,12 +2250,12 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.9397337553914987</v>
+        <v>0.9378158684227554</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.01927851943795979</v>
+        <v>0.0182657129776556</v>
       </c>
       <c r="B91">
         <v>21</v>
@@ -2271,12 +2271,12 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.9590122748294585</v>
+        <v>0.956081581400411</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.01382262131359112</v>
+        <v>0.01322494908066332</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -2292,12 +2292,12 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.9728348961430496</v>
+        <v>0.9693065304810744</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.009352059351280327</v>
+        <v>0.009716435540844171</v>
       </c>
       <c r="B93">
         <v>23</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.98218695549433</v>
+        <v>0.9790229660219185</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.005330345341563294</v>
+        <v>0.005638962883505926</v>
       </c>
       <c r="B94">
         <v>24</v>
@@ -2334,12 +2334,12 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.9875173008358933</v>
+        <v>0.9846619289054245</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.004788663635395757</v>
+        <v>0.005573850027087489</v>
       </c>
       <c r="B95">
         <v>25</v>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.9923059644712891</v>
+        <v>0.9902357789325119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.003499767591022522</v>
+        <v>0.004379888709809732</v>
       </c>
       <c r="B96">
         <v>26</v>
@@ -2376,12 +2376,12 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.9958057320623115</v>
+        <v>0.9946156676423217</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.00187835792021231</v>
+        <v>0.002446673112072357</v>
       </c>
       <c r="B97">
         <v>27</v>
@@ -2397,12 +2397,12 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.9976840899825239</v>
+        <v>0.997062340754394</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.0009889716097502706</v>
+        <v>0.001243100541560277</v>
       </c>
       <c r="B98">
         <v>28</v>
@@ -2418,12 +2418,12 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.9986730615922741</v>
+        <v>0.9983054412959543</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0003230354949532196</v>
+        <v>0.0004040787451331186</v>
       </c>
       <c r="B99">
         <v>29</v>
@@ -2439,12 +2439,12 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.9989960970872274</v>
+        <v>0.9987095200410874</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0007341007590295432</v>
+        <v>0.0009436626238937922</v>
       </c>
       <c r="B100">
         <v>30</v>
@@ -2460,12 +2460,12 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.9997301978462568</v>
+        <v>0.9996531826649813</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0002698021537430829</v>
+        <v>0.0003468173350187771</v>
       </c>
       <c r="B101">
         <v>31</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.001143745616989356</v>
+        <v>0.0008498401897234471</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -2502,12 +2502,12 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.001143745616989356</v>
+        <v>0.0008498401897234471</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0007186760766439802</v>
+        <v>0.000533841218362131</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -2523,12 +2523,12 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.001862421693633336</v>
+        <v>0.001383681408085578</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.001448627902970164</v>
+        <v>0.001076075019104528</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2544,12 +2544,12 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.0033110495966035</v>
+        <v>0.002459756427190106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.005152405742380937</v>
+        <v>0.003825740433299906</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -2565,12 +2565,12 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.008463455338984436</v>
+        <v>0.006285496860490012</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.02682675667220635</v>
+        <v>0.0199052897078387</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.03529021201119079</v>
+        <v>0.02619078656832871</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.05510572501278574</v>
+        <v>0.0420669981675891</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -2607,12 +2607,12 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.09039593702397653</v>
+        <v>0.06825778473591782</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.09786057072250722</v>
+        <v>0.0802185829836196</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -2628,12 +2628,12 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.1882565077464838</v>
+        <v>0.1484763677195374</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1046210382238299</v>
+        <v>0.1006662889396437</v>
       </c>
       <c r="B109">
         <v>13</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.2928775459703137</v>
+        <v>0.2491426566591812</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.133974611731797</v>
+        <v>0.1290383259133479</v>
       </c>
       <c r="B110">
         <v>14</v>
@@ -2670,12 +2670,12 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.4268521577021106</v>
+        <v>0.378180982572529</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.1388825347465723</v>
+        <v>0.1433456719498277</v>
       </c>
       <c r="B111">
         <v>15</v>
@@ -2691,12 +2691,12 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.5657346924486829</v>
+        <v>0.5215266545223567</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.1459021696727611</v>
+        <v>0.1621613855277762</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -2712,12 +2712,12 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.7116368621214441</v>
+        <v>0.683688040050133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.1317567854008936</v>
+        <v>0.1464320441201705</v>
       </c>
       <c r="B113">
         <v>17</v>
@@ -2733,12 +2733,12 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.8433936475223376</v>
+        <v>0.8301200841703034</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.05717950145627618</v>
+        <v>0.06535148819186465</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -2754,12 +2754,12 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.9005731489786137</v>
+        <v>0.895471572362168</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.03664662351172123</v>
+        <v>0.0405787743746363</v>
       </c>
       <c r="B115">
         <v>19</v>
@@ -2775,12 +2775,12 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.937219772490335</v>
+        <v>0.9360503467368043</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.02390904718079598</v>
+        <v>0.02450989827551589</v>
       </c>
       <c r="B116">
         <v>20</v>
@@ -2796,12 +2796,12 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.961128819671131</v>
+        <v>0.9605602450123202</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.01453391688688614</v>
+        <v>0.01378399554609302</v>
       </c>
       <c r="B117">
         <v>21</v>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.9756627365580172</v>
+        <v>0.9743442405584133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.009310360289921377</v>
+        <v>0.008916662660424896</v>
       </c>
       <c r="B118">
         <v>22</v>
@@ -2838,12 +2838,12 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.9849730968479384</v>
+        <v>0.9832609032188381</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.003008439942341585</v>
+        <v>0.003128699977130213</v>
       </c>
       <c r="B119">
         <v>23</v>
@@ -2859,12 +2859,12 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.9879815367902801</v>
+        <v>0.9863896031959684</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.005516551270877509</v>
+        <v>0.005841784678994215</v>
       </c>
       <c r="B120">
         <v>24</v>
@@ -2880,12 +2880,12 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.9934980880611576</v>
+        <v>0.9922313878749626</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.004571486111466817</v>
+        <v>0.005326370652380059</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -2901,12 +2901,12 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.9980695741726244</v>
+        <v>0.9975577585273426</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.0009769694123874686</v>
+        <v>0.001223948671695952</v>
       </c>
       <c r="B122">
         <v>26</v>
@@ -2922,12 +2922,12 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.9990465435850119</v>
+        <v>0.9987817071990386</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>5.576688602515926e-005</v>
+        <v>7.270530605512959e-005</v>
       </c>
       <c r="B123">
         <v>27</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.999102310471037</v>
+        <v>0.9988544125050937</v>
       </c>
     </row>
     <row r="124">
@@ -2964,12 +2964,12 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.999102310471037</v>
+        <v>0.9988544125050937</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0002772610697050238</v>
+        <v>0.0003471974841227393</v>
       </c>
       <c r="B125">
         <v>29</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.9993795715407421</v>
+        <v>0.9992016099892165</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.0003102142296289815</v>
+        <v>0.000399195005391778</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -3006,12 +3006,12 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.999689785770371</v>
+        <v>0.9996008049946082</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.0003102142296289815</v>
+        <v>0.000399195005391778</v>
       </c>
       <c r="B127">
         <v>31</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.008997061405182612</v>
+        <v>0.006791154293811042</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.008997061405182612</v>
+        <v>0.006791154293811042</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.009156871350608709</v>
+        <v>0.006915135873690603</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3069,12 +3069,12 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.01815393275579132</v>
+        <v>0.01370629016750164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.01302808838682594</v>
+        <v>0.00983249835534639</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -3090,12 +3090,12 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.03118202114261726</v>
+        <v>0.02353878852284803</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0238021409762241</v>
+        <v>0.01795202671929558</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -3111,12 +3111,12 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.05498416211884136</v>
+        <v>0.04149081524214362</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.04260723962905011</v>
+        <v>0.03306006781033349</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -3132,12 +3132,12 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.09759140174789147</v>
+        <v>0.0745508830524771</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.0773289318017021</v>
+        <v>0.06442993775618643</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -3153,12 +3153,12 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.1749203335495936</v>
+        <v>0.1389808208086635</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.136119909933977</v>
+        <v>0.1331258539547594</v>
       </c>
       <c r="B134">
         <v>13</v>
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.3110402434835706</v>
+        <v>0.2721066747634229</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.2090791130786551</v>
+        <v>0.2046859976721826</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -3195,12 +3195,12 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.5201193565622257</v>
+        <v>0.4767926724356055</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.2210887112162729</v>
+        <v>0.2319442335914174</v>
       </c>
       <c r="B136">
         <v>15</v>
@@ -3216,12 +3216,12 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.7412080677784987</v>
+        <v>0.7087369060270229</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.1119218219287868</v>
+        <v>0.1264384393502353</v>
       </c>
       <c r="B137">
         <v>16</v>
@@ -3237,12 +3237,12 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.8531298897072854</v>
+        <v>0.8351753453772582</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.05594302179139793</v>
+        <v>0.06319518243003897</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -3258,12 +3258,12 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.9090729114986833</v>
+        <v>0.8983705278072972</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.04236394687631187</v>
+        <v>0.0492130965032134</v>
       </c>
       <c r="B139">
         <v>18</v>
@@ -3279,12 +3279,12 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9514368583749953</v>
+        <v>0.9475836243105106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.02483017211769645</v>
+        <v>0.02794646019938262</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -3300,12 +3300,12 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.9762670304926917</v>
+        <v>0.9755300845098932</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.009469335572262719</v>
+        <v>0.009867921663883407</v>
       </c>
       <c r="B141">
         <v>20</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.9857363660649544</v>
+        <v>0.9853980061737766</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.0034371064381941</v>
+        <v>0.003312079348211123</v>
       </c>
       <c r="B142">
         <v>21</v>
@@ -3342,12 +3342,12 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.9891734725031485</v>
+        <v>0.9887100855219877</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.00775436018776476</v>
+        <v>0.00754769495470877</v>
       </c>
       <c r="B143">
         <v>22</v>
@@ -3363,12 +3363,12 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.9969278326909132</v>
+        <v>0.9962577804766964</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>5.963057665152845e-005</v>
+        <v>6.072567177774404e-005</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -3384,12 +3384,12 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9969874632675647</v>
+        <v>0.9963185061484743</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.00058676487425104</v>
+        <v>0.0006300288446940944</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -3405,12 +3405,12 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.9975742281418158</v>
+        <v>0.9969485349931684</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.0003935618059000878</v>
+        <v>0.000465563483629371</v>
       </c>
       <c r="B146">
         <v>25</v>
@@ -3426,12 +3426,12 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9979677899477158</v>
+        <v>0.9974140984767977</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.00203221005228409</v>
+        <v>0.002585901523202267</v>
       </c>
       <c r="B147">
         <v>26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.03521394784058575</v>
+        <v>0.03091761957127488</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -3573,12 +3573,12 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.03521394784058575</v>
+        <v>0.03091761957127488</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.05786589823054292</v>
+        <v>0.05078929409065036</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -3594,12 +3594,12 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.09307984607112867</v>
+        <v>0.08170691366192524</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.06456917435404849</v>
+        <v>0.05667659058330576</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3615,12 +3615,12 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.1576490204251771</v>
+        <v>0.138383504245231</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.07946789423129202</v>
+        <v>0.06972668997147992</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.2371169146564692</v>
+        <v>0.2081101942167109</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.1298947025028545</v>
+        <v>0.1138925892481963</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.3670116171593236</v>
+        <v>0.3220027834649072</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.201969419625327</v>
+        <v>0.182194765059469</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -3678,12 +3678,12 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.5689810367846506</v>
+        <v>0.5041975485243762</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.1206070162084443</v>
+        <v>0.1168280420678701</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -3699,12 +3699,12 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.6895880529930949</v>
+        <v>0.6210255905922463</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.06767674937020861</v>
+        <v>0.07695058604750964</v>
       </c>
       <c r="B160">
         <v>13</v>
@@ -3720,12 +3720,12 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.7572648023633035</v>
+        <v>0.6979761766397559</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.05546272299448442</v>
+        <v>0.06312564632114748</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -3741,12 +3741,12 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.8127275253577879</v>
+        <v>0.7611018229609033</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.06169720475318823</v>
+        <v>0.07525040753621634</v>
       </c>
       <c r="B162">
         <v>15</v>
@@ -3762,12 +3762,12 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.8744247301109762</v>
+        <v>0.8363522304971197</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.03381602237647329</v>
+        <v>0.04441325215390713</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3783,12 +3783,12 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.9082407524874495</v>
+        <v>0.8807654826510268</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.03587001830472842</v>
+        <v>0.04710880248425733</v>
       </c>
       <c r="B164">
         <v>17</v>
@@ -3804,12 +3804,12 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9441107707921779</v>
+        <v>0.9278742851352841</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.01899100470606714</v>
+        <v>0.02564870527159644</v>
       </c>
       <c r="B165">
         <v>18</v>
@@ -3825,12 +3825,12 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9631017754982451</v>
+        <v>0.9535229904068806</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.02015694945357667</v>
+        <v>0.02637586312743441</v>
       </c>
       <c r="B166">
         <v>19</v>
@@ -3846,12 +3846,12 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.9832587249518218</v>
+        <v>0.9798988535343151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.0115543312128846</v>
+        <v>0.01399629864730758</v>
       </c>
       <c r="B167">
         <v>20</v>
@@ -3867,12 +3867,12 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9948130561647063</v>
+        <v>0.9938951521816226</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.002511916196966127</v>
+        <v>0.002814756536225276</v>
       </c>
       <c r="B168">
         <v>21</v>
@@ -3888,12 +3888,12 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9973249723616725</v>
+        <v>0.9967099087178478</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001709649552047653</v>
+        <v>0.001934120690323138</v>
       </c>
       <c r="B169">
         <v>22</v>
@@ -3909,12 +3909,12 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9990346219137201</v>
+        <v>0.998644029408171</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0002911841286526391</v>
+        <v>0.0003576186176252336</v>
       </c>
       <c r="B170">
         <v>23</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9993258060423728</v>
+        <v>0.9990016480257963</v>
       </c>
     </row>
     <row r="171">
@@ -3951,12 +3951,12 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9993258060423728</v>
+        <v>0.9990016480257963</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.208232898973606e-006</v>
+        <v>2.980155146876946e-006</v>
       </c>
       <c r="B172">
         <v>25</v>
@@ -3972,12 +3972,12 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9993270142752717</v>
+        <v>0.9990046281809432</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0006729857247282986</v>
+        <v>0.0009953718190569001</v>
       </c>
       <c r="B173">
         <v>26</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.03405347503863664</v>
+        <v>0.02958122139658482</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -4119,12 +4119,12 @@
         </is>
       </c>
       <c r="E179">
-        <v>0.03405347503863664</v>
+        <v>0.02958122139658482</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.05578275079935084</v>
+        <v>0.04844052950150091</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -4140,12 +4140,12 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.08983622583798748</v>
+        <v>0.07802175089808573</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.06224450617702193</v>
+        <v>0.05405541065892427</v>
       </c>
       <c r="B181">
         <v>8</v>
@@ -4161,12 +4161,12 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.1520807320150094</v>
+        <v>0.13207716155701</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.0766062031561049</v>
+        <v>0.06650263274445155</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -4182,12 +4182,12 @@
         </is>
       </c>
       <c r="E182">
-        <v>0.2286869351711143</v>
+        <v>0.1985797943014616</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1252173814847438</v>
+        <v>0.1086265439692929</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -4203,12 +4203,12 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.3539043166558581</v>
+        <v>0.3072063382707544</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.1946971823487848</v>
+        <v>0.1737690074307367</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -4224,12 +4224,12 @@
         </is>
       </c>
       <c r="E184">
-        <v>0.5486014990046428</v>
+        <v>0.4809753457014911</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.1162640067884326</v>
+        <v>0.1114246346144383</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -4245,12 +4245,12 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.6648655057930754</v>
+        <v>0.5923999803159293</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.06523945034345469</v>
+        <v>0.07339107327395306</v>
       </c>
       <c r="B186">
         <v>13</v>
@@ -4266,12 +4266,12 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.73010495613653</v>
+        <v>0.6657910535898824</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.05346616592297194</v>
+        <v>0.06020668274199104</v>
       </c>
       <c r="B187">
         <v>14</v>
@@ -4287,12 +4287,12 @@
         </is>
       </c>
       <c r="E187">
-        <v>0.783571122059502</v>
+        <v>0.7259977363318735</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.05947621951416247</v>
+        <v>0.07177107425815658</v>
       </c>
       <c r="B188">
         <v>15</v>
@@ -4308,12 +4308,12 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.8430473415736645</v>
+        <v>0.79776881059003</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.0325096228612727</v>
+        <v>0.04224398405590276</v>
       </c>
       <c r="B189">
         <v>16</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.8755569644349371</v>
+        <v>0.8400127946459328</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.04864666918329091</v>
+        <v>0.06320948772206092</v>
       </c>
       <c r="B190">
         <v>17</v>
@@ -4350,12 +4350,12 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.9242036336182281</v>
+        <v>0.9032222823679937</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.02575587454305525</v>
+        <v>0.03441562915210866</v>
       </c>
       <c r="B191">
         <v>18</v>
@@ -4371,12 +4371,12 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9499595081612833</v>
+        <v>0.9376379115201023</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.02733683079573723</v>
+        <v>0.03538999065006643</v>
       </c>
       <c r="B192">
         <v>19</v>
@@ -4392,12 +4392,12 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.9772963389570205</v>
+        <v>0.9730279021701688</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.01566921232887762</v>
+        <v>0.01878057182225284</v>
       </c>
       <c r="B193">
         <v>20</v>
@@ -4413,12 +4413,12 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.9929655512858981</v>
+        <v>0.9918084739924217</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.003407122046596266</v>
+        <v>0.003777373160769647</v>
       </c>
       <c r="B194">
         <v>21</v>
@@ -4434,12 +4434,12 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.9963726733324945</v>
+        <v>0.9955858471531913</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.002318198097044903</v>
+        <v>0.002596328920820826</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -4455,12 +4455,12 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.9986908714295394</v>
+        <v>0.9981821760740121</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0003944324528374939</v>
+        <v>0.0004793071207125634</v>
       </c>
       <c r="B196">
         <v>23</v>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.9990853038823768</v>
+        <v>0.9986614831947247</v>
       </c>
     </row>
     <row r="197">
@@ -4497,12 +4497,12 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.9990853038823768</v>
+        <v>0.9986614831947247</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2.419830999003029e-006</v>
+        <v>2.952610599872053e-006</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -4518,12 +4518,12 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.9990877237133758</v>
+        <v>0.9986644358053245</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.0009122762866241421</v>
+        <v>0.001335564194675459</v>
       </c>
       <c r="B199">
         <v>26</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.005366781157998038</v>
+        <v>0.00369210775047259</v>
       </c>
       <c r="B205">
         <v>6</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="E205">
-        <v>0.005366781157998038</v>
+        <v>0.00369210775047259</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.0041400883218842</v>
+        <v>0.002835538752362949</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -4686,12 +4686,12 @@
         </is>
       </c>
       <c r="E206">
-        <v>0.009506869479882238</v>
+        <v>0.006527646502835539</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.004630765456329735</v>
+        <v>0.003160444234404537</v>
       </c>
       <c r="B207">
         <v>8</v>
@@ -4707,12 +4707,12 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.01413763493621197</v>
+        <v>0.009688090737240076</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.005704121687929342</v>
+        <v>0.003898865784499055</v>
       </c>
       <c r="B208">
         <v>9</v>
@@ -4728,12 +4728,12 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.01984175662414131</v>
+        <v>0.01358695652173913</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.009292198233562317</v>
+        <v>0.006379962192816635</v>
       </c>
       <c r="B209">
         <v>10</v>
@@ -4749,12 +4749,12 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.02913395485770363</v>
+        <v>0.01996691871455577</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.01444430814524043</v>
+        <v>0.01019021739130435</v>
       </c>
       <c r="B210">
         <v>11</v>
@@ -4770,12 +4770,12 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.04357826300294406</v>
+        <v>0.03015713610586011</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.008648184494602551</v>
+        <v>0.006527646502835539</v>
       </c>
       <c r="B211">
         <v>12</v>
@@ -4791,12 +4791,12 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.05222644749754662</v>
+        <v>0.03668478260869566</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.004845436702649656</v>
+        <v>0.004312381852551985</v>
       </c>
       <c r="B212">
         <v>13</v>
@@ -4812,12 +4812,12 @@
         </is>
       </c>
       <c r="E212">
-        <v>0.05707188420019627</v>
+        <v>0.04099716446124764</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.003956084396467124</v>
+        <v>0.003514886578449906</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -4833,12 +4833,12 @@
         </is>
       </c>
       <c r="E213">
-        <v>0.06102796859666339</v>
+        <v>0.04451205103969754</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.002177379784102061</v>
+        <v>0.002097117202268431</v>
       </c>
       <c r="B214">
         <v>15</v>
@@ -4854,12 +4854,12 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.06320534838076546</v>
+        <v>0.04660916824196597</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.2503680078508341</v>
+        <v>0.2567934782608696</v>
       </c>
       <c r="B215">
         <v>16</v>
@@ -4875,12 +4875,12 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.3135733562315996</v>
+        <v>0.3034026465028356</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.2683390578999019</v>
+        <v>0.2752244801512288</v>
       </c>
       <c r="B216">
         <v>17</v>
@@ -4896,12 +4896,12 @@
         </is>
       </c>
       <c r="E216">
-        <v>0.5819124141315014</v>
+        <v>0.5786271266540642</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.1420816977428852</v>
+        <v>0.1498405009451796</v>
       </c>
       <c r="B217">
         <v>18</v>
@@ -4917,12 +4917,12 @@
         </is>
       </c>
       <c r="E217">
-        <v>0.7239941118743867</v>
+        <v>0.7284676275992439</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.1507912168792934</v>
+        <v>0.154093809073724</v>
       </c>
       <c r="B218">
         <v>19</v>
@@ -4938,12 +4938,12 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.8747853287536801</v>
+        <v>0.8825614366729678</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.08642051030421982</v>
+        <v>0.08175803402646503</v>
       </c>
       <c r="B219">
         <v>20</v>
@@ -4959,12 +4959,12 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.9612058390578999</v>
+        <v>0.9643194706994329</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.01879906771344455</v>
+        <v>0.01645203213610586</v>
       </c>
       <c r="B220">
         <v>21</v>
@@ -4980,12 +4980,12 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.9800049067713444</v>
+        <v>0.9807715028355388</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.01278827281648675</v>
+        <v>0.01131261814744802</v>
       </c>
       <c r="B221">
         <v>22</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.9927931795878312</v>
+        <v>0.9920841209829868</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.002177379784102061</v>
+        <v>0.002097117202268431</v>
       </c>
       <c r="B222">
         <v>23</v>
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.9949705593719332</v>
+        <v>0.9941812381852552</v>
       </c>
     </row>
     <row r="223">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="E223">
-        <v>0.9949705593719332</v>
+        <v>0.9941812381852552</v>
       </c>
     </row>
     <row r="224">
@@ -5064,12 +5064,12 @@
         </is>
       </c>
       <c r="E224">
-        <v>0.9949705593719332</v>
+        <v>0.9941812381852552</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.005029440628066732</v>
+        <v>0.005818761814744802</v>
       </c>
       <c r="B225">
         <v>26</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.01594778589195606</v>
+        <v>0.03301561433416605</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -444,12 +444,12 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.01594778589195606</v>
+        <v>0.03301561433416605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.0146852178873588</v>
+        <v>0.03301561433416605</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.03063300377931486</v>
+        <v>0.0660312286683321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.02986539598914443</v>
+        <v>0.06603480256033623</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -486,12 +486,12 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.06049839976845929</v>
+        <v>0.1320660312286683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.07372390448106778</v>
+        <v>0.1337743516066431</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.1342223042495271</v>
+        <v>0.2658403828353115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.05407650071517556</v>
+        <v>0.0968560472039656</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -528,12 +528,12 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.1882988049647026</v>
+        <v>0.362696430039277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06328779419722068</v>
+        <v>0.1004906953721673</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.2515865991619233</v>
+        <v>0.4631871254114443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.2494641426492116</v>
+        <v>0.346814053972917</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -570,12 +570,12 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.501050741811135</v>
+        <v>0.8100011793843613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.2752733816269091</v>
+        <v>0.0579542327389951</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -591,12 +591,12 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.776324123438044</v>
+        <v>0.8679554121233565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.06226012256557174</v>
+        <v>0.03704339062282216</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -612,12 +612,12 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.8385842460036157</v>
+        <v>0.9049988027461786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.03553646556461118</v>
+        <v>0.02069283470392092</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.8741207115682269</v>
+        <v>0.9256916374500995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.06762079336249964</v>
+        <v>0.03829067893226403</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -654,12 +654,12 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.9417415049307266</v>
+        <v>0.9639823163823635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.02235710121097469</v>
+        <v>0.01360580685972831</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -675,12 +675,12 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.9640986061417013</v>
+        <v>0.9775881232420919</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01827158215290915</v>
+        <v>0.01157583620138167</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -696,12 +696,12 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.9823701882946104</v>
+        <v>0.9891639594434735</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01426995465661086</v>
+        <v>0.00886682606225005</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -717,12 +717,12 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.9966401429512213</v>
+        <v>0.9980307855057236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.00294039923994245</v>
+        <v>0.001776224326053315</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.9995805421911638</v>
+        <v>0.9998070098317768</v>
       </c>
     </row>
     <row r="19">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.9995805421911638</v>
+        <v>0.9998070098317768</v>
       </c>
     </row>
     <row r="20">
@@ -780,12 +780,12 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.9995805421911638</v>
+        <v>0.9998070098317768</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.0004194578088362982</v>
+        <v>0.0001929901682230967</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.00185181041473609</v>
+        <v>0.002371255813164612</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -927,12 +927,12 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.00185181041473609</v>
+        <v>0.002371255813164612</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.005266085866905756</v>
+        <v>0.007113767439493836</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.007117896281641846</v>
+        <v>0.009485023252658448</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.004273052532003527</v>
+        <v>0.006323131388446928</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.01139094881364537</v>
+        <v>0.01580815464110538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.01377052519658125</v>
+        <v>0.0221306336895762</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -990,12 +990,12 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.02516147401022663</v>
+        <v>0.03793878833068157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.04143580120506563</v>
+        <v>0.06549036722174276</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -1011,12 +1011,12 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.06659727521529225</v>
+        <v>0.1034291555524243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.06764431968729096</v>
+        <v>0.08774429316680399</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -1032,12 +1032,12 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.1342415949025832</v>
+        <v>0.1911734487192283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.07362798208990694</v>
+        <v>0.09427225930774986</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -1053,12 +1053,12 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.2078695769924902</v>
+        <v>0.2854457080269782</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1342354222012007</v>
+        <v>0.1523709622601754</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -1074,12 +1074,12 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.3421049991936909</v>
+        <v>0.4378166702871535</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1599022861371158</v>
+        <v>0.1589119752006435</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1095,12 +1095,12 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.5020072853308066</v>
+        <v>0.596728645487797</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1779659251451935</v>
+        <v>0.1661248983165062</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -1116,12 +1116,12 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.6799732104760001</v>
+        <v>0.7628535438043033</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.07938634089206337</v>
+        <v>0.07014546529127307</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -1137,12 +1137,12 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.7593595513680636</v>
+        <v>0.8329990090955763</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.03864265382950536</v>
+        <v>0.03791008537173268</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -1158,12 +1158,12 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.7980022051975689</v>
+        <v>0.8709090944673089</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.07069594893324147</v>
+        <v>0.04418298658201903</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1179,12 +1179,12 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.8686981541308104</v>
+        <v>0.915092081049328</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.05726492231269516</v>
+        <v>0.03845609393173784</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.9259630764435055</v>
+        <v>0.9535481749810658</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.01626506814276532</v>
+        <v>0.01137354748350069</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -1221,12 +1221,12 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.9422281445862708</v>
+        <v>0.9649217224645665</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01239401278829409</v>
+        <v>0.008500642228706482</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1242,12 +1242,12 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.9546221573745649</v>
+        <v>0.973422364693273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01728433545854298</v>
+        <v>0.01152815205783907</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -1263,12 +1263,12 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.9719064928331079</v>
+        <v>0.9849505167511121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.003149620880396966</v>
+        <v>0.001999422026781165</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -1284,12 +1284,12 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.9750561137135049</v>
+        <v>0.9869499387778933</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.004793874211148053</v>
+        <v>0.002700035161124713</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.9798499879246529</v>
+        <v>0.989649973939018</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01432066720729243</v>
+        <v>0.007266414993903883</v>
       </c>
       <c r="B46">
         <v>27</v>
@@ -1326,12 +1326,12 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.9941706551319454</v>
+        <v>0.9969163889329219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0007276071754567221</v>
+        <v>0.0003750954862640033</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -1347,12 +1347,12 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.9948982623074021</v>
+        <v>0.9972914844191858</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.005079361650086533</v>
+        <v>0.002697425801220267</v>
       </c>
       <c r="B48">
         <v>29</v>
@@ -1368,12 +1368,12 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.9999776239574887</v>
+        <v>0.9999889102204062</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2.237604251139442e-005</v>
+        <v>1.108977959389227e-005</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.004762353249497353</v>
+        <v>0.006390841092857199</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1452,12 +1452,12 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.004762353249497353</v>
+        <v>0.006390841092857199</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.005805525640133166</v>
+        <v>0.008216424712637211</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -1473,12 +1473,12 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.01056787888963052</v>
+        <v>0.01460726580549441</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01177689419222217</v>
+        <v>0.01825929866080587</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -1494,12 +1494,12 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.02234477308185269</v>
+        <v>0.03286656446630028</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.008133468737587375</v>
+        <v>0.01369490680348012</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -1515,12 +1515,12 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.03047824181944006</v>
+        <v>0.0465614712697804</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.02756677736510419</v>
+        <v>0.04564824665201468</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -1536,12 +1536,12 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.05804501918454426</v>
+        <v>0.09220971792179508</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.08466587771849292</v>
+        <v>0.115063704991227</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -1557,12 +1557,12 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.1427108969030372</v>
+        <v>0.2072734229130221</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.08891739385029913</v>
+        <v>0.1192801193164752</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -1578,12 +1578,12 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.2316282907533363</v>
+        <v>0.3265535422294972</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.09966032914699415</v>
+        <v>0.1185218399182166</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -1599,12 +1599,12 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.3312886199003305</v>
+        <v>0.4450753821477139</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1580994811778532</v>
+        <v>0.1646176099137241</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -1620,12 +1620,12 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.4893881010781837</v>
+        <v>0.6096929920614379</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1747482668391979</v>
+        <v>0.1709037115006575</v>
       </c>
       <c r="B61">
         <v>17</v>
@@ -1641,12 +1641,12 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.6641363679173816</v>
+        <v>0.7805967035620953</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.1505812691691884</v>
+        <v>0.1394030886901243</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.81471763708657</v>
+        <v>0.9199997922522196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.09098838280638966</v>
+        <v>0.03620784126684597</v>
       </c>
       <c r="B63">
         <v>19</v>
@@ -1683,12 +1683,12 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.9057060198929596</v>
+        <v>0.9562076335190656</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.03497954604085878</v>
+        <v>0.01548326894594836</v>
       </c>
       <c r="B64">
         <v>20</v>
@@ -1704,12 +1704,12 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.9406855659338185</v>
+        <v>0.971690902465014</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.02657171989336915</v>
+        <v>0.0126379899709759</v>
       </c>
       <c r="B65">
         <v>21</v>
@@ -1725,12 +1725,12 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.9672572858271876</v>
+        <v>0.9843288924359899</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.01494633650960046</v>
+        <v>0.007402745906286708</v>
       </c>
       <c r="B66">
         <v>22</v>
@@ -1746,12 +1746,12 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.982203622336788</v>
+        <v>0.9917316383422766</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.008746678023152489</v>
+        <v>0.004248442108051352</v>
       </c>
       <c r="B67">
         <v>23</v>
@@ -1767,12 +1767,12 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.9909503003599406</v>
+        <v>0.9959800804503279</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.005816786578599303</v>
+        <v>0.002747464395060104</v>
       </c>
       <c r="B68">
         <v>24</v>
@@ -1788,12 +1788,12 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.9967670869385399</v>
+        <v>0.9987275448453881</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.001044196112314553</v>
+        <v>0.0004691637372786945</v>
       </c>
       <c r="B69">
         <v>25</v>
@@ -1809,12 +1809,12 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.9978112830508544</v>
+        <v>0.9991967085826667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.0002815234616534334</v>
+        <v>0.0001125300476867718</v>
       </c>
       <c r="B70">
         <v>26</v>
@@ -1830,12 +1830,12 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.9980928065125079</v>
+        <v>0.9993092386303535</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.0007073916800091726</v>
+        <v>0.0002544910309223915</v>
       </c>
       <c r="B71">
         <v>27</v>
@@ -1851,12 +1851,12 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.998800198192517</v>
+        <v>0.9995637296612759</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.001112785464790117</v>
+        <v>0.000405973787423815</v>
       </c>
       <c r="B72">
         <v>28</v>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.9999129836573071</v>
+        <v>0.9999697034486997</v>
       </c>
     </row>
     <row r="73">
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9999129836573071</v>
+        <v>0.9999697034486997</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>8.70163426928794e-005</v>
+        <v>3.02965513002847e-005</v>
       </c>
       <c r="B74">
         <v>30</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0004124716704926674</v>
+        <v>0.0004542519931561039</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -1956,12 +1956,12 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.0004124716704926674</v>
+        <v>0.0004542519931561039</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.001786745513236862</v>
+        <v>0.002092236160006291</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.002199217183729529</v>
+        <v>0.002546488153162395</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.002601265382404692</v>
+        <v>0.003022072422240194</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1998,12 +1998,12 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.004800482566134221</v>
+        <v>0.00556856057540259</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.003983796780744572</v>
+        <v>0.004881744946708001</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2019,12 +2019,12 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.008784279346878794</v>
+        <v>0.01045030552211059</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.01229468806339204</v>
+        <v>0.01650511650455183</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2040,12 +2040,12 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.02107896741027083</v>
+        <v>0.02695542202666242</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.03940397234449872</v>
+        <v>0.05744562308754578</v>
       </c>
       <c r="B81">
         <v>11</v>
@@ -2061,12 +2061,12 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.06048293975476955</v>
+        <v>0.08440104511420819</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.06832802367996205</v>
+        <v>0.09796565378092631</v>
       </c>
       <c r="B82">
         <v>12</v>
@@ -2082,12 +2082,12 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.1288109634347316</v>
+        <v>0.1823666988951345</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.1157883921510445</v>
+        <v>0.1362455863625688</v>
       </c>
       <c r="B83">
         <v>13</v>
@@ -2103,12 +2103,12 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.2445993555857761</v>
+        <v>0.3186122852577033</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.141349587812606</v>
+        <v>0.1641753914629487</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.3859489433983821</v>
+        <v>0.482787676720652</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.1700942742109499</v>
+        <v>0.1751443640859005</v>
       </c>
       <c r="B85">
         <v>15</v>
@@ -2145,12 +2145,12 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.5560432176093321</v>
+        <v>0.6579320408065524</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1568107100225337</v>
+        <v>0.1413678422632959</v>
       </c>
       <c r="B86">
         <v>16</v>
@@ -2166,12 +2166,12 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.7128539276318657</v>
+        <v>0.7992998830698483</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1058204395889416</v>
+        <v>0.08960643414904192</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -2187,12 +2187,12 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.8186743672208073</v>
+        <v>0.8889063172188902</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.06123518953256008</v>
+        <v>0.04909351421430196</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -2208,12 +2208,12 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.8799095567533674</v>
+        <v>0.9379998314331922</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.03905485372349427</v>
+        <v>0.0172647128393322</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -2229,12 +2229,12 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.9189644104768616</v>
+        <v>0.9552645442725244</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.01885145794589379</v>
+        <v>0.01004802480901862</v>
       </c>
       <c r="B90">
         <v>20</v>
@@ -2250,12 +2250,12 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.9378158684227554</v>
+        <v>0.9653125690815431</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.0182657129776556</v>
+        <v>0.01046138993999147</v>
       </c>
       <c r="B91">
         <v>21</v>
@@ -2271,12 +2271,12 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.956081581400411</v>
+        <v>0.9757739590215345</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.01322494908066332</v>
+        <v>0.007887190742126874</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -2292,12 +2292,12 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.9693065304810744</v>
+        <v>0.9836611497636614</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.009716435540844171</v>
+        <v>0.005683587553411732</v>
       </c>
       <c r="B93">
         <v>23</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.9790229660219185</v>
+        <v>0.9893447373170732</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.005638962883505926</v>
+        <v>0.003207684136754947</v>
       </c>
       <c r="B94">
         <v>24</v>
@@ -2334,12 +2334,12 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.9846619289054245</v>
+        <v>0.9925524214538281</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.005573850027087489</v>
+        <v>0.003017785053059854</v>
       </c>
       <c r="B95">
         <v>25</v>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.9902357789325119</v>
+        <v>0.9955702065068879</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.004379888709809732</v>
+        <v>0.002103843427787213</v>
       </c>
       <c r="B96">
         <v>26</v>
@@ -2376,12 +2376,12 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.9946156676423217</v>
+        <v>0.9976740499346751</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.002446673112072357</v>
+        <v>0.001058771047584151</v>
       </c>
       <c r="B97">
         <v>27</v>
@@ -2397,12 +2397,12 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.997062340754394</v>
+        <v>0.9987328209822592</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.001243100541560277</v>
+        <v>0.0005466918554834511</v>
       </c>
       <c r="B98">
         <v>28</v>
@@ -2418,12 +2418,12 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.9983054412959543</v>
+        <v>0.9992795128377427</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0004040787451331186</v>
+        <v>0.0001829974650145447</v>
       </c>
       <c r="B99">
         <v>29</v>
@@ -2439,12 +2439,12 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.9987095200410874</v>
+        <v>0.9994625103027572</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0009436626238937922</v>
+        <v>0.0003930785548512419</v>
       </c>
       <c r="B100">
         <v>30</v>
@@ -2460,12 +2460,12 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.9996531826649813</v>
+        <v>0.9998555888576085</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0003468173350187771</v>
+        <v>0.0001444111423914778</v>
       </c>
       <c r="B101">
         <v>31</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0008498401897234471</v>
+        <v>0.0009482709485841468</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -2502,12 +2502,12 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.0008498401897234471</v>
+        <v>0.0009482709485841468</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.000533841218362131</v>
+        <v>0.0006413508491056358</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -2523,12 +2523,12 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.001383681408085578</v>
+        <v>0.001589621797689783</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.001076075019104528</v>
+        <v>0.001282631158082685</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2544,12 +2544,12 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.002459756427190106</v>
+        <v>0.002872252955772468</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.003825740433299906</v>
+        <v>0.004809990288035096</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -2565,12 +2565,12 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.006285496860490012</v>
+        <v>0.007682243243807564</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.0199052897078387</v>
+        <v>0.0274169023177229</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.02619078656832871</v>
+        <v>0.03509914556153046</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.0420669981675891</v>
+        <v>0.06292285280080992</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -2607,12 +2607,12 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.06825778473591782</v>
+        <v>0.09802199836234038</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.0802185829836196</v>
+        <v>0.1180048176086219</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -2628,12 +2628,12 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.1484763677195374</v>
+        <v>0.2160268159709623</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1006662889396437</v>
+        <v>0.1215321061984458</v>
       </c>
       <c r="B109">
         <v>13</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.2491426566591812</v>
+        <v>0.3375589221694081</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.1290383259133479</v>
+        <v>0.1537736711509497</v>
       </c>
       <c r="B110">
         <v>14</v>
@@ -2670,12 +2670,12 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.378180982572529</v>
+        <v>0.4913325933203577</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.1433456719498277</v>
+        <v>0.1514401331571899</v>
       </c>
       <c r="B111">
         <v>15</v>
@@ -2691,12 +2691,12 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.5215266545223567</v>
+        <v>0.6427727264775477</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.1621613855277762</v>
+        <v>0.1499934256600158</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -2712,12 +2712,12 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.683688040050133</v>
+        <v>0.7927661521375634</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.1464320441201705</v>
+        <v>0.1272338647920674</v>
       </c>
       <c r="B113">
         <v>17</v>
@@ -2733,12 +2733,12 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.8301200841703034</v>
+        <v>0.9200000169296309</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.06535148819186465</v>
+        <v>0.03932266522049998</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -2754,12 +2754,12 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.895471572362168</v>
+        <v>0.9593226821501308</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.0405787743746363</v>
+        <v>0.01568974702052605</v>
       </c>
       <c r="B115">
         <v>19</v>
@@ -2775,12 +2775,12 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.9360503467368043</v>
+        <v>0.9750124291706569</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.02450989827551589</v>
+        <v>0.009215574018885567</v>
       </c>
       <c r="B116">
         <v>20</v>
@@ -2796,12 +2796,12 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.9605602450123202</v>
+        <v>0.9842280031895425</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.01378399554609302</v>
+        <v>0.005569002071622496</v>
       </c>
       <c r="B117">
         <v>21</v>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.9743442405584133</v>
+        <v>0.989797005261165</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.008916662660424896</v>
+        <v>0.003751253498084976</v>
       </c>
       <c r="B118">
         <v>22</v>
@@ -2838,12 +2838,12 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.9832609032188381</v>
+        <v>0.9935482587592499</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.003128699977130213</v>
+        <v>0.001291025433384442</v>
       </c>
       <c r="B119">
         <v>23</v>
@@ -2859,12 +2859,12 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.9863896031959684</v>
+        <v>0.9948392841926343</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.005841784678994215</v>
+        <v>0.002344119013047667</v>
       </c>
       <c r="B120">
         <v>24</v>
@@ -2880,12 +2880,12 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.9922313878749626</v>
+        <v>0.9971834032056821</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.005326370652380059</v>
+        <v>0.002034236228168536</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -2901,12 +2901,12 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.9975577585273426</v>
+        <v>0.9992176394338506</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.001223948671695952</v>
+        <v>0.0004147054159582087</v>
       </c>
       <c r="B122">
         <v>26</v>
@@ -2922,12 +2922,12 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.9987817071990386</v>
+        <v>0.9996323448498088</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>7.270530605512959e-005</v>
+        <v>2.214960037606353e-005</v>
       </c>
       <c r="B123">
         <v>27</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.9988544125050937</v>
+        <v>0.9996544944501848</v>
       </c>
     </row>
     <row r="124">
@@ -2964,12 +2964,12 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.9988544125050937</v>
+        <v>0.9996544944501848</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0003471974841227393</v>
+        <v>0.0001108890821374901</v>
       </c>
       <c r="B125">
         <v>29</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.9992016099892165</v>
+        <v>0.9997653835323224</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.000399195005391778</v>
+        <v>0.0001173082338388333</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -3006,12 +3006,12 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.9996008049946082</v>
+        <v>0.9998826917661612</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.000399195005391778</v>
+        <v>0.0001173082338388333</v>
       </c>
       <c r="B127">
         <v>31</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.006791154293811042</v>
+        <v>0.00740317622565783</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.006791154293811042</v>
+        <v>0.00740317622565783</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.006915135873690603</v>
+        <v>0.008509894702031551</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3069,12 +3069,12 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.01370629016750164</v>
+        <v>0.01591307092768938</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.00983249835534639</v>
+        <v>0.01276390256367859</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -3090,12 +3090,12 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.02353878852284803</v>
+        <v>0.02867697349136797</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.01795202671929558</v>
+        <v>0.02552780512735718</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -3111,12 +3111,12 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.04149081524214362</v>
+        <v>0.05420477861872515</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03306006781033349</v>
+        <v>0.05105748923345183</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -3132,12 +3132,12 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.0745508830524771</v>
+        <v>0.105262267852177</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.06442993775618643</v>
+        <v>0.09785721264778167</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -3153,12 +3153,12 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.1389808208086635</v>
+        <v>0.2031194804999587</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.1331258539547594</v>
+        <v>0.1659382492427716</v>
       </c>
       <c r="B134">
         <v>13</v>
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.2721066747634229</v>
+        <v>0.3690577297427302</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.2046859976721826</v>
+        <v>0.2518395201839896</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -3195,12 +3195,12 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.4767926724356055</v>
+        <v>0.6208972499267198</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.2319442335914174</v>
+        <v>0.2541018105839115</v>
       </c>
       <c r="B136">
         <v>15</v>
@@ -3216,12 +3216,12 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.7087369060270229</v>
+        <v>0.8749990605106313</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.1264384393502353</v>
+        <v>0.05498079683730299</v>
       </c>
       <c r="B137">
         <v>16</v>
@@ -3237,12 +3237,12 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.8351753453772582</v>
+        <v>0.9299798573479342</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.06319518243003897</v>
+        <v>0.02790471323026509</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -3258,12 +3258,12 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.8983705278072972</v>
+        <v>0.9578845705781993</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.0492130965032134</v>
+        <v>0.02057105921789389</v>
       </c>
       <c r="B139">
         <v>18</v>
@@ -3279,12 +3279,12 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9475836243105106</v>
+        <v>0.9784556297960932</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.02794646019938262</v>
+        <v>0.01143170663880768</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -3300,12 +3300,12 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.9755300845098932</v>
+        <v>0.9898873364349009</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.009867921663883407</v>
+        <v>0.003925186582588632</v>
       </c>
       <c r="B141">
         <v>20</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.9853980061737766</v>
+        <v>0.9938125230174896</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.003312079348211123</v>
+        <v>0.001416749968057361</v>
       </c>
       <c r="B142">
         <v>21</v>
@@ -3342,12 +3342,12 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.9887100855219877</v>
+        <v>0.9952292729855469</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.00754769495470877</v>
+        <v>0.003359613982608173</v>
       </c>
       <c r="B143">
         <v>22</v>
@@ -3363,12 +3363,12 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.9962577804766964</v>
+        <v>0.9985888869681551</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>6.072567177774404e-005</v>
+        <v>2.630570232467249e-005</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -3384,12 +3384,12 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9963185061484743</v>
+        <v>0.9986151926704797</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0006300288446940944</v>
+        <v>0.0002686939594591548</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -3405,12 +3405,12 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.9969485349931684</v>
+        <v>0.9988838866299389</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.000465563483629371</v>
+        <v>0.0001878978737476607</v>
       </c>
       <c r="B146">
         <v>25</v>
@@ -3426,12 +3426,12 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9974140984767977</v>
+        <v>0.9990717845036865</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.002585901523202267</v>
+        <v>0.0009282154963134437</v>
       </c>
       <c r="B147">
         <v>26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.03091761957127488</v>
+        <v>0.02956573696174094</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -3573,12 +3573,12 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.03091761957127488</v>
+        <v>0.02956573696174094</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.05078929409065036</v>
+        <v>0.05100421300695878</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -3594,12 +3594,12 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.08170691366192524</v>
+        <v>0.08056994996869972</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.05667659058330576</v>
+        <v>0.05647119637801296</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3615,12 +3615,12 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.138383504245231</v>
+        <v>0.1370411463467127</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.06972668997147992</v>
+        <v>0.07327900090706914</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.2081101942167109</v>
+        <v>0.2103201472537818</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.1138925892481963</v>
+        <v>0.1311289816944995</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.3220027834649072</v>
+        <v>0.3414491289482813</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.182194765059469</v>
+        <v>0.2278001460351841</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -3678,12 +3678,12 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.5041975485243762</v>
+        <v>0.5692492749834655</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.1168280420678701</v>
+        <v>0.1436559701954572</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -3699,12 +3699,12 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.6210255905922463</v>
+        <v>0.7129052451789226</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.07695058604750964</v>
+        <v>0.0776551427282635</v>
       </c>
       <c r="B160">
         <v>13</v>
@@ -3720,12 +3720,12 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.6979761766397559</v>
+        <v>0.7905603879071861</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.06312564632114748</v>
+        <v>0.06288062753854061</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -3741,12 +3741,12 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.7611018229609033</v>
+        <v>0.8534410154457267</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.07525040753621634</v>
+        <v>0.0665590238638787</v>
       </c>
       <c r="B162">
         <v>15</v>
@@ -3762,12 +3762,12 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.8363522304971197</v>
+        <v>0.9200000393096054</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.04441325215390713</v>
+        <v>0.02324376967322908</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3783,12 +3783,12 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.8807654826510268</v>
+        <v>0.9432438089828344</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.04710880248425733</v>
+        <v>0.02339805987442547</v>
       </c>
       <c r="B164">
         <v>17</v>
@@ -3804,12 +3804,12 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9278742851352841</v>
+        <v>0.9666418688572599</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.02564870527159644</v>
+        <v>0.01205920419669347</v>
       </c>
       <c r="B165">
         <v>18</v>
@@ -3825,12 +3825,12 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9535229904068806</v>
+        <v>0.9787010730539534</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.02637586312743441</v>
+        <v>0.01213585792722416</v>
       </c>
       <c r="B166">
         <v>19</v>
@@ -3846,12 +3846,12 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.9798988535343151</v>
+        <v>0.9908369309811775</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.01399629864730758</v>
+        <v>0.006263002880411336</v>
       </c>
       <c r="B167">
         <v>20</v>
@@ -3867,12 +3867,12 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9938951521816226</v>
+        <v>0.9970999338615889</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.002814756536225276</v>
+        <v>0.001353233165907172</v>
       </c>
       <c r="B168">
         <v>21</v>
@@ -3888,12 +3888,12 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9967099087178478</v>
+        <v>0.9984531670274961</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001934120690323138</v>
+        <v>0.000968981773118716</v>
       </c>
       <c r="B169">
         <v>22</v>
@@ -3909,12 +3909,12 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.998644029408171</v>
+        <v>0.9994221488006148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0003576186176252336</v>
+        <v>0.0001759104841665823</v>
       </c>
       <c r="B170">
         <v>23</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9990016480257963</v>
+        <v>0.9995980592847814</v>
       </c>
     </row>
     <row r="171">
@@ -3951,12 +3951,12 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9990016480257963</v>
+        <v>0.9995980592847814</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.980155146876946e-006</v>
+        <v>9.827401350088398e-007</v>
       </c>
       <c r="B172">
         <v>25</v>
@@ -3972,12 +3972,12 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9990046281809432</v>
+        <v>0.9995990420249163</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0009953718190569001</v>
+        <v>0.0004009579750836066</v>
       </c>
       <c r="B173">
         <v>26</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.02958122139658482</v>
+        <v>0.0287213322216107</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -4119,12 +4119,12 @@
         </is>
       </c>
       <c r="E179">
-        <v>0.02958122139658482</v>
+        <v>0.0287213322216107</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.04844052950150091</v>
+        <v>0.04939607755254043</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -4140,12 +4140,12 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.07802175089808573</v>
+        <v>0.07811740977415113</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.05405541065892427</v>
+        <v>0.05469148049157475</v>
       </c>
       <c r="B181">
         <v>8</v>
@@ -4161,12 +4161,12 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.13207716155701</v>
+        <v>0.1328088902657259</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.06650263274445155</v>
+        <v>0.0709692090181358</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -4182,12 +4182,12 @@
         </is>
       </c>
       <c r="E182">
-        <v>0.1985797943014616</v>
+        <v>0.2037780992838617</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1086265439692929</v>
+        <v>0.1269954157919541</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -4203,12 +4203,12 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.3072063382707544</v>
+        <v>0.3307735150758158</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.1737690074307367</v>
+        <v>0.22061937890737</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -4224,12 +4224,12 @@
         </is>
       </c>
       <c r="E184">
-        <v>0.4809753457014911</v>
+        <v>0.5513928939831858</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.1114246346144383</v>
+        <v>0.1391272537924352</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -4245,12 +4245,12 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.5923999803159293</v>
+        <v>0.690520147775621</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.07339107327395306</v>
+        <v>0.07520671779272525</v>
       </c>
       <c r="B186">
         <v>13</v>
@@ -4266,12 +4266,12 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.6657910535898824</v>
+        <v>0.7657268655683462</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.06020668274199104</v>
+        <v>0.06089911117116464</v>
       </c>
       <c r="B187">
         <v>14</v>
@@ -4287,12 +4287,12 @@
         </is>
       </c>
       <c r="E187">
-        <v>0.7259977363318735</v>
+        <v>0.8266259767395109</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.07177107425815658</v>
+        <v>0.06437401337362779</v>
       </c>
       <c r="B188">
         <v>15</v>
@@ -4308,12 +4308,12 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.79776881059003</v>
+        <v>0.8909999901131387</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.04224398405590276</v>
+        <v>0.03166959427616641</v>
       </c>
       <c r="B189">
         <v>16</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.8400127946459328</v>
+        <v>0.922669584389305</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.06320948772206092</v>
+        <v>0.03187985486087538</v>
       </c>
       <c r="B190">
         <v>17</v>
@@ -4350,12 +4350,12 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.9032222823679937</v>
+        <v>0.9545494392501804</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.03441562915210866</v>
+        <v>0.01643064531544031</v>
       </c>
       <c r="B191">
         <v>18</v>
@@ -4371,12 +4371,12 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9376379115201023</v>
+        <v>0.9709800845656208</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.03538999065006643</v>
+        <v>0.0165354460457498</v>
       </c>
       <c r="B192">
         <v>19</v>
@@ -4392,12 +4392,12 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.9730279021701688</v>
+        <v>0.9875155306113705</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.01878057182225284</v>
+        <v>0.008533020469098615</v>
       </c>
       <c r="B193">
         <v>20</v>
@@ -4413,12 +4413,12 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.9918084739924217</v>
+        <v>0.9960485510804692</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.003777373160769647</v>
+        <v>0.001844229203811056</v>
       </c>
       <c r="B194">
         <v>21</v>
@@ -4434,12 +4434,12 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.9955858471531913</v>
+        <v>0.9978927802842802</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.002596328920820826</v>
+        <v>0.0013195664281736</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -4455,12 +4455,12 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.9981821760740121</v>
+        <v>0.9992123467124539</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0004793071207125634</v>
+        <v>0.0002392620446688396</v>
       </c>
       <c r="B196">
         <v>23</v>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.9986614831947247</v>
+        <v>0.9994516087571227</v>
       </c>
     </row>
     <row r="197">
@@ -4497,12 +4497,12 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.9986614831947247</v>
+        <v>0.9994516087571227</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2.952610599872053e-006</v>
+        <v>1.318248179993607e-006</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -4518,12 +4518,12 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.9986644358053245</v>
+        <v>0.9994529270053026</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.001335564194675459</v>
+        <v>0.0005470729946973467</v>
       </c>
       <c r="B199">
         <v>26</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.00369210775047259</v>
+        <v>0.004949950500494995</v>
       </c>
       <c r="B205">
         <v>6</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="E205">
-        <v>0.00369210775047259</v>
+        <v>0.004949950500494995</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.002835538752362949</v>
+        <v>0.004179958200417996</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -4686,12 +4686,12 @@
         </is>
       </c>
       <c r="E206">
-        <v>0.006527646502835539</v>
+        <v>0.00912990870091299</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.003160444234404537</v>
+        <v>0.004619953800461996</v>
       </c>
       <c r="B207">
         <v>8</v>
@@ -4707,12 +4707,12 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.009688090737240076</v>
+        <v>0.01374986250137499</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.003898865784499055</v>
+        <v>0.006022439775602244</v>
       </c>
       <c r="B208">
         <v>9</v>
@@ -4728,12 +4728,12 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.01358695652173913</v>
+        <v>0.01977230227697723</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.006379962192816635</v>
+        <v>0.01075239247607524</v>
       </c>
       <c r="B209">
         <v>10</v>
@@ -4749,12 +4749,12 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.01996691871455577</v>
+        <v>0.03052469475305247</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.01019021739130435</v>
+        <v>0.01867231327686723</v>
       </c>
       <c r="B210">
         <v>11</v>
@@ -4770,12 +4770,12 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.03015713610586011</v>
+        <v>0.0491970080299197</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.006527646502835539</v>
+        <v>0.01176988230117699</v>
       </c>
       <c r="B211">
         <v>12</v>
@@ -4791,12 +4791,12 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.03668478260869566</v>
+        <v>0.06096689033109669</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.004312381852551985</v>
+        <v>0.006379936200637993</v>
       </c>
       <c r="B212">
         <v>13</v>
@@ -4812,12 +4812,12 @@
         </is>
       </c>
       <c r="E212">
-        <v>0.04099716446124764</v>
+        <v>0.06734682653173468</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.003514886578449906</v>
+        <v>0.002639973600263997</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -4833,12 +4833,12 @@
         </is>
       </c>
       <c r="E213">
-        <v>0.04451205103969754</v>
+        <v>0.06998680013199868</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.002097117202268431</v>
+        <v>0.3347266527334727</v>
       </c>
       <c r="B214">
         <v>15</v>
@@ -4854,12 +4854,12 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.04660916824196597</v>
+        <v>0.4047134528654714</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.2567934782608696</v>
+        <v>0.1729457705422946</v>
       </c>
       <c r="B215">
         <v>16</v>
@@ -4875,12 +4875,12 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.3034026465028356</v>
+        <v>0.577659223407766</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.2752244801512288</v>
+        <v>0.1741007589924101</v>
       </c>
       <c r="B216">
         <v>17</v>
@@ -4896,12 +4896,12 @@
         </is>
       </c>
       <c r="E216">
-        <v>0.5786271266540642</v>
+        <v>0.7517599824001761</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.1498405009451796</v>
+        <v>0.08973160268397316</v>
       </c>
       <c r="B217">
         <v>18</v>
@@ -4917,12 +4917,12 @@
         </is>
       </c>
       <c r="E217">
-        <v>0.7284676275992439</v>
+        <v>0.8414915850841491</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.154093809073724</v>
+        <v>0.09030909690903091</v>
       </c>
       <c r="B218">
         <v>19</v>
@@ -4938,12 +4938,12 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.8825614366729678</v>
+        <v>0.9318006819931801</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.08175803402646503</v>
+        <v>0.0466120338796612</v>
       </c>
       <c r="B219">
         <v>20</v>
@@ -4959,12 +4959,12 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.9643194706994329</v>
+        <v>0.9784127158728413</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.01645203213610586</v>
+        <v>0.01006489935100649</v>
       </c>
       <c r="B220">
         <v>21</v>
@@ -4980,12 +4980,12 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.9807715028355388</v>
+        <v>0.9884776152238478</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.01131261814744802</v>
+        <v>0.007204927950720493</v>
       </c>
       <c r="B221">
         <v>22</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.9920841209829868</v>
+        <v>0.9956825431745683</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.002097117202268431</v>
+        <v>0.001319986800131999</v>
       </c>
       <c r="B222">
         <v>23</v>
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.9941812381852552</v>
+        <v>0.9970025299747003</v>
       </c>
     </row>
     <row r="223">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="E223">
-        <v>0.9941812381852552</v>
+        <v>0.9970025299747003</v>
       </c>
     </row>
     <row r="224">
@@ -5064,12 +5064,12 @@
         </is>
       </c>
       <c r="E224">
-        <v>0.9941812381852552</v>
+        <v>0.9970025299747003</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.005818761814744802</v>
+        <v>0.002997470025299747</v>
       </c>
       <c r="B225">
         <v>26</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.00740317622565783</v>
+        <v>0.007403190136094686</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.00740317622565783</v>
+        <v>0.007403190136094686</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.008509894702031551</v>
+        <v>0.007478349426816459</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3069,12 +3069,12 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.01591307092768938</v>
+        <v>0.01488153956291114</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.01276390256367859</v>
+        <v>0.01121752414022469</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -3090,12 +3090,12 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.02867697349136797</v>
+        <v>0.02609906370313583</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.02552780512735718</v>
+        <v>0.02243504828044938</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -3111,12 +3111,12 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.05420477861872515</v>
+        <v>0.04853411198358521</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.05105748923345183</v>
+        <v>0.04487009656089876</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -3132,12 +3132,12 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.105262267852177</v>
+        <v>0.09340420854448397</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.09785721264778167</v>
+        <v>0.0859972604438532</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -3153,12 +3153,12 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.2031194804999587</v>
+        <v>0.1794014689883372</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.1659382492427716</v>
+        <v>0.145827813822921</v>
       </c>
       <c r="B134">
         <v>13</v>
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.3690577297427302</v>
+        <v>0.3252292828112581</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.2518395201839896</v>
+        <v>0.2213196844061383</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -3195,12 +3195,12 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.6208972499267198</v>
+        <v>0.5465489672173963</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.2541018105839115</v>
+        <v>0.2223362138131503</v>
       </c>
       <c r="B136">
         <v>15</v>
@@ -3216,12 +3216,12 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.8749990605106313</v>
+        <v>0.7688851810305466</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.05498079683730299</v>
+        <v>0.1061136446055359</v>
       </c>
       <c r="B137">
         <v>16</v>
@@ -3237,12 +3237,12 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.9299798573479342</v>
+        <v>0.8749988256360824</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.02790471323026509</v>
+        <v>0.04981557789039145</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -3258,12 +3258,12 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.9578845705781993</v>
+        <v>0.9248144035264739</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.02057105921789389</v>
+        <v>0.03672282944665851</v>
       </c>
       <c r="B139">
         <v>18</v>
@@ -3279,12 +3279,12 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9784556297960932</v>
+        <v>0.9615372329731324</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.01143170663880768</v>
+        <v>0.02040950539549758</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -3300,12 +3300,12 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.9898873364349009</v>
+        <v>0.98194673836863</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.003925186582588632</v>
+        <v>0.007006724877537331</v>
       </c>
       <c r="B141">
         <v>20</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.9938125230174896</v>
+        <v>0.9889534632461674</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.001416749968057361</v>
+        <v>0.002529110132787677</v>
       </c>
       <c r="B142">
         <v>21</v>
@@ -3342,12 +3342,12 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.9952292729855469</v>
+        <v>0.9914825733789551</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.003359613982608173</v>
+        <v>0.005997711399597522</v>
       </c>
       <c r="B143">
         <v>22</v>
@@ -3363,12 +3363,12 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.9985888869681551</v>
+        <v>0.9974802847785526</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>2.630570232467249e-005</v>
+        <v>4.885353896915275e-005</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -3384,12 +3384,12 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9986151926704797</v>
+        <v>0.9975291383175217</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0002686939594591548</v>
+        <v>0.0004791404783513058</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -3405,12 +3405,12 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.9988838866299389</v>
+        <v>0.998008278795873</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.0001878978737476607</v>
+        <v>0.0003363378259799362</v>
       </c>
       <c r="B146">
         <v>25</v>
@@ -3426,12 +3426,12 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9990717845036865</v>
+        <v>0.9983446166218529</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.0009282154963134437</v>
+        <v>0.00165538337814706</v>
       </c>
       <c r="B147">
         <v>26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.02956573696174094</v>
+        <v>0.02860161267339187</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -3573,12 +3573,12 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.02956573696174094</v>
+        <v>0.02860161267339187</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.05100421300695878</v>
+        <v>0.04916934053352857</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -3594,12 +3594,12 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.08056994996869972</v>
+        <v>0.07777095320692044</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.05647119637801296</v>
+        <v>0.05443976551866465</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3615,12 +3615,12 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.1370411463467127</v>
+        <v>0.1322107187255851</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.07327900090706914</v>
+        <v>0.07064217027904851</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.2103201472537818</v>
+        <v>0.2028528890046336</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.1311289816944995</v>
+        <v>0.1264105978487861</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.3414491289482813</v>
+        <v>0.3292634868534197</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.2278001460351841</v>
+        <v>0.2196036616825461</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -3678,12 +3678,12 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.5692492749834655</v>
+        <v>0.5488671485359657</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.1436559701954572</v>
+        <v>0.138486484892857</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -3699,12 +3699,12 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.7129052451789226</v>
+        <v>0.6873536334288227</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.0776551427282635</v>
+        <v>0.07486106538648636</v>
       </c>
       <c r="B160">
         <v>13</v>
@@ -3720,12 +3720,12 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.7905603879071861</v>
+        <v>0.7622146988153091</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.06288062753854061</v>
+        <v>0.06061824060379435</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -3741,12 +3741,12 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.8534410154457267</v>
+        <v>0.8228329394191034</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.0665590238638787</v>
+        <v>0.06406273800690865</v>
       </c>
       <c r="B162">
         <v>15</v>
@@ -3762,12 +3762,12 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.9200000393096054</v>
+        <v>0.8868956774260121</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.02324376967322908</v>
+        <v>0.03310353638342514</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3783,12 +3783,12 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.9432438089828344</v>
+        <v>0.9199992138094373</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.02339805987442547</v>
+        <v>0.0329806941079931</v>
       </c>
       <c r="B164">
         <v>17</v>
@@ -3804,12 +3804,12 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9666418688572599</v>
+        <v>0.9529799079174304</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.01205920419669347</v>
+        <v>0.01699743996698</v>
       </c>
       <c r="B165">
         <v>18</v>
@@ -3825,12 +3825,12 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9787010730539534</v>
+        <v>0.9699773478844104</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.01213585792722416</v>
+        <v>0.01710652390756364</v>
       </c>
       <c r="B166">
         <v>19</v>
@@ -3846,12 +3846,12 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.9908369309811775</v>
+        <v>0.987083871791974</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.006263002880411336</v>
+        <v>0.008827937281647855</v>
       </c>
       <c r="B167">
         <v>20</v>
@@ -3867,12 +3867,12 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9970999338615889</v>
+        <v>0.9959118090736219</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.001353233165907172</v>
+        <v>0.001907494852908659</v>
       </c>
       <c r="B168">
         <v>21</v>
@@ -3888,12 +3888,12 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9984531670274961</v>
+        <v>0.9978193039265305</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.000968981773118716</v>
+        <v>0.001365023364600787</v>
       </c>
       <c r="B169">
         <v>22</v>
@@ -3909,12 +3909,12 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9994221488006148</v>
+        <v>0.9991843272911313</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0001759104841665823</v>
+        <v>0.0002476500272709851</v>
       </c>
       <c r="B170">
         <v>23</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9995980592847814</v>
+        <v>0.9994319773184023</v>
       </c>
     </row>
     <row r="171">
@@ -3951,12 +3951,12 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9995980592847814</v>
+        <v>0.9994319773184023</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>9.827401350088398e-007</v>
+        <v>1.96547640691258e-006</v>
       </c>
       <c r="B172">
         <v>25</v>
@@ -3972,12 +3972,12 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9995990420249163</v>
+        <v>0.9994339427948091</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0004009579750836066</v>
+        <v>0.0005660572051908232</v>
       </c>
       <c r="B173">
         <v>26</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.0287213322216107</v>
+        <v>0.02778737170141132</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -4119,12 +4119,12 @@
         </is>
       </c>
       <c r="E179">
-        <v>0.0287213322216107</v>
+        <v>0.02778737170141132</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.04939607755254043</v>
+        <v>0.04761911039281185</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -4140,12 +4140,12 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.07811740977415113</v>
+        <v>0.07540648209422317</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.05469148049157475</v>
+        <v>0.05272337071008804</v>
       </c>
       <c r="B181">
         <v>8</v>
@@ -4161,12 +4161,12 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.1328088902657259</v>
+        <v>0.1281298528043112</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.0709692090181358</v>
+        <v>0.06841580738799497</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -4182,12 +4182,12 @@
         </is>
       </c>
       <c r="E182">
-        <v>0.2037780992838617</v>
+        <v>0.1965456601923062</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1269954157919541</v>
+        <v>0.1224264482943176</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -4203,12 +4203,12 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.3307735150758158</v>
+        <v>0.3189721084866237</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.22061937890737</v>
+        <v>0.2126816876751624</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -4224,12 +4224,12 @@
         </is>
       </c>
       <c r="E184">
-        <v>0.5513928939831858</v>
+        <v>0.5316537961617861</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.1391272537924352</v>
+        <v>0.1341212947314859</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -4245,12 +4245,12 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.690520147775621</v>
+        <v>0.6657750908932719</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.07520671779272525</v>
+        <v>0.07250106119048436</v>
       </c>
       <c r="B186">
         <v>13</v>
@@ -4266,12 +4266,12 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.7657268655683462</v>
+        <v>0.7382761520837563</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.06089911117116464</v>
+        <v>0.05870756226749382</v>
       </c>
       <c r="B187">
         <v>14</v>
@@ -4287,12 +4287,12 @@
         </is>
       </c>
       <c r="E187">
-        <v>0.8266259767395109</v>
+        <v>0.7969837143512502</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.06437401337362779</v>
+        <v>0.06204339148569305</v>
       </c>
       <c r="B188">
         <v>15</v>
@@ -4308,12 +4308,12 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.8909999901131387</v>
+        <v>0.8590271058369432</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.03166959427616641</v>
+        <v>0.03197281243161583</v>
       </c>
       <c r="B189">
         <v>16</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.922669584389305</v>
+        <v>0.890999918268559</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.03187985486087538</v>
+        <v>0.04493581445380987</v>
       </c>
       <c r="B190">
         <v>17</v>
@@ -4350,12 +4350,12 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.9545494392501804</v>
+        <v>0.9359357327223689</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.01643064531544031</v>
+        <v>0.02315899929078201</v>
       </c>
       <c r="B191">
         <v>18</v>
@@ -4371,12 +4371,12 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9709800845656208</v>
+        <v>0.9590947320131509</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.0165354460457498</v>
+        <v>0.02330730230878138</v>
       </c>
       <c r="B192">
         <v>19</v>
@@ -4392,12 +4392,12 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.9875155306113705</v>
+        <v>0.9824020343219322</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.008533020469098615</v>
+        <v>0.01202770432201133</v>
       </c>
       <c r="B193">
         <v>20</v>
@@ -4413,12 +4413,12 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.9960485510804692</v>
+        <v>0.9944297386439436</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.001844229203811056</v>
+        <v>0.00259958712439789</v>
       </c>
       <c r="B194">
         <v>21</v>
@@ -4434,12 +4434,12 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.9978927802842802</v>
+        <v>0.9970293257683415</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.0013195664281736</v>
+        <v>0.001860049407974352</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -4455,12 +4455,12 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.9992123467124539</v>
+        <v>0.9988893751763158</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0002392620446688396</v>
+        <v>0.0003374717565141277</v>
       </c>
       <c r="B196">
         <v>23</v>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.9994516087571227</v>
+        <v>0.9992268469328299</v>
       </c>
     </row>
     <row r="197">
@@ -4497,12 +4497,12 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.9994516087571227</v>
+        <v>0.9992268469328299</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.318248179993607e-006</v>
+        <v>1.977373573324967e-006</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -4518,12 +4518,12 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.9994529270053026</v>
+        <v>0.9992288243064033</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.0005470729946973467</v>
+        <v>0.000771175693596737</v>
       </c>
       <c r="B199">
         <v>26</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.03301561433416605</v>
+        <v>0.02442181682302857</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -444,12 +444,12 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.03301561433416605</v>
+        <v>0.02442181682302857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.03301561433416605</v>
+        <v>0.02248675483431866</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.0660312286683321</v>
+        <v>0.04690857165734723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.06603480256033623</v>
+        <v>0.04572974079066188</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -486,12 +486,12 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.1320660312286683</v>
+        <v>0.0926383124480091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.1337743516066431</v>
+        <v>0.1128830644264432</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.2658403828353115</v>
+        <v>0.2055213768744523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0968560472039656</v>
+        <v>0.08279841102496008</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -528,12 +528,12 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.362696430039277</v>
+        <v>0.2883197878994124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1004906953721673</v>
+        <v>0.09689989724153578</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.4631871254114443</v>
+        <v>0.3852196851409481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.346814053972917</v>
+        <v>0.3819678913162425</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -570,12 +570,12 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.8100011793843613</v>
+        <v>0.7671875764571907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.0579542327389951</v>
+        <v>0.06795403894145437</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -591,12 +591,12 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.8679554121233565</v>
+        <v>0.8351416153986451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.03704339062282216</v>
+        <v>0.04588988385179649</v>
       </c>
       <c r="B12">
         <v>18</v>
@@ -612,12 +612,12 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.9049988027461786</v>
+        <v>0.8810314992504416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.02069283470392092</v>
+        <v>0.02619228733223902</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.9256916374500995</v>
+        <v>0.9072237865826806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.03829067893226403</v>
+        <v>0.04984007935978363</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -654,12 +654,12 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.9639823163823635</v>
+        <v>0.9570638659424642</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.01360580685972831</v>
+        <v>0.0164769416234058</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -675,12 +675,12 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.9775881232420919</v>
+        <v>0.97354080756587</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01157583620138167</v>
+        <v>0.01346981080876694</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -696,12 +696,12 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.9891639594434735</v>
+        <v>0.9870106183746369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.00886682606225005</v>
+        <v>0.01051606101450629</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -717,12 +717,12 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.9980307855057236</v>
+        <v>0.9975266793891432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.001776224326053315</v>
+        <v>0.002166379743682134</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.9998070098317768</v>
+        <v>0.9996930591328254</v>
       </c>
     </row>
     <row r="19">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.9998070098317768</v>
+        <v>0.9996930591328254</v>
       </c>
     </row>
     <row r="20">
@@ -780,12 +780,12 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.9998070098317768</v>
+        <v>0.9996930591328254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.0001929901682230967</v>
+        <v>0.0003069408671746761</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.002371255813164612</v>
+        <v>0.001942270370883375</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -927,12 +927,12 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.002371255813164612</v>
+        <v>0.001942270370883375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.007113767439493836</v>
+        <v>0.00552410952039306</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.009485023252658448</v>
+        <v>0.007466379891276435</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.006323131388446928</v>
+        <v>0.004482162394346251</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.01580815464110538</v>
+        <v>0.01194854228562269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.0221306336895762</v>
+        <v>0.01444485773025164</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -990,12 +990,12 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.03793878833068157</v>
+        <v>0.02639340001587432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.06549036722174276</v>
+        <v>0.04346452477406322</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -1011,12 +1011,12 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.1034291555524243</v>
+        <v>0.06985792478993755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.08774429316680399</v>
+        <v>0.07095667709910715</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -1032,12 +1032,12 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.1911734487192283</v>
+        <v>0.1408146018890447</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.09427225930774986</v>
+        <v>0.07723326075757882</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -1053,12 +1053,12 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.2854457080269782</v>
+        <v>0.2180478626466235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.1523709622601754</v>
+        <v>0.140808376663497</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -1074,12 +1074,12 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.4378166702871535</v>
+        <v>0.3588562393101205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1589119752006435</v>
+        <v>0.1677316990041196</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1095,12 +1095,12 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.596728645487797</v>
+        <v>0.52658793831424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1661248983165062</v>
+        <v>0.1866805074181344</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -1116,12 +1116,12 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.7628535438043033</v>
+        <v>0.7132684457323745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.07014546529127307</v>
+        <v>0.08327328584523779</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -1137,12 +1137,12 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.8329990090955763</v>
+        <v>0.7965417315776122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.03791008537173268</v>
+        <v>0.04598496296768952</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -1158,12 +1158,12 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.8709090944673089</v>
+        <v>0.8425266945453017</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.04418298658201903</v>
+        <v>0.05511269992700923</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1179,12 +1179,12 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.915092081049328</v>
+        <v>0.897639394472311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.03845609393173784</v>
+        <v>0.04464264870896604</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.9535481749810658</v>
+        <v>0.9422820431812771</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.01137354748350069</v>
+        <v>0.01267922813428434</v>
       </c>
       <c r="B41">
         <v>22</v>
@@ -1221,12 +1221,12 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.9649217224645665</v>
+        <v>0.9549612713155613</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.008500642228706482</v>
+        <v>0.00966155005003525</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -1242,12 +1242,12 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.973422364693273</v>
+        <v>0.9646228213655966</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01152815205783907</v>
+        <v>0.01347450069800341</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -1263,12 +1263,12 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.9849505167511121</v>
+        <v>0.9780973220636</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.001999422026781165</v>
+        <v>0.002455851478568883</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -1284,12 +1284,12 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.9869499387778933</v>
+        <v>0.9805531735421689</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.002700035161124713</v>
+        <v>0.003737469788202264</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.989649973939018</v>
+        <v>0.9842906433303712</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.007266414993903883</v>
+        <v>0.01116416386661209</v>
       </c>
       <c r="B46">
         <v>27</v>
@@ -1326,12 +1326,12 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.9969163889329219</v>
+        <v>0.9954548071969832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0003750954862640033</v>
+        <v>0.0005672736780344473</v>
       </c>
       <c r="B47">
         <v>28</v>
@@ -1347,12 +1347,12 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.9972914844191858</v>
+        <v>0.9960220808750178</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.002697425801220267</v>
+        <v>0.00396002160153265</v>
       </c>
       <c r="B48">
         <v>29</v>
@@ -1368,12 +1368,12 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.9999889102204062</v>
+        <v>0.9999821024765504</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.108977959389227e-005</v>
+        <v>1.789752344964648e-005</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.006390841092857199</v>
+        <v>0.005279630873706522</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1452,12 +1452,12 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.006390841092857199</v>
+        <v>0.005279630873706522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.008216424712637211</v>
+        <v>0.006435754422693351</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -1473,12 +1473,12 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.01460726580549441</v>
+        <v>0.01171538529639987</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01825929866080587</v>
+        <v>0.01305482212882966</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -1494,12 +1494,12 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.03286656446630028</v>
+        <v>0.02477020742522953</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.01369490680348012</v>
+        <v>0.009016722129350436</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -1515,12 +1515,12 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.0465614712697804</v>
+        <v>0.03378692955457997</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.04564824665201468</v>
+        <v>0.03056019914488519</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -1536,12 +1536,12 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.09220971792179508</v>
+        <v>0.06434712869946516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.115063704991227</v>
+        <v>0.09385952578103436</v>
       </c>
       <c r="B57">
         <v>13</v>
@@ -1557,12 +1557,12 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.2072734229130221</v>
+        <v>0.1582066544804995</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.1192801193164752</v>
+        <v>0.09857151040771582</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -1578,12 +1578,12 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.3265535422294972</v>
+        <v>0.2567781648882154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.1185218399182166</v>
+        <v>0.1104816660677738</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -1599,12 +1599,12 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.4450753821477139</v>
+        <v>0.3672598309559892</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1646176099137241</v>
+        <v>0.1752672884736565</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -1620,12 +1620,12 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.6096929920614379</v>
+        <v>0.5425271194296457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1709037115006575</v>
+        <v>0.1937225615948256</v>
       </c>
       <c r="B61">
         <v>17</v>
@@ -1641,12 +1641,12 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.7805967035620953</v>
+        <v>0.7362496810244713</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.1394030886901243</v>
+        <v>0.166932783393483</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.9199997922522196</v>
+        <v>0.9031824644179542</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.03620784126684597</v>
+        <v>0.04430348763937278</v>
       </c>
       <c r="B63">
         <v>19</v>
@@ -1683,12 +1683,12 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.9562076335190656</v>
+        <v>0.947485952057327</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.01548326894594836</v>
+        <v>0.0194812025768015</v>
       </c>
       <c r="B64">
         <v>20</v>
@@ -1704,12 +1704,12 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.971690902465014</v>
+        <v>0.9669671546341285</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.0126379899709759</v>
+        <v>0.01479838142703142</v>
       </c>
       <c r="B65">
         <v>21</v>
@@ -1725,12 +1725,12 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.9843288924359899</v>
+        <v>0.9817655360611599</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.007402745906286708</v>
+        <v>0.008324089552705173</v>
       </c>
       <c r="B66">
         <v>22</v>
@@ -1746,12 +1746,12 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.9917316383422766</v>
+        <v>0.9900896256138652</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.004248442108051352</v>
+        <v>0.004871342196947209</v>
       </c>
       <c r="B67">
         <v>23</v>
@@ -1767,12 +1767,12 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.9959800804503279</v>
+        <v>0.9949609678108123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.002747464395060104</v>
+        <v>0.003239229042656793</v>
       </c>
       <c r="B68">
         <v>24</v>
@@ -1788,12 +1788,12 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.9987275448453881</v>
+        <v>0.9982001968534692</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.0004691637372786945</v>
+        <v>0.0005811864327339197</v>
       </c>
       <c r="B69">
         <v>25</v>
@@ -1809,12 +1809,12 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.9991967085826667</v>
+        <v>0.998781383286203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.0001125300476867718</v>
+        <v>0.0001572744647720822</v>
       </c>
       <c r="B70">
         <v>26</v>
@@ -1830,12 +1830,12 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.9993092386303535</v>
+        <v>0.9989386577509751</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.0002544910309223915</v>
+        <v>0.000393706938303623</v>
       </c>
       <c r="B71">
         <v>27</v>
@@ -1851,12 +1851,12 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.9995637296612759</v>
+        <v>0.9993323646892788</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.000405973787423815</v>
+        <v>0.000619723884366814</v>
       </c>
       <c r="B72">
         <v>28</v>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.9999697034486997</v>
+        <v>0.9999520885736456</v>
       </c>
     </row>
     <row r="73">
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9999697034486997</v>
+        <v>0.9999520885736456</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>3.02965513002847e-005</v>
+        <v>4.791142635440915e-005</v>
       </c>
       <c r="B74">
         <v>30</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0004542519931561039</v>
+        <v>0.0004235390330810379</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -1956,12 +1956,12 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.0004542519931561039</v>
+        <v>0.0004235390330810379</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.002092236160006291</v>
+        <v>0.001864009370647254</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.002546488153162395</v>
+        <v>0.002287548403728293</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.003022072422240194</v>
+        <v>0.002713685835785287</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -1998,12 +1998,12 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.00556856057540259</v>
+        <v>0.005001234239513579</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.004881744946708001</v>
+        <v>0.004156070783123262</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2019,12 +2019,12 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.01045030552211059</v>
+        <v>0.009157305022636841</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.01650511650455183</v>
+        <v>0.01282651789237021</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2040,12 +2040,12 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.02695542202666242</v>
+        <v>0.02198382291500705</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.05744562308754578</v>
+        <v>0.04110803937805269</v>
       </c>
       <c r="B81">
         <v>11</v>
@@ -2061,12 +2061,12 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.08440104511420819</v>
+        <v>0.06309186229305974</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.09796565378092631</v>
+        <v>0.07128297317016299</v>
       </c>
       <c r="B82">
         <v>12</v>
@@ -2082,12 +2082,12 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.1823666988951345</v>
+        <v>0.1343748354632227</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.1362455863625688</v>
+        <v>0.1207960126883925</v>
       </c>
       <c r="B83">
         <v>13</v>
@@ -2103,12 +2103,12 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.3186122852577033</v>
+        <v>0.2551708481516152</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.1641753914629487</v>
+        <v>0.1474625608315971</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.482787676720652</v>
+        <v>0.4026334089832123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.1751443640859005</v>
+        <v>0.1774502731395976</v>
       </c>
       <c r="B85">
         <v>15</v>
@@ -2145,12 +2145,12 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.6579320408065524</v>
+        <v>0.5800836821228099</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1413678422632959</v>
+        <v>0.1635921908537724</v>
       </c>
       <c r="B86">
         <v>16</v>
@@ -2166,12 +2166,12 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.7992998830698483</v>
+        <v>0.7436758729765823</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.08960643414904192</v>
+        <v>0.1103968097130889</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -2187,12 +2187,12 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.8889063172188902</v>
+        <v>0.8540726826896712</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.04909351421430196</v>
+        <v>0.06389736597560651</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -2208,12 +2208,12 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.9379998314331922</v>
+        <v>0.9179700486652777</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.0172647128393322</v>
+        <v>0.02296027389860364</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -2229,12 +2229,12 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.9552645442725244</v>
+        <v>0.9409303225638813</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.01004802480901862</v>
+        <v>0.01374142784758886</v>
       </c>
       <c r="B90">
         <v>20</v>
@@ -2250,12 +2250,12 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.9653125690815431</v>
+        <v>0.9546717504114702</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.01046138993999147</v>
+        <v>0.01331446986848682</v>
       </c>
       <c r="B91">
         <v>21</v>
@@ -2271,12 +2271,12 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.9757739590215345</v>
+        <v>0.9679862202799571</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.007887190742126874</v>
+        <v>0.009640196958642378</v>
       </c>
       <c r="B92">
         <v>22</v>
@@ -2292,12 +2292,12 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.9836611497636614</v>
+        <v>0.9776264172385994</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.005683587553411732</v>
+        <v>0.007082551819255367</v>
       </c>
       <c r="B93">
         <v>23</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.9893447373170732</v>
+        <v>0.9847089690578548</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.003207684136754947</v>
+        <v>0.00411039366428275</v>
       </c>
       <c r="B94">
         <v>24</v>
@@ -2334,12 +2334,12 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.9925524214538281</v>
+        <v>0.9888193627221376</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.003017785053059854</v>
+        <v>0.004062938693511319</v>
       </c>
       <c r="B95">
         <v>25</v>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.9955702065068879</v>
+        <v>0.9928823014156488</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.002103843427787213</v>
+        <v>0.003192748552247307</v>
       </c>
       <c r="B96">
         <v>26</v>
@@ -2376,12 +2376,12 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.9976740499346751</v>
+        <v>0.9960750499678961</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.001058771047584151</v>
+        <v>0.001783459002392578</v>
       </c>
       <c r="B97">
         <v>27</v>
@@ -2397,12 +2397,12 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.9987328209822592</v>
+        <v>0.9978585089702887</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.0005466918554834511</v>
+        <v>0.0009061574534048941</v>
       </c>
       <c r="B98">
         <v>28</v>
@@ -2418,12 +2418,12 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.9992795128377427</v>
+        <v>0.9987646664236937</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0001829974650145447</v>
+        <v>0.0002945763891690525</v>
       </c>
       <c r="B99">
         <v>29</v>
@@ -2439,12 +2439,12 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.9994625103027572</v>
+        <v>0.9990592428128626</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0003930785548512419</v>
+        <v>0.0006878919394244819</v>
       </c>
       <c r="B100">
         <v>30</v>
@@ -2460,12 +2460,12 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.9998555888576085</v>
+        <v>0.9997471347522872</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0001444111423914778</v>
+        <v>0.0002528652477128961</v>
       </c>
       <c r="B101">
         <v>31</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0009482709485841468</v>
+        <v>0.0008899732497293354</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -2502,12 +2502,12 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.0009482709485841468</v>
+        <v>0.0008899732497293354</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0006413508491056358</v>
+        <v>0.0005751767851443555</v>
       </c>
       <c r="B103">
         <v>7</v>
@@ -2523,12 +2523,12 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.001589621797689783</v>
+        <v>0.001465150034873691</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.001282631158082685</v>
+        <v>0.001159361020750287</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2544,12 +2544,12 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.002872252955772468</v>
+        <v>0.002624511055623978</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.004809990288035096</v>
+        <v>0.004121976479782499</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -2565,12 +2565,12 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.007682243243807564</v>
+        <v>0.006746487535406477</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.0274169023177229</v>
+        <v>0.02144646096807063</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.03509914556153046</v>
+        <v>0.02819294850347711</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.06292285280080992</v>
+        <v>0.04532381923699837</v>
       </c>
       <c r="B107">
         <v>11</v>
@@ -2607,12 +2607,12 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.09802199836234038</v>
+        <v>0.07351676774047548</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.1180048176086219</v>
+        <v>0.08642918012792994</v>
       </c>
       <c r="B108">
         <v>12</v>
@@ -2628,12 +2628,12 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.2160268159709623</v>
+        <v>0.1599459478684054</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1215321061984458</v>
+        <v>0.1084600110522346</v>
       </c>
       <c r="B109">
         <v>13</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.3375589221694081</v>
+        <v>0.26840595892064</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.1537736711509497</v>
+        <v>0.1390286049697169</v>
       </c>
       <c r="B110">
         <v>14</v>
@@ -2670,12 +2670,12 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.4913325933203577</v>
+        <v>0.4074345638903569</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.1514401331571899</v>
+        <v>0.1544436956807789</v>
       </c>
       <c r="B111">
         <v>15</v>
@@ -2691,12 +2691,12 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.6427727264775477</v>
+        <v>0.5618782595711358</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.1499934256600158</v>
+        <v>0.1747162165587955</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -2712,12 +2712,12 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.7927661521375634</v>
+        <v>0.7365944761299312</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.1272338647920674</v>
+        <v>0.1577860169639079</v>
       </c>
       <c r="B113">
         <v>17</v>
@@ -2733,12 +2733,12 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.9200000169296309</v>
+        <v>0.8943804930938392</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.03932266522049998</v>
+        <v>0.05151695216105916</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -2754,12 +2754,12 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.9593226821501308</v>
+        <v>0.9458974452548983</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.01568974702052605</v>
+        <v>0.02100305296854459</v>
       </c>
       <c r="B115">
         <v>19</v>
@@ -2775,12 +2775,12 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.9750124291706569</v>
+        <v>0.9669004982234429</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.009215574018885567</v>
+        <v>0.01268601894183258</v>
       </c>
       <c r="B116">
         <v>20</v>
@@ -2796,12 +2796,12 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.9842280031895425</v>
+        <v>0.9795865171652755</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.005569002071622496</v>
+        <v>0.007134457927452508</v>
       </c>
       <c r="B117">
         <v>21</v>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.989797005261165</v>
+        <v>0.9867209750927281</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.003751253498084976</v>
+        <v>0.0046151576076323</v>
       </c>
       <c r="B118">
         <v>22</v>
@@ -2838,12 +2838,12 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.9935482587592499</v>
+        <v>0.9913361327003603</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.001291025433384442</v>
+        <v>0.001619391016488927</v>
       </c>
       <c r="B119">
         <v>23</v>
@@ -2859,12 +2859,12 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.9948392841926343</v>
+        <v>0.9929555237168493</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.002344119013047667</v>
+        <v>0.003023624685354433</v>
       </c>
       <c r="B120">
         <v>24</v>
@@ -2880,12 +2880,12 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.9971834032056821</v>
+        <v>0.9959791484022037</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.002034236228168536</v>
+        <v>0.002756837003126514</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -2901,12 +2901,12 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.9992176394338506</v>
+        <v>0.9987359854053302</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.0004147054159582087</v>
+        <v>0.0006334930623595081</v>
       </c>
       <c r="B122">
         <v>26</v>
@@ -2922,12 +2922,12 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.9996323448498088</v>
+        <v>0.9993694784676896</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2.214960037606353e-005</v>
+        <v>3.760842718493122e-005</v>
       </c>
       <c r="B123">
         <v>27</v>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.9996544944501848</v>
+        <v>0.9994070868948746</v>
       </c>
     </row>
     <row r="124">
@@ -2964,12 +2964,12 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.9996544944501848</v>
+        <v>0.9994070868948746</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0001108890821374901</v>
+        <v>0.0001796847076613381</v>
       </c>
       <c r="B125">
         <v>29</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.9997653835323224</v>
+        <v>0.999586771602536</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.0001173082338388333</v>
+        <v>0.0002066141987320296</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -3006,12 +3006,12 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.9998826917661612</v>
+        <v>0.999793385801268</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.0001173082338388333</v>
+        <v>0.0002066141987320296</v>
       </c>
       <c r="B127">
         <v>31</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.007403190136094686</v>
+        <v>0.006791154293811042</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.007403190136094686</v>
+        <v>0.006791154293811042</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.007478349426816459</v>
+        <v>0.006915135873690603</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3069,12 +3069,12 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.01488153956291114</v>
+        <v>0.01370629016750164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.01121752414022469</v>
+        <v>0.00983249835534639</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -3090,12 +3090,12 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.02609906370313583</v>
+        <v>0.02353878852284803</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.02243504828044938</v>
+        <v>0.01795202671929558</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -3111,12 +3111,12 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.04853411198358521</v>
+        <v>0.04149081524214362</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.04487009656089876</v>
+        <v>0.03306006781033349</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -3132,12 +3132,12 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.09340420854448397</v>
+        <v>0.0745508830524771</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.0859972604438532</v>
+        <v>0.06442993775618643</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -3153,12 +3153,12 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.1794014689883372</v>
+        <v>0.1389808208086635</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.145827813822921</v>
+        <v>0.1331258539547594</v>
       </c>
       <c r="B134">
         <v>13</v>
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.3252292828112581</v>
+        <v>0.2721066747634229</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.2213196844061383</v>
+        <v>0.2046859976721826</v>
       </c>
       <c r="B135">
         <v>14</v>
@@ -3195,12 +3195,12 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.5465489672173963</v>
+        <v>0.4767926724356055</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.2223362138131503</v>
+        <v>0.2319442335914174</v>
       </c>
       <c r="B136">
         <v>15</v>
@@ -3216,12 +3216,12 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.7688851810305466</v>
+        <v>0.7087369060270229</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.1061136446055359</v>
+        <v>0.1264384393502353</v>
       </c>
       <c r="B137">
         <v>16</v>
@@ -3237,12 +3237,12 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.8749988256360824</v>
+        <v>0.8351753453772582</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.04981557789039145</v>
+        <v>0.06319518243003897</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -3258,12 +3258,12 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.9248144035264739</v>
+        <v>0.8983705278072972</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.03672282944665851</v>
+        <v>0.0492130965032134</v>
       </c>
       <c r="B139">
         <v>18</v>
@@ -3279,12 +3279,12 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9615372329731324</v>
+        <v>0.9475836243105106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.02040950539549758</v>
+        <v>0.02794646019938262</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -3300,12 +3300,12 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.98194673836863</v>
+        <v>0.9755300845098932</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.007006724877537331</v>
+        <v>0.009867921663883407</v>
       </c>
       <c r="B141">
         <v>20</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.9889534632461674</v>
+        <v>0.9853980061737766</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.002529110132787677</v>
+        <v>0.003312079348211123</v>
       </c>
       <c r="B142">
         <v>21</v>
@@ -3342,12 +3342,12 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.9914825733789551</v>
+        <v>0.9887100855219877</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.005997711399597522</v>
+        <v>0.00754769495470877</v>
       </c>
       <c r="B143">
         <v>22</v>
@@ -3363,12 +3363,12 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.9974802847785526</v>
+        <v>0.9962577804766964</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>4.885353896915275e-005</v>
+        <v>6.072567177774404e-005</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -3384,12 +3384,12 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9975291383175217</v>
+        <v>0.9963185061484743</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0004791404783513058</v>
+        <v>0.0006300288446940944</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -3405,12 +3405,12 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.998008278795873</v>
+        <v>0.9969485349931684</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.0003363378259799362</v>
+        <v>0.000465563483629371</v>
       </c>
       <c r="B146">
         <v>25</v>
@@ -3426,12 +3426,12 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9983446166218529</v>
+        <v>0.9974140984767977</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.00165538337814706</v>
+        <v>0.002585901523202267</v>
       </c>
       <c r="B147">
         <v>26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.02860161267339187</v>
+        <v>0.03091761957127488</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -3573,12 +3573,12 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.02860161267339187</v>
+        <v>0.03091761957127488</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.04916934053352857</v>
+        <v>0.05078929409065036</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -3594,12 +3594,12 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.07777095320692044</v>
+        <v>0.08170691366192524</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.05443976551866465</v>
+        <v>0.05667659058330576</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3615,12 +3615,12 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.1322107187255851</v>
+        <v>0.138383504245231</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.07064217027904851</v>
+        <v>0.06972668997147992</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -3636,12 +3636,12 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.2028528890046336</v>
+        <v>0.2081101942167109</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.1264105978487861</v>
+        <v>0.1138925892481963</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.3292634868534197</v>
+        <v>0.3220027834649072</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.2196036616825461</v>
+        <v>0.182194765059469</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -3678,12 +3678,12 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.5488671485359657</v>
+        <v>0.5041975485243762</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.138486484892857</v>
+        <v>0.1168280420678701</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -3699,12 +3699,12 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.6873536334288227</v>
+        <v>0.6210255905922463</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.07486106538648636</v>
+        <v>0.07695058604750964</v>
       </c>
       <c r="B160">
         <v>13</v>
@@ -3720,12 +3720,12 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.7622146988153091</v>
+        <v>0.6979761766397559</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.06061824060379435</v>
+        <v>0.06312564632114748</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -3741,12 +3741,12 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.8228329394191034</v>
+        <v>0.7611018229609033</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.06406273800690865</v>
+        <v>0.07525040753621634</v>
       </c>
       <c r="B162">
         <v>15</v>
@@ -3762,12 +3762,12 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.8868956774260121</v>
+        <v>0.8363522304971197</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.03310353638342514</v>
+        <v>0.04441325215390713</v>
       </c>
       <c r="B163">
         <v>16</v>
@@ -3783,12 +3783,12 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.9199992138094373</v>
+        <v>0.8807654826510268</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.0329806941079931</v>
+        <v>0.04710880248425733</v>
       </c>
       <c r="B164">
         <v>17</v>
@@ -3804,12 +3804,12 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9529799079174304</v>
+        <v>0.9278742851352841</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.01699743996698</v>
+        <v>0.02564870527159644</v>
       </c>
       <c r="B165">
         <v>18</v>
@@ -3825,12 +3825,12 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9699773478844104</v>
+        <v>0.9535229904068806</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.01710652390756364</v>
+        <v>0.02637586312743441</v>
       </c>
       <c r="B166">
         <v>19</v>
@@ -3846,12 +3846,12 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.987083871791974</v>
+        <v>0.9798988535343151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.008827937281647855</v>
+        <v>0.01399629864730758</v>
       </c>
       <c r="B167">
         <v>20</v>
@@ -3867,12 +3867,12 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9959118090736219</v>
+        <v>0.9938951521816226</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.001907494852908659</v>
+        <v>0.002814756536225276</v>
       </c>
       <c r="B168">
         <v>21</v>
@@ -3888,12 +3888,12 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9978193039265305</v>
+        <v>0.9967099087178478</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001365023364600787</v>
+        <v>0.001934120690323138</v>
       </c>
       <c r="B169">
         <v>22</v>
@@ -3909,12 +3909,12 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9991843272911313</v>
+        <v>0.998644029408171</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0002476500272709851</v>
+        <v>0.0003576186176252336</v>
       </c>
       <c r="B170">
         <v>23</v>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9994319773184023</v>
+        <v>0.9990016480257963</v>
       </c>
     </row>
     <row r="171">
@@ -3951,12 +3951,12 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9994319773184023</v>
+        <v>0.9990016480257963</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.96547640691258e-006</v>
+        <v>2.980155146876946e-006</v>
       </c>
       <c r="B172">
         <v>25</v>
@@ -3972,12 +3972,12 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9994339427948091</v>
+        <v>0.9990046281809432</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0005660572051908232</v>
+        <v>0.0009953718190569001</v>
       </c>
       <c r="B173">
         <v>26</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.02778737170141132</v>
+        <v>0.02958122139658482</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -4119,12 +4119,12 @@
         </is>
       </c>
       <c r="E179">
-        <v>0.02778737170141132</v>
+        <v>0.02958122139658482</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.04761911039281185</v>
+        <v>0.04844052950150091</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -4140,12 +4140,12 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.07540648209422317</v>
+        <v>0.07802175089808573</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.05272337071008804</v>
+        <v>0.05405541065892427</v>
       </c>
       <c r="B181">
         <v>8</v>
@@ -4161,12 +4161,12 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.1281298528043112</v>
+        <v>0.13207716155701</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.06841580738799497</v>
+        <v>0.06650263274445155</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -4182,12 +4182,12 @@
         </is>
       </c>
       <c r="E182">
-        <v>0.1965456601923062</v>
+        <v>0.1985797943014616</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1224264482943176</v>
+        <v>0.1086265439692929</v>
       </c>
       <c r="B183">
         <v>10</v>
@@ -4203,12 +4203,12 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.3189721084866237</v>
+        <v>0.3072063382707544</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.2126816876751624</v>
+        <v>0.1737690074307367</v>
       </c>
       <c r="B184">
         <v>11</v>
@@ -4224,12 +4224,12 @@
         </is>
       </c>
       <c r="E184">
-        <v>0.5316537961617861</v>
+        <v>0.4809753457014911</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.1341212947314859</v>
+        <v>0.1114246346144383</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -4245,12 +4245,12 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.6657750908932719</v>
+        <v>0.5923999803159293</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.07250106119048436</v>
+        <v>0.07339107327395306</v>
       </c>
       <c r="B186">
         <v>13</v>
@@ -4266,12 +4266,12 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.7382761520837563</v>
+        <v>0.6657910535898824</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.05870756226749382</v>
+        <v>0.06020668274199104</v>
       </c>
       <c r="B187">
         <v>14</v>
@@ -4287,12 +4287,12 @@
         </is>
       </c>
       <c r="E187">
-        <v>0.7969837143512502</v>
+        <v>0.7259977363318735</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.06204339148569305</v>
+        <v>0.07177107425815658</v>
       </c>
       <c r="B188">
         <v>15</v>
@@ -4308,12 +4308,12 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.8590271058369432</v>
+        <v>0.79776881059003</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.03197281243161583</v>
+        <v>0.04224398405590276</v>
       </c>
       <c r="B189">
         <v>16</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.890999918268559</v>
+        <v>0.8400127946459328</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.04493581445380987</v>
+        <v>0.06320948772206092</v>
       </c>
       <c r="B190">
         <v>17</v>
@@ -4350,12 +4350,12 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.9359357327223689</v>
+        <v>0.9032222823679937</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.02315899929078201</v>
+        <v>0.03441562915210866</v>
       </c>
       <c r="B191">
         <v>18</v>
@@ -4371,12 +4371,12 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9590947320131509</v>
+        <v>0.9376379115201023</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.02330730230878138</v>
+        <v>0.03538999065006643</v>
       </c>
       <c r="B192">
         <v>19</v>
@@ -4392,12 +4392,12 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.9824020343219322</v>
+        <v>0.9730279021701688</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.01202770432201133</v>
+        <v>0.01878057182225284</v>
       </c>
       <c r="B193">
         <v>20</v>
@@ -4413,12 +4413,12 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.9944297386439436</v>
+        <v>0.9918084739924217</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.00259958712439789</v>
+        <v>0.003777373160769647</v>
       </c>
       <c r="B194">
         <v>21</v>
@@ -4434,12 +4434,12 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.9970293257683415</v>
+        <v>0.9955858471531913</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.001860049407974352</v>
+        <v>0.002596328920820826</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -4455,12 +4455,12 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.9988893751763158</v>
+        <v>0.9981821760740121</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0003374717565141277</v>
+        <v>0.0004793071207125634</v>
       </c>
       <c r="B196">
         <v>23</v>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.9992268469328299</v>
+        <v>0.9986614831947247</v>
       </c>
     </row>
     <row r="197">
@@ -4497,12 +4497,12 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.9992268469328299</v>
+        <v>0.9986614831947247</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.977373573324967e-006</v>
+        <v>2.952610599872053e-006</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -4518,12 +4518,12 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.9992288243064033</v>
+        <v>0.9986644358053245</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.000771175693596737</v>
+        <v>0.001335564194675459</v>
       </c>
       <c r="B199">
         <v>26</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.004949950500494995</v>
+        <v>0.004076602199469094</v>
       </c>
       <c r="B205">
         <v>6</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="E205">
-        <v>0.004949950500494995</v>
+        <v>0.004076602199469094</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.004179958200417996</v>
+        <v>0.003286563013525471</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -4686,12 +4686,12 @@
         </is>
       </c>
       <c r="E206">
-        <v>0.00912990870091299</v>
+        <v>0.007363165212994564</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.004619953800461996</v>
+        <v>0.00366578182277841</v>
       </c>
       <c r="B207">
         <v>8</v>
@@ -4707,12 +4707,12 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.01374986250137499</v>
+        <v>0.01102894703577297</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.006022439775602244</v>
+        <v>0.004487422576159778</v>
       </c>
       <c r="B208">
         <v>9</v>
@@ -4728,12 +4728,12 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.01977230227697723</v>
+        <v>0.01551636961193275</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.01075239247607524</v>
+        <v>0.00733156364555682</v>
       </c>
       <c r="B209">
         <v>10</v>
@@ -4749,12 +4749,12 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.03052469475305247</v>
+        <v>0.02284793325748957</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.01867231327686723</v>
+        <v>0.01175578308684111</v>
       </c>
       <c r="B210">
         <v>11</v>
@@ -4770,12 +4770,12 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.0491970080299197</v>
+        <v>0.03460371634433068</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.01176988230117699</v>
+        <v>0.007521173050183289</v>
       </c>
       <c r="B211">
         <v>12</v>
@@ -4791,12 +4791,12 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.06096689033109669</v>
+        <v>0.04212488939451397</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.006379936200637993</v>
+        <v>0.004961446087725951</v>
       </c>
       <c r="B212">
         <v>13</v>
@@ -4812,12 +4812,12 @@
         </is>
       </c>
       <c r="E212">
-        <v>0.06734682653173468</v>
+        <v>0.04708633548223992</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.002639973600263997</v>
+        <v>0.002085703450891164</v>
       </c>
       <c r="B213">
         <v>14</v>
@@ -4833,12 +4833,12 @@
         </is>
       </c>
       <c r="E213">
-        <v>0.06998680013199868</v>
+        <v>0.04917203893313108</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.3347266527334727</v>
+        <v>0.2979711793704968</v>
       </c>
       <c r="B214">
         <v>15</v>
@@ -4854,12 +4854,12 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.4047134528654714</v>
+        <v>0.3471432183036279</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.1729457705422946</v>
+        <v>0.1758627227910505</v>
       </c>
       <c r="B215">
         <v>16</v>
@@ -4875,12 +4875,12 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.577659223407766</v>
+        <v>0.5230059410946784</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.1741007589924101</v>
+        <v>0.1884717481987107</v>
       </c>
       <c r="B216">
         <v>17</v>
@@ -4896,12 +4896,12 @@
         </is>
       </c>
       <c r="E216">
-        <v>0.7517599824001761</v>
+        <v>0.711477689293389</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.08973160268397316</v>
+        <v>0.1026102894703577</v>
       </c>
       <c r="B217">
         <v>18</v>
@@ -4917,12 +4917,12 @@
         </is>
       </c>
       <c r="E217">
-        <v>0.8414915850841491</v>
+        <v>0.8140879787637467</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.09030909690903091</v>
+        <v>0.1055176336746303</v>
       </c>
       <c r="B218">
         <v>19</v>
@@ -4938,12 +4938,12 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.9318006819931801</v>
+        <v>0.9196056124383769</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.0466120338796612</v>
+        <v>0.05599797749968399</v>
       </c>
       <c r="B219">
         <v>20</v>
@@ -4959,12 +4959,12 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.9784127158728413</v>
+        <v>0.975603589938061</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.01006489935100649</v>
+        <v>0.01125015800783719</v>
       </c>
       <c r="B220">
         <v>21</v>
@@ -4980,12 +4980,12 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.9884776152238478</v>
+        <v>0.9868537479458981</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.007204927950720493</v>
+        <v>0.007742384022247503</v>
       </c>
       <c r="B221">
         <v>22</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.9956825431745683</v>
+        <v>0.9945961319681457</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.001319986800131999</v>
+        <v>0.001422070534698521</v>
       </c>
       <c r="B222">
         <v>23</v>
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.9970025299747003</v>
+        <v>0.9960182025028441</v>
       </c>
     </row>
     <row r="223">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="E223">
-        <v>0.9970025299747003</v>
+        <v>0.9960182025028441</v>
       </c>
     </row>
     <row r="224">
@@ -5064,12 +5064,12 @@
         </is>
       </c>
       <c r="E224">
-        <v>0.9970025299747003</v>
+        <v>0.9960182025028441</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.002997470025299747</v>
+        <v>0.003981797497155859</v>
       </c>
       <c r="B225">
         <v>26</v>

--- a/sf_fitted_sizes_y2plus.xlsx
+++ b/sf_fitted_sizes_y2plus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,10 +386,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -402,15 +402,15 @@
         </is>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -423,15 +423,15 @@
         </is>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8.416799932665601e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.02442181682302857</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -444,15 +444,15 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.02442181682302857</v>
+        <v>1.26251998989984e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.02248675483431866</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.04690857165734723</v>
+        <v>1.68335998653312e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.04572974079066188</v>
+        <v>0.03100749095194007</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.0926383124480091</v>
+        <v>0.03102432455180541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.1128830644264432</v>
+        <v>0.02846561737227506</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -507,15 +507,15 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.2055213768744523</v>
+        <v>0.05948994192408046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.08279841102496008</v>
+        <v>0.05606430435148557</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -528,15 +528,15 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.2883197878994124</v>
+        <v>0.115554246275566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.09689989724153578</v>
+        <v>0.1254986953960104</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -549,15 +549,15 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.3852196851409481</v>
+        <v>0.2410529416715765</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.3819678913162425</v>
+        <v>0.09122127767022978</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.7671875764571907</v>
+        <v>0.3322742193418062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.06795403894145437</v>
+        <v>0.100113626799091</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -591,15 +591,15 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.8351416153986451</v>
+        <v>0.4323878461408973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.04588988385179649</v>
+        <v>0.3693123474455012</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.8810314992504416</v>
+        <v>0.8017001935863984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.02619228733223902</v>
+        <v>0.06239794630081643</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -633,15 +633,15 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.9072237865826806</v>
+        <v>0.8640981398872148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.04984007935978363</v>
+        <v>0.04082147967342816</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -654,15 +654,15 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.9570638659424642</v>
+        <v>0.904919619560643</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.0164769416234058</v>
+        <v>0.02224981062200151</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -675,15 +675,15 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.97354080756587</v>
+        <v>0.9271694301826445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.01346981080876694</v>
+        <v>0.03987458968100328</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.9870106183746369</v>
+        <v>0.9670440198636479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01051606101450629</v>
+        <v>0.01299974749600202</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -717,15 +717,15 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.9975266793891432</v>
+        <v>0.9800437673596498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.002166379743682134</v>
+        <v>0.01042841511657268</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -738,15 +738,15 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.9996930591328254</v>
+        <v>0.9904721824762226</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0</v>
+        <v>0.007840249137278007</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -759,15 +759,15 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.9996930591328254</v>
+        <v>0.9983124316135006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0</v>
+        <v>0.001489773588081811</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.9996930591328254</v>
+        <v>0.9998022052015824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.0003069408671746761</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -801,15 +801,15 @@
         </is>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.9998064136015488</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.999810622001515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0</v>
+        <v>0.0001725443986196448</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -843,15 +843,15 @@
         </is>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.9999831664001347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -864,15 +864,15 @@
         </is>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.999987374800101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.9999915832000673</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -906,19 +906,19 @@
         </is>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.9999957916000337</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.001942270370883375</v>
+        <v>4.2083999663328e-06</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -927,15 +927,15 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.001942270370883375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.00552410952039306</v>
+        <v>7.65872711955273e-07</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.007466379891276435</v>
+        <v>7.65872711955273e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.004482162394346251</v>
+        <v>7.65872711955273e-07</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -969,15 +969,15 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.01194854228562269</v>
+        <v>1.531745423910546e-06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.01444485773025164</v>
+        <v>0.002558780730642567</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -990,15 +990,15 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.02639340001587432</v>
+        <v>0.002560312476066478</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.04346452477406322</v>
+        <v>0.007268897909167496</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1011,15 +1011,15 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.06985792478993755</v>
+        <v>0.009829210385233975</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.07095667709910715</v>
+        <v>0.005920961936126216</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1032,15 +1032,15 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.1408146018890447</v>
+        <v>0.01575017232136019</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.07723326075757882</v>
+        <v>0.01902351229225703</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1053,15 +1053,15 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.2180478626466235</v>
+        <v>0.03477368461361722</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.140808376663497</v>
+        <v>0.05543616450945853</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.3588562393101205</v>
+        <v>0.09020984912307574</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.1677316990041196</v>
+        <v>0.08207245155855097</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1095,15 +1095,15 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.52658793831424</v>
+        <v>0.1722823006816267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.1866805074181344</v>
+        <v>0.08852492915677414</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1116,15 +1116,15 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.7132684457323745</v>
+        <v>0.2608072298384009</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.08327328584523779</v>
+        <v>0.1513517653366011</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1137,15 +1137,15 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.7965417315776122</v>
+        <v>0.4121589951750019</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.04598496296768952</v>
+        <v>0.1687186949528988</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1158,15 +1158,15 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.8425266945453017</v>
+        <v>0.5808776901279007</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.05511269992700923</v>
+        <v>0.1783303974879375</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1179,15 +1179,15 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.897639394472311</v>
+        <v>0.7592080876158382</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.04464264870896604</v>
+        <v>0.07706440989507544</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.9422820431812771</v>
+        <v>0.8362724975109137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.01267922813428434</v>
+        <v>0.0406456306961783</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1221,15 +1221,15 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.9549612713155613</v>
+        <v>0.8769181282070919</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.00966155005003525</v>
+        <v>0.04587271195527303</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1242,15 +1242,15 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.9646228213655966</v>
+        <v>0.922790840162365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01347450069800341</v>
+        <v>0.03664394577621199</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1263,15 +1263,15 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.9780973220636</v>
+        <v>0.959434785938577</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.002455851478568883</v>
+        <v>0.01021444435934748</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1284,15 +1284,15 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.9805531735421689</v>
+        <v>0.9696492302979245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.003737469788202264</v>
+        <v>0.007493298613770391</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1305,15 +1305,15 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.9842906433303712</v>
+        <v>0.9771425289116948</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01116416386661209</v>
+        <v>0.009643869188940798</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1326,15 +1326,15 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.9954548071969832</v>
+        <v>0.9867863981006356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.0005672736780344473</v>
+        <v>0.001747721528681933</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1347,15 +1347,15 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.9960220808750178</v>
+        <v>0.9885341196293176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.00396002160153265</v>
+        <v>0.002413264915371065</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1368,15 +1368,15 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.9999821024765504</v>
+        <v>0.9909473845446887</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.789752344964648e-005</v>
+        <v>0.006457838707206862</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1389,15 +1389,15 @@
         </is>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.9974052232518955</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0</v>
+        <v>0.0003270276480049016</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1410,19 +1410,19 @@
         </is>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.9977322508999005</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0</v>
+        <v>0.002257792754844145</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1431,19 +1431,19 @@
         </is>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.9999900436547445</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.005279630873706522</v>
+        <v>9.190472543463276e-06</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1452,19 +1452,19 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.005279630873706522</v>
+        <v>0.999999234127288</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.006435754422693351</v>
+        <v>7.65872711955273e-07</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1473,15 +1473,15 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.01171538529639987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01305482212882966</v>
+        <v>1.00391325386356e-06</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1494,15 +1494,15 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.02477020742522953</v>
+        <v>1.00391325386356e-06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.009016722129350436</v>
+        <v>1.00391325386356e-06</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1515,15 +1515,15 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.03378692955457997</v>
+        <v>2.00782650772712e-06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.03056019914488519</v>
+        <v>0.006812555340718119</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1536,15 +1536,15 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.06434712869946516</v>
+        <v>0.006814563167225846</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.09385952578103436</v>
+        <v>0.008294331303420733</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1557,15 +1557,15 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.1582066544804995</v>
+        <v>0.01510889447064658</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.09857151040771582</v>
+        <v>0.01688983658300054</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1578,15 +1578,15 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.2567781648882154</v>
+        <v>0.03199873105364712</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.1104816660677738</v>
+        <v>0.01162832721950162</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1599,15 +1599,15 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.3672598309559892</v>
+        <v>0.04362705827314873</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.1752672884736565</v>
+        <v>0.03817078973840028</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1620,15 +1620,15 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.5425271194296457</v>
+        <v>0.08179784801154902</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.1937225615948256</v>
+        <v>0.1063184292371665</v>
       </c>
       <c r="B61">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1641,15 +1641,15 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.7362496810244713</v>
+        <v>0.1881162772487155</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.166932783393483</v>
+        <v>0.1106462992745723</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.9031824644179542</v>
+        <v>0.2987625765232877</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.04430348763937278</v>
+        <v>0.1162983308938241</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1683,15 +1683,15 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.947485952057327</v>
+        <v>0.4150609074171119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.0194812025768015</v>
+        <v>0.1726519974862012</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1704,15 +1704,15 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.9669671546341285</v>
+        <v>0.5877129049033131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.01479838142703142</v>
+        <v>0.1812304362404653</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1725,15 +1725,15 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.9817655360611599</v>
+        <v>0.7689433411437785</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.008324089552705173</v>
+        <v>0.1512897273572385</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1746,15 +1746,15 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.9900896256138652</v>
+        <v>0.9202330685010169</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.004871342196947209</v>
+        <v>0.03834848238433414</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1767,15 +1767,15 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.9949609678108123</v>
+        <v>0.9585815508853511</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.003239229042656793</v>
+        <v>0.0158798998496138</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1788,15 +1788,15 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.9982001968534692</v>
+        <v>0.9744614507349649</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.0005811864327339197</v>
+        <v>0.01189637205828319</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1809,15 +1809,15 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.998781383286203</v>
+        <v>0.9863578227932481</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.0001572744647720822</v>
+        <v>0.006567600506775411</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1830,15 +1830,15 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.9989386577509751</v>
+        <v>0.9929254233000235</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.000393706938303623</v>
+        <v>0.003699420340487219</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1851,15 +1851,15 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.9993323646892788</v>
+        <v>0.9966248436405107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.000619723884366814</v>
+        <v>0.002270851780239373</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1872,15 +1872,15 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.9999520885736456</v>
+        <v>0.9988956954207501</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0</v>
+        <v>0.0004055809545608783</v>
       </c>
       <c r="B73">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1893,15 +1893,15 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.9999520885736456</v>
+        <v>0.999301276375311</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4.791142635440915e-005</v>
+        <v>9.938741213249246e-05</v>
       </c>
       <c r="B74">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1914,15 +1914,15 @@
         </is>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0.9994006637874435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0</v>
+        <v>0.0002228687423577104</v>
       </c>
       <c r="B75">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1935,19 +1935,19 @@
         </is>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.9996235325298012</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.0004235390330810379</v>
+        <v>0.0003493618123445189</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1956,19 +1956,19 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.0004235390330810379</v>
+        <v>0.9999728943421458</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.001864009370647254</v>
+        <v>1.00391325386356e-06</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1977,19 +1977,19 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.002287548403728293</v>
+        <v>0.9999738982553996</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.002713685835785287</v>
+        <v>2.5097831346589e-05</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1998,19 +1998,19 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.005001234239513579</v>
+        <v>0.9999989960867461</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.004156070783123262</v>
+        <v>1.00391325386356e-06</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2019,15 +2019,15 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.009157305022636841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.01282651789237021</v>
+        <v>0.0005235539451370377</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2040,15 +2040,15 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.02198382291500705</v>
+        <v>0.0005235539451370377</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.04110803937805269</v>
+        <v>0.002297365290653045</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2061,15 +2061,15 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.06309186229305974</v>
+        <v>0.002820919235790082</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.07128297317016299</v>
+        <v>0.003345732632322687</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2082,15 +2082,15 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.1343748354632227</v>
+        <v>0.006166651868112769</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.1207960126883925</v>
+        <v>0.005117528855605786</v>
       </c>
       <c r="B83">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2103,15 +2103,15 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.2551708481516152</v>
+        <v>0.01128418072371856</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.1474625608315971</v>
+        <v>0.01585523361878799</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2124,15 +2124,15 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.4026334089832123</v>
+        <v>0.02713941434250655</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.1774502731395976</v>
+        <v>0.05065765403247999</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2145,15 +2145,15 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.5800836821228099</v>
+        <v>0.07779706837498654</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.1635921908537724</v>
+        <v>0.08507040018438368</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2166,15 +2166,15 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.7436758729765823</v>
+        <v>0.1628674685593702</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.1103968097130889</v>
+        <v>0.1307357148299772</v>
       </c>
       <c r="B87">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2187,15 +2187,15 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.8540726826896712</v>
+        <v>0.2936031833893474</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.06389736597560651</v>
+        <v>0.1581535938760435</v>
       </c>
       <c r="B88">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2208,15 +2208,15 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.9179700486652777</v>
+        <v>0.4517567772653909</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.02296027389860364</v>
+        <v>0.1784735826921151</v>
       </c>
       <c r="B89">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2229,15 +2229,15 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.9409303225638813</v>
+        <v>0.6302303599575061</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.01374142784758886</v>
+        <v>0.153974608200414</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2250,15 +2250,15 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.9546717504114702</v>
+        <v>0.7842049681579201</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.01331446986848682</v>
+        <v>0.09867801684264352</v>
       </c>
       <c r="B91">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2271,15 +2271,15 @@
         </is>
       </c>
       <c r="E91">
-        <v>0.9679862202799571</v>
+        <v>0.8828829850005636</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.009640196958642378</v>
+        <v>0.05533072249059032</v>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2292,15 +2292,15 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.9776264172385994</v>
+        <v>0.9382137074911538</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.007082551819255367</v>
+        <v>0.01898937841665549</v>
       </c>
       <c r="B93">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2313,15 +2313,15 @@
         </is>
       </c>
       <c r="E93">
-        <v>0.9847089690578548</v>
+        <v>0.9572030859078093</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.00411039366428275</v>
+        <v>0.01070231417896678</v>
       </c>
       <c r="B94">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2334,15 +2334,15 @@
         </is>
       </c>
       <c r="E94">
-        <v>0.9888193627221376</v>
+        <v>0.9679054000867762</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.004062938693511319</v>
+        <v>0.01022624155144261</v>
       </c>
       <c r="B95">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2355,15 +2355,15 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.9928823014156488</v>
+        <v>0.9781316416382188</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.003192748552247307</v>
+        <v>0.007266530771861085</v>
       </c>
       <c r="B96">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2376,15 +2376,15 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.9960750499678961</v>
+        <v>0.9853981724100799</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.001783459002392578</v>
+        <v>0.005139569255028203</v>
       </c>
       <c r="B97">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2397,15 +2397,15 @@
         </is>
       </c>
       <c r="E97">
-        <v>0.9978585089702887</v>
+        <v>0.9905377416651081</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.0009061574534048941</v>
+        <v>0.002752656970150372</v>
       </c>
       <c r="B98">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2418,15 +2418,15 @@
         </is>
       </c>
       <c r="E98">
-        <v>0.9987646664236937</v>
+        <v>0.9932903986352585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0002945763891690525</v>
+        <v>0.002706435103933078</v>
       </c>
       <c r="B99">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2439,15 +2439,15 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.9990592428128626</v>
+        <v>0.9959968337391916</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0006878919394244819</v>
+        <v>0.001929227647728926</v>
       </c>
       <c r="B100">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2460,15 +2460,15 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.9997471347522872</v>
+        <v>0.9979260613869204</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0002528652477128961</v>
+        <v>0.0009653694947018028</v>
       </c>
       <c r="B101">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2481,19 +2481,19 @@
         </is>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0.9988914308816222</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0008899732497293354</v>
+        <v>0.0004886671414798428</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2502,19 +2502,19 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.0008899732497293354</v>
+        <v>0.9993800980231021</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0005751767851443555</v>
+        <v>0.0001571795341667123</v>
       </c>
       <c r="B103">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2523,19 +2523,19 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.001465150034873691</v>
+        <v>0.9995372775572688</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.001159361020750287</v>
+        <v>0.0003384145899887468</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2544,19 +2544,19 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.002624511055623978</v>
+        <v>0.9998756921472576</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.004121976479782499</v>
+        <v>0.0001243078527424239</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2565,15 +2565,15 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.006746487535406477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.02144646096807063</v>
+        <v>0.001091712784827433</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2586,15 +2586,15 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.02819294850347711</v>
+        <v>0.001091712784827433</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.04532381923699837</v>
+        <v>0.0007034520579473406</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2607,15 +2607,15 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.07351676774047548</v>
+        <v>0.001795164842774773</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.08642918012792994</v>
+        <v>0.00141844585553527</v>
       </c>
       <c r="B108">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2628,15 +2628,15 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.1599459478684054</v>
+        <v>0.003213610698310043</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.1084600110522346</v>
+        <v>0.005036611501394471</v>
       </c>
       <c r="B109">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2649,15 +2649,15 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.26840595892064</v>
+        <v>0.008250222199704515</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.1390286049697169</v>
+        <v>0.02630829225619709</v>
       </c>
       <c r="B110">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2670,15 +2670,15 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.4074345638903569</v>
+        <v>0.0345585144559016</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.1544436956807789</v>
+        <v>0.05542648892048157</v>
       </c>
       <c r="B111">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2691,15 +2691,15 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.5618782595711358</v>
+        <v>0.08998500337638317</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.1747162165587955</v>
+        <v>0.1023590212570838</v>
       </c>
       <c r="B112">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.7365944761299312</v>
+        <v>0.192344024633467</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.1577860169639079</v>
+        <v>0.1164889111463417</v>
       </c>
       <c r="B113">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2733,15 +2733,15 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.8943804930938392</v>
+        <v>0.3088329357798087</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.05151695216105916</v>
+        <v>0.1479703638677694</v>
       </c>
       <c r="B114">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2754,15 +2754,15 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.9458974452548983</v>
+        <v>0.4568032996475781</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.02100305296854459</v>
+        <v>0.1541488438019882</v>
       </c>
       <c r="B115">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2775,15 +2775,15 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.9669004982234429</v>
+        <v>0.6109521434495663</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.01268601894183258</v>
+        <v>0.1631895903013404</v>
       </c>
       <c r="B116">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2796,15 +2796,15 @@
         </is>
       </c>
       <c r="E116">
-        <v>0.9795865171652755</v>
+        <v>0.7741417337509067</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.007134457927452508</v>
+        <v>0.1399604814229335</v>
       </c>
       <c r="B117">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2817,15 +2817,15 @@
         </is>
       </c>
       <c r="E117">
-        <v>0.9867209750927281</v>
+        <v>0.9141022151738403</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0046151576076323</v>
+        <v>0.04426978510893238</v>
       </c>
       <c r="B118">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2838,15 +2838,15 @@
         </is>
       </c>
       <c r="E118">
-        <v>0.9913361327003603</v>
+        <v>0.9583720002827726</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.001619391016488927</v>
+        <v>0.01723818221334753</v>
       </c>
       <c r="B119">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2859,15 +2859,15 @@
         </is>
       </c>
       <c r="E119">
-        <v>0.9929555237168493</v>
+        <v>0.9756101824961201</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.003023624685354433</v>
+        <v>0.00980487755614526</v>
       </c>
       <c r="B120">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2880,15 +2880,15 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.9959791484022037</v>
+        <v>0.9854150600522654</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.002756837003126514</v>
+        <v>0.005437856685370225</v>
       </c>
       <c r="B121">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2901,15 +2901,15 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.9987359854053302</v>
+        <v>0.9908529167376356</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.0006334930623595081</v>
+        <v>0.003452253138525741</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2922,15 +2922,15 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.9993694784676896</v>
+        <v>0.9943051698761614</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3.760842718493122e-005</v>
+        <v>0.001166140032362698</v>
       </c>
       <c r="B123">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2943,15 +2943,15 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.9994070868948746</v>
+        <v>0.9954713099085241</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0</v>
+        <v>0.002009450817719523</v>
       </c>
       <c r="B124">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2964,15 +2964,15 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.9994070868948746</v>
+        <v>0.9974807607262436</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0001796847076613381</v>
+        <v>0.001822321877223217</v>
       </c>
       <c r="B125">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2985,15 +2985,15 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.999586771602536</v>
+        <v>0.9993030826034668</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.0002066141987320296</v>
+        <v>0.0003798590193476049</v>
       </c>
       <c r="B126">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3006,15 +3006,15 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.999793385801268</v>
+        <v>0.9996829416228143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.0002066141987320296</v>
+        <v>2.019804437102993e-05</v>
       </c>
       <c r="B127">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3027,19 +3027,19 @@
         </is>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0.9997031396671854</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.006791154293811042</v>
+        <v>8.486573265138625e-08</v>
       </c>
       <c r="B128">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3048,19 +3048,19 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.006791154293811042</v>
+        <v>0.999703224532918</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.006915135873690603</v>
+        <v>9.513448630220399e-05</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3069,19 +3069,19 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.01370629016750164</v>
+        <v>0.9997983590192203</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.00983249835534639</v>
+        <v>0.0001008204903898469</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.02353878852284803</v>
+        <v>0.9998991795096102</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.01795202671929558</v>
+        <v>0.0001008204903898469</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3111,15 +3111,15 @@
         </is>
       </c>
       <c r="E131">
-        <v>0.04149081524214362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.03306006781033349</v>
+        <v>2.272892574005382e-06</v>
       </c>
       <c r="B132">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3132,15 +3132,15 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.0745508830524771</v>
+        <v>2.272892574005382e-06</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.06442993775618643</v>
+        <v>0.008164230125827333</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3153,15 +3153,15 @@
         </is>
       </c>
       <c r="E133">
-        <v>0.1389808208086635</v>
+        <v>0.008166503018401338</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.1331258539547594</v>
+        <v>0.008314241035711689</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3174,15 +3174,15 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.2721066747634229</v>
+        <v>0.01648074405411303</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.2046859976721826</v>
+        <v>0.01180994981453197</v>
       </c>
       <c r="B135">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3195,15 +3195,15 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.4767926724356055</v>
+        <v>0.02829069386864499</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.2319442335914174</v>
+        <v>0.02164475598225326</v>
       </c>
       <c r="B136">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3216,15 +3216,15 @@
         </is>
       </c>
       <c r="E136">
-        <v>0.7087369060270229</v>
+        <v>0.04993544985089825</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.1264384393502353</v>
+        <v>0.0397392537639101</v>
       </c>
       <c r="B137">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3237,15 +3237,15 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.8351753453772582</v>
+        <v>0.08967470361480835</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.06319518243003897</v>
+        <v>0.07500318204960361</v>
       </c>
       <c r="B138">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3258,15 +3258,15 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.8983705278072972</v>
+        <v>0.164677885664412</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.0492130965032134</v>
+        <v>0.1405374936359008</v>
       </c>
       <c r="B139">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3279,15 +3279,15 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9475836243105106</v>
+        <v>0.3052153793003128</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.02794646019938262</v>
+        <v>0.2141269365044731</v>
       </c>
       <c r="B140">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3300,15 +3300,15 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.9755300845098932</v>
+        <v>0.5193423158047858</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.009867921663883407</v>
+        <v>0.2275460942614008</v>
       </c>
       <c r="B141">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3321,15 +3321,15 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.9853980061737766</v>
+        <v>0.7468884100661867</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.003312079348211123</v>
+        <v>0.1160788966470289</v>
       </c>
       <c r="B142">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3342,15 +3342,15 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.9887100855219877</v>
+        <v>0.8629673067132155</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.00754769495470877</v>
+        <v>0.05509718888646447</v>
       </c>
       <c r="B143">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3363,15 +3363,15 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.9962577804766964</v>
+        <v>0.91806449559968</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>6.072567177774404e-005</v>
+        <v>0.04156893228598443</v>
       </c>
       <c r="B144">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3384,15 +3384,15 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.9963185061484743</v>
+        <v>0.9596334278856644</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0006300288446940944</v>
+        <v>0.02254482144155939</v>
       </c>
       <c r="B145">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3405,15 +3405,15 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.9969485349931684</v>
+        <v>0.9821782493272239</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.000465563483629371</v>
+        <v>0.007495999709069751</v>
       </c>
       <c r="B146">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3426,15 +3426,15 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.9974140984767977</v>
+        <v>0.9896742490362935</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.002585901523202267</v>
+        <v>0.002481998690813877</v>
       </c>
       <c r="B147">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3447,15 +3447,15 @@
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0.9921562477271074</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0</v>
+        <v>0.005550403665721144</v>
       </c>
       <c r="B148">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3468,15 +3468,15 @@
         </is>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0.9977066513928285</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0</v>
+        <v>4.318495890610226e-05</v>
       </c>
       <c r="B149">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3489,15 +3489,15 @@
         </is>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0.9977498363517346</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0</v>
+        <v>0.0004113935558949742</v>
       </c>
       <c r="B150">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3510,15 +3510,15 @@
         </is>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0.9981612299076297</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0</v>
+        <v>0.0003022947123427158</v>
       </c>
       <c r="B151">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3531,15 +3531,15 @@
         </is>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0.9984635246199723</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0</v>
+        <v>0.001525110917157611</v>
       </c>
       <c r="B152">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3552,19 +3552,19 @@
         </is>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0.99998863553713</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.03091761957127488</v>
+        <v>2.272892574005382e-06</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3573,19 +3573,19 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.03091761957127488</v>
+        <v>0.999990908429704</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.05078929409065036</v>
+        <v>2.272892574005382e-06</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3594,19 +3594,19 @@
         </is>
       </c>
       <c r="E154">
-        <v>0.08170691366192524</v>
+        <v>0.999993181322278</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.05667659058330576</v>
+        <v>2.272892574005382e-06</v>
       </c>
       <c r="B155">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3615,19 +3615,19 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.138383504245231</v>
+        <v>0.999995454214852</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.06972668997147992</v>
+        <v>2.272892574005382e-06</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3636,19 +3636,19 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.2081101942167109</v>
+        <v>0.999997727107426</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.1138925892481963</v>
+        <v>2.272892574005382e-06</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3657,15 +3657,15 @@
         </is>
       </c>
       <c r="E157">
-        <v>0.3220027834649072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.182194765059469</v>
+        <v>0.03378405425633474</v>
       </c>
       <c r="B158">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3678,15 +3678,15 @@
         </is>
       </c>
       <c r="E158">
-        <v>0.5041975485243762</v>
+        <v>0.03378405425633474</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.1168280420678701</v>
+        <v>0.05533229093758605</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3699,15 +3699,15 @@
         </is>
       </c>
       <c r="E159">
-        <v>0.6210255905922463</v>
+        <v>0.08911634519392078</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.07695058604750964</v>
+        <v>0.06176740665443126</v>
       </c>
       <c r="B160">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3720,15 +3720,15 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.6979761766397559</v>
+        <v>0.150883751848352</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.06312564632114748</v>
+        <v>0.0758931224928219</v>
       </c>
       <c r="B161">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3741,15 +3741,15 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.7611018229609033</v>
+        <v>0.2267768743411739</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.07525040753621634</v>
+        <v>0.124450649758668</v>
       </c>
       <c r="B162">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3762,15 +3762,15 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.8363522304971197</v>
+        <v>0.3512275240998419</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.04441325215390713</v>
+        <v>0.1984660042722861</v>
       </c>
       <c r="B163">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3783,15 +3783,15 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.8807654826510268</v>
+        <v>0.549693528372128</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.04710880248425733</v>
+        <v>0.123246112547202</v>
       </c>
       <c r="B164">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3804,15 +3804,15 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9278742851352841</v>
+        <v>0.67293964091933</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.02564870527159644</v>
+        <v>0.07361748119502706</v>
       </c>
       <c r="B165">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3825,15 +3825,15 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.9535229904068806</v>
+        <v>0.746557122114357</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.02637586312743441</v>
+        <v>0.05984596965245523</v>
       </c>
       <c r="B166">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3846,15 +3846,15 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.9798988535343151</v>
+        <v>0.8064030917668122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.01399629864730758</v>
+        <v>0.0669021559153937</v>
       </c>
       <c r="B167">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3867,15 +3867,15 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.9938951521816226</v>
+        <v>0.873305247682206</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.002814756536225276</v>
+        <v>0.03695127143572829</v>
       </c>
       <c r="B168">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3888,15 +3888,15 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.9967099087178478</v>
+        <v>0.9102565191179343</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001934120690323138</v>
+        <v>0.03722177677123376</v>
       </c>
       <c r="B169">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3909,15 +3909,15 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.998644029408171</v>
+        <v>0.947478295889168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0003576186176252336</v>
+        <v>0.01963286482132698</v>
       </c>
       <c r="B170">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3930,15 +3930,15 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9990016480257963</v>
+        <v>0.967111160710495</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0</v>
+        <v>0.01928229961073918</v>
       </c>
       <c r="B171">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3951,15 +3951,15 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.9990016480257963</v>
+        <v>0.9863934603212342</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.980155146876946e-006</v>
+        <v>0.009636297691728237</v>
       </c>
       <c r="B172">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3972,15 +3972,15 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9990046281809432</v>
+        <v>0.9960297580129625</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0009953718190569001</v>
+        <v>0.001911732774693316</v>
       </c>
       <c r="B173">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3993,15 +3993,15 @@
         </is>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0.9979414907876557</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0</v>
+        <v>0.001289449200189718</v>
       </c>
       <c r="B174">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4014,15 +4014,15 @@
         </is>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0.9992309399878454</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0</v>
+        <v>0.0002292623695539573</v>
       </c>
       <c r="B175">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4035,15 +4035,15 @@
         </is>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0.9994602023573994</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B176">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4056,15 +4056,15 @@
         </is>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0.9994614153858098</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B177">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4077,15 +4077,15 @@
         </is>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0.9994626284142201</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0</v>
+        <v>0.0005313064437282186</v>
       </c>
       <c r="B178">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4098,19 +4098,19 @@
         </is>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0.9999939348579483</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.02958122139658482</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B179">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4119,19 +4119,19 @@
         </is>
       </c>
       <c r="E179">
-        <v>0.02958122139658482</v>
+        <v>0.9999951478863587</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.04844052950150091</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B180">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4140,19 +4140,19 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.07802175089808573</v>
+        <v>0.999996360914769</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.05405541065892427</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4161,19 +4161,19 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.13207716155701</v>
+        <v>0.9999975739431793</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.06650263274445155</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B182">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4182,19 +4182,19 @@
         </is>
       </c>
       <c r="E182">
-        <v>0.1985797943014616</v>
+        <v>0.9999987869715896</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1086265439692929</v>
+        <v>1.213028410338399e-06</v>
       </c>
       <c r="B183">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4203,15 +4203,15 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.3072063382707544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.1737690074307367</v>
+        <v>0.03269624271827114</v>
       </c>
       <c r="B184">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4224,15 +4224,15 @@
         </is>
       </c>
       <c r="E184">
-        <v>0.4809753457014911</v>
+        <v>0.03269624271827114</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.1114246346144383</v>
+        <v>0.05338277847278978</v>
       </c>
       <c r="B185">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4245,15 +4245,15 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.5923999803159293</v>
+        <v>0.08607902119106092</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.07339107327395306</v>
+        <v>0.05959170108816791</v>
       </c>
       <c r="B186">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4266,15 +4266,15 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.6657910535898824</v>
+        <v>0.1456707222792288</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.06020668274199104</v>
+        <v>0.07321990469745558</v>
       </c>
       <c r="B187">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4287,15 +4287,15 @@
         </is>
       </c>
       <c r="E187">
-        <v>0.7259977363318735</v>
+        <v>0.2188906269766844</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.07177107425815658</v>
+        <v>0.1200669487322111</v>
       </c>
       <c r="B188">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4308,15 +4308,15 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.79776881059003</v>
+        <v>0.3389575757088955</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.04224398405590276</v>
+        <v>0.1914755829901224</v>
       </c>
       <c r="B189">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4329,15 +4329,15 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.8400127946459328</v>
+        <v>0.5304331586990179</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.06320948772206092</v>
+        <v>0.1189042817870934</v>
       </c>
       <c r="B190">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4350,15 +4350,15 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.9032222823679937</v>
+        <v>0.6493374404861112</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.03441562915210866</v>
+        <v>0.07102509473024721</v>
       </c>
       <c r="B191">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4371,15 +4371,15 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9376379115201023</v>
+        <v>0.7203625352163584</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.03538999065006643</v>
+        <v>0.05773775936609551</v>
       </c>
       <c r="B192">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4392,15 +4392,15 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.9730279021701688</v>
+        <v>0.778100294582454</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.01878057182225284</v>
+        <v>0.06454558598213228</v>
       </c>
       <c r="B193">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4413,15 +4413,15 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.9918084739924217</v>
+        <v>0.8426458805645862</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.003777373160769647</v>
+        <v>0.03555270857220885</v>
       </c>
       <c r="B194">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4434,15 +4434,15 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.9955858471531913</v>
+        <v>0.878198589136795</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.002596328920820826</v>
+        <v>0.05052079045287785</v>
       </c>
       <c r="B195">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4455,15 +4455,15 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.9981821760740121</v>
+        <v>0.9287193795896729</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0004793071207125634</v>
+        <v>0.02664796493123397</v>
       </c>
       <c r="B196">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.9986614831947247</v>
+        <v>0.9553673445209069</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0</v>
+        <v>0.02617205462727388</v>
       </c>
       <c r="B197">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4497,15 +4497,15 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.9986614831947247</v>
+        <v>0.9815393991481808</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2.952610599872053e-006</v>
+        <v>0.01307849708730846</v>
       </c>
       <c r="B198">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4518,15 +4518,15 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.9986644358053245</v>
+        <v>0.9946178962354892</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.001335564194675459</v>
+        <v>0.002594413977706514</v>
       </c>
       <c r="B199">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4539,15 +4539,15 @@
         </is>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0.9972123102131958</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0</v>
+        <v>0.001749522583650774</v>
       </c>
       <c r="B200">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4560,15 +4560,15 @@
         </is>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0.9989618327968465</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0</v>
+        <v>0.0003112493549106112</v>
       </c>
       <c r="B201">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4581,15 +4581,15 @@
         </is>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0.9992730821517571</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0</v>
+        <v>5.02015088565502e-07</v>
       </c>
       <c r="B202">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4602,15 +4602,15 @@
         </is>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0.9992735841668458</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0</v>
+        <v>2.008060354262008e-06</v>
       </c>
       <c r="B203">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4623,15 +4623,15 @@
         </is>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0.9992755922272</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0</v>
+        <v>0.0007218976973571917</v>
       </c>
       <c r="B204">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4644,19 +4644,19 @@
         </is>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0.9999974899245572</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.004076602199469094</v>
+        <v>5.02015088565502e-07</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4665,19 +4665,19 @@
         </is>
       </c>
       <c r="E205">
-        <v>0.004076602199469094</v>
+        <v>0.9999979919396457</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.003286563013525471</v>
+        <v>5.02015088565502e-07</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4686,19 +4686,19 @@
         </is>
       </c>
       <c r="E206">
-        <v>0.007363165212994564</v>
+        <v>0.9999984939547343</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.00366578182277841</v>
+        <v>5.02015088565502e-07</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4707,19 +4707,19 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.01102894703577297</v>
+        <v>0.9999989959698229</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.004487422576159778</v>
+        <v>5.02015088565502e-07</v>
       </c>
       <c r="B208">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4728,19 +4728,19 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.01551636961193275</v>
+        <v>0.9999994979849114</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.00733156364555682</v>
+        <v>5.02015088565502e-07</v>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4749,15 +4749,15 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.02284793325748957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.01175578308684111</v>
+        <v>0.005409292727159027</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4770,15 +4770,15 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.03460371634433068</v>
+        <v>0.005409292727159027</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.007521173050183289</v>
+        <v>0.004346194734538178</v>
       </c>
       <c r="B211">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4791,15 +4791,15 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.04212488939451397</v>
+        <v>0.009755487461697205</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.004961446087725951</v>
+        <v>0.004846476142830342</v>
       </c>
       <c r="B212">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4812,15 +4812,15 @@
         </is>
       </c>
       <c r="E212">
-        <v>0.04708633548223992</v>
+        <v>0.01460196360452755</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.002085703450891164</v>
+        <v>0.005940841723469452</v>
       </c>
       <c r="B213">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4833,15 +4833,15 @@
         </is>
       </c>
       <c r="E213">
-        <v>0.04917203893313108</v>
+        <v>0.020542805327997</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.2979711793704968</v>
+        <v>0.009755487461697205</v>
       </c>
       <c r="B214">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4854,15 +4854,15 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.3471432183036279</v>
+        <v>0.0302982927896942</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.1758627227910505</v>
+        <v>0.01553999124507536</v>
       </c>
       <c r="B215">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4875,15 +4875,15 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.5230059410946784</v>
+        <v>0.04583828403476956</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.1884717481987107</v>
+        <v>0.009661684697642423</v>
       </c>
       <c r="B216">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4896,15 +4896,15 @@
         </is>
       </c>
       <c r="E216">
-        <v>0.711477689293389</v>
+        <v>0.05549996873241198</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.1026102894703577</v>
+        <v>0.00575323619535989</v>
       </c>
       <c r="B217">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4917,15 +4917,15 @@
         </is>
       </c>
       <c r="E217">
-        <v>0.8140879787637467</v>
+        <v>0.06125320492777187</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.1055176336746303</v>
+        <v>0.002376336689387781</v>
       </c>
       <c r="B218">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4938,15 +4938,15 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.9196056124383769</v>
+        <v>0.06362954161715965</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.05599797749968399</v>
+        <v>0.3219936214120443</v>
       </c>
       <c r="B219">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4959,15 +4959,15 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.975603589938061</v>
+        <v>0.385623163029204</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.01125015800783719</v>
+        <v>0.1778187730598462</v>
       </c>
       <c r="B220">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4980,15 +4980,15 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.9868537479458981</v>
+        <v>0.5634419360890501</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.007742384022247503</v>
+        <v>0.1810080670377087</v>
       </c>
       <c r="B221">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5001,15 +5001,15 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.9945961319681457</v>
+        <v>0.7444500031267588</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.001422070534698521</v>
+        <v>0.09545994621974861</v>
       </c>
       <c r="B222">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5022,15 +5022,15 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.9960182025028441</v>
+        <v>0.8399099493465074</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0</v>
+        <v>0.09377149646676256</v>
       </c>
       <c r="B223">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5043,15 +5043,15 @@
         </is>
       </c>
       <c r="E223">
-        <v>0.9960182025028441</v>
+        <v>0.93368144581327</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0</v>
+        <v>0.04687011443937215</v>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5064,15 +5064,15 @@
         </is>
       </c>
       <c r="E224">
-        <v>0.9960182025028441</v>
+        <v>0.9805515602526421</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.003981797497155859</v>
+        <v>0.0092864736414233</v>
       </c>
       <c r="B225">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5085,15 +5085,15 @@
         </is>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0.9898380338940654</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0</v>
+        <v>0.006253517603652055</v>
       </c>
       <c r="B226">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -5106,15 +5106,15 @@
         </is>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0.9960915514977176</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0</v>
+        <v>0.00112563316865737</v>
       </c>
       <c r="B227">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5127,15 +5127,15 @@
         </is>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0.9972171846663749</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0</v>
+        <v>3.126758801826027e-05</v>
       </c>
       <c r="B228">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0.9972484522543932</v>
       </c>
     </row>
     <row r="229">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5169,27 +5169,132 @@
         </is>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0.9972484522543932</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0</v>
+        <v>0.002595209805515602</v>
       </c>
       <c r="B230">
+        <v>26</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E230">
+        <v>0.9998436620599087</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>3.126758801826027e-05</v>
+      </c>
+      <c r="B231">
+        <v>27</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E231">
+        <v>0.999874929647927</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>3.126758801826027e-05</v>
+      </c>
+      <c r="B232">
+        <v>28</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E232">
+        <v>0.9999061972359452</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>3.126758801826027e-05</v>
+      </c>
+      <c r="B233">
+        <v>29</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E233">
+        <v>0.9999374648239635</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>3.126758801826027e-05</v>
+      </c>
+      <c r="B234">
+        <v>30</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E234">
+        <v>0.9999687324119818</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>3.126758801826027e-05</v>
+      </c>
+      <c r="B235">
         <v>31</v>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
-      </c>
-      <c r="E230">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="E235">
         <v>1</v>
       </c>
     </row>
